--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prestamo\Desktop\Adrifelcha_Lab25\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="180">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -487,11 +487,89 @@
   <si>
     <t>Capuchino</t>
   </si>
+  <si>
+    <t>PRIMER DIA INEE</t>
+  </si>
+  <si>
+    <t>Papeles INEE</t>
+  </si>
+  <si>
+    <t>Ultima clase Emiliano</t>
+  </si>
+  <si>
+    <t>Emiliano</t>
+  </si>
+  <si>
+    <t>Cumple Jaime!</t>
+  </si>
+  <si>
+    <t>Wingstop</t>
+  </si>
+  <si>
+    <t>Hooters</t>
+  </si>
+  <si>
+    <t>Cita Nariz</t>
+  </si>
+  <si>
+    <t>Kari Feliciano proyecto</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Fridays</t>
+  </si>
+  <si>
+    <t>Frapuchino</t>
+  </si>
+  <si>
+    <t>Carnitas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Tarjeta Jaime; Cervezas</t>
+  </si>
+  <si>
+    <t>Compras</t>
+  </si>
+  <si>
+    <t>Microporo y Toallas</t>
+  </si>
+  <si>
+    <t>Jaime Justice League final</t>
+  </si>
+  <si>
+    <t>casa</t>
+  </si>
+  <si>
+    <t>Entrevista INEE</t>
+  </si>
+  <si>
+    <t>Clase Emiliano</t>
+  </si>
+  <si>
+    <t>Deposito Ale; Fotos infantiles; Taxis; Taxi a casa de Mariana</t>
+  </si>
+  <si>
+    <t>JL invito</t>
+  </si>
+  <si>
+    <t>Deadpool 2</t>
+  </si>
+  <si>
+    <t>Ale Deposito Trabajo</t>
+  </si>
+  <si>
+    <t>Boletos de Cine</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1351,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1507,7 @@
       <c r="E2" s="56"/>
       <c r="F2" s="112">
         <f>N3-D2</f>
-        <v>-5060</v>
+        <v>-7310</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>2</v>
@@ -1556,7 +1634,7 @@
       </c>
       <c r="N3" s="25">
         <f>(SUM(D2,(K11:K499)))-(SUM((J11:J499),(I11:I499)))</f>
-        <v>2703</v>
+        <v>453</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -1639,7 +1717,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>38137</v>
+        <v>35875</v>
       </c>
       <c r="Z4" s="47">
         <v>43222</v>
@@ -1707,7 +1785,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -1809,7 +1887,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>1614</v>
+        <v>1602</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -1893,7 +1971,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>1614</v>
+        <v>1602</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -2200,18 +2278,27 @@
       <c r="AA10" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AB10" s="49"/>
+      <c r="AB10" s="49" t="s">
+        <v>174</v>
+      </c>
       <c r="AC10" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="50"/>
+        <v>10</v>
+      </c>
+      <c r="AD10" s="50">
+        <v>80</v>
+      </c>
       <c r="AE10" s="50"/>
       <c r="AG10" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI10" s="98"/>
+        <v>70</v>
+      </c>
+      <c r="AH10">
+        <v>70</v>
+      </c>
+      <c r="AI10" s="98" t="s">
+        <v>115</v>
+      </c>
       <c r="AJ10" s="56"/>
       <c r="AK10" s="56"/>
       <c r="AL10" s="56"/>
@@ -2303,20 +2390,33 @@
       <c r="AA11" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AB11" s="49"/>
+      <c r="AB11" s="49" t="s">
+        <v>158</v>
+      </c>
       <c r="AC11" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="50"/>
+        <v>-720</v>
+      </c>
+      <c r="AD11" s="50">
+        <v>80</v>
+      </c>
       <c r="AE11" s="50"/>
       <c r="AG11" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI11" s="98"/>
-      <c r="AJ11" s="56"/>
-      <c r="AK11" s="56"/>
+        <v>800</v>
+      </c>
+      <c r="AH11">
+        <v>400</v>
+      </c>
+      <c r="AI11" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ11" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK11" s="56">
+        <v>400</v>
+      </c>
       <c r="AL11" s="56"/>
       <c r="AM11" s="56"/>
       <c r="AN11" s="56"/>
@@ -2410,20 +2510,33 @@
       <c r="AA12" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AB12" s="49"/>
+      <c r="AB12" s="49" t="s">
+        <v>161</v>
+      </c>
       <c r="AC12" s="41">
         <f>(SUM(AD12,AE12))-AG12</f>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="50"/>
+        <v>-70</v>
+      </c>
+      <c r="AD12" s="50">
+        <v>70</v>
+      </c>
       <c r="AE12" s="110"/>
       <c r="AG12" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="98"/>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="56"/>
+        <v>140</v>
+      </c>
+      <c r="AH12">
+        <v>70</v>
+      </c>
+      <c r="AI12" s="98" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ12" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK12" s="56">
+        <v>40</v>
+      </c>
       <c r="AL12" s="56"/>
       <c r="AM12" s="56"/>
       <c r="AN12" s="56"/>
@@ -2435,15 +2548,21 @@
       <c r="AT12" s="56"/>
       <c r="AU12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AV12" s="56"/>
-      <c r="AW12" s="56"/>
+        <v>30</v>
+      </c>
+      <c r="AV12" s="56">
+        <v>30</v>
+      </c>
+      <c r="AW12" s="56">
+        <v>1</v>
+      </c>
       <c r="AX12" s="56"/>
-      <c r="AY12" s="56"/>
+      <c r="AY12" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ12" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BA12" s="56"/>
       <c r="BB12">
@@ -2516,18 +2635,27 @@
       <c r="AA13" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AB13" s="49"/>
+      <c r="AB13" s="49" t="s">
+        <v>162</v>
+      </c>
       <c r="AC13" s="41">
         <f>(SUM(AD13,AE13))-AG13</f>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="50"/>
+        <v>-70</v>
+      </c>
+      <c r="AD13" s="50">
+        <v>80</v>
+      </c>
       <c r="AE13" s="50"/>
       <c r="AG13" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="98"/>
+        <v>150</v>
+      </c>
+      <c r="AH13">
+        <v>150</v>
+      </c>
+      <c r="AI13" s="98" t="s">
+        <v>164</v>
+      </c>
       <c r="AJ13" s="56"/>
       <c r="AK13" s="123"/>
       <c r="AL13" s="56"/>
@@ -2597,10 +2725,16 @@
         <f t="shared" si="6"/>
         <v>600</v>
       </c>
-      <c r="T14" s="36"/>
-      <c r="U14" s="57"/>
+      <c r="T14" s="36">
+        <v>43228</v>
+      </c>
+      <c r="U14" s="57" t="s">
+        <v>157</v>
+      </c>
       <c r="V14" s="35"/>
-      <c r="W14" s="37"/>
+      <c r="W14" s="37">
+        <v>100</v>
+      </c>
       <c r="X14" s="37"/>
       <c r="Z14" s="47">
         <v>43232</v>
@@ -2608,20 +2742,33 @@
       <c r="AA14" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AB14" s="49"/>
+      <c r="AB14" s="49" t="s">
+        <v>171</v>
+      </c>
       <c r="AC14" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="50"/>
+        <v>50</v>
+      </c>
+      <c r="AD14" s="50">
+        <v>200</v>
+      </c>
       <c r="AE14" s="50"/>
       <c r="AG14" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="98"/>
-      <c r="AJ14" s="56"/>
-      <c r="AK14" s="56"/>
+        <v>150</v>
+      </c>
+      <c r="AH14">
+        <v>100</v>
+      </c>
+      <c r="AI14" s="98" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ14" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK14" s="56">
+        <v>50</v>
+      </c>
       <c r="AL14" s="56"/>
       <c r="AM14" s="56"/>
       <c r="AN14" s="56"/>
@@ -2663,9 +2810,15 @@
         <f t="shared" si="5"/>
         <v>1300</v>
       </c>
-      <c r="G15" s="97"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
+      <c r="G15" s="97">
+        <v>43236</v>
+      </c>
+      <c r="H15" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="I15" s="56">
+        <v>2100</v>
+      </c>
       <c r="J15" s="56"/>
       <c r="K15" s="56"/>
       <c r="M15" s="18"/>
@@ -2683,10 +2836,16 @@
         <f>P15-Q15</f>
         <v>1000</v>
       </c>
-      <c r="T15" s="36"/>
-      <c r="U15" s="35"/>
+      <c r="T15" s="36">
+        <v>43234</v>
+      </c>
+      <c r="U15" s="35" t="s">
+        <v>157</v>
+      </c>
       <c r="V15" s="35"/>
-      <c r="W15" s="37"/>
+      <c r="W15" s="37">
+        <v>200</v>
+      </c>
       <c r="X15" s="37"/>
       <c r="Z15" s="47">
         <v>43233</v>
@@ -2694,15 +2853,22 @@
       <c r="AA15" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="AB15" s="72"/>
+      <c r="AB15" s="72" t="s">
+        <v>172</v>
+      </c>
       <c r="AC15" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="50"/>
+      <c r="AD15" s="50">
+        <v>0</v>
+      </c>
       <c r="AE15" s="50"/>
       <c r="AG15" s="51">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH15">
         <v>0</v>
       </c>
       <c r="AI15" s="56"/>
@@ -2740,10 +2906,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G16" s="97"/>
-      <c r="H16" s="56"/>
+      <c r="G16" s="97">
+        <v>43237</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>179</v>
+      </c>
       <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
+      <c r="J16" s="56">
+        <v>150</v>
+      </c>
       <c r="K16" s="56"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18" t="s">
@@ -2760,10 +2932,16 @@
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="T16" s="36"/>
-      <c r="U16" s="35"/>
+      <c r="T16" s="36">
+        <v>43236</v>
+      </c>
+      <c r="U16" s="35" t="s">
+        <v>127</v>
+      </c>
       <c r="V16" s="35"/>
-      <c r="W16" s="37"/>
+      <c r="W16" s="37">
+        <v>500</v>
+      </c>
       <c r="X16" s="37"/>
       <c r="Z16" s="47">
         <v>43234</v>
@@ -2771,21 +2949,41 @@
       <c r="AA16" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AB16" s="49"/>
+      <c r="AB16" s="49" t="s">
+        <v>156</v>
+      </c>
       <c r="AC16" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
+        <v>38</v>
+      </c>
+      <c r="AD16" s="50">
+        <v>120</v>
+      </c>
+      <c r="AE16" s="50">
+        <v>200</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>169</v>
+      </c>
       <c r="AG16" s="68">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="56"/>
-      <c r="AL16" s="56"/>
+        <v>282</v>
+      </c>
+      <c r="AH16">
+        <v>50</v>
+      </c>
+      <c r="AI16" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ16" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK16" s="56">
+        <v>80</v>
+      </c>
+      <c r="AL16" s="56">
+        <v>130</v>
+      </c>
       <c r="AM16" s="56"/>
       <c r="AN16" s="56"/>
       <c r="AO16" s="56"/>
@@ -2796,15 +2994,21 @@
       <c r="AT16" s="56"/>
       <c r="AU16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AV16" s="56"/>
-      <c r="AW16" s="56"/>
+        <v>22</v>
+      </c>
+      <c r="AV16" s="56">
+        <v>22</v>
+      </c>
+      <c r="AW16" s="56">
+        <v>2</v>
+      </c>
       <c r="AX16" s="56"/>
-      <c r="AY16" s="56"/>
+      <c r="AY16" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ16" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BA16" s="56"/>
       <c r="BB16">
@@ -2848,18 +3052,27 @@
       <c r="AA17" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AB17" s="49"/>
+      <c r="AB17" s="49" t="s">
+        <v>173</v>
+      </c>
       <c r="AC17" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="50"/>
+        <v>-85</v>
+      </c>
+      <c r="AD17" s="50">
+        <v>80</v>
+      </c>
       <c r="AE17" s="67"/>
       <c r="AG17" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI17" s="56"/>
+        <v>165</v>
+      </c>
+      <c r="AH17">
+        <v>150</v>
+      </c>
+      <c r="AI17" s="56" t="s">
+        <v>163</v>
+      </c>
       <c r="AJ17" s="98"/>
       <c r="AK17" s="56"/>
       <c r="AL17" s="56"/>
@@ -2873,7 +3086,7 @@
       <c r="AT17" s="56"/>
       <c r="AU17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AV17" s="56"/>
       <c r="AW17" s="56"/>
@@ -2883,10 +3096,12 @@
         <f>(AW17*8)+(AY17*5)</f>
         <v>0</v>
       </c>
-      <c r="BA17" s="56"/>
+      <c r="BA17" s="56">
+        <v>3</v>
+      </c>
       <c r="BB17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.25">
@@ -2925,23 +3140,42 @@
       <c r="AA18" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AB18" s="72"/>
+      <c r="AB18" s="72" t="s">
+        <v>155</v>
+      </c>
       <c r="AC18" s="69">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="50"/>
+        <v>-2265</v>
+      </c>
+      <c r="AD18" s="50">
+        <v>80</v>
+      </c>
       <c r="AE18" s="50"/>
       <c r="AG18" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="98"/>
-      <c r="AK18" s="56"/>
-      <c r="AL18" s="56"/>
-      <c r="AM18" s="56"/>
-      <c r="AN18" s="56"/>
+        <v>2345</v>
+      </c>
+      <c r="AH18">
+        <v>85</v>
+      </c>
+      <c r="AI18" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ18" s="98" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK18" s="100">
+        <v>2100</v>
+      </c>
+      <c r="AL18" s="56">
+        <v>50</v>
+      </c>
+      <c r="AM18" s="56">
+        <v>50</v>
+      </c>
+      <c r="AN18" s="56">
+        <v>50</v>
+      </c>
       <c r="AO18" s="56"/>
       <c r="AP18" s="56"/>
       <c r="AQ18" s="56"/>
@@ -2950,7 +3184,7 @@
       <c r="AT18" s="56"/>
       <c r="AU18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV18" s="56"/>
       <c r="AW18" s="56"/>
@@ -2960,10 +3194,12 @@
         <f>(AW18*8)+(AY18*5)</f>
         <v>0</v>
       </c>
-      <c r="BA18" s="56"/>
+      <c r="BA18" s="56">
+        <v>2</v>
+      </c>
       <c r="BB18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.25">
@@ -3002,19 +3238,28 @@
       <c r="AA19" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AB19" s="49"/>
+      <c r="AB19" s="49" t="s">
+        <v>154</v>
+      </c>
       <c r="AC19" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="50"/>
+        <v>140</v>
+      </c>
+      <c r="AD19" s="50">
+        <v>150</v>
+      </c>
       <c r="AE19" s="50"/>
       <c r="AG19" s="51">
         <f>SUM(AH19,AJ19,AK19,AL19,AM19,AN19,AP19,AQ19,AR19,AS19,AT19,AU19)</f>
-        <v>0</v>
-      </c>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
+        <v>10</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ19" s="98"/>
       <c r="AK19" s="56"/>
       <c r="AL19" s="56"/>
       <c r="AM19" s="56"/>
@@ -3027,7 +3272,7 @@
       <c r="AT19" s="56"/>
       <c r="AU19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV19" s="107"/>
       <c r="AW19" s="56"/>
@@ -3037,10 +3282,12 @@
         <f>(AW19*8)+(AY19*5)</f>
         <v>0</v>
       </c>
-      <c r="BA19" s="56"/>
+      <c r="BA19" s="56">
+        <v>2</v>
+      </c>
       <c r="BB19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH19" s="38"/>
     </row>
@@ -3080,20 +3327,28 @@
       <c r="AA20" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AB20" s="49"/>
+      <c r="AB20" s="49" t="s">
+        <v>177</v>
+      </c>
       <c r="AC20" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="50"/>
+        <v>60</v>
+      </c>
+      <c r="AD20" s="50">
+        <v>100</v>
+      </c>
       <c r="AE20" s="50"/>
       <c r="AG20" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI20" s="56"/>
-      <c r="AJ20" s="98"/>
-      <c r="AK20" s="56"/>
+      <c r="AJ20" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK20" s="56">
+        <v>30</v>
+      </c>
       <c r="AL20" s="56"/>
       <c r="AM20" s="56"/>
       <c r="AN20" s="56"/>
@@ -3105,7 +3360,7 @@
       <c r="AT20" s="56"/>
       <c r="AU20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV20" s="56"/>
       <c r="AW20" s="56"/>
@@ -3115,10 +3370,12 @@
         <f>(AW20*6)+(AX20*8)+(AY20*5)</f>
         <v>0</v>
       </c>
-      <c r="BA20" s="56"/>
+      <c r="BA20" s="56">
+        <v>2</v>
+      </c>
       <c r="BB20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.25">

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="188">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -564,6 +564,30 @@
   </si>
   <si>
     <t>Boletos de Cine</t>
+  </si>
+  <si>
+    <t>Deposito Amigo</t>
+  </si>
+  <si>
+    <t>Kura con papás</t>
+  </si>
+  <si>
+    <t>Vallet Parking</t>
+  </si>
+  <si>
+    <t>Primera semana</t>
+  </si>
+  <si>
+    <t>Compra sacos y pantalones</t>
+  </si>
+  <si>
+    <t>Taco Beef con Jaime</t>
+  </si>
+  <si>
+    <t>Udon</t>
+  </si>
+  <si>
+    <t>Capuchino y Americano</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1242,7 +1266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1429,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="X15" workbookViewId="0">
+      <selection activeCell="AJ24" sqref="AJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1741,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>35875</v>
+        <v>37175</v>
       </c>
       <c r="Z4" s="47">
         <v>43222</v>
@@ -1887,7 +1911,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>1602</v>
+        <v>802</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -1971,7 +1995,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>1602</v>
+        <v>802</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -2133,7 +2157,7 @@
       </c>
       <c r="R9" s="15">
         <f>SUM(R11:R481)</f>
-        <v>33820</v>
+        <v>35920</v>
       </c>
       <c r="T9" s="32" t="s">
         <v>40</v>
@@ -3332,7 +3356,7 @@
       </c>
       <c r="AC20" s="41">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>-90</v>
       </c>
       <c r="AD20" s="50">
         <v>100</v>
@@ -3340,9 +3364,14 @@
       <c r="AE20" s="50"/>
       <c r="AG20" s="51">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AI20" s="56"/>
+        <v>190</v>
+      </c>
+      <c r="AH20">
+        <v>150</v>
+      </c>
+      <c r="AI20" s="56" t="s">
+        <v>185</v>
+      </c>
       <c r="AJ20" s="98" t="s">
         <v>153</v>
       </c>
@@ -3414,20 +3443,31 @@
       <c r="AA21" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AB21" s="49"/>
+      <c r="AB21" s="49" t="s">
+        <v>181</v>
+      </c>
       <c r="AC21" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-550</v>
       </c>
       <c r="AD21" s="50"/>
       <c r="AE21" s="70"/>
       <c r="AG21" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI21" s="98"/>
-      <c r="AJ21" s="98"/>
-      <c r="AK21" s="98"/>
+        <v>550</v>
+      </c>
+      <c r="AH21">
+        <v>500</v>
+      </c>
+      <c r="AI21" s="98" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ21" s="98" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK21" s="98">
+        <v>50</v>
+      </c>
       <c r="AL21" s="56"/>
       <c r="AM21" s="56"/>
       <c r="AN21" s="56"/>
@@ -3491,20 +3531,29 @@
       <c r="AA22" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="AB22" s="49"/>
+      <c r="AB22" s="49" t="s">
+        <v>184</v>
+      </c>
       <c r="AC22" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AD22" s="67"/>
       <c r="AE22" s="67"/>
       <c r="AG22" s="51">
         <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="AH22">
         <v>0</v>
       </c>
       <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="56"/>
+      <c r="AJ22" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK22" s="56">
+        <v>50</v>
+      </c>
       <c r="AL22" s="56"/>
       <c r="AM22" s="56"/>
       <c r="AN22" s="56"/>
@@ -3569,21 +3618,36 @@
       <c r="AA23" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AB23" s="49"/>
+      <c r="AB23" s="49" t="s">
+        <v>183</v>
+      </c>
       <c r="AC23" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD23" s="50"/>
+        <v>-50</v>
+      </c>
+      <c r="AD23" s="50">
+        <v>170</v>
+      </c>
       <c r="AE23" s="50"/>
       <c r="AG23" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI23" s="56"/>
-      <c r="AJ23" s="56"/>
-      <c r="AK23" s="56"/>
-      <c r="AL23" s="107"/>
+        <v>220</v>
+      </c>
+      <c r="AH23">
+        <v>160</v>
+      </c>
+      <c r="AI23" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ23" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK23" s="56">
+        <v>30</v>
+      </c>
+      <c r="AL23" s="107">
+        <v>20</v>
+      </c>
       <c r="AM23" s="56"/>
       <c r="AN23" s="56"/>
       <c r="AO23" s="56"/>
@@ -3594,7 +3658,7 @@
       <c r="AT23" s="56"/>
       <c r="AU23" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV23" s="56"/>
       <c r="AW23" s="56"/>
@@ -3604,10 +3668,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA23" s="56"/>
+      <c r="BA23" s="56">
+        <v>2</v>
+      </c>
       <c r="BB23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.25">
@@ -4643,14 +4709,22 @@
       <c r="I37" s="99"/>
       <c r="J37" s="100"/>
       <c r="K37" s="101"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="23"/>
+      <c r="M37" s="59">
+        <v>43236</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="O37" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="P37" s="23">
+        <v>2100</v>
+      </c>
       <c r="Q37" s="22"/>
       <c r="R37" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="T37" s="36"/>
       <c r="U37" s="35"/>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="190">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -587,7 +587,13 @@
     <t>Udon</t>
   </si>
   <si>
-    <t>Capuchino y Americano</t>
+    <t>Comida Corrida</t>
+  </si>
+  <si>
+    <t>Comida Corrida JL</t>
+  </si>
+  <si>
+    <t>Capuchino, Americano, Metrobus JL y Tarjeta Metro</t>
   </si>
 </sst>
 </file>
@@ -1453,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X15" workbookViewId="0">
-      <selection activeCell="AJ24" sqref="AJ24"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1747,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>37175</v>
+        <v>37552</v>
       </c>
       <c r="Z4" s="47">
         <v>43222</v>
@@ -1809,7 +1815,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -1911,7 +1917,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>802</v>
+        <v>1179</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -1995,7 +2001,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>802</v>
+        <v>1179</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -3623,7 +3629,7 @@
       </c>
       <c r="AC23" s="41">
         <f t="shared" si="3"/>
-        <v>-50</v>
+        <v>-115</v>
       </c>
       <c r="AD23" s="50">
         <v>170</v>
@@ -3631,7 +3637,7 @@
       <c r="AE23" s="50"/>
       <c r="AG23" s="51">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>285</v>
       </c>
       <c r="AH23">
         <v>160</v>
@@ -3640,7 +3646,7 @@
         <v>186</v>
       </c>
       <c r="AJ23" s="56" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AK23" s="56">
         <v>30</v>
@@ -3648,7 +3654,9 @@
       <c r="AL23" s="107">
         <v>20</v>
       </c>
-      <c r="AM23" s="56"/>
+      <c r="AM23" s="56">
+        <v>15</v>
+      </c>
       <c r="AN23" s="56"/>
       <c r="AO23" s="56"/>
       <c r="AP23" s="56"/>
@@ -3658,15 +3666,19 @@
       <c r="AT23" s="56"/>
       <c r="AU23" s="38">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="AV23" s="56"/>
+        <v>60</v>
+      </c>
+      <c r="AV23" s="56">
+        <v>50</v>
+      </c>
       <c r="AW23" s="56"/>
       <c r="AX23" s="56"/>
-      <c r="AY23" s="56"/>
+      <c r="AY23" s="56">
+        <v>1</v>
+      </c>
       <c r="AZ23" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA23" s="56">
         <v>2</v>
@@ -3714,20 +3726,33 @@
       <c r="AA24" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AB24" s="119"/>
+      <c r="AB24" s="119" t="s">
+        <v>188</v>
+      </c>
       <c r="AC24" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="50"/>
+        <v>442</v>
+      </c>
+      <c r="AD24" s="50">
+        <v>600</v>
+      </c>
       <c r="AE24" s="50"/>
       <c r="AG24" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI24" s="56"/>
-      <c r="AJ24" s="56"/>
-      <c r="AK24" s="56"/>
+        <v>158</v>
+      </c>
+      <c r="AH24">
+        <v>128</v>
+      </c>
+      <c r="AI24" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ24" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK24" s="56">
+        <v>30</v>
+      </c>
       <c r="AL24" s="93"/>
       <c r="AM24" s="56"/>
       <c r="AN24" s="56"/>
@@ -3744,10 +3769,12 @@
       <c r="AV24" s="56"/>
       <c r="AW24" s="107"/>
       <c r="AX24" s="56"/>
-      <c r="AY24" s="56"/>
+      <c r="AY24" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ24" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA24" s="56"/>
       <c r="BB24">

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="191">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -595,6 +595,9 @@
   <si>
     <t>Capuchino, Americano, Metrobus JL y Tarjeta Metro</t>
   </si>
+  <si>
+    <t>Capuchino y Chillis con Jaime</t>
+  </si>
 </sst>
 </file>
 
@@ -754,7 +757,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -941,6 +944,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -954,7 +963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1163,6 +1172,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1171,8 +1181,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD52F8E"/>
       <color rgb="FF33CC33"/>
-      <color rgb="FFD52F8E"/>
       <color rgb="FFFF9797"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF99FF99"/>
@@ -1460,7 +1470,7 @@
   <dimension ref="A1:BH963"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,12 +1719,16 @@
         <v>6</v>
       </c>
       <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
+      <c r="AW3" s="124">
+        <v>4</v>
+      </c>
+      <c r="AX3" s="124"/>
+      <c r="AY3" s="124">
+        <v>5</v>
+      </c>
       <c r="AZ3" s="56">
         <f t="shared" ref="AZ3:AZ16" si="2">(AW3*6)+(AY3*5)</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="BA3" s="56"/>
       <c r="BB3">
@@ -1747,7 +1761,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>37552</v>
+        <v>37332</v>
       </c>
       <c r="Z4" s="47">
         <v>43222</v>
@@ -1815,7 +1829,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -1917,7 +1931,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>1179</v>
+        <v>959</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2001,7 +2015,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>1179</v>
+        <v>959</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -3731,7 +3745,7 @@
       </c>
       <c r="AC24" s="41">
         <f t="shared" si="3"/>
-        <v>442</v>
+        <v>222</v>
       </c>
       <c r="AD24" s="50">
         <v>600</v>
@@ -3739,7 +3753,7 @@
       <c r="AE24" s="50"/>
       <c r="AG24" s="51">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>378</v>
       </c>
       <c r="AH24">
         <v>128</v>
@@ -3748,12 +3762,14 @@
         <v>187</v>
       </c>
       <c r="AJ24" s="56" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="AK24" s="56">
         <v>30</v>
       </c>
-      <c r="AL24" s="93"/>
+      <c r="AL24" s="93">
+        <v>220</v>
+      </c>
       <c r="AM24" s="56"/>
       <c r="AN24" s="56"/>
       <c r="AO24" s="56"/>
@@ -3770,11 +3786,11 @@
       <c r="AW24" s="107"/>
       <c r="AX24" s="56"/>
       <c r="AY24" s="56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ24" s="56">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA24" s="56"/>
       <c r="BB24">
@@ -3850,10 +3866,12 @@
       <c r="AV25" s="56"/>
       <c r="AW25" s="56"/>
       <c r="AX25" s="56"/>
-      <c r="AY25" s="56"/>
+      <c r="AY25" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ25" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA25" s="56"/>
       <c r="BB25">

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prestamo\Desktop\Adrifelcha_Lab25\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prestamo\Desktop\Adrifelcha_Lab25\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="198">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -598,12 +598,33 @@
   <si>
     <t>Capuchino y Chillis con Jaime</t>
   </si>
+  <si>
+    <t>Mariana invitó</t>
+  </si>
+  <si>
+    <t>Edgar Café</t>
+  </si>
+  <si>
+    <t>Cacahuates</t>
+  </si>
+  <si>
+    <t>Post Examen Mariana</t>
+  </si>
+  <si>
+    <t>Sushi Superama</t>
+  </si>
+  <si>
+    <t>Capuchino, PelónPeloRico, Jumex y Duvalines</t>
+  </si>
+  <si>
+    <t>Ajustando cuentas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,6 +773,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFD52F8E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -963,7 +992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1173,6 +1202,9 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1469,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AF26" sqref="AF26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,7 +1793,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>37332</v>
+        <v>37093</v>
       </c>
       <c r="Z4" s="47">
         <v>43222</v>
@@ -1829,7 +1861,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -1931,7 +1963,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>959</v>
+        <v>720</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2015,7 +2047,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>959</v>
+        <v>720</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -3836,20 +3868,31 @@
       <c r="AA25" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AB25" s="49"/>
+      <c r="AB25" s="49" t="s">
+        <v>192</v>
+      </c>
       <c r="AC25" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AD25" s="50"/>
       <c r="AE25" s="50"/>
       <c r="AG25" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="56"/>
+        <v>5</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ25" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK25" s="56">
+        <v>5</v>
+      </c>
       <c r="AL25" s="56"/>
       <c r="AM25" s="56"/>
       <c r="AN25" s="93"/>
@@ -3867,11 +3910,11 @@
       <c r="AW25" s="56"/>
       <c r="AX25" s="56"/>
       <c r="AY25" s="56">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AZ25" s="56">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="BA25" s="56"/>
       <c r="BB25">
@@ -3917,23 +3960,47 @@
       <c r="AA26" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AB26" s="49"/>
+      <c r="AB26" s="49" t="s">
+        <v>194</v>
+      </c>
       <c r="AC26" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="50"/>
+        <v>-234</v>
+      </c>
+      <c r="AD26" s="50">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="125">
+        <v>-110</v>
+      </c>
+      <c r="AF26" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="AG26" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI26" s="56"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="56"/>
-      <c r="AL26" s="56"/>
-      <c r="AM26" s="56"/>
-      <c r="AN26" s="56"/>
+        <v>124</v>
+      </c>
+      <c r="AH26">
+        <v>62</v>
+      </c>
+      <c r="AI26" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ26" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK26" s="56">
+        <v>30</v>
+      </c>
+      <c r="AL26" s="56">
+        <v>7</v>
+      </c>
+      <c r="AM26" s="56">
+        <v>15</v>
+      </c>
+      <c r="AN26" s="56">
+        <v>5</v>
+      </c>
       <c r="AO26" s="56"/>
       <c r="AP26" s="56"/>
       <c r="AQ26" s="56"/>
@@ -3942,7 +4009,7 @@
       <c r="AT26" s="56"/>
       <c r="AU26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV26" s="56"/>
       <c r="AW26" s="56"/>
@@ -3952,10 +4019,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA26" s="56"/>
+      <c r="BA26" s="56">
+        <v>1</v>
+      </c>
       <c r="BB26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.25">

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="207">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -618,6 +618,33 @@
   </si>
   <si>
     <t>Ajustando cuentas</t>
+  </si>
+  <si>
+    <t>Kebab JL</t>
+  </si>
+  <si>
+    <t>Jaime Super Gripa</t>
+  </si>
+  <si>
+    <t>Casa 13RW</t>
+  </si>
+  <si>
+    <t>Replica Analisis</t>
+  </si>
+  <si>
+    <t>Torta</t>
+  </si>
+  <si>
+    <t>Firma contrato</t>
+  </si>
+  <si>
+    <t>Capuchino; Mau; Coca y Chetos</t>
+  </si>
+  <si>
+    <t>Cervezas</t>
+  </si>
+  <si>
+    <t>Cheetos casa</t>
   </si>
 </sst>
 </file>
@@ -1501,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AF26" sqref="AF26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,7 +1820,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>37093</v>
+        <v>36934</v>
       </c>
       <c r="Z4" s="47">
         <v>43222</v>
@@ -1861,7 +1888,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -1963,7 +1990,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>720</v>
+        <v>561</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2047,7 +2074,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>720</v>
+        <v>561</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -3965,7 +3992,7 @@
       </c>
       <c r="AC26" s="41">
         <f t="shared" si="3"/>
-        <v>-234</v>
+        <v>-404</v>
       </c>
       <c r="AD26" s="50">
         <v>0</v>
@@ -3978,7 +4005,7 @@
       </c>
       <c r="AG26" s="51">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>294</v>
       </c>
       <c r="AH26">
         <v>62</v>
@@ -4001,7 +4028,9 @@
       <c r="AN26" s="56">
         <v>5</v>
       </c>
-      <c r="AO26" s="56"/>
+      <c r="AO26" s="56">
+        <v>170</v>
+      </c>
       <c r="AP26" s="56"/>
       <c r="AQ26" s="56"/>
       <c r="AR26" s="56"/>
@@ -4065,23 +4094,39 @@
       <c r="AA27" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AB27" s="49"/>
+      <c r="AB27" s="49" t="s">
+        <v>203</v>
+      </c>
       <c r="AC27" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="50"/>
+        <v>-233</v>
+      </c>
+      <c r="AD27" s="50">
+        <v>0</v>
+      </c>
       <c r="AE27" s="50"/>
       <c r="AG27" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH27" s="38"/>
-      <c r="AI27" s="56"/>
-      <c r="AJ27" s="56"/>
-      <c r="AK27" s="107"/>
-      <c r="AL27" s="56"/>
-      <c r="AM27" s="56"/>
+        <v>233</v>
+      </c>
+      <c r="AH27" s="38">
+        <v>30</v>
+      </c>
+      <c r="AI27" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ27" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK27" s="107">
+        <v>30</v>
+      </c>
+      <c r="AL27" s="56">
+        <v>150</v>
+      </c>
+      <c r="AM27" s="56">
+        <v>18</v>
+      </c>
       <c r="AN27" s="56"/>
       <c r="AO27" s="56"/>
       <c r="AP27" s="56"/>
@@ -4091,20 +4136,26 @@
       <c r="AT27" s="56"/>
       <c r="AU27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV27" s="56"/>
-      <c r="AW27" s="56"/>
+      <c r="AW27" s="56">
+        <v>1</v>
+      </c>
       <c r="AX27" s="56"/>
-      <c r="AY27" s="56"/>
+      <c r="AY27" s="56">
+        <v>1</v>
+      </c>
       <c r="AZ27" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BA27" s="56"/>
+        <v>11</v>
+      </c>
+      <c r="BA27" s="56">
+        <v>1</v>
+      </c>
       <c r="BB27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.25">
@@ -4145,20 +4196,33 @@
       <c r="AA28" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AB28" s="49"/>
+      <c r="AB28" s="49" t="s">
+        <v>199</v>
+      </c>
       <c r="AC28" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="50"/>
+        <v>-50</v>
+      </c>
+      <c r="AD28" s="50">
+        <v>0</v>
+      </c>
       <c r="AE28" s="50"/>
       <c r="AG28" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="56"/>
+        <v>50</v>
+      </c>
+      <c r="AH28">
+        <v>20</v>
+      </c>
+      <c r="AI28" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ28" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK28" s="56">
+        <v>20</v>
+      </c>
       <c r="AL28" s="56"/>
       <c r="AM28" s="56"/>
       <c r="AN28" s="56"/>
@@ -4170,7 +4234,7 @@
       <c r="AT28" s="56"/>
       <c r="AU28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV28" s="56"/>
       <c r="AW28" s="56"/>
@@ -4180,10 +4244,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA28" s="56"/>
+      <c r="BA28" s="56">
+        <v>2</v>
+      </c>
       <c r="BB28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.25">
@@ -4224,20 +4290,31 @@
       <c r="AA29" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="AB29" s="49"/>
+      <c r="AB29" s="49" t="s">
+        <v>200</v>
+      </c>
       <c r="AC29" s="69">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="50"/>
+        <v>-20</v>
+      </c>
+      <c r="AD29" s="50">
+        <v>0</v>
+      </c>
       <c r="AE29" s="83"/>
       <c r="AG29" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI29" s="56"/>
+        <v>20</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="56" t="s">
+        <v>206</v>
+      </c>
       <c r="AJ29" s="56"/>
-      <c r="AK29" s="56"/>
+      <c r="AK29" s="56">
+        <v>20</v>
+      </c>
       <c r="AL29" s="56"/>
       <c r="AM29" s="56"/>
       <c r="AN29" s="56"/>
@@ -4303,20 +4380,33 @@
       <c r="AA30" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AB30" s="49"/>
+      <c r="AB30" s="49" t="s">
+        <v>201</v>
+      </c>
       <c r="AC30" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="50"/>
+        <v>314</v>
+      </c>
+      <c r="AD30" s="50">
+        <v>500</v>
+      </c>
       <c r="AE30" s="50"/>
       <c r="AG30" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI30" s="56"/>
-      <c r="AJ30" s="56"/>
-      <c r="AK30" s="56"/>
+        <v>186</v>
+      </c>
+      <c r="AH30">
+        <v>156</v>
+      </c>
+      <c r="AI30" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ30" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK30" s="56">
+        <v>30</v>
+      </c>
       <c r="AL30" s="56"/>
       <c r="AM30" s="56"/>
       <c r="AN30" s="56"/>
@@ -4333,10 +4423,12 @@
       <c r="AV30" s="93"/>
       <c r="AW30" s="56"/>
       <c r="AX30" s="56"/>
-      <c r="AY30" s="56"/>
+      <c r="AY30" s="56">
+        <v>1</v>
+      </c>
       <c r="AZ30" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA30" s="56"/>
       <c r="BB30">

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="212">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -629,9 +629,6 @@
     <t>Casa 13RW</t>
   </si>
   <si>
-    <t>Replica Analisis</t>
-  </si>
-  <si>
     <t>Torta</t>
   </si>
   <si>
@@ -645,6 +642,24 @@
   </si>
   <si>
     <t>Cheetos casa</t>
+  </si>
+  <si>
+    <t>QUINCENA</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Replica Jueceo</t>
+  </si>
+  <si>
+    <t>Capuchino; Microporo y Desodorante</t>
+  </si>
+  <si>
+    <t>MAYO</t>
   </si>
 </sst>
 </file>
@@ -813,7 +828,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1006,6 +1021,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1019,7 +1040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1192,7 +1213,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1232,6 +1252,11 @@
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1528,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,10 +1581,10 @@
         <v>61</v>
       </c>
       <c r="D1" s="54">
-        <v>43107</v>
+        <v>43220</v>
       </c>
       <c r="E1" s="56"/>
-      <c r="F1" s="111" t="s">
+      <c r="F1" s="110" t="s">
         <v>101</v>
       </c>
       <c r="Z1" s="44"/>
@@ -1604,9 +1629,9 @@
         <v>7763</v>
       </c>
       <c r="E2" s="56"/>
-      <c r="F2" s="112">
+      <c r="F2" s="111">
         <f>N3-D2</f>
-        <v>-7310</v>
+        <v>4613</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>2</v>
@@ -1732,8 +1757,8 @@
         <v>7</v>
       </c>
       <c r="N3" s="25">
-        <f>(SUM(D2,(K11:K499)))-(SUM((J11:J499),(I11:I499)))</f>
-        <v>453</v>
+        <f>(SUM(D2,(K11:K501)))-(SUM((J11:J501),(I11:I501)))</f>
+        <v>12376</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -1778,11 +1803,11 @@
         <v>6</v>
       </c>
       <c r="AV3" s="56"/>
-      <c r="AW3" s="124">
+      <c r="AW3" s="123">
         <v>4</v>
       </c>
-      <c r="AX3" s="124"/>
-      <c r="AY3" s="124">
+      <c r="AX3" s="123"/>
+      <c r="AY3" s="123">
         <v>5</v>
       </c>
       <c r="AZ3" s="56">
@@ -1820,7 +1845,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>36934</v>
+        <v>36489</v>
       </c>
       <c r="Z4" s="47">
         <v>43222</v>
@@ -1888,7 +1913,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -1913,10 +1938,10 @@
         <v>91</v>
       </c>
       <c r="R5" s="33"/>
-      <c r="S5" s="115" t="s">
+      <c r="S5" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="T5" s="113"/>
+      <c r="T5" s="112"/>
       <c r="Z5" s="47">
         <v>43223</v>
       </c>
@@ -1989,8 +2014,8 @@
         <v>9</v>
       </c>
       <c r="N6" s="52">
-        <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>561</v>
+        <f>(SUM((W11:W299),(AC3:AC500),(I11:I501)))-(SUM((X11:X499)))</f>
+        <v>381</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -1998,8 +2023,8 @@
       <c r="R6" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="113"/>
       <c r="Z6" s="47">
         <v>43224</v>
       </c>
@@ -2074,15 +2099,15 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>561</v>
+        <v>-11807</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
-        <f>(SUM(X11:X499))-(SUM(K11:K499))</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="114"/>
-      <c r="T7" s="116">
+        <f>(SUM(X11:X499))-(SUM(K11:K501))</f>
+        <v>-12188</v>
+      </c>
+      <c r="S7" s="113"/>
+      <c r="T7" s="115">
         <f>E9</f>
         <v>11260</v>
       </c>
@@ -2210,7 +2235,7 @@
     <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="61"/>
       <c r="B9" s="61"/>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="116" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="61"/>
@@ -2448,7 +2473,7 @@
         <f t="shared" ref="E11:E74" si="5">C11-D11</f>
         <v>500</v>
       </c>
-      <c r="G11" s="118">
+      <c r="G11" s="117">
         <v>43223</v>
       </c>
       <c r="H11" s="56" t="s">
@@ -2564,17 +2589,17 @@
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="G12" s="97">
-        <v>43224</v>
+      <c r="G12" s="117">
+        <v>43230</v>
       </c>
       <c r="H12" s="56" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="I12" s="56"/>
       <c r="J12" s="56">
-        <v>6900</v>
-      </c>
-      <c r="K12" s="56"/>
+        <v>65</v>
+      </c>
+      <c r="K12" s="98"/>
       <c r="M12" s="18" t="s">
         <v>27</v>
       </c>
@@ -2592,7 +2617,7 @@
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="T12" s="118">
+      <c r="T12" s="117">
         <v>43224</v>
       </c>
       <c r="U12" t="s">
@@ -2623,7 +2648,7 @@
       <c r="AD12" s="50">
         <v>70</v>
       </c>
-      <c r="AE12" s="110"/>
+      <c r="AE12" s="109"/>
       <c r="AG12" s="51">
         <f t="shared" si="0"/>
         <v>140</v>
@@ -2674,7 +2699,7 @@
       </c>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="117" t="s">
         <v>113</v>
       </c>
       <c r="B13" t="s">
@@ -2692,13 +2717,13 @@
         <v>43224</v>
       </c>
       <c r="H13" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" s="99"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="101">
-        <v>4000</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56">
+        <v>6900</v>
+      </c>
+      <c r="K13" s="56"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18" t="s">
         <v>24</v>
@@ -2760,7 +2785,7 @@
         <v>164</v>
       </c>
       <c r="AJ13" s="56"/>
-      <c r="AK13" s="123"/>
+      <c r="AK13" s="122"/>
       <c r="AL13" s="56"/>
       <c r="AM13" s="56"/>
       <c r="AN13" s="56"/>
@@ -2782,14 +2807,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BA13" s="108"/>
+      <c r="BA13" s="107"/>
       <c r="BB13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="117" t="s">
         <v>129</v>
       </c>
       <c r="B14" t="s">
@@ -2806,13 +2831,13 @@
         <v>43224</v>
       </c>
       <c r="H14" s="56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I14" s="99"/>
-      <c r="J14" s="100">
-        <v>2000</v>
-      </c>
-      <c r="K14" s="101"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="101">
+        <v>4000</v>
+      </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18" t="s">
         <v>24</v>
@@ -2914,16 +2939,16 @@
         <v>1300</v>
       </c>
       <c r="G15" s="97">
-        <v>43236</v>
+        <v>43224</v>
       </c>
       <c r="H15" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="I15" s="56">
-        <v>2100</v>
-      </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+        <v>141</v>
+      </c>
+      <c r="I15" s="99"/>
+      <c r="J15" s="100">
+        <v>2000</v>
+      </c>
+      <c r="K15" s="101"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18" t="s">
         <v>24</v>
@@ -3010,15 +3035,15 @@
         <v>0</v>
       </c>
       <c r="G16" s="97">
-        <v>43237</v>
+        <v>43236</v>
       </c>
       <c r="H16" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56">
-        <v>150</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="I16" s="56">
+        <v>2100</v>
+      </c>
+      <c r="J16" s="56"/>
       <c r="K16" s="56"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18" t="s">
@@ -3124,11 +3149,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G17" s="97"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="101"/>
+      <c r="G17" s="97">
+        <v>43237</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56">
+        <v>150</v>
+      </c>
+      <c r="K17" s="56"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18" t="s">
         <v>24</v>
@@ -3184,7 +3215,7 @@
       <c r="AO17" s="56"/>
       <c r="AP17" s="56"/>
       <c r="AQ17" s="56"/>
-      <c r="AR17" s="107"/>
+      <c r="AR17" s="106"/>
       <c r="AS17" s="56"/>
       <c r="AT17" s="56"/>
       <c r="AU17">
@@ -3212,11 +3243,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G18" s="97"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="101"/>
+      <c r="G18" s="97" t="s">
+        <v>211</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56">
+        <v>200</v>
+      </c>
+      <c r="K18" s="56"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18" t="s">
         <v>24</v>
@@ -3310,11 +3347,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G19" s="97"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="101"/>
+      <c r="G19" s="125">
+        <v>43249</v>
+      </c>
+      <c r="H19" s="126" t="s">
+        <v>206</v>
+      </c>
+      <c r="I19" s="127"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="129">
+        <v>12188</v>
+      </c>
       <c r="M19" s="18"/>
       <c r="N19" s="18" t="s">
         <v>24</v>
@@ -3377,7 +3420,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="AV19" s="107"/>
+      <c r="AV19" s="106"/>
       <c r="AW19" s="56"/>
       <c r="AX19" s="56"/>
       <c r="AY19" s="56"/>
@@ -3472,8 +3515,8 @@
       </c>
       <c r="AV20" s="56"/>
       <c r="AW20" s="56"/>
-      <c r="AX20" s="107"/>
-      <c r="AY20" s="107"/>
+      <c r="AX20" s="106"/>
+      <c r="AY20" s="106"/>
       <c r="AZ20" s="56">
         <f>(AW20*6)+(AX20*8)+(AY20*5)</f>
         <v>0</v>
@@ -3563,7 +3606,7 @@
       <c r="AV21" s="56"/>
       <c r="AW21" s="56"/>
       <c r="AX21" s="56"/>
-      <c r="AY21" s="107"/>
+      <c r="AY21" s="106"/>
       <c r="AZ21" s="56">
         <f t="shared" ref="AZ21:AZ84" si="7">(AW21*6)+(AX21*8)+(AY21*5)</f>
         <v>0</v>
@@ -3724,7 +3767,7 @@
       <c r="AK23" s="56">
         <v>30</v>
       </c>
-      <c r="AL23" s="107">
+      <c r="AL23" s="106">
         <v>20</v>
       </c>
       <c r="AM23" s="56">
@@ -3799,7 +3842,7 @@
       <c r="AA24" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AB24" s="119" t="s">
+      <c r="AB24" s="118" t="s">
         <v>188</v>
       </c>
       <c r="AC24" s="41">
@@ -3842,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="AV24" s="56"/>
-      <c r="AW24" s="107"/>
+      <c r="AW24" s="106"/>
       <c r="AX24" s="56"/>
       <c r="AY24" s="56">
         <v>3</v>
@@ -3997,7 +4040,7 @@
       <c r="AD26" s="50">
         <v>0</v>
       </c>
-      <c r="AE26" s="125">
+      <c r="AE26" s="124">
         <v>-110</v>
       </c>
       <c r="AF26" s="12" t="s">
@@ -4095,7 +4138,7 @@
         <v>69</v>
       </c>
       <c r="AB27" s="49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AC27" s="41">
         <f t="shared" si="3"/>
@@ -4113,12 +4156,12 @@
         <v>30</v>
       </c>
       <c r="AI27" s="56" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ27" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="AK27" s="107">
+        <v>203</v>
+      </c>
+      <c r="AK27" s="106">
         <v>30</v>
       </c>
       <c r="AL27" s="56">
@@ -4218,7 +4261,7 @@
         <v>118</v>
       </c>
       <c r="AJ28" s="56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AK28" s="56">
         <v>20</v>
@@ -4309,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="AI29" s="56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ29" s="56"/>
       <c r="AK29" s="56">
@@ -4328,15 +4371,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AV29" s="107"/>
+      <c r="AV29" s="106"/>
       <c r="AW29" s="56"/>
       <c r="AX29" s="56"/>
-      <c r="AY29" s="107"/>
+      <c r="AY29" s="106"/>
       <c r="AZ29" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA29" s="107"/>
+      <c r="BA29" s="106"/>
       <c r="BB29">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4381,11 +4424,11 @@
         <v>72</v>
       </c>
       <c r="AB30" s="49" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="AC30" s="41">
         <f t="shared" si="3"/>
-        <v>314</v>
+        <v>134</v>
       </c>
       <c r="AD30" s="50">
         <v>500</v>
@@ -4393,7 +4436,7 @@
       <c r="AE30" s="50"/>
       <c r="AG30" s="51">
         <f t="shared" si="0"/>
-        <v>186</v>
+        <v>366</v>
       </c>
       <c r="AH30">
         <v>156</v>
@@ -4402,13 +4445,17 @@
         <v>198</v>
       </c>
       <c r="AJ30" s="56" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="AK30" s="56">
         <v>30</v>
       </c>
-      <c r="AL30" s="56"/>
-      <c r="AM30" s="56"/>
+      <c r="AL30" s="56">
+        <v>70</v>
+      </c>
+      <c r="AM30" s="56">
+        <v>60</v>
+      </c>
       <c r="AN30" s="56"/>
       <c r="AO30" s="56"/>
       <c r="AP30" s="56"/>
@@ -4418,17 +4465,19 @@
       <c r="AT30" s="56"/>
       <c r="AU30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AV30" s="93"/>
+        <v>50</v>
+      </c>
+      <c r="AV30" s="93">
+        <v>50</v>
+      </c>
       <c r="AW30" s="56"/>
       <c r="AX30" s="56"/>
       <c r="AY30" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ30" s="56">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA30" s="56"/>
       <c r="BB30">
@@ -4483,7 +4532,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI31" s="107"/>
+      <c r="AI31" s="106"/>
       <c r="AJ31" s="56"/>
       <c r="AK31" s="56"/>
       <c r="AL31" s="56"/>
@@ -4502,10 +4551,12 @@
       <c r="AV31" s="56"/>
       <c r="AW31" s="56"/>
       <c r="AX31" s="56"/>
-      <c r="AY31" s="56"/>
+      <c r="AY31" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ31" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA31" s="100"/>
       <c r="BB31">
@@ -4642,7 +4693,7 @@
       </c>
       <c r="AI33" s="56"/>
       <c r="AJ33" s="56"/>
-      <c r="AK33" s="107"/>
+      <c r="AK33" s="106"/>
       <c r="AL33" s="56"/>
       <c r="AM33" s="56"/>
       <c r="AN33" s="56"/>
@@ -4910,7 +4961,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G37" s="103"/>
+      <c r="G37" s="97"/>
       <c r="H37" s="56"/>
       <c r="I37" s="99"/>
       <c r="J37" s="100"/>
@@ -5060,7 +5111,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G39" s="97"/>
+      <c r="G39" s="102"/>
       <c r="H39" s="56"/>
       <c r="I39" s="99"/>
       <c r="J39" s="100"/>
@@ -5233,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="AD41" s="50"/>
-      <c r="AE41" s="109"/>
+      <c r="AE41" s="108"/>
       <c r="AG41" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5417,9 +5468,9 @@
       </c>
       <c r="G44" s="97"/>
       <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
+      <c r="I44" s="99"/>
       <c r="J44" s="100"/>
-      <c r="K44" s="56"/>
+      <c r="K44" s="101"/>
       <c r="M44" s="18"/>
       <c r="N44" s="18"/>
       <c r="O44" s="18"/>
@@ -5433,7 +5484,7 @@
       <c r="U44" s="35"/>
       <c r="V44" s="35"/>
       <c r="W44" s="37"/>
-      <c r="X44" s="122"/>
+      <c r="X44" s="121"/>
       <c r="Z44" s="47">
         <v>43262</v>
       </c>
@@ -5488,8 +5539,8 @@
       </c>
       <c r="G45" s="97"/>
       <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="100"/>
       <c r="K45" s="101"/>
       <c r="M45" s="18"/>
       <c r="N45" s="18"/>
@@ -5503,7 +5554,7 @@
       <c r="T45" s="36"/>
       <c r="U45" s="35"/>
       <c r="V45" s="35"/>
-      <c r="W45" s="122"/>
+      <c r="W45" s="121"/>
       <c r="X45" s="37"/>
       <c r="Z45" s="47">
         <v>43263</v>
@@ -5560,9 +5611,9 @@
       </c>
       <c r="G46" s="97"/>
       <c r="H46" s="56"/>
-      <c r="I46" s="99"/>
+      <c r="I46" s="56"/>
       <c r="J46" s="100"/>
-      <c r="K46" s="101"/>
+      <c r="K46" s="56"/>
       <c r="M46" s="18"/>
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
@@ -5631,8 +5682,8 @@
       </c>
       <c r="G47" s="97"/>
       <c r="H47" s="56"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="100"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
       <c r="K47" s="101"/>
       <c r="M47" s="18"/>
       <c r="N47" s="18"/>
@@ -5913,9 +5964,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I51" s="13"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="14"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="99"/>
+      <c r="J51" s="100"/>
+      <c r="K51" s="101"/>
       <c r="M51" s="18"/>
       <c r="N51" s="18"/>
       <c r="O51" s="18"/>
@@ -5982,9 +6035,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I52" s="13"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="14"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="99"/>
+      <c r="J52" s="100"/>
+      <c r="K52" s="101"/>
       <c r="M52" s="18"/>
       <c r="N52" s="18"/>
       <c r="O52" s="18"/>
@@ -8426,8 +8481,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD87" s="105"/>
-      <c r="AE87" s="105"/>
+      <c r="AD87" s="104"/>
+      <c r="AE87" s="104"/>
       <c r="AF87" s="56"/>
       <c r="AG87" s="51">
         <f t="shared" si="10"/>
@@ -8503,8 +8558,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD88" s="105"/>
-      <c r="AE88" s="105"/>
+      <c r="AD88" s="104"/>
+      <c r="AE88" s="104"/>
       <c r="AF88" s="56"/>
       <c r="AG88" s="51">
         <f t="shared" si="10"/>
@@ -8580,8 +8635,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD89" s="105"/>
-      <c r="AE89" s="105"/>
+      <c r="AD89" s="104"/>
+      <c r="AE89" s="104"/>
       <c r="AF89" s="56"/>
       <c r="AG89" s="51">
         <f t="shared" si="10"/>
@@ -8657,8 +8712,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD90" s="105"/>
-      <c r="AE90" s="105"/>
+      <c r="AD90" s="104"/>
+      <c r="AE90" s="104"/>
       <c r="AF90" s="56"/>
       <c r="AG90" s="51">
         <f t="shared" si="10"/>
@@ -8734,8 +8789,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD91" s="105"/>
-      <c r="AE91" s="105"/>
+      <c r="AD91" s="104"/>
+      <c r="AE91" s="104"/>
       <c r="AF91" s="56"/>
       <c r="AG91" s="51">
         <f t="shared" si="10"/>
@@ -8811,8 +8866,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD92" s="105"/>
-      <c r="AE92" s="105"/>
+      <c r="AD92" s="104"/>
+      <c r="AE92" s="104"/>
       <c r="AF92" s="56"/>
       <c r="AG92" s="51">
         <f t="shared" si="10"/>
@@ -8888,8 +8943,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD93" s="105"/>
-      <c r="AE93" s="105"/>
+      <c r="AD93" s="104"/>
+      <c r="AE93" s="104"/>
       <c r="AF93" s="56"/>
       <c r="AG93" s="51">
         <f t="shared" si="10"/>
@@ -8965,8 +9020,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD94" s="105"/>
-      <c r="AE94" s="105"/>
+      <c r="AD94" s="104"/>
+      <c r="AE94" s="104"/>
       <c r="AF94" s="56"/>
       <c r="AG94" s="51">
         <f t="shared" si="10"/>
@@ -8974,8 +9029,8 @@
       </c>
       <c r="AH94" s="56"/>
       <c r="AI94" s="56"/>
-      <c r="AJ94" s="120"/>
-      <c r="AK94" s="120"/>
+      <c r="AJ94" s="119"/>
+      <c r="AK94" s="119"/>
       <c r="AL94" s="56"/>
       <c r="AM94" s="56"/>
       <c r="AN94" s="56"/>
@@ -9042,8 +9097,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD95" s="105"/>
-      <c r="AE95" s="105"/>
+      <c r="AD95" s="104"/>
+      <c r="AE95" s="104"/>
       <c r="AF95" s="56"/>
       <c r="AG95" s="51">
         <f t="shared" si="10"/>
@@ -9119,8 +9174,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD96" s="105"/>
-      <c r="AE96" s="105"/>
+      <c r="AD96" s="104"/>
+      <c r="AE96" s="104"/>
       <c r="AF96" s="56"/>
       <c r="AG96" s="51">
         <f t="shared" si="10"/>
@@ -9196,8 +9251,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD97" s="105"/>
-      <c r="AE97" s="105"/>
+      <c r="AD97" s="104"/>
+      <c r="AE97" s="104"/>
       <c r="AF97" s="56"/>
       <c r="AG97" s="51">
         <f t="shared" si="10"/>
@@ -9206,7 +9261,7 @@
       <c r="AH97" s="56"/>
       <c r="AI97" s="56"/>
       <c r="AJ97" s="56"/>
-      <c r="AK97" s="121"/>
+      <c r="AK97" s="120"/>
       <c r="AL97" s="56"/>
       <c r="AM97" s="56"/>
       <c r="AN97" s="56"/>
@@ -9273,8 +9328,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD98" s="105"/>
-      <c r="AE98" s="105"/>
+      <c r="AD98" s="104"/>
+      <c r="AE98" s="104"/>
       <c r="AF98" s="56"/>
       <c r="AG98" s="51">
         <f t="shared" si="10"/>
@@ -9350,8 +9405,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD99" s="105"/>
-      <c r="AE99" s="105"/>
+      <c r="AD99" s="104"/>
+      <c r="AE99" s="104"/>
       <c r="AF99" s="56"/>
       <c r="AG99" s="51">
         <f t="shared" si="10"/>
@@ -9427,8 +9482,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD100" s="105"/>
-      <c r="AE100" s="105"/>
+      <c r="AD100" s="104"/>
+      <c r="AE100" s="104"/>
       <c r="AF100" s="56"/>
       <c r="AG100" s="51">
         <f t="shared" si="10"/>
@@ -9504,8 +9559,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD101" s="105"/>
-      <c r="AE101" s="105"/>
+      <c r="AD101" s="104"/>
+      <c r="AE101" s="104"/>
       <c r="AF101" s="56"/>
       <c r="AG101" s="51">
         <f t="shared" si="10"/>
@@ -9581,8 +9636,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD102" s="105"/>
-      <c r="AE102" s="105"/>
+      <c r="AD102" s="104"/>
+      <c r="AE102" s="104"/>
       <c r="AF102" s="56"/>
       <c r="AG102" s="51">
         <f t="shared" si="10"/>
@@ -9658,8 +9713,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD103" s="105"/>
-      <c r="AE103" s="105"/>
+      <c r="AD103" s="104"/>
+      <c r="AE103" s="104"/>
       <c r="AF103" s="56"/>
       <c r="AG103" s="51">
         <f t="shared" si="10"/>
@@ -9735,8 +9790,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD104" s="105"/>
-      <c r="AE104" s="105"/>
+      <c r="AD104" s="104"/>
+      <c r="AE104" s="104"/>
       <c r="AF104" s="56"/>
       <c r="AG104" s="51">
         <f t="shared" si="10"/>
@@ -9812,8 +9867,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD105" s="105"/>
-      <c r="AE105" s="105"/>
+      <c r="AD105" s="104"/>
+      <c r="AE105" s="104"/>
       <c r="AF105" s="56"/>
       <c r="AG105" s="51">
         <f t="shared" si="10"/>
@@ -9889,8 +9944,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD106" s="105"/>
-      <c r="AE106" s="105"/>
+      <c r="AD106" s="104"/>
+      <c r="AE106" s="104"/>
       <c r="AF106" s="56"/>
       <c r="AG106" s="51">
         <f t="shared" si="10"/>
@@ -9966,8 +10021,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD107" s="105"/>
-      <c r="AE107" s="105"/>
+      <c r="AD107" s="104"/>
+      <c r="AE107" s="104"/>
       <c r="AF107" s="56"/>
       <c r="AG107" s="51">
         <f t="shared" si="10"/>
@@ -10043,8 +10098,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD108" s="105"/>
-      <c r="AE108" s="105"/>
+      <c r="AD108" s="104"/>
+      <c r="AE108" s="104"/>
       <c r="AF108" s="56"/>
       <c r="AG108" s="51">
         <f t="shared" si="10"/>
@@ -10120,8 +10175,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD109" s="105"/>
-      <c r="AE109" s="105"/>
+      <c r="AD109" s="104"/>
+      <c r="AE109" s="104"/>
       <c r="AF109" s="56"/>
       <c r="AG109" s="51">
         <f t="shared" si="10"/>
@@ -10197,8 +10252,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD110" s="105"/>
-      <c r="AE110" s="105"/>
+      <c r="AD110" s="104"/>
+      <c r="AE110" s="104"/>
       <c r="AF110" s="56"/>
       <c r="AG110" s="51">
         <f t="shared" si="10"/>
@@ -10274,8 +10329,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD111" s="105"/>
-      <c r="AE111" s="105"/>
+      <c r="AD111" s="104"/>
+      <c r="AE111" s="104"/>
       <c r="AF111" s="56"/>
       <c r="AG111" s="51">
         <f t="shared" si="10"/>
@@ -10351,8 +10406,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD112" s="105"/>
-      <c r="AE112" s="105"/>
+      <c r="AD112" s="104"/>
+      <c r="AE112" s="104"/>
       <c r="AF112" s="56"/>
       <c r="AG112" s="51">
         <f t="shared" si="10"/>
@@ -10428,8 +10483,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD113" s="105"/>
-      <c r="AE113" s="105"/>
+      <c r="AD113" s="104"/>
+      <c r="AE113" s="104"/>
       <c r="AF113" s="56"/>
       <c r="AG113" s="51">
         <f t="shared" si="10"/>
@@ -10505,8 +10560,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD114" s="105"/>
-      <c r="AE114" s="105"/>
+      <c r="AD114" s="104"/>
+      <c r="AE114" s="104"/>
       <c r="AF114" s="56"/>
       <c r="AG114" s="51">
         <f t="shared" si="10"/>
@@ -10578,11 +10633,11 @@
         <v>133</v>
       </c>
       <c r="AB115" s="49"/>
-      <c r="AC115" s="106"/>
-      <c r="AD115" s="105"/>
-      <c r="AE115" s="105"/>
+      <c r="AC115" s="105"/>
+      <c r="AD115" s="104"/>
+      <c r="AE115" s="104"/>
       <c r="AF115" s="56"/>
-      <c r="AG115" s="105"/>
+      <c r="AG115" s="104"/>
       <c r="AH115" s="56"/>
       <c r="AI115" s="56"/>
       <c r="AJ115" s="56"/>
@@ -10649,11 +10704,11 @@
         <v>134</v>
       </c>
       <c r="AB116" s="49"/>
-      <c r="AC116" s="106"/>
-      <c r="AD116" s="105"/>
-      <c r="AE116" s="105"/>
+      <c r="AC116" s="105"/>
+      <c r="AD116" s="104"/>
+      <c r="AE116" s="104"/>
       <c r="AF116" s="56"/>
-      <c r="AG116" s="105"/>
+      <c r="AG116" s="104"/>
       <c r="AH116" s="56"/>
       <c r="AI116" s="56"/>
       <c r="AJ116" s="56"/>
@@ -10720,11 +10775,11 @@
         <v>135</v>
       </c>
       <c r="AB117" s="49"/>
-      <c r="AC117" s="106"/>
-      <c r="AD117" s="105"/>
-      <c r="AE117" s="105"/>
+      <c r="AC117" s="105"/>
+      <c r="AD117" s="104"/>
+      <c r="AE117" s="104"/>
       <c r="AF117" s="56"/>
-      <c r="AG117" s="105"/>
+      <c r="AG117" s="104"/>
       <c r="AH117" s="56"/>
       <c r="AI117" s="56"/>
       <c r="AJ117" s="56"/>
@@ -10791,11 +10846,11 @@
         <v>136</v>
       </c>
       <c r="AB118" s="49"/>
-      <c r="AC118" s="106"/>
-      <c r="AD118" s="105"/>
-      <c r="AE118" s="105"/>
+      <c r="AC118" s="105"/>
+      <c r="AD118" s="104"/>
+      <c r="AE118" s="104"/>
       <c r="AF118" s="56"/>
-      <c r="AG118" s="105"/>
+      <c r="AG118" s="104"/>
       <c r="AH118" s="56"/>
       <c r="AI118" s="56"/>
       <c r="AJ118" s="56"/>
@@ -10862,11 +10917,11 @@
         <v>137</v>
       </c>
       <c r="AB119" s="49"/>
-      <c r="AC119" s="106"/>
-      <c r="AD119" s="105"/>
-      <c r="AE119" s="105"/>
+      <c r="AC119" s="105"/>
+      <c r="AD119" s="104"/>
+      <c r="AE119" s="104"/>
       <c r="AF119" s="56"/>
-      <c r="AG119" s="105"/>
+      <c r="AG119" s="104"/>
       <c r="AH119" s="56"/>
       <c r="AI119" s="56"/>
       <c r="AJ119" s="56"/>
@@ -10933,11 +10988,11 @@
         <v>131</v>
       </c>
       <c r="AB120" s="49"/>
-      <c r="AC120" s="106"/>
-      <c r="AD120" s="105"/>
-      <c r="AE120" s="105"/>
+      <c r="AC120" s="105"/>
+      <c r="AD120" s="104"/>
+      <c r="AE120" s="104"/>
       <c r="AF120" s="56"/>
-      <c r="AG120" s="105"/>
+      <c r="AG120" s="104"/>
       <c r="AH120" s="56"/>
       <c r="AI120" s="56"/>
       <c r="AJ120" s="56"/>
@@ -11004,11 +11059,11 @@
         <v>132</v>
       </c>
       <c r="AB121" s="49"/>
-      <c r="AC121" s="106"/>
-      <c r="AD121" s="105"/>
-      <c r="AE121" s="105"/>
+      <c r="AC121" s="105"/>
+      <c r="AD121" s="104"/>
+      <c r="AE121" s="104"/>
       <c r="AF121" s="56"/>
-      <c r="AG121" s="105"/>
+      <c r="AG121" s="104"/>
       <c r="AH121" s="56"/>
       <c r="AI121" s="56"/>
       <c r="AJ121" s="56"/>
@@ -11062,13 +11117,13 @@
       <c r="Z122" s="47">
         <v>43340</v>
       </c>
-      <c r="AA122" s="105"/>
+      <c r="AA122" s="104"/>
       <c r="AB122" s="49"/>
-      <c r="AC122" s="106"/>
-      <c r="AD122" s="105"/>
-      <c r="AE122" s="105"/>
+      <c r="AC122" s="105"/>
+      <c r="AD122" s="104"/>
+      <c r="AE122" s="104"/>
       <c r="AF122" s="56"/>
-      <c r="AG122" s="105"/>
+      <c r="AG122" s="104"/>
       <c r="AH122" s="56"/>
       <c r="AI122" s="56"/>
       <c r="AJ122" s="56"/>
@@ -11122,13 +11177,13 @@
       <c r="Z123" s="47">
         <v>43341</v>
       </c>
-      <c r="AA123" s="105"/>
+      <c r="AA123" s="104"/>
       <c r="AB123" s="49"/>
-      <c r="AC123" s="106"/>
-      <c r="AD123" s="105"/>
-      <c r="AE123" s="105"/>
+      <c r="AC123" s="105"/>
+      <c r="AD123" s="104"/>
+      <c r="AE123" s="104"/>
       <c r="AF123" s="56"/>
-      <c r="AG123" s="105"/>
+      <c r="AG123" s="104"/>
       <c r="AH123" s="56"/>
       <c r="AI123" s="56"/>
       <c r="AJ123" s="56"/>
@@ -11179,14 +11234,14 @@
       <c r="V124" s="35"/>
       <c r="W124" s="37"/>
       <c r="X124" s="37"/>
-      <c r="Z124" s="104"/>
-      <c r="AA124" s="105"/>
+      <c r="Z124" s="103"/>
+      <c r="AA124" s="104"/>
       <c r="AB124" s="49"/>
-      <c r="AC124" s="106"/>
-      <c r="AD124" s="105"/>
-      <c r="AE124" s="105"/>
+      <c r="AC124" s="105"/>
+      <c r="AD124" s="104"/>
+      <c r="AE124" s="104"/>
       <c r="AF124" s="56"/>
-      <c r="AG124" s="105"/>
+      <c r="AG124" s="104"/>
       <c r="AH124" s="56"/>
       <c r="AI124" s="56"/>
       <c r="AJ124" s="56"/>
@@ -11237,14 +11292,14 @@
       <c r="V125" s="35"/>
       <c r="W125" s="37"/>
       <c r="X125" s="37"/>
-      <c r="Z125" s="104"/>
-      <c r="AA125" s="105"/>
+      <c r="Z125" s="103"/>
+      <c r="AA125" s="104"/>
       <c r="AB125" s="56"/>
-      <c r="AC125" s="106"/>
-      <c r="AD125" s="105"/>
-      <c r="AE125" s="105"/>
+      <c r="AC125" s="105"/>
+      <c r="AD125" s="104"/>
+      <c r="AE125" s="104"/>
       <c r="AF125" s="56"/>
-      <c r="AG125" s="105"/>
+      <c r="AG125" s="104"/>
       <c r="AH125" s="56"/>
       <c r="AI125" s="56"/>
       <c r="AJ125" s="56"/>
@@ -11295,14 +11350,14 @@
       <c r="V126" s="35"/>
       <c r="W126" s="37"/>
       <c r="X126" s="37"/>
-      <c r="Z126" s="104"/>
-      <c r="AA126" s="105"/>
+      <c r="Z126" s="103"/>
+      <c r="AA126" s="104"/>
       <c r="AB126" s="56"/>
-      <c r="AC126" s="106"/>
-      <c r="AD126" s="105"/>
-      <c r="AE126" s="105"/>
+      <c r="AC126" s="105"/>
+      <c r="AD126" s="104"/>
+      <c r="AE126" s="104"/>
       <c r="AF126" s="56"/>
-      <c r="AG126" s="105"/>
+      <c r="AG126" s="104"/>
       <c r="AH126" s="56"/>
       <c r="AI126" s="56"/>
       <c r="AJ126" s="56"/>
@@ -11353,14 +11408,14 @@
       <c r="V127" s="35"/>
       <c r="W127" s="37"/>
       <c r="X127" s="37"/>
-      <c r="Z127" s="104"/>
-      <c r="AA127" s="105"/>
+      <c r="Z127" s="103"/>
+      <c r="AA127" s="104"/>
       <c r="AB127" s="56"/>
-      <c r="AC127" s="106"/>
-      <c r="AD127" s="105"/>
-      <c r="AE127" s="105"/>
+      <c r="AC127" s="105"/>
+      <c r="AD127" s="104"/>
+      <c r="AE127" s="104"/>
       <c r="AF127" s="56"/>
-      <c r="AG127" s="105"/>
+      <c r="AG127" s="104"/>
       <c r="AH127" s="56"/>
       <c r="AI127" s="56"/>
       <c r="AJ127" s="56"/>
@@ -11411,14 +11466,14 @@
       <c r="V128" s="35"/>
       <c r="W128" s="37"/>
       <c r="X128" s="37"/>
-      <c r="Z128" s="104"/>
-      <c r="AA128" s="105"/>
+      <c r="Z128" s="103"/>
+      <c r="AA128" s="104"/>
       <c r="AB128" s="56"/>
-      <c r="AC128" s="106"/>
-      <c r="AD128" s="105"/>
-      <c r="AE128" s="105"/>
+      <c r="AC128" s="105"/>
+      <c r="AD128" s="104"/>
+      <c r="AE128" s="104"/>
       <c r="AF128" s="56"/>
-      <c r="AG128" s="105"/>
+      <c r="AG128" s="104"/>
       <c r="AH128" s="56"/>
       <c r="AI128" s="56"/>
       <c r="AJ128" s="56"/>
@@ -11469,14 +11524,14 @@
       <c r="V129" s="35"/>
       <c r="W129" s="37"/>
       <c r="X129" s="37"/>
-      <c r="Z129" s="104"/>
-      <c r="AA129" s="105"/>
+      <c r="Z129" s="103"/>
+      <c r="AA129" s="104"/>
       <c r="AB129" s="56"/>
-      <c r="AC129" s="106"/>
-      <c r="AD129" s="105"/>
-      <c r="AE129" s="105"/>
+      <c r="AC129" s="105"/>
+      <c r="AD129" s="104"/>
+      <c r="AE129" s="104"/>
       <c r="AF129" s="56"/>
-      <c r="AG129" s="105"/>
+      <c r="AG129" s="104"/>
       <c r="AH129" s="56"/>
       <c r="AI129" s="56"/>
       <c r="AJ129" s="56"/>
@@ -11527,14 +11582,14 @@
       <c r="V130" s="35"/>
       <c r="W130" s="37"/>
       <c r="X130" s="37"/>
-      <c r="Z130" s="104"/>
-      <c r="AA130" s="105"/>
+      <c r="Z130" s="103"/>
+      <c r="AA130" s="104"/>
       <c r="AB130" s="56"/>
-      <c r="AC130" s="106"/>
-      <c r="AD130" s="105"/>
-      <c r="AE130" s="105"/>
+      <c r="AC130" s="105"/>
+      <c r="AD130" s="104"/>
+      <c r="AE130" s="104"/>
       <c r="AF130" s="56"/>
-      <c r="AG130" s="105"/>
+      <c r="AG130" s="104"/>
       <c r="AH130" s="56"/>
       <c r="AI130" s="56"/>
       <c r="AJ130" s="56"/>
@@ -11585,14 +11640,14 @@
       <c r="V131" s="35"/>
       <c r="W131" s="37"/>
       <c r="X131" s="37"/>
-      <c r="Z131" s="104"/>
-      <c r="AA131" s="105"/>
+      <c r="Z131" s="103"/>
+      <c r="AA131" s="104"/>
       <c r="AB131" s="56"/>
-      <c r="AC131" s="106"/>
-      <c r="AD131" s="105"/>
-      <c r="AE131" s="105"/>
+      <c r="AC131" s="105"/>
+      <c r="AD131" s="104"/>
+      <c r="AE131" s="104"/>
       <c r="AF131" s="56"/>
-      <c r="AG131" s="105"/>
+      <c r="AG131" s="104"/>
       <c r="AH131" s="56"/>
       <c r="AI131" s="56"/>
       <c r="AJ131" s="56"/>
@@ -11643,14 +11698,14 @@
       <c r="V132" s="35"/>
       <c r="W132" s="37"/>
       <c r="X132" s="37"/>
-      <c r="Z132" s="104"/>
-      <c r="AA132" s="105"/>
+      <c r="Z132" s="103"/>
+      <c r="AA132" s="104"/>
       <c r="AB132" s="56"/>
-      <c r="AC132" s="106"/>
-      <c r="AD132" s="105"/>
-      <c r="AE132" s="105"/>
+      <c r="AC132" s="105"/>
+      <c r="AD132" s="104"/>
+      <c r="AE132" s="104"/>
       <c r="AF132" s="56"/>
-      <c r="AG132" s="105"/>
+      <c r="AG132" s="104"/>
       <c r="AH132" s="56"/>
       <c r="AI132" s="56"/>
       <c r="AJ132" s="56"/>
@@ -11701,14 +11756,14 @@
       <c r="V133" s="35"/>
       <c r="W133" s="37"/>
       <c r="X133" s="37"/>
-      <c r="Z133" s="104"/>
-      <c r="AA133" s="105"/>
+      <c r="Z133" s="103"/>
+      <c r="AA133" s="104"/>
       <c r="AB133" s="56"/>
-      <c r="AC133" s="106"/>
-      <c r="AD133" s="105"/>
-      <c r="AE133" s="105"/>
+      <c r="AC133" s="105"/>
+      <c r="AD133" s="104"/>
+      <c r="AE133" s="104"/>
       <c r="AF133" s="56"/>
-      <c r="AG133" s="105"/>
+      <c r="AG133" s="104"/>
       <c r="AH133" s="56"/>
       <c r="AI133" s="56"/>
       <c r="AJ133" s="56"/>
@@ -11759,14 +11814,14 @@
       <c r="V134" s="35"/>
       <c r="W134" s="37"/>
       <c r="X134" s="37"/>
-      <c r="Z134" s="104"/>
-      <c r="AA134" s="105"/>
+      <c r="Z134" s="103"/>
+      <c r="AA134" s="104"/>
       <c r="AB134" s="56"/>
-      <c r="AC134" s="106"/>
-      <c r="AD134" s="105"/>
-      <c r="AE134" s="105"/>
+      <c r="AC134" s="105"/>
+      <c r="AD134" s="104"/>
+      <c r="AE134" s="104"/>
       <c r="AF134" s="56"/>
-      <c r="AG134" s="105"/>
+      <c r="AG134" s="104"/>
       <c r="AH134" s="56"/>
       <c r="AI134" s="56"/>
       <c r="AJ134" s="56"/>
@@ -11814,14 +11869,14 @@
       <c r="V135" s="35"/>
       <c r="W135" s="37"/>
       <c r="X135" s="37"/>
-      <c r="Z135" s="104"/>
-      <c r="AA135" s="105"/>
+      <c r="Z135" s="103"/>
+      <c r="AA135" s="104"/>
       <c r="AB135" s="56"/>
-      <c r="AC135" s="106"/>
-      <c r="AD135" s="105"/>
-      <c r="AE135" s="105"/>
+      <c r="AC135" s="105"/>
+      <c r="AD135" s="104"/>
+      <c r="AE135" s="104"/>
       <c r="AF135" s="56"/>
-      <c r="AG135" s="105"/>
+      <c r="AG135" s="104"/>
       <c r="AH135" s="56"/>
       <c r="AI135" s="56"/>
       <c r="AJ135" s="56"/>
@@ -11869,14 +11924,14 @@
       <c r="V136" s="35"/>
       <c r="W136" s="37"/>
       <c r="X136" s="37"/>
-      <c r="Z136" s="104"/>
-      <c r="AA136" s="105"/>
+      <c r="Z136" s="103"/>
+      <c r="AA136" s="104"/>
       <c r="AB136" s="56"/>
-      <c r="AC136" s="106"/>
-      <c r="AD136" s="105"/>
-      <c r="AE136" s="105"/>
+      <c r="AC136" s="105"/>
+      <c r="AD136" s="104"/>
+      <c r="AE136" s="104"/>
       <c r="AF136" s="56"/>
-      <c r="AG136" s="105"/>
+      <c r="AG136" s="104"/>
       <c r="AH136" s="56"/>
       <c r="AI136" s="56"/>
       <c r="AJ136" s="56"/>
@@ -11924,14 +11979,14 @@
       <c r="V137" s="35"/>
       <c r="W137" s="37"/>
       <c r="X137" s="37"/>
-      <c r="Z137" s="104"/>
-      <c r="AA137" s="105"/>
+      <c r="Z137" s="103"/>
+      <c r="AA137" s="104"/>
       <c r="AB137" s="56"/>
-      <c r="AC137" s="106"/>
-      <c r="AD137" s="105"/>
-      <c r="AE137" s="105"/>
+      <c r="AC137" s="105"/>
+      <c r="AD137" s="104"/>
+      <c r="AE137" s="104"/>
       <c r="AF137" s="56"/>
-      <c r="AG137" s="105"/>
+      <c r="AG137" s="104"/>
       <c r="AH137" s="56"/>
       <c r="AI137" s="56"/>
       <c r="AJ137" s="56"/>
@@ -11979,14 +12034,14 @@
       <c r="V138" s="35"/>
       <c r="W138" s="37"/>
       <c r="X138" s="37"/>
-      <c r="Z138" s="104"/>
-      <c r="AA138" s="105"/>
+      <c r="Z138" s="103"/>
+      <c r="AA138" s="104"/>
       <c r="AB138" s="56"/>
-      <c r="AC138" s="106"/>
-      <c r="AD138" s="105"/>
-      <c r="AE138" s="105"/>
+      <c r="AC138" s="105"/>
+      <c r="AD138" s="104"/>
+      <c r="AE138" s="104"/>
       <c r="AF138" s="56"/>
-      <c r="AG138" s="105"/>
+      <c r="AG138" s="104"/>
       <c r="AH138" s="56"/>
       <c r="AI138" s="56"/>
       <c r="AJ138" s="56"/>
@@ -12034,14 +12089,14 @@
       <c r="V139" s="35"/>
       <c r="W139" s="37"/>
       <c r="X139" s="37"/>
-      <c r="Z139" s="104"/>
-      <c r="AA139" s="105"/>
+      <c r="Z139" s="103"/>
+      <c r="AA139" s="104"/>
       <c r="AB139" s="56"/>
-      <c r="AC139" s="106"/>
-      <c r="AD139" s="105"/>
-      <c r="AE139" s="105"/>
+      <c r="AC139" s="105"/>
+      <c r="AD139" s="104"/>
+      <c r="AE139" s="104"/>
       <c r="AF139" s="56"/>
-      <c r="AG139" s="105"/>
+      <c r="AG139" s="104"/>
       <c r="AH139" s="56"/>
       <c r="AI139" s="56"/>
       <c r="AJ139" s="56"/>
@@ -12089,14 +12144,14 @@
       <c r="V140" s="35"/>
       <c r="W140" s="37"/>
       <c r="X140" s="37"/>
-      <c r="Z140" s="104"/>
-      <c r="AA140" s="105"/>
+      <c r="Z140" s="103"/>
+      <c r="AA140" s="104"/>
       <c r="AB140" s="56"/>
-      <c r="AC140" s="106"/>
-      <c r="AD140" s="105"/>
-      <c r="AE140" s="105"/>
+      <c r="AC140" s="105"/>
+      <c r="AD140" s="104"/>
+      <c r="AE140" s="104"/>
       <c r="AF140" s="56"/>
-      <c r="AG140" s="105"/>
+      <c r="AG140" s="104"/>
       <c r="AH140" s="56"/>
       <c r="AI140" s="56"/>
       <c r="AJ140" s="56"/>
@@ -12144,14 +12199,14 @@
       <c r="V141" s="35"/>
       <c r="W141" s="37"/>
       <c r="X141" s="37"/>
-      <c r="Z141" s="104"/>
-      <c r="AA141" s="105"/>
+      <c r="Z141" s="103"/>
+      <c r="AA141" s="104"/>
       <c r="AB141" s="56"/>
-      <c r="AC141" s="106"/>
-      <c r="AD141" s="105"/>
-      <c r="AE141" s="105"/>
+      <c r="AC141" s="105"/>
+      <c r="AD141" s="104"/>
+      <c r="AE141" s="104"/>
       <c r="AF141" s="56"/>
-      <c r="AG141" s="105"/>
+      <c r="AG141" s="104"/>
       <c r="AH141" s="56"/>
       <c r="AI141" s="56"/>
       <c r="AJ141" s="56"/>
@@ -12199,14 +12254,14 @@
       <c r="V142" s="35"/>
       <c r="W142" s="37"/>
       <c r="X142" s="37"/>
-      <c r="Z142" s="104"/>
-      <c r="AA142" s="105"/>
+      <c r="Z142" s="103"/>
+      <c r="AA142" s="104"/>
       <c r="AB142" s="56"/>
-      <c r="AC142" s="106"/>
-      <c r="AD142" s="105"/>
-      <c r="AE142" s="105"/>
+      <c r="AC142" s="105"/>
+      <c r="AD142" s="104"/>
+      <c r="AE142" s="104"/>
       <c r="AF142" s="56"/>
-      <c r="AG142" s="105"/>
+      <c r="AG142" s="104"/>
       <c r="AH142" s="56"/>
       <c r="AI142" s="56"/>
       <c r="AJ142" s="56"/>
@@ -12254,14 +12309,14 @@
       <c r="V143" s="35"/>
       <c r="W143" s="37"/>
       <c r="X143" s="37"/>
-      <c r="Z143" s="104"/>
-      <c r="AA143" s="105"/>
+      <c r="Z143" s="103"/>
+      <c r="AA143" s="104"/>
       <c r="AB143" s="56"/>
-      <c r="AC143" s="106"/>
-      <c r="AD143" s="105"/>
-      <c r="AE143" s="105"/>
+      <c r="AC143" s="105"/>
+      <c r="AD143" s="104"/>
+      <c r="AE143" s="104"/>
       <c r="AF143" s="56"/>
-      <c r="AG143" s="105"/>
+      <c r="AG143" s="104"/>
       <c r="AH143" s="56"/>
       <c r="AI143" s="56"/>
       <c r="AJ143" s="56"/>
@@ -12309,14 +12364,14 @@
       <c r="V144" s="35"/>
       <c r="W144" s="37"/>
       <c r="X144" s="37"/>
-      <c r="Z144" s="104"/>
-      <c r="AA144" s="105"/>
+      <c r="Z144" s="103"/>
+      <c r="AA144" s="104"/>
       <c r="AB144" s="56"/>
-      <c r="AC144" s="106"/>
-      <c r="AD144" s="105"/>
-      <c r="AE144" s="105"/>
+      <c r="AC144" s="105"/>
+      <c r="AD144" s="104"/>
+      <c r="AE144" s="104"/>
       <c r="AF144" s="56"/>
-      <c r="AG144" s="105"/>
+      <c r="AG144" s="104"/>
       <c r="AH144" s="56"/>
       <c r="AI144" s="56"/>
       <c r="AJ144" s="56"/>
@@ -12364,14 +12419,14 @@
       <c r="V145" s="35"/>
       <c r="W145" s="37"/>
       <c r="X145" s="37"/>
-      <c r="Z145" s="104"/>
-      <c r="AA145" s="105"/>
+      <c r="Z145" s="103"/>
+      <c r="AA145" s="104"/>
       <c r="AB145" s="56"/>
-      <c r="AC145" s="106"/>
-      <c r="AD145" s="105"/>
-      <c r="AE145" s="105"/>
+      <c r="AC145" s="105"/>
+      <c r="AD145" s="104"/>
+      <c r="AE145" s="104"/>
       <c r="AF145" s="56"/>
-      <c r="AG145" s="105"/>
+      <c r="AG145" s="104"/>
       <c r="AH145" s="56"/>
       <c r="AI145" s="56"/>
       <c r="AJ145" s="56"/>
@@ -12419,14 +12474,14 @@
       <c r="V146" s="35"/>
       <c r="W146" s="37"/>
       <c r="X146" s="37"/>
-      <c r="Z146" s="104"/>
-      <c r="AA146" s="105"/>
+      <c r="Z146" s="103"/>
+      <c r="AA146" s="104"/>
       <c r="AB146" s="56"/>
-      <c r="AC146" s="106"/>
-      <c r="AD146" s="105"/>
-      <c r="AE146" s="105"/>
+      <c r="AC146" s="105"/>
+      <c r="AD146" s="104"/>
+      <c r="AE146" s="104"/>
       <c r="AF146" s="56"/>
-      <c r="AG146" s="105"/>
+      <c r="AG146" s="104"/>
       <c r="AH146" s="56"/>
       <c r="AI146" s="56"/>
       <c r="AJ146" s="56"/>
@@ -12474,14 +12529,14 @@
       <c r="V147" s="35"/>
       <c r="W147" s="37"/>
       <c r="X147" s="37"/>
-      <c r="Z147" s="104"/>
-      <c r="AA147" s="105"/>
+      <c r="Z147" s="103"/>
+      <c r="AA147" s="104"/>
       <c r="AB147" s="56"/>
-      <c r="AC147" s="106"/>
-      <c r="AD147" s="105"/>
-      <c r="AE147" s="105"/>
+      <c r="AC147" s="105"/>
+      <c r="AD147" s="104"/>
+      <c r="AE147" s="104"/>
       <c r="AF147" s="56"/>
-      <c r="AG147" s="105"/>
+      <c r="AG147" s="104"/>
       <c r="AH147" s="56"/>
       <c r="AI147" s="56"/>
       <c r="AJ147" s="56"/>
@@ -12529,14 +12584,14 @@
       <c r="V148" s="35"/>
       <c r="W148" s="37"/>
       <c r="X148" s="37"/>
-      <c r="Z148" s="104"/>
+      <c r="Z148" s="103"/>
       <c r="AA148" s="56"/>
       <c r="AB148" s="56"/>
-      <c r="AC148" s="106"/>
-      <c r="AD148" s="105"/>
-      <c r="AE148" s="105"/>
+      <c r="AC148" s="105"/>
+      <c r="AD148" s="104"/>
+      <c r="AE148" s="104"/>
       <c r="AF148" s="56"/>
-      <c r="AG148" s="105"/>
+      <c r="AG148" s="104"/>
       <c r="AH148" s="56"/>
       <c r="AI148" s="56"/>
       <c r="AJ148" s="56"/>
@@ -12588,14 +12643,14 @@
       <c r="V149" s="35"/>
       <c r="W149" s="37"/>
       <c r="X149" s="37"/>
-      <c r="Z149" s="104"/>
+      <c r="Z149" s="103"/>
       <c r="AA149" s="56"/>
       <c r="AB149" s="56"/>
-      <c r="AC149" s="106"/>
-      <c r="AD149" s="105"/>
-      <c r="AE149" s="105"/>
+      <c r="AC149" s="105"/>
+      <c r="AD149" s="104"/>
+      <c r="AE149" s="104"/>
       <c r="AF149" s="56"/>
-      <c r="AG149" s="105"/>
+      <c r="AG149" s="104"/>
       <c r="AH149" s="56"/>
       <c r="AI149" s="56"/>
       <c r="AJ149" s="56"/>
@@ -12629,9 +12684,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I150" s="86"/>
-      <c r="J150" s="87"/>
-      <c r="K150" s="88"/>
+      <c r="G150"/>
+      <c r="H150"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="14"/>
       <c r="M150" s="93"/>
       <c r="N150" s="93"/>
       <c r="O150" s="93"/>
@@ -12640,14 +12697,14 @@
       <c r="R150" s="93"/>
       <c r="W150" s="92"/>
       <c r="X150" s="92"/>
-      <c r="Z150" s="104"/>
+      <c r="Z150" s="103"/>
       <c r="AA150" s="56"/>
-      <c r="AB150" s="105"/>
-      <c r="AC150" s="106"/>
-      <c r="AD150" s="105"/>
-      <c r="AE150" s="105"/>
+      <c r="AB150" s="104"/>
+      <c r="AC150" s="105"/>
+      <c r="AD150" s="104"/>
+      <c r="AE150" s="104"/>
       <c r="AF150" s="56"/>
-      <c r="AG150" s="105"/>
+      <c r="AG150" s="104"/>
       <c r="AH150" s="56"/>
       <c r="AI150" s="56"/>
       <c r="AJ150" s="56"/>
@@ -12681,9 +12738,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I151" s="86"/>
-      <c r="J151" s="87"/>
-      <c r="K151" s="88"/>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="14"/>
       <c r="M151" s="93"/>
       <c r="N151" s="93"/>
       <c r="O151" s="93"/>
@@ -12692,14 +12751,14 @@
       <c r="R151" s="93"/>
       <c r="W151" s="92"/>
       <c r="X151" s="92"/>
-      <c r="Z151" s="104"/>
+      <c r="Z151" s="103"/>
       <c r="AA151" s="56"/>
-      <c r="AB151" s="105"/>
-      <c r="AC151" s="106"/>
-      <c r="AD151" s="105"/>
-      <c r="AE151" s="105"/>
+      <c r="AB151" s="104"/>
+      <c r="AC151" s="105"/>
+      <c r="AD151" s="104"/>
+      <c r="AE151" s="104"/>
       <c r="AF151" s="56"/>
-      <c r="AG151" s="105"/>
+      <c r="AG151" s="104"/>
       <c r="AH151" s="56"/>
       <c r="AI151" s="56"/>
       <c r="AJ151" s="56"/>
@@ -12744,14 +12803,14 @@
       <c r="R152" s="93"/>
       <c r="W152" s="92"/>
       <c r="X152" s="92"/>
-      <c r="Z152" s="104"/>
+      <c r="Z152" s="103"/>
       <c r="AA152" s="56"/>
-      <c r="AB152" s="105"/>
-      <c r="AC152" s="106"/>
-      <c r="AD152" s="105"/>
-      <c r="AE152" s="105"/>
+      <c r="AB152" s="104"/>
+      <c r="AC152" s="105"/>
+      <c r="AD152" s="104"/>
+      <c r="AE152" s="104"/>
       <c r="AF152" s="56"/>
-      <c r="AG152" s="105"/>
+      <c r="AG152" s="104"/>
       <c r="AH152" s="56"/>
       <c r="AI152" s="56"/>
       <c r="AJ152" s="56"/>
@@ -12796,14 +12855,14 @@
       <c r="R153" s="93"/>
       <c r="W153" s="92"/>
       <c r="X153" s="92"/>
-      <c r="Z153" s="104"/>
+      <c r="Z153" s="103"/>
       <c r="AA153" s="95"/>
-      <c r="AB153" s="105"/>
-      <c r="AC153" s="106"/>
-      <c r="AD153" s="105"/>
-      <c r="AE153" s="105"/>
+      <c r="AB153" s="104"/>
+      <c r="AC153" s="105"/>
+      <c r="AD153" s="104"/>
+      <c r="AE153" s="104"/>
       <c r="AF153" s="56"/>
-      <c r="AG153" s="105"/>
+      <c r="AG153" s="104"/>
       <c r="AH153" s="56"/>
       <c r="AI153" s="56"/>
       <c r="AJ153" s="56"/>
@@ -12852,14 +12911,14 @@
       <c r="R154" s="93"/>
       <c r="W154" s="92"/>
       <c r="X154" s="92"/>
-      <c r="Z154" s="104"/>
+      <c r="Z154" s="103"/>
       <c r="AA154" s="95"/>
-      <c r="AB154" s="105"/>
-      <c r="AC154" s="106"/>
-      <c r="AD154" s="105"/>
-      <c r="AE154" s="105"/>
+      <c r="AB154" s="104"/>
+      <c r="AC154" s="105"/>
+      <c r="AD154" s="104"/>
+      <c r="AE154" s="104"/>
       <c r="AF154" s="56"/>
-      <c r="AG154" s="105"/>
+      <c r="AG154" s="104"/>
       <c r="AH154" s="56"/>
       <c r="AI154" s="56"/>
       <c r="AJ154" s="56"/>
@@ -12893,6 +12952,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
+      <c r="G155" s="89"/>
+      <c r="H155" s="89"/>
+      <c r="I155" s="86"/>
+      <c r="J155" s="87"/>
+      <c r="K155" s="88"/>
       <c r="Z155" s="94"/>
       <c r="AA155" s="95"/>
       <c r="AC155" s="95"/>
@@ -12901,6 +12965,11 @@
       <c r="AG155" s="95"/>
     </row>
     <row r="156" spans="1:60" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G156" s="89"/>
+      <c r="H156" s="89"/>
+      <c r="I156" s="86"/>
+      <c r="J156" s="87"/>
+      <c r="K156" s="88"/>
       <c r="Z156" s="94"/>
       <c r="AA156" s="95"/>
       <c r="AC156" s="95"/>
@@ -14930,7 +14999,11 @@
       <c r="AG393" s="95"/>
     </row>
     <row r="394" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="I394" s="11"/>
+      <c r="G394" s="93"/>
+      <c r="H394" s="93"/>
+      <c r="I394" s="93"/>
+      <c r="J394" s="93"/>
+      <c r="K394" s="93"/>
       <c r="P394" s="24"/>
       <c r="R394" s="21"/>
       <c r="W394" s="34"/>
@@ -14992,7 +15065,11 @@
       </c>
     </row>
     <row r="395" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="I395" s="11"/>
+      <c r="G395" s="93"/>
+      <c r="H395" s="93"/>
+      <c r="I395" s="93"/>
+      <c r="J395" s="93"/>
+      <c r="K395" s="93"/>
       <c r="P395" s="24"/>
       <c r="R395" s="21"/>
       <c r="W395" s="34"/>
@@ -18968,6 +19045,7 @@
       </c>
     </row>
     <row r="461" spans="9:54" x14ac:dyDescent="0.25">
+      <c r="I461" s="11"/>
       <c r="Z461" s="48"/>
       <c r="AA461" s="48"/>
       <c r="AB461" s="49"/>
@@ -19025,6 +19103,7 @@
       </c>
     </row>
     <row r="462" spans="9:54" x14ac:dyDescent="0.25">
+      <c r="I462" s="11"/>
       <c r="Z462" s="48"/>
       <c r="AA462" s="48"/>
       <c r="AB462" s="49"/>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prestamo\Desktop\Adrifelcha_Lab25\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afchavez\Desktop\Adrifelcha_Lab25\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="216">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -660,6 +660,18 @@
   </si>
   <si>
     <t>MAYO</t>
+  </si>
+  <si>
+    <t>Saurus Burgers</t>
+  </si>
+  <si>
+    <t>Cafés Oficina; Café Jaime</t>
+  </si>
+  <si>
+    <t>QUINCENA 1</t>
+  </si>
+  <si>
+    <t>Infografia</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1566,7 @@
   <dimension ref="A1:BH963"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,7 +1857,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>36489</v>
+        <v>36167</v>
       </c>
       <c r="Z4" s="47">
         <v>43222</v>
@@ -2015,7 +2027,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I501)))-(SUM((X11:X499)))</f>
-        <v>381</v>
+        <v>59</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2099,7 +2111,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>-11807</v>
+        <v>-12129</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -4521,21 +4533,36 @@
       <c r="AA31" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AB31" s="49"/>
+      <c r="AB31" s="49" t="s">
+        <v>214</v>
+      </c>
       <c r="AC31" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-292</v>
       </c>
       <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
+      <c r="AE31" s="50">
+        <v>20</v>
+      </c>
       <c r="AG31" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI31" s="106"/>
-      <c r="AJ31" s="56"/>
-      <c r="AK31" s="56"/>
-      <c r="AL31" s="56"/>
+        <v>312</v>
+      </c>
+      <c r="AH31">
+        <v>130</v>
+      </c>
+      <c r="AI31" s="106" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ31" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK31" s="56">
+        <v>75</v>
+      </c>
+      <c r="AL31" s="56">
+        <v>107</v>
+      </c>
       <c r="AM31" s="56"/>
       <c r="AN31" s="56"/>
       <c r="AO31" s="56"/>
@@ -4600,21 +4627,29 @@
       <c r="AA32" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AB32" s="49"/>
+      <c r="AB32" s="49" t="s">
+        <v>215</v>
+      </c>
       <c r="AC32" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AD32" s="50"/>
       <c r="AE32" s="50"/>
       <c r="AG32" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH32" s="71"/>
-      <c r="AI32" s="56"/>
+        <v>30</v>
+      </c>
+      <c r="AH32" s="71">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="56" t="s">
+        <v>191</v>
+      </c>
       <c r="AJ32" s="56"/>
-      <c r="AK32" s="56"/>
+      <c r="AK32" s="56">
+        <v>30</v>
+      </c>
       <c r="AL32" s="56"/>
       <c r="AM32" s="56"/>
       <c r="AN32" s="56"/>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="220">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -672,6 +672,18 @@
   </si>
   <si>
     <t>Infografia</t>
+  </si>
+  <si>
+    <t>Ram - Antojitos</t>
+  </si>
+  <si>
+    <t>Puse la propina</t>
+  </si>
+  <si>
+    <t>Cafés JL y Ram</t>
+  </si>
+  <si>
+    <t>Capuchino y cacahuates; JUMEX en la mañana</t>
   </si>
 </sst>
 </file>
@@ -1565,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,7 +1655,7 @@
       <c r="E2" s="56"/>
       <c r="F2" s="111">
         <f>N3-D2</f>
-        <v>4613</v>
+        <v>4543</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>2</v>
@@ -1770,7 +1782,7 @@
       </c>
       <c r="N3" s="25">
         <f>(SUM(D2,(K11:K501)))-(SUM((J11:J501),(I11:I501)))</f>
-        <v>12376</v>
+        <v>12306</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -1857,7 +1869,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>36167</v>
+        <v>36212</v>
       </c>
       <c r="Z4" s="47">
         <v>43222</v>
@@ -2027,7 +2039,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I501)))-(SUM((X11:X499)))</f>
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2111,7 +2123,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>-12129</v>
+        <v>-12014</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -3455,10 +3467,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G20" s="97"/>
-      <c r="H20" s="56"/>
+      <c r="G20" s="97">
+        <v>43251</v>
+      </c>
+      <c r="H20" s="56" t="s">
+        <v>218</v>
+      </c>
       <c r="I20" s="99"/>
-      <c r="J20" s="100"/>
+      <c r="J20" s="100">
+        <v>70</v>
+      </c>
       <c r="K20" s="101"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18" t="s">
@@ -4715,22 +4733,39 @@
       <c r="AA33" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AB33" s="49"/>
+      <c r="AB33" s="49" t="s">
+        <v>216</v>
+      </c>
       <c r="AC33" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="50"/>
+        <v>115</v>
+      </c>
+      <c r="AD33" s="50">
+        <v>200</v>
+      </c>
       <c r="AE33" s="50"/>
       <c r="AG33" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="106"/>
-      <c r="AL33" s="56"/>
-      <c r="AM33" s="56"/>
+        <v>85</v>
+      </c>
+      <c r="AH33">
+        <v>30</v>
+      </c>
+      <c r="AI33" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ33" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK33" s="106">
+        <v>30</v>
+      </c>
+      <c r="AL33" s="56">
+        <v>5</v>
+      </c>
+      <c r="AM33" s="56">
+        <v>20</v>
+      </c>
       <c r="AN33" s="56"/>
       <c r="AO33" s="56"/>
       <c r="AP33" s="56"/>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="223">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -684,6 +684,15 @@
   </si>
   <si>
     <t>Capuchino y cacahuates; JUMEX en la mañana</t>
+  </si>
+  <si>
+    <t>Toks Ale</t>
+  </si>
+  <si>
+    <t>Ale</t>
+  </si>
+  <si>
+    <t>Concierto Harry</t>
   </si>
 </sst>
 </file>
@@ -1577,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,7 +1664,7 @@
       <c r="E2" s="56"/>
       <c r="F2" s="111">
         <f>N3-D2</f>
-        <v>4543</v>
+        <v>4265</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>2</v>
@@ -1782,7 +1791,7 @@
       </c>
       <c r="N3" s="25">
         <f>(SUM(D2,(K11:K501)))-(SUM((J11:J501),(I11:I501)))</f>
-        <v>12306</v>
+        <v>12028</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -1869,7 +1878,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>36212</v>
+        <v>36004</v>
       </c>
       <c r="Z4" s="47">
         <v>43222</v>
@@ -2039,7 +2048,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I501)))-(SUM((X11:X499)))</f>
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2123,7 +2132,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>-12014</v>
+        <v>-11944</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -3564,10 +3573,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="56"/>
+      <c r="G21" s="97">
+        <v>43251</v>
+      </c>
+      <c r="H21" s="56" t="s">
+        <v>220</v>
+      </c>
       <c r="I21" s="99"/>
-      <c r="J21" s="100"/>
+      <c r="J21" s="100">
+        <v>278</v>
+      </c>
       <c r="K21" s="101"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18" t="s">
@@ -4738,12 +4753,17 @@
       </c>
       <c r="AC33" s="41">
         <f t="shared" si="3"/>
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="AD33" s="50">
         <v>200</v>
       </c>
-      <c r="AE33" s="50"/>
+      <c r="AE33" s="50">
+        <v>100</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>221</v>
+      </c>
       <c r="AG33" s="51">
         <f t="shared" si="0"/>
         <v>85</v>
@@ -4829,20 +4849,24 @@
       <c r="AA34" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AB34" s="49"/>
+      <c r="AB34" s="49" t="s">
+        <v>222</v>
+      </c>
       <c r="AC34" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AD34" s="50"/>
       <c r="AE34" s="50"/>
       <c r="AG34" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI34" s="56"/>
       <c r="AJ34" s="56"/>
-      <c r="AK34" s="56"/>
+      <c r="AK34" s="56">
+        <v>30</v>
+      </c>
       <c r="AL34" s="56"/>
       <c r="AM34" s="56"/>
       <c r="AN34" s="56"/>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -1631,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5176,7 +5176,7 @@
         <v>1300</v>
       </c>
       <c r="S36" s="19">
-        <f t="shared" si="8"/>
+        <f>Q36-R36</f>
         <v>200</v>
       </c>
       <c r="U36" s="35"/>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afchavez\Desktop\Adrifelcha_Lab25\Finanzas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="238">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -731,11 +736,14 @@
   <si>
     <t>Uber (de regreso del medico)</t>
   </si>
+  <si>
+    <t>No JL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1110,7 +1118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1335,6 +1343,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1409,7 +1418,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1444,7 +1453,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1621,7 +1630,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1631,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,7 +1721,7 @@
       <c r="E2" s="55"/>
       <c r="F2" s="109">
         <f>N3-D2</f>
-        <v>1006</v>
+        <v>806</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>2</v>
@@ -1840,7 +1849,7 @@
       </c>
       <c r="N3" s="24">
         <f>(SUM(D2,(K11:K501)))-(SUM((J11:J501),(I11:I501)))</f>
-        <v>8769</v>
+        <v>8569</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -1928,7 +1937,7 @@
       </c>
       <c r="P4" s="78">
         <f>SUM(N3,S9,P7)</f>
-        <v>47047</v>
+        <v>46707</v>
       </c>
       <c r="Q4" s="55"/>
       <c r="AA4" s="46">
@@ -1997,7 +2006,7 @@
       </c>
       <c r="BH4" s="56">
         <f>(SUM((AW3:AW519)))-(SUM((BA3:BA519)))</f>
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="BI4" s="56"/>
     </row>
@@ -2099,7 +2108,7 @@
       </c>
       <c r="N6" s="51">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I501)))-(SUM((Y11:Y499)))</f>
-        <v>1178</v>
+        <v>1038</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -2183,7 +2192,7 @@
       </c>
       <c r="P7" s="77">
         <f>SUM(R7,N6)</f>
-        <v>1178</v>
+        <v>1038</v>
       </c>
       <c r="Q7" s="74"/>
       <c r="R7" s="73">
@@ -3486,6 +3495,10 @@
       <c r="K19" s="127">
         <v>12188</v>
       </c>
+      <c r="L19" s="134">
+        <f>K19-N3</f>
+        <v>3619</v>
+      </c>
       <c r="M19" s="17"/>
       <c r="N19" s="17" t="s">
         <v>24</v>
@@ -4073,10 +4086,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G25" s="95"/>
-      <c r="H25" s="55"/>
+      <c r="G25" s="95">
+        <v>43255</v>
+      </c>
+      <c r="H25" s="55" t="s">
+        <v>208</v>
+      </c>
       <c r="I25" s="97"/>
-      <c r="J25" s="98"/>
+      <c r="J25" s="98">
+        <v>200</v>
+      </c>
       <c r="K25" s="99"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17" t="s">
@@ -5273,20 +5292,31 @@
       <c r="AB37" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="AC37" s="48"/>
+      <c r="AC37" s="48" t="s">
+        <v>237</v>
+      </c>
       <c r="AD37" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-140</v>
       </c>
       <c r="AE37" s="49"/>
       <c r="AF37" s="49"/>
       <c r="AH37" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="55"/>
-      <c r="AK37" s="55"/>
-      <c r="AL37" s="55"/>
+        <v>140</v>
+      </c>
+      <c r="AI37">
+        <v>50</v>
+      </c>
+      <c r="AJ37" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK37" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL37" s="55">
+        <v>30</v>
+      </c>
       <c r="AM37" s="55"/>
       <c r="AN37" s="55"/>
       <c r="AO37" s="55"/>
@@ -5298,15 +5328,19 @@
       <c r="AU37" s="55"/>
       <c r="AV37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AW37" s="55"/>
+        <v>60</v>
+      </c>
+      <c r="AW37" s="55">
+        <v>60</v>
+      </c>
       <c r="AX37" s="55"/>
       <c r="AY37" s="55"/>
-      <c r="AZ37" s="55"/>
+      <c r="AZ37" s="55">
+        <v>2</v>
+      </c>
       <c r="BA37" s="55">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB37" s="55"/>
       <c r="BC37">

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -707,9 +707,6 @@
     <t>Comision perdida</t>
   </si>
   <si>
-    <t>Netflix (Feb,2018-Mayo,2018)</t>
-  </si>
-  <si>
     <t>Simulacro Elecciones</t>
   </si>
   <si>
@@ -737,7 +734,10 @@
     <t>Uber (de regreso del medico)</t>
   </si>
   <si>
-    <t>No JL</t>
+    <t>Disappointing day</t>
+  </si>
+  <si>
+    <t>Netflix (Feb,2018-Junio,2018)</t>
   </si>
 </sst>
 </file>
@@ -1640,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="P4" s="78">
         <f>SUM(N3,S9,P7)</f>
-        <v>46707</v>
+        <v>46777</v>
       </c>
       <c r="Q4" s="55"/>
       <c r="AA4" s="46">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="N6" s="51">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I501)))-(SUM((Y11:Y499)))</f>
-        <v>1038</v>
+        <v>1008</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="P7" s="77">
         <f>SUM(R7,N6)</f>
-        <v>1038</v>
+        <v>1008</v>
       </c>
       <c r="Q7" s="74"/>
       <c r="R7" s="73">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="S9" s="14">
         <f>SUM(S11:S482)</f>
-        <v>37100</v>
+        <v>37200</v>
       </c>
       <c r="U9" s="31" t="s">
         <v>40</v>
@@ -2468,10 +2468,10 @@
         <v>19</v>
       </c>
       <c r="O10" s="132" t="s">
+        <v>231</v>
+      </c>
+      <c r="P10" s="132" t="s">
         <v>232</v>
-      </c>
-      <c r="P10" s="132" t="s">
-        <v>233</v>
       </c>
       <c r="Q10" s="26" t="s">
         <v>20</v>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="T33" s="128">
         <f>SUM(S33:S38)</f>
-        <v>3330</v>
+        <v>3430</v>
       </c>
       <c r="U33" s="35"/>
       <c r="V33" s="34"/>
@@ -5034,10 +5034,10 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK34" s="55" t="s">
         <v>230</v>
-      </c>
-      <c r="AK34" s="55" t="s">
-        <v>231</v>
       </c>
       <c r="AL34" s="55">
         <v>30</v>
@@ -5113,7 +5113,7 @@
         <v>70</v>
       </c>
       <c r="AC35" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AD35" s="40">
         <f t="shared" si="3"/>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AK35" s="55" t="s">
         <v>125</v>
@@ -5186,7 +5186,7 @@
         <v>121</v>
       </c>
       <c r="P36" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q36" s="22">
         <v>1500</v>
@@ -5210,7 +5210,7 @@
         <v>71</v>
       </c>
       <c r="AC36" s="48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AD36" s="40">
         <f t="shared" si="3"/>
@@ -5293,7 +5293,7 @@
         <v>72</v>
       </c>
       <c r="AC37" s="48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AD37" s="40">
         <f t="shared" si="3"/>
@@ -5363,16 +5363,16 @@
         <v>26</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="P38" s="34"/>
       <c r="Q38" s="22">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R38" s="21"/>
       <c r="S38" s="19">
         <f t="shared" si="8"/>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U38" s="35"/>
       <c r="V38" s="34"/>
@@ -5388,17 +5388,19 @@
       <c r="AC38" s="48"/>
       <c r="AD38" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AE38" s="49"/>
       <c r="AF38" s="49"/>
       <c r="AH38" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ38" s="55"/>
       <c r="AK38" s="55"/>
-      <c r="AL38" s="55"/>
+      <c r="AL38" s="55">
+        <v>30</v>
+      </c>
       <c r="AM38" s="55"/>
       <c r="AN38" s="98"/>
       <c r="AO38" s="55"/>
@@ -5438,10 +5440,10 @@
       <c r="K39" s="99"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="O39" s="17" t="s">
         <v>235</v>
-      </c>
-      <c r="O39" s="17" t="s">
-        <v>236</v>
       </c>
       <c r="P39" s="34"/>
       <c r="Q39" s="22">

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="241">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -738,6 +738,15 @@
   </si>
   <si>
     <t>Netflix (Feb,2018-Junio,2018)</t>
+  </si>
+  <si>
+    <t>Capuchino y Taxi al doctor</t>
+  </si>
+  <si>
+    <t>Penúltima cita Rino</t>
+  </si>
+  <si>
+    <t>Reunion 1 - Nancy y Marina</t>
   </si>
 </sst>
 </file>
@@ -1640,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,7 +1946,7 @@
       </c>
       <c r="P4" s="78">
         <f>SUM(N3,S9,P7)</f>
-        <v>46777</v>
+        <v>46667</v>
       </c>
       <c r="Q4" s="55"/>
       <c r="AA4" s="46">
@@ -2006,7 +2015,7 @@
       </c>
       <c r="BH4" s="56">
         <f>(SUM((AW3:AW519)))-(SUM((BA3:BA519)))</f>
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="BI4" s="56"/>
     </row>
@@ -2108,7 +2117,7 @@
       </c>
       <c r="N6" s="51">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I501)))-(SUM((Y11:Y499)))</f>
-        <v>1008</v>
+        <v>898</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -2192,7 +2201,7 @@
       </c>
       <c r="P7" s="77">
         <f>SUM(R7,N6)</f>
-        <v>1008</v>
+        <v>898</v>
       </c>
       <c r="Q7" s="74"/>
       <c r="R7" s="73">
@@ -5385,23 +5394,34 @@
       <c r="AB38" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AC38" s="48"/>
+      <c r="AC38" s="48" t="s">
+        <v>239</v>
+      </c>
       <c r="AD38" s="40">
         <f t="shared" si="3"/>
-        <v>-30</v>
+        <v>-100</v>
       </c>
       <c r="AE38" s="49"/>
       <c r="AF38" s="49"/>
       <c r="AH38" s="50">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="AJ38" s="55"/>
-      <c r="AK38" s="55"/>
+        <v>100</v>
+      </c>
+      <c r="AI38">
+        <v>50</v>
+      </c>
+      <c r="AJ38" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK38" s="55" t="s">
+        <v>238</v>
+      </c>
       <c r="AL38" s="55">
         <v>30</v>
       </c>
-      <c r="AM38" s="55"/>
+      <c r="AM38" s="55">
+        <v>20</v>
+      </c>
       <c r="AN38" s="98"/>
       <c r="AO38" s="55"/>
       <c r="AP38" s="55"/>
@@ -5415,12 +5435,16 @@
         <v>0</v>
       </c>
       <c r="AW38" s="55"/>
-      <c r="AX38" s="55"/>
+      <c r="AX38" s="55">
+        <v>1</v>
+      </c>
       <c r="AY38" s="55"/>
-      <c r="AZ38" s="55"/>
+      <c r="AZ38" s="55">
+        <v>1</v>
+      </c>
       <c r="BA38" s="55">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BB38" s="55"/>
       <c r="BC38">
@@ -5465,20 +5489,33 @@
       <c r="AB39" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="AC39" s="48"/>
+      <c r="AC39" s="48" t="s">
+        <v>240</v>
+      </c>
       <c r="AD39" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="AE39" s="49"/>
-      <c r="AF39" s="49"/>
+      <c r="AF39" s="49">
+        <v>20</v>
+      </c>
       <c r="AH39" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="55"/>
-      <c r="AK39" s="55"/>
-      <c r="AL39" s="55"/>
+        <v>80</v>
+      </c>
+      <c r="AI39">
+        <v>50</v>
+      </c>
+      <c r="AJ39" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK39" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL39" s="55">
+        <v>30</v>
+      </c>
       <c r="AM39" s="55"/>
       <c r="AN39" s="55"/>
       <c r="AO39" s="55"/>
@@ -5548,10 +5585,12 @@
       <c r="AC40" s="48"/>
       <c r="AD40" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE40" s="49"/>
-      <c r="AF40" s="49"/>
+      <c r="AF40" s="49">
+        <v>20</v>
+      </c>
       <c r="AH40" s="50">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="242">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -747,6 +747,9 @@
   </si>
   <si>
     <t>Reunion 1 - Nancy y Marina</t>
+  </si>
+  <si>
+    <t>JL apoyo en revision de AFC</t>
   </si>
 </sst>
 </file>
@@ -1649,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="W29" workbookViewId="0">
+      <selection activeCell="AC41" sqref="AC41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,7 +1949,7 @@
       </c>
       <c r="P4" s="78">
         <f>SUM(N3,S9,P7)</f>
-        <v>46667</v>
+        <v>46597</v>
       </c>
       <c r="Q4" s="55"/>
       <c r="AA4" s="46">
@@ -2117,7 +2120,7 @@
       </c>
       <c r="N6" s="51">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I501)))-(SUM((Y11:Y499)))</f>
-        <v>898</v>
+        <v>828</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -2201,7 +2204,7 @@
       </c>
       <c r="P7" s="77">
         <f>SUM(R7,N6)</f>
-        <v>898</v>
+        <v>828</v>
       </c>
       <c r="Q7" s="74"/>
       <c r="R7" s="73">
@@ -5582,22 +5585,31 @@
       <c r="AB40" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AC40" s="48"/>
+      <c r="AC40" s="48" t="s">
+        <v>241</v>
+      </c>
       <c r="AD40" s="40">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>-50</v>
       </c>
       <c r="AE40" s="49"/>
       <c r="AF40" s="49">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AH40" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="AI40">
+        <v>50</v>
       </c>
       <c r="AJ40" s="55"/>
-      <c r="AK40" s="55"/>
-      <c r="AL40" s="55"/>
+      <c r="AK40" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL40" s="55">
+        <v>30</v>
+      </c>
       <c r="AM40" s="55"/>
       <c r="AN40" s="55"/>
       <c r="AO40" s="55"/>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="251">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -750,6 +750,33 @@
   </si>
   <si>
     <t>JL apoyo en revision de AFC</t>
+  </si>
+  <si>
+    <t>Capuchino y canasta de nata pa Cesar</t>
+  </si>
+  <si>
+    <t>Comida Jaime Clunys</t>
+  </si>
+  <si>
+    <t>Tarjeta Jaime</t>
+  </si>
+  <si>
+    <t>Capacitacion llenado de actas</t>
+  </si>
+  <si>
+    <t>Clunys</t>
+  </si>
+  <si>
+    <t>Clunys (Pago con tarjeta)</t>
+  </si>
+  <si>
+    <t>Reyes - Muro</t>
+  </si>
+  <si>
+    <t>Comida Oli, Jorge y Oscar</t>
+  </si>
+  <si>
+    <t>Tostadas</t>
   </si>
 </sst>
 </file>
@@ -1652,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W29" workbookViewId="0">
-      <selection activeCell="AC41" sqref="AC41"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AD44" sqref="AD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,7 +1760,7 @@
       <c r="E2" s="55"/>
       <c r="F2" s="109">
         <f>N3-D2</f>
-        <v>806</v>
+        <v>-250</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>2</v>
@@ -1861,7 +1888,7 @@
       </c>
       <c r="N3" s="24">
         <f>(SUM(D2,(K11:K501)))-(SUM((J11:J501),(I11:I501)))</f>
-        <v>8569</v>
+        <v>7513</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -1949,7 +1976,7 @@
       </c>
       <c r="P4" s="78">
         <f>SUM(N3,S9,P7)</f>
-        <v>46597</v>
+        <v>45384</v>
       </c>
       <c r="Q4" s="55"/>
       <c r="AA4" s="46">
@@ -2018,7 +2045,7 @@
       </c>
       <c r="BH4" s="56">
         <f>(SUM((AW3:AW519)))-(SUM((BA3:BA519)))</f>
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="BI4" s="56"/>
     </row>
@@ -2120,7 +2147,7 @@
       </c>
       <c r="N6" s="51">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I501)))-(SUM((Y11:Y499)))</f>
-        <v>828</v>
+        <v>671</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -2204,7 +2231,7 @@
       </c>
       <c r="P7" s="77">
         <f>SUM(R7,N6)</f>
-        <v>828</v>
+        <v>671</v>
       </c>
       <c r="Q7" s="74"/>
       <c r="R7" s="73">
@@ -3509,7 +3536,7 @@
       </c>
       <c r="L19" s="134">
         <f>K19-N3</f>
-        <v>3619</v>
+        <v>4675</v>
       </c>
       <c r="M19" s="17"/>
       <c r="N19" s="17" t="s">
@@ -4196,10 +4223,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G26" s="95"/>
-      <c r="H26" s="55"/>
+      <c r="G26" s="95">
+        <v>43259</v>
+      </c>
+      <c r="H26" s="55" t="s">
+        <v>243</v>
+      </c>
       <c r="I26" s="97"/>
-      <c r="J26" s="98"/>
+      <c r="J26" s="98">
+        <v>1056</v>
+      </c>
       <c r="K26" s="99"/>
       <c r="M26" s="17"/>
       <c r="N26" s="17" t="s">
@@ -5603,7 +5636,9 @@
       <c r="AI40">
         <v>50</v>
       </c>
-      <c r="AJ40" s="55"/>
+      <c r="AJ40" s="55" t="s">
+        <v>187</v>
+      </c>
       <c r="AK40" s="55" t="s">
         <v>153</v>
       </c>
@@ -5668,21 +5703,34 @@
       <c r="AB41" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AC41" s="48"/>
+      <c r="AC41" s="48" t="s">
+        <v>246</v>
+      </c>
       <c r="AD41" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="AE41" s="49"/>
       <c r="AF41" s="106"/>
       <c r="AH41" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="55"/>
-      <c r="AK41" s="55"/>
-      <c r="AL41" s="55"/>
-      <c r="AM41" s="55"/>
+        <v>52</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="AK41" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL41" s="55">
+        <v>30</v>
+      </c>
+      <c r="AM41" s="55">
+        <v>22</v>
+      </c>
       <c r="AN41" s="55"/>
       <c r="AO41" s="55"/>
       <c r="AP41" s="55"/>
@@ -5740,20 +5788,29 @@
       <c r="AB42" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AC42" s="48"/>
+      <c r="AC42" s="48" t="s">
+        <v>245</v>
+      </c>
       <c r="AD42" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AE42" s="49"/>
       <c r="AF42" s="49"/>
       <c r="AH42" s="50">
         <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AI42">
         <v>0</v>
       </c>
       <c r="AJ42" s="55"/>
-      <c r="AK42" s="55"/>
-      <c r="AL42" s="55"/>
+      <c r="AK42" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL42" s="55">
+        <v>20</v>
+      </c>
       <c r="AM42" s="55"/>
       <c r="AN42" s="55"/>
       <c r="AO42" s="55"/>
@@ -5770,10 +5827,12 @@
       <c r="AW42" s="55"/>
       <c r="AX42" s="55"/>
       <c r="AY42" s="55"/>
-      <c r="AZ42" s="55"/>
+      <c r="AZ42" s="55">
+        <v>5</v>
+      </c>
       <c r="BA42" s="55">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BB42" s="55"/>
       <c r="BC42">
@@ -5812,7 +5871,9 @@
       <c r="AB43" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="AC43" s="48"/>
+      <c r="AC43" s="48" t="s">
+        <v>248</v>
+      </c>
       <c r="AD43" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5821,6 +5882,9 @@
       <c r="AF43" s="49"/>
       <c r="AH43" s="50">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI43">
         <v>0</v>
       </c>
       <c r="AJ43" s="55"/>
@@ -5884,20 +5948,31 @@
       <c r="AB44" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="AC44" s="71"/>
+      <c r="AC44" s="71" t="s">
+        <v>249</v>
+      </c>
       <c r="AD44" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-85</v>
       </c>
       <c r="AE44" s="49"/>
       <c r="AF44" s="49"/>
       <c r="AH44" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="96"/>
-      <c r="AK44" s="55"/>
-      <c r="AL44" s="55"/>
+        <v>85</v>
+      </c>
+      <c r="AI44">
+        <v>55</v>
+      </c>
+      <c r="AJ44" s="96" t="s">
+        <v>250</v>
+      </c>
+      <c r="AK44" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL44" s="55">
+        <v>30</v>
+      </c>
       <c r="AM44" s="55"/>
       <c r="AN44" s="55"/>
       <c r="AO44" s="55"/>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="263">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -778,6 +778,42 @@
   <si>
     <t>Tostadas</t>
   </si>
+  <si>
+    <t>Late</t>
+  </si>
+  <si>
+    <t>Formato de Validacion (No Oli No Susy)</t>
+  </si>
+  <si>
+    <t>iHOP</t>
+  </si>
+  <si>
+    <t>Enana-Mamá</t>
+  </si>
+  <si>
+    <t>Pantalones Sol</t>
+  </si>
+  <si>
+    <t>Reunion Mtra Sandy</t>
+  </si>
+  <si>
+    <t>Casa de Pepe (JL)</t>
+  </si>
+  <si>
+    <t>Capuchino; Quinela</t>
+  </si>
+  <si>
+    <t>QUINCENA 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hogaza a domicilio </t>
+  </si>
+  <si>
+    <t>Nely y Eleo</t>
+  </si>
+  <si>
+    <t>Granaderos!</t>
+  </si>
 </sst>
 </file>
 
@@ -1157,7 +1193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1383,6 +1419,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1679,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AD44" sqref="AD44"/>
+    <sheetView tabSelected="1" topLeftCell="W24" workbookViewId="0">
+      <selection activeCell="AC48" sqref="AC48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,7 +1797,7 @@
       <c r="E2" s="55"/>
       <c r="F2" s="109">
         <f>N3-D2</f>
-        <v>-250</v>
+        <v>9942</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>2</v>
@@ -1888,7 +1925,7 @@
       </c>
       <c r="N3" s="24">
         <f>(SUM(D2,(K11:K501)))-(SUM((J11:J501),(I11:I501)))</f>
-        <v>7513</v>
+        <v>17705</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -1976,7 +2013,7 @@
       </c>
       <c r="P4" s="78">
         <f>SUM(N3,S9,P7)</f>
-        <v>45384</v>
+        <v>55341</v>
       </c>
       <c r="Q4" s="55"/>
       <c r="AA4" s="46">
@@ -2045,7 +2082,7 @@
       </c>
       <c r="BH4" s="56">
         <f>(SUM((AW3:AW519)))-(SUM((BA3:BA519)))</f>
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="BI4" s="56"/>
     </row>
@@ -2147,7 +2184,7 @@
       </c>
       <c r="N6" s="51">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I501)))-(SUM((Y11:Y499)))</f>
-        <v>671</v>
+        <v>236</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -2231,7 +2268,7 @@
       </c>
       <c r="P7" s="77">
         <f>SUM(R7,N6)</f>
-        <v>671</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="74"/>
       <c r="R7" s="73">
@@ -2394,7 +2431,7 @@
       </c>
       <c r="S9" s="14">
         <f>SUM(S11:S482)</f>
-        <v>37200</v>
+        <v>37400</v>
       </c>
       <c r="U9" s="31" t="s">
         <v>40</v>
@@ -3445,11 +3482,19 @@
         <f>SUM(S18:S28)</f>
         <v>5120</v>
       </c>
-      <c r="U18" s="35"/>
-      <c r="V18" s="34"/>
+      <c r="U18" s="35">
+        <v>43265</v>
+      </c>
+      <c r="V18" s="34" t="s">
+        <v>206</v>
+      </c>
       <c r="W18" s="34"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
+      <c r="X18" s="36">
+        <v>10612</v>
+      </c>
+      <c r="Y18" s="36">
+        <v>10612</v>
+      </c>
       <c r="AA18" s="46">
         <v>43236</v>
       </c>
@@ -3533,10 +3578,6 @@
       <c r="J19" s="126"/>
       <c r="K19" s="127">
         <v>12188</v>
-      </c>
-      <c r="L19" s="134">
-        <f>K19-N3</f>
-        <v>4675</v>
       </c>
       <c r="M19" s="17"/>
       <c r="N19" s="17" t="s">
@@ -4336,10 +4377,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G27" s="95"/>
-      <c r="H27" s="55"/>
+      <c r="G27" s="95">
+        <v>43263</v>
+      </c>
+      <c r="H27" s="55" t="s">
+        <v>253</v>
+      </c>
       <c r="I27" s="97"/>
-      <c r="J27" s="98"/>
+      <c r="J27" s="98">
+        <v>420</v>
+      </c>
       <c r="K27" s="99"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17" t="s">
@@ -4438,11 +4485,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G28" s="95"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="99"/>
+      <c r="G28" s="123">
+        <v>43265</v>
+      </c>
+      <c r="H28" s="124" t="s">
+        <v>206</v>
+      </c>
+      <c r="I28" s="135"/>
+      <c r="J28" s="126"/>
+      <c r="K28" s="127">
+        <v>10612</v>
+      </c>
+      <c r="L28" s="134"/>
       <c r="M28" s="17"/>
       <c r="N28" s="17" t="s">
         <v>24</v>
@@ -4943,8 +4997,8 @@
         <v>1040</v>
       </c>
       <c r="T33" s="128">
-        <f>SUM(S33:S38)</f>
-        <v>3430</v>
+        <f>SUM(S33:S39)</f>
+        <v>3510</v>
       </c>
       <c r="U33" s="35"/>
       <c r="V33" s="34"/>
@@ -5568,10 +5622,12 @@
       <c r="AW39" s="55"/>
       <c r="AX39" s="55"/>
       <c r="AY39" s="55"/>
-      <c r="AZ39" s="55"/>
+      <c r="AZ39" s="55">
+        <v>2</v>
+      </c>
       <c r="BA39" s="55">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB39" s="55"/>
       <c r="BC39">
@@ -5606,6 +5662,10 @@
       <c r="S40" s="19">
         <f>Q40-R40</f>
         <v>30</v>
+      </c>
+      <c r="T40" s="11">
+        <f>SUM(S40:S41)</f>
+        <v>230</v>
       </c>
       <c r="U40" s="35"/>
       <c r="V40" s="34"/>
@@ -5661,10 +5721,12 @@
       <c r="AW40" s="55"/>
       <c r="AX40" s="55"/>
       <c r="AY40" s="55"/>
-      <c r="AZ40" s="55"/>
+      <c r="AZ40" s="55">
+        <v>2</v>
+      </c>
       <c r="BA40" s="55">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB40" s="55"/>
       <c r="BC40">
@@ -5682,15 +5744,23 @@
       <c r="I41" s="97"/>
       <c r="J41" s="98"/>
       <c r="K41" s="99"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
+      <c r="M41" s="58">
+        <v>43180</v>
+      </c>
+      <c r="N41" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="O41" s="17" t="s">
+        <v>255</v>
+      </c>
       <c r="P41" s="34"/>
-      <c r="Q41" s="22"/>
+      <c r="Q41" s="22">
+        <v>200</v>
+      </c>
       <c r="R41" s="21"/>
       <c r="S41" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U41" s="35"/>
       <c r="V41" s="34"/>
@@ -5744,12 +5814,16 @@
         <v>0</v>
       </c>
       <c r="AW41" s="55"/>
-      <c r="AX41" s="55"/>
+      <c r="AX41" s="55">
+        <v>1</v>
+      </c>
       <c r="AY41" s="55"/>
-      <c r="AZ41" s="55"/>
+      <c r="AZ41" s="55">
+        <v>3</v>
+      </c>
       <c r="BA41" s="55">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BB41" s="55"/>
       <c r="BC41">
@@ -5793,13 +5867,13 @@
       </c>
       <c r="AD42" s="40">
         <f t="shared" si="3"/>
-        <v>-20</v>
+        <v>-45</v>
       </c>
       <c r="AE42" s="49"/>
       <c r="AF42" s="49"/>
       <c r="AH42" s="50">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="AI42">
         <v>0</v>
@@ -5822,22 +5896,22 @@
       <c r="AU42" s="55"/>
       <c r="AV42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AW42" s="55"/>
       <c r="AX42" s="55"/>
       <c r="AY42" s="55"/>
-      <c r="AZ42" s="55">
-        <v>5</v>
-      </c>
+      <c r="AZ42" s="55"/>
       <c r="BA42" s="55">
         <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="BB42" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="BB42" s="55">
+        <v>5</v>
+      </c>
       <c r="BC42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="5:57" x14ac:dyDescent="0.25">
@@ -5953,13 +6027,13 @@
       </c>
       <c r="AD44" s="40">
         <f t="shared" si="3"/>
-        <v>-85</v>
+        <v>-135</v>
       </c>
       <c r="AE44" s="49"/>
       <c r="AF44" s="49"/>
       <c r="AH44" s="50">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="AI44">
         <v>55</v>
@@ -5984,9 +6058,11 @@
       <c r="AU44" s="55"/>
       <c r="AV44">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AW44" s="98"/>
+        <v>50</v>
+      </c>
+      <c r="AW44" s="98">
+        <v>50</v>
+      </c>
       <c r="AX44" s="98"/>
       <c r="AY44" s="55"/>
       <c r="AZ44" s="55"/>
@@ -6031,20 +6107,31 @@
       <c r="AB45" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AC45" s="48"/>
+      <c r="AC45" s="48" t="s">
+        <v>252</v>
+      </c>
       <c r="AD45" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="AE45" s="49"/>
       <c r="AF45" s="49"/>
       <c r="AH45" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="96"/>
-      <c r="AK45" s="55"/>
-      <c r="AL45" s="98"/>
+        <v>80</v>
+      </c>
+      <c r="AI45">
+        <v>50</v>
+      </c>
+      <c r="AJ45" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK45" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL45" s="91">
+        <v>30</v>
+      </c>
       <c r="AM45" s="55"/>
       <c r="AN45" s="55"/>
       <c r="AO45" s="55"/>
@@ -6061,10 +6148,12 @@
       <c r="AW45" s="55"/>
       <c r="AX45" s="55"/>
       <c r="AY45" s="55"/>
-      <c r="AZ45" s="55"/>
+      <c r="AZ45" s="55">
+        <v>2</v>
+      </c>
       <c r="BA45" s="55">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB45" s="55"/>
       <c r="BC45">
@@ -6104,18 +6193,25 @@
       <c r="AB46" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="AC46" s="48"/>
+      <c r="AC46" s="48" t="s">
+        <v>256</v>
+      </c>
       <c r="AD46" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AE46" s="49"/>
       <c r="AF46" s="49"/>
       <c r="AH46" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="96"/>
+        <v>100</v>
+      </c>
+      <c r="AI46">
+        <v>100</v>
+      </c>
+      <c r="AJ46" s="96" t="s">
+        <v>257</v>
+      </c>
       <c r="AK46" s="96"/>
       <c r="AL46" s="55"/>
       <c r="AM46" s="55"/>
@@ -6176,21 +6272,32 @@
       <c r="AB47" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AC47" s="48"/>
+      <c r="AC47" s="48" t="s">
+        <v>259</v>
+      </c>
       <c r="AD47" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="AE47" s="49"/>
       <c r="AF47" s="49"/>
       <c r="AH47" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="AI47">
+        <v>50</v>
       </c>
       <c r="AJ47" s="96"/>
-      <c r="AK47" s="55"/>
-      <c r="AL47" s="55"/>
-      <c r="AM47" s="55"/>
+      <c r="AK47" s="96" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL47" s="55">
+        <v>30</v>
+      </c>
+      <c r="AM47" s="55">
+        <v>50</v>
+      </c>
       <c r="AN47" s="55"/>
       <c r="AO47" s="55"/>
       <c r="AP47" s="55"/>
@@ -6248,20 +6355,31 @@
       <c r="AB48" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AC48" s="48"/>
+      <c r="AC48" s="48" t="s">
+        <v>262</v>
+      </c>
       <c r="AD48" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AE48" s="49"/>
-      <c r="AF48" s="49"/>
+      <c r="AF48" s="49">
+        <v>105</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>261</v>
+      </c>
       <c r="AH48" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="AJ48" s="55"/>
-      <c r="AK48" s="55"/>
-      <c r="AL48" s="55"/>
+      <c r="AK48" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="AL48" s="55">
+        <v>155</v>
+      </c>
       <c r="AM48" s="55"/>
       <c r="AN48" s="55"/>
       <c r="AO48" s="55"/>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afchavez\Desktop\Adrifelcha_Lab25\Finanzas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="271">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -814,11 +809,35 @@
   <si>
     <t>Granaderos!</t>
   </si>
+  <si>
+    <t>Prestamo Javs</t>
+  </si>
+  <si>
+    <t>Pirate Burguer</t>
+  </si>
+  <si>
+    <t>Le pague a Jaime 3 de los 5 que me ayudo a prestarle a Javs; Chalecos y regalos papá; Helados; Paulaner Dunkel</t>
+  </si>
+  <si>
+    <t>Compra regalos papá</t>
+  </si>
+  <si>
+    <t>Nely</t>
+  </si>
+  <si>
+    <t>Café y bolillito</t>
+  </si>
+  <si>
+    <t>Eleo</t>
+  </si>
+  <si>
+    <t>Chapata</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1494,7 +1513,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1529,7 +1548,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1706,7 +1725,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1716,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W24" workbookViewId="0">
-      <selection activeCell="AC48" sqref="AC48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,7 +1816,7 @@
       <c r="E2" s="55"/>
       <c r="F2" s="109">
         <f>N3-D2</f>
-        <v>9942</v>
+        <v>4442</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>2</v>
@@ -1925,7 +1944,7 @@
       </c>
       <c r="N3" s="24">
         <f>(SUM(D2,(K11:K501)))-(SUM((J11:J501),(I11:I501)))</f>
-        <v>17705</v>
+        <v>12205</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -2013,7 +2032,7 @@
       </c>
       <c r="P4" s="78">
         <f>SUM(N3,S9,P7)</f>
-        <v>55341</v>
+        <v>51491</v>
       </c>
       <c r="Q4" s="55"/>
       <c r="AA4" s="46">
@@ -2082,7 +2101,7 @@
       </c>
       <c r="BH4" s="56">
         <f>(SUM((AW3:AW519)))-(SUM((BA3:BA519)))</f>
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="BI4" s="56"/>
     </row>
@@ -2184,7 +2203,7 @@
       </c>
       <c r="N6" s="51">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I501)))-(SUM((Y11:Y499)))</f>
-        <v>236</v>
+        <v>1821</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -2268,7 +2287,7 @@
       </c>
       <c r="P7" s="77">
         <f>SUM(R7,N6)</f>
-        <v>236</v>
+        <v>1821</v>
       </c>
       <c r="Q7" s="74"/>
       <c r="R7" s="73">
@@ -2431,7 +2450,7 @@
       </c>
       <c r="S9" s="14">
         <f>SUM(S11:S482)</f>
-        <v>37400</v>
+        <v>37465</v>
       </c>
       <c r="U9" s="31" t="s">
         <v>40</v>
@@ -4586,9 +4605,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G29" s="95"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="97"/>
+      <c r="G29" s="95">
+        <v>43267</v>
+      </c>
+      <c r="H29" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="I29" s="97">
+        <v>5500</v>
+      </c>
       <c r="J29" s="98"/>
       <c r="K29" s="99"/>
       <c r="M29" s="58">
@@ -5841,15 +5866,23 @@
       <c r="I42" s="97"/>
       <c r="J42" s="98"/>
       <c r="K42" s="99"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
+      <c r="M42" s="58">
+        <v>43266</v>
+      </c>
+      <c r="N42" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="O42" s="17" t="s">
+        <v>268</v>
+      </c>
       <c r="P42" s="34"/>
-      <c r="Q42" s="22"/>
+      <c r="Q42" s="22">
+        <v>55</v>
+      </c>
       <c r="R42" s="21"/>
       <c r="S42" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="U42" s="35"/>
       <c r="V42" s="34"/>
@@ -5924,15 +5957,25 @@
       <c r="I43" s="97"/>
       <c r="J43" s="98"/>
       <c r="K43" s="99"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
+      <c r="M43" s="58">
+        <v>43266</v>
+      </c>
+      <c r="N43" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="O43" s="17" t="s">
+        <v>270</v>
+      </c>
       <c r="P43" s="34"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="21"/>
+      <c r="Q43" s="22">
+        <v>60</v>
+      </c>
+      <c r="R43" s="21">
+        <v>50</v>
+      </c>
       <c r="S43" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U43" s="35"/>
       <c r="V43" s="34"/>
@@ -6360,11 +6403,11 @@
       </c>
       <c r="AD48" s="40">
         <f t="shared" si="3"/>
-        <v>-50</v>
+        <v>-105</v>
       </c>
       <c r="AE48" s="49"/>
       <c r="AF48" s="49">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="AG48" t="s">
         <v>261</v>
@@ -6438,23 +6481,40 @@
       <c r="AB49" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AC49" s="48"/>
+      <c r="AC49" s="48" t="s">
+        <v>266</v>
+      </c>
       <c r="AD49" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3860</v>
       </c>
       <c r="AE49" s="49"/>
       <c r="AF49" s="49"/>
       <c r="AH49" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="55"/>
-      <c r="AK49" s="55"/>
-      <c r="AL49" s="55"/>
-      <c r="AM49" s="55"/>
-      <c r="AN49" s="55"/>
-      <c r="AO49" s="55"/>
+        <v>3860</v>
+      </c>
+      <c r="AI49">
+        <v>120</v>
+      </c>
+      <c r="AJ49" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK49" s="96" t="s">
+        <v>265</v>
+      </c>
+      <c r="AL49" s="98">
+        <v>3000</v>
+      </c>
+      <c r="AM49" s="55">
+        <v>600</v>
+      </c>
+      <c r="AN49" s="55">
+        <v>20</v>
+      </c>
+      <c r="AO49" s="55">
+        <v>100</v>
+      </c>
       <c r="AP49" s="55"/>
       <c r="AQ49" s="55"/>
       <c r="AR49" s="55"/>
@@ -6463,9 +6523,11 @@
       <c r="AU49" s="55"/>
       <c r="AV49">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AW49" s="55"/>
+        <v>20</v>
+      </c>
+      <c r="AW49" s="55">
+        <v>20</v>
+      </c>
       <c r="AX49" s="55"/>
       <c r="AY49" s="55"/>
       <c r="AZ49" s="55"/>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afchavez\Desktop\Adrifelcha_Lab25\Finanzas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="273">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -804,9 +809,6 @@
     <t xml:space="preserve">Hogaza a domicilio </t>
   </si>
   <si>
-    <t>Nely y Eleo</t>
-  </si>
-  <si>
     <t>Granaderos!</t>
   </si>
   <si>
@@ -833,11 +835,20 @@
   <si>
     <t>Chapata</t>
   </si>
+  <si>
+    <t>La Terraza (Oli y Oscar)</t>
+  </si>
+  <si>
+    <t>Uber Alitas - Tecuas</t>
+  </si>
+  <si>
+    <t>Uber Tecuas - Casa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1725,7 +1736,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1735,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AH31" sqref="AH31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,7 +1827,7 @@
       <c r="E2" s="55"/>
       <c r="F2" s="109">
         <f>N3-D2</f>
-        <v>4442</v>
+        <v>4277.5200000000004</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>2</v>
@@ -1944,7 +1955,7 @@
       </c>
       <c r="N3" s="24">
         <f>(SUM(D2,(K11:K501)))-(SUM((J11:J501),(I11:I501)))</f>
-        <v>12205</v>
+        <v>12040.52</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -2032,7 +2043,7 @@
       </c>
       <c r="P4" s="78">
         <f>SUM(N3,S9,P7)</f>
-        <v>51491</v>
+        <v>51321.520000000004</v>
       </c>
       <c r="Q4" s="55"/>
       <c r="AA4" s="46">
@@ -2203,7 +2214,7 @@
       </c>
       <c r="N6" s="51">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I501)))-(SUM((Y11:Y499)))</f>
-        <v>1821</v>
+        <v>1816</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -2287,7 +2298,7 @@
       </c>
       <c r="P7" s="77">
         <f>SUM(R7,N6)</f>
-        <v>1821</v>
+        <v>1816</v>
       </c>
       <c r="Q7" s="74"/>
       <c r="R7" s="73">
@@ -4609,7 +4620,7 @@
         <v>43267</v>
       </c>
       <c r="H29" s="55" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I29" s="97">
         <v>5500</v>
@@ -4706,10 +4717,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G30" s="95"/>
-      <c r="H30" s="55"/>
+      <c r="G30" s="95">
+        <v>43268</v>
+      </c>
+      <c r="H30" s="55" t="s">
+        <v>271</v>
+      </c>
       <c r="I30" s="97"/>
-      <c r="J30" s="98"/>
+      <c r="J30" s="98">
+        <v>61.5</v>
+      </c>
       <c r="K30" s="99"/>
       <c r="M30" s="58">
         <v>42802</v>
@@ -4808,10 +4825,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G31" s="95"/>
-      <c r="H31" s="55"/>
+      <c r="G31" s="95">
+        <v>43268</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>272</v>
+      </c>
       <c r="I31" s="97"/>
-      <c r="J31" s="98"/>
+      <c r="J31" s="98">
+        <v>102.98</v>
+      </c>
       <c r="K31" s="99"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17" t="s">
@@ -5870,10 +5893,10 @@
         <v>43266</v>
       </c>
       <c r="N42" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="O42" s="17" t="s">
         <v>267</v>
-      </c>
-      <c r="O42" s="17" t="s">
-        <v>268</v>
       </c>
       <c r="P42" s="34"/>
       <c r="Q42" s="22">
@@ -5961,10 +5984,10 @@
         <v>43266</v>
       </c>
       <c r="N43" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="O43" s="17" t="s">
         <v>269</v>
-      </c>
-      <c r="O43" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="P43" s="34"/>
       <c r="Q43" s="22">
@@ -6399,18 +6422,18 @@
         <v>69</v>
       </c>
       <c r="AC48" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AD48" s="40">
         <f t="shared" si="3"/>
-        <v>-105</v>
+        <v>-95</v>
       </c>
       <c r="AE48" s="49"/>
       <c r="AF48" s="49">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AG48" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="AH48" s="50">
         <f t="shared" si="0"/>
@@ -6482,7 +6505,7 @@
         <v>70</v>
       </c>
       <c r="AC49" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD49" s="40">
         <f t="shared" si="3"/>
@@ -6498,10 +6521,10 @@
         <v>120</v>
       </c>
       <c r="AJ49" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK49" s="96" t="s">
         <v>264</v>
-      </c>
-      <c r="AK49" s="96" t="s">
-        <v>265</v>
       </c>
       <c r="AL49" s="98">
         <v>3000</v>
@@ -6647,15 +6670,25 @@
       <c r="AC51" s="48"/>
       <c r="AD51" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="AE51" s="49"/>
-      <c r="AF51" s="49"/>
+      <c r="AF51" s="49">
+        <v>55</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>266</v>
+      </c>
       <c r="AH51" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ51" s="55"/>
+        <v>70</v>
+      </c>
+      <c r="AI51">
+        <v>70</v>
+      </c>
+      <c r="AJ51" s="55" t="s">
+        <v>270</v>
+      </c>
       <c r="AK51" s="55"/>
       <c r="AL51" s="55"/>
       <c r="AM51" s="55"/>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="282">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -849,6 +849,27 @@
   </si>
   <si>
     <t>Ajustando</t>
+  </si>
+  <si>
+    <t>Café y taquitos con Jaime</t>
+  </si>
+  <si>
+    <t>Especificaciones</t>
+  </si>
+  <si>
+    <t>Descriptores</t>
+  </si>
+  <si>
+    <t>DIFs</t>
+  </si>
+  <si>
+    <t>Descanso</t>
+  </si>
+  <si>
+    <t>Niño y Uri</t>
+  </si>
+  <si>
+    <t>Semitas de Carnitas</t>
   </si>
 </sst>
 </file>
@@ -1763,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="AA23" workbookViewId="0">
+      <selection activeCell="AL54" sqref="AL54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,7 +2081,7 @@
       </c>
       <c r="P4" s="78">
         <f>SUM(N3,S9,P7)</f>
-        <v>51205.520000000004</v>
+        <v>50998.520000000004</v>
       </c>
       <c r="Q4" s="55"/>
       <c r="AA4" s="46">
@@ -2129,7 +2150,7 @@
       </c>
       <c r="BH4" s="56">
         <f>(SUM((AW3:AW519)))-(SUM((BA3:BA519)))</f>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="BI4" s="56"/>
     </row>
@@ -2231,7 +2252,7 @@
       </c>
       <c r="N6" s="51">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I501)))-(SUM((Y11:Y499)))</f>
-        <v>700</v>
+        <v>493</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -2315,7 +2336,7 @@
       </c>
       <c r="P7" s="77">
         <f>SUM(R7,N6)</f>
-        <v>700</v>
+        <v>493</v>
       </c>
       <c r="Q7" s="74"/>
       <c r="R7" s="73">
@@ -6636,7 +6657,9 @@
       <c r="AB50" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="AC50" s="48"/>
+      <c r="AC50" s="48" t="s">
+        <v>279</v>
+      </c>
       <c r="AD50" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6708,7 +6731,9 @@
       <c r="AB51" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="AC51" s="48"/>
+      <c r="AC51" s="48" t="s">
+        <v>276</v>
+      </c>
       <c r="AD51" s="40">
         <f t="shared" si="3"/>
         <v>-2470</v>
@@ -6798,16 +6823,18 @@
       <c r="AB52" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AC52" s="48"/>
+      <c r="AC52" s="48" t="s">
+        <v>277</v>
+      </c>
       <c r="AD52" s="40">
         <f t="shared" si="3"/>
-        <v>-100</v>
+        <v>-175</v>
       </c>
       <c r="AE52" s="49"/>
       <c r="AF52" s="49"/>
       <c r="AH52" s="50">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="AI52">
         <v>50</v>
@@ -6815,9 +6842,15 @@
       <c r="AJ52" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="AK52" s="55"/>
-      <c r="AL52" s="55"/>
-      <c r="AM52" s="55"/>
+      <c r="AK52" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL52" s="55">
+        <v>30</v>
+      </c>
+      <c r="AM52" s="55">
+        <v>45</v>
+      </c>
       <c r="AN52" s="55"/>
       <c r="AO52" s="55"/>
       <c r="AP52" s="55"/>
@@ -6833,14 +6866,16 @@
       <c r="AW52" s="55">
         <v>50</v>
       </c>
-      <c r="AX52" s="55"/>
+      <c r="AX52" s="55">
+        <v>1</v>
+      </c>
       <c r="AY52" s="55"/>
       <c r="AZ52" s="55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA52" s="55">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB52" s="55"/>
       <c r="BC52">
@@ -6876,18 +6911,25 @@
       <c r="AB53" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="AC53" s="48"/>
+      <c r="AC53" s="48" t="s">
+        <v>278</v>
+      </c>
       <c r="AD53" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-56</v>
       </c>
       <c r="AE53" s="49"/>
       <c r="AF53" s="49"/>
       <c r="AH53" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="55"/>
+        <v>56</v>
+      </c>
+      <c r="AI53">
+        <v>56</v>
+      </c>
+      <c r="AJ53" s="55" t="s">
+        <v>187</v>
+      </c>
       <c r="AK53" s="55"/>
       <c r="AL53" s="55"/>
       <c r="AM53" s="55"/>
@@ -6906,10 +6948,12 @@
       <c r="AW53" s="55"/>
       <c r="AX53" s="55"/>
       <c r="AY53" s="55"/>
-      <c r="AZ53" s="55"/>
+      <c r="AZ53" s="55">
+        <v>2</v>
+      </c>
       <c r="BA53" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB53" s="55"/>
       <c r="BC53">
@@ -6945,18 +6989,25 @@
       <c r="AB54" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AC54" s="48"/>
+      <c r="AC54" s="48" t="s">
+        <v>280</v>
+      </c>
       <c r="AD54" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-76</v>
       </c>
       <c r="AE54" s="49"/>
       <c r="AF54" s="82"/>
       <c r="AH54" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="55"/>
+        <v>76</v>
+      </c>
+      <c r="AI54">
+        <v>76</v>
+      </c>
+      <c r="AJ54" s="55" t="s">
+        <v>281</v>
+      </c>
       <c r="AK54" s="55"/>
       <c r="AL54" s="55"/>
       <c r="AM54" s="55"/>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="315">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -870,6 +872,105 @@
   </si>
   <si>
     <t>Semitas de Carnitas</t>
+  </si>
+  <si>
+    <t>Paella con Vino</t>
+  </si>
+  <si>
+    <t>Pizzas Charly</t>
+  </si>
+  <si>
+    <t>Tía Coy</t>
+  </si>
+  <si>
+    <t>Pago del Uber</t>
+  </si>
+  <si>
+    <t>Uber - Tías Guille y Coy</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Para Martha</t>
+  </si>
+  <si>
+    <t>Propina repartidor, Tarjeta Jaime, Cervezas; Ale</t>
+  </si>
+  <si>
+    <t>Reunión Coord</t>
+  </si>
+  <si>
+    <t>Comida Abuelito</t>
+  </si>
+  <si>
+    <t>Allstar Superman</t>
+  </si>
+  <si>
+    <t>Paella con Vino!</t>
+  </si>
+  <si>
+    <t>Capacitación Masiva Especificaciones</t>
+  </si>
+  <si>
+    <t>Duvalines; Hamburguesas con Jaime</t>
+  </si>
+  <si>
+    <t>Especificaciones Economía</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Duvalin; Sabritas</t>
+  </si>
+  <si>
+    <t>Neto</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dif </t>
+  </si>
+  <si>
+    <t>Despensa</t>
+  </si>
+  <si>
+    <t>Quincenal</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Sin desp</t>
+  </si>
+  <si>
+    <t>Ahorro</t>
+  </si>
+  <si>
+    <t>Afore</t>
+  </si>
+  <si>
+    <t>Primer Sueldo (SIN Descuentos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deposito </t>
+  </si>
+  <si>
+    <t>Suedo actual (Con AFORE + Seguro)</t>
+  </si>
+  <si>
+    <t>Diferencias en el Sueldo</t>
+  </si>
+  <si>
+    <t>Depositos</t>
+  </si>
+  <si>
+    <t>Mensual</t>
+  </si>
+  <si>
+    <t>Quincenal (?)</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1245,6 +1346,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1258,7 +1377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1488,6 +1607,10 @@
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1496,9 +1619,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9797"/>
       <color rgb="FFD52F8E"/>
       <color rgb="FF33CC33"/>
-      <color rgb="FFFF9797"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFCCFFCC"/>
@@ -1784,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA23" workbookViewId="0">
-      <selection activeCell="AL54" sqref="AL54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,6 +1942,9 @@
       <c r="E1" s="55"/>
       <c r="F1" s="108" t="s">
         <v>101</v>
+      </c>
+      <c r="M1" t="s">
+        <v>297</v>
       </c>
       <c r="Q1" s="55"/>
       <c r="AA1" s="43"/>
@@ -1865,7 +1991,7 @@
       <c r="E2" s="55"/>
       <c r="F2" s="109">
         <f>N3-D2</f>
-        <v>2977.5200000000004</v>
+        <v>10900.32</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>2</v>
@@ -1992,8 +2118,8 @@
         <v>7</v>
       </c>
       <c r="N3" s="24">
-        <f>(SUM(D2,(K11:K501)))-(SUM((J11:J501),(I11:I501)))</f>
-        <v>10740.52</v>
+        <f>(SUM(D2,(K11:K502)))-(SUM((J11:J502),(I11:I502)))</f>
+        <v>18663.32</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -2081,7 +2207,7 @@
       </c>
       <c r="P4" s="78">
         <f>SUM(N3,S9,P7)</f>
-        <v>50998.520000000004</v>
+        <v>60928.32</v>
       </c>
       <c r="Q4" s="55"/>
       <c r="AA4" s="46">
@@ -2150,7 +2276,7 @@
       </c>
       <c r="BH4" s="56">
         <f>(SUM((AW3:AW519)))-(SUM((BA3:BA519)))</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="BI4" s="56"/>
     </row>
@@ -2251,8 +2377,8 @@
         <v>9</v>
       </c>
       <c r="N6" s="51">
-        <f>(SUM((X11:X299),(AD3:AD500),(I11:I501)))-(SUM((Y11:Y499)))</f>
-        <v>493</v>
+        <f>(SUM((X11:X299),(AD3:AD500),(I11:I502)))-(SUM((Y11:Y499)))</f>
+        <v>500</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -2336,11 +2462,11 @@
       </c>
       <c r="P7" s="77">
         <f>SUM(R7,N6)</f>
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="Q7" s="74"/>
       <c r="R7" s="73">
-        <f>(SUM(Y11:Y499))-(SUM(K11:K501))</f>
+        <f>(SUM(Y11:Y499))-(SUM(K11:K502))</f>
         <v>0</v>
       </c>
       <c r="S7" s="111"/>
@@ -2498,8 +2624,8 @@
         <v>25</v>
       </c>
       <c r="S9" s="14">
-        <f>SUM(S11:S483)</f>
-        <v>39765</v>
+        <f>SUM(S11:S484)</f>
+        <v>41765</v>
       </c>
       <c r="U9" s="31" t="s">
         <v>40</v>
@@ -2741,12 +2867,12 @@
       </c>
       <c r="R11" s="21"/>
       <c r="S11" s="19">
-        <f t="shared" ref="S11:S29" si="6">Q11-R11</f>
+        <f t="shared" ref="S11:S30" si="6">Q11-R11</f>
         <v>5000</v>
       </c>
       <c r="T11" s="129">
-        <f>SUM(S11:S18)</f>
-        <v>29750</v>
+        <f>SUM(S11:S19)</f>
+        <v>31750</v>
       </c>
       <c r="U11" s="35">
         <v>43221</v>
@@ -2988,7 +3114,7 @@
       </c>
       <c r="R13" s="21"/>
       <c r="S13" s="19">
-        <f t="shared" ref="S13:S18" si="7">Q13-R13</f>
+        <f t="shared" ref="S13:S19" si="7">Q13-R13</f>
         <v>3200</v>
       </c>
       <c r="T13" s="128"/>
@@ -3645,30 +3771,36 @@
       <c r="K19" s="127">
         <v>12188</v>
       </c>
-      <c r="M19" s="17"/>
+      <c r="M19" s="58">
+        <v>43274</v>
+      </c>
       <c r="N19" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="P19" s="34"/>
       <c r="Q19" s="22">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="R19" s="21"/>
       <c r="S19" s="19">
-        <f t="shared" si="6"/>
-        <v>1100</v>
-      </c>
-      <c r="T19" s="128">
-        <f>SUM(S19:S29)</f>
-        <v>5120</v>
-      </c>
-      <c r="U19" s="35"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="36"/>
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="U19" s="35">
+        <v>43275</v>
+      </c>
+      <c r="V19" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="W19" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="X19" s="36">
+        <v>200</v>
+      </c>
       <c r="Y19" s="36"/>
       <c r="AA19" s="46">
         <v>43237</v>
@@ -3751,22 +3883,34 @@
         <v>24</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="P20" s="34"/>
       <c r="Q20" s="22">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="R20" s="21"/>
       <c r="S20" s="19">
         <f t="shared" si="6"/>
-        <v>600</v>
-      </c>
-      <c r="T20" s="128"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="34"/>
+        <v>1100</v>
+      </c>
+      <c r="T20" s="128">
+        <f>SUM(S20:S30)</f>
+        <v>5120</v>
+      </c>
+      <c r="U20" s="35">
+        <v>43279</v>
+      </c>
+      <c r="V20" s="34" t="s">
+        <v>205</v>
+      </c>
       <c r="W20" s="34"/>
-      <c r="X20" s="36"/>
+      <c r="X20" s="36">
+        <v>10612</v>
+      </c>
+      <c r="Y20" s="34">
+        <v>10612</v>
+      </c>
       <c r="AA20" s="46">
         <v>43238</v>
       </c>
@@ -3850,16 +3994,16 @@
         <v>24</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P21" s="34"/>
       <c r="Q21" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="R21" s="21"/>
       <c r="S21" s="19">
-        <f>Q21-R21</f>
-        <v>1000</v>
+        <f t="shared" si="6"/>
+        <v>600</v>
       </c>
       <c r="T21" s="128"/>
       <c r="U21" s="35"/>
@@ -3946,16 +4090,16 @@
         <v>24</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="P22" s="34"/>
       <c r="Q22" s="22">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="R22" s="21"/>
       <c r="S22" s="19">
-        <f t="shared" si="6"/>
-        <v>120</v>
+        <f>Q22-R22</f>
+        <v>1000</v>
       </c>
       <c r="T22" s="128"/>
       <c r="U22" s="35"/>
@@ -4040,16 +4184,16 @@
         <v>24</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P23" s="34"/>
       <c r="Q23" s="22">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="R23" s="21"/>
       <c r="S23" s="19">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="T23" s="128"/>
       <c r="U23" s="35"/>
@@ -4149,16 +4293,16 @@
         <v>24</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P24" s="34"/>
       <c r="Q24" s="22">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="R24" s="21"/>
       <c r="S24" s="19">
         <f t="shared" si="6"/>
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="T24" s="128"/>
       <c r="U24" s="35"/>
@@ -4251,16 +4395,16 @@
         <v>24</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P25" s="34"/>
       <c r="Q25" s="22">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="R25" s="21"/>
       <c r="S25" s="19">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="T25" s="128"/>
       <c r="U25" s="35"/>
@@ -4349,16 +4493,16 @@
         <v>24</v>
       </c>
       <c r="O26" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P26" s="34"/>
       <c r="Q26" s="22">
-        <v>850</v>
+        <v>100</v>
       </c>
       <c r="R26" s="21"/>
       <c r="S26" s="19">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>100</v>
       </c>
       <c r="T26" s="128"/>
       <c r="U26" s="35"/>
@@ -4458,16 +4602,16 @@
         <v>24</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P27" s="34"/>
       <c r="Q27" s="22">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="R27" s="21"/>
       <c r="S27" s="19">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="T27" s="128"/>
       <c r="U27" s="35"/>
@@ -4567,16 +4711,16 @@
         <v>24</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="P28" s="34"/>
       <c r="Q28" s="22">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R28" s="21"/>
       <c r="S28" s="19">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T28" s="128"/>
       <c r="U28" s="35"/>
@@ -4667,19 +4811,19 @@
         <v>24</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="P29" s="34"/>
       <c r="Q29" s="22">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R29" s="21"/>
       <c r="S29" s="19">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T29" s="128">
-        <f>SUM(S30:S31)</f>
+        <f>SUM(S31:S32)</f>
         <v>340</v>
       </c>
       <c r="U29" s="35"/>
@@ -4761,23 +4905,21 @@
         <v>61.5</v>
       </c>
       <c r="K30" s="99"/>
-      <c r="M30" s="58">
-        <v>42802</v>
-      </c>
+      <c r="M30" s="17"/>
       <c r="N30" s="17" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" s="34"/>
       <c r="Q30" s="22">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="R30" s="21"/>
       <c r="S30" s="19">
-        <f>Q30-R30</f>
-        <v>140</v>
+        <f t="shared" si="6"/>
+        <v>300</v>
       </c>
       <c r="T30" s="128"/>
       <c r="U30" s="35"/>
@@ -4876,16 +5018,16 @@
         <v>62</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P31" s="34"/>
       <c r="Q31" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="R31" s="21"/>
       <c r="S31" s="19">
         <f>Q31-R31</f>
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="T31" s="128"/>
       <c r="U31" s="35"/>
@@ -4973,23 +5115,23 @@
       </c>
       <c r="J32" s="98"/>
       <c r="K32" s="99"/>
-      <c r="M32" s="17"/>
+      <c r="M32" s="58">
+        <v>42802</v>
+      </c>
       <c r="N32" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O32" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P32" s="34"/>
       <c r="Q32" s="22">
-        <v>1800</v>
-      </c>
-      <c r="R32" s="21">
-        <v>1150</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="R32" s="21"/>
       <c r="S32" s="19">
         <f>Q32-R32</f>
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="T32" s="128"/>
       <c r="U32" s="35"/>
@@ -5060,31 +5202,37 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G33" s="95"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="97"/>
+      <c r="G33" s="95">
+        <v>43274</v>
+      </c>
+      <c r="H33" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="I33" s="97">
+        <v>2500</v>
+      </c>
       <c r="J33" s="98"/>
       <c r="K33" s="99"/>
-      <c r="M33" s="58">
-        <v>43010</v>
-      </c>
+      <c r="M33" s="17"/>
       <c r="N33" s="17" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="P33" s="34"/>
       <c r="Q33" s="22">
-        <v>100</v>
-      </c>
-      <c r="R33" s="21"/>
+        <v>1800</v>
+      </c>
+      <c r="R33" s="21">
+        <v>1150</v>
+      </c>
       <c r="S33" s="19">
-        <f t="shared" ref="S33:S66" si="9">Q33-R33</f>
-        <v>100</v>
+        <f>Q33-R33</f>
+        <v>650</v>
       </c>
       <c r="T33" s="128">
-        <f>SUM(S34:S40)</f>
+        <f>SUM(S35:S41)</f>
         <v>3510</v>
       </c>
       <c r="U33" s="35"/>
@@ -5168,28 +5316,34 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G34" s="95"/>
-      <c r="H34" s="55"/>
+      <c r="G34" s="95">
+        <v>43275</v>
+      </c>
+      <c r="H34" s="55" t="s">
+        <v>286</v>
+      </c>
       <c r="I34" s="97"/>
-      <c r="J34" s="98"/>
+      <c r="J34" s="98">
+        <v>189.2</v>
+      </c>
       <c r="K34" s="99"/>
-      <c r="M34" s="17" t="s">
-        <v>97</v>
+      <c r="M34" s="58">
+        <v>43010</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O34" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P34" s="34"/>
       <c r="Q34" s="22">
-        <v>1040</v>
+        <v>100</v>
       </c>
       <c r="R34" s="21"/>
       <c r="S34" s="19">
-        <f t="shared" si="9"/>
-        <v>1040</v>
+        <f t="shared" ref="S34:S67" si="9">Q34-R34</f>
+        <v>100</v>
       </c>
       <c r="T34" s="128"/>
       <c r="U34" s="35"/>
@@ -5266,28 +5420,34 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G35" s="95"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="99"/>
-      <c r="M35" s="17"/>
+      <c r="G35" s="123">
+        <v>43279</v>
+      </c>
+      <c r="H35" s="124" t="s">
+        <v>205</v>
+      </c>
+      <c r="I35" s="135"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="127">
+        <v>10612</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="N35" s="17" t="s">
         <v>26</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P35" s="34"/>
       <c r="Q35" s="22">
-        <v>2900</v>
-      </c>
-      <c r="R35" s="21">
-        <v>1550</v>
-      </c>
+        <v>1040</v>
+      </c>
+      <c r="R35" s="21"/>
       <c r="S35" s="19">
         <f t="shared" si="9"/>
-        <v>1350</v>
+        <v>1040</v>
       </c>
       <c r="U35" s="35"/>
       <c r="V35" s="34"/>
@@ -5369,16 +5529,18 @@
         <v>26</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P36" s="34"/>
       <c r="Q36" s="22">
-        <v>240</v>
-      </c>
-      <c r="R36" s="21"/>
+        <v>2900</v>
+      </c>
+      <c r="R36" s="21">
+        <v>1550</v>
+      </c>
       <c r="S36" s="19">
         <f t="shared" si="9"/>
-        <v>240</v>
+        <v>1350</v>
       </c>
       <c r="U36" s="35"/>
       <c r="V36" s="34"/>
@@ -5447,27 +5609,21 @@
       <c r="I37" s="97"/>
       <c r="J37" s="98"/>
       <c r="K37" s="99"/>
-      <c r="M37" s="17" t="s">
-        <v>120</v>
-      </c>
+      <c r="M37" s="17"/>
       <c r="N37" s="17" t="s">
         <v>26</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="P37" s="34" t="s">
-        <v>232</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P37" s="34"/>
       <c r="Q37" s="22">
-        <v>1500</v>
-      </c>
-      <c r="R37" s="21">
-        <v>1300</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="R37" s="21"/>
       <c r="S37" s="19">
-        <f>Q37-R37</f>
-        <v>200</v>
+        <f t="shared" si="9"/>
+        <v>240</v>
       </c>
       <c r="U37" s="35"/>
       <c r="V37" s="34"/>
@@ -5546,21 +5702,27 @@
       <c r="I38" s="97"/>
       <c r="J38" s="98"/>
       <c r="K38" s="99"/>
-      <c r="M38" s="17"/>
+      <c r="M38" s="17" t="s">
+        <v>120</v>
+      </c>
       <c r="N38" s="17" t="s">
         <v>26</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="P38" s="34"/>
+        <v>121</v>
+      </c>
+      <c r="P38" s="34" t="s">
+        <v>232</v>
+      </c>
       <c r="Q38" s="22">
-        <v>100</v>
-      </c>
-      <c r="R38" s="21"/>
+        <v>1500</v>
+      </c>
+      <c r="R38" s="21">
+        <v>1300</v>
+      </c>
       <c r="S38" s="19">
-        <f t="shared" si="9"/>
-        <v>100</v>
+        <f>Q38-R38</f>
+        <v>200</v>
       </c>
       <c r="U38" s="35"/>
       <c r="V38" s="34"/>
@@ -5636,7 +5798,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G39" s="100"/>
+      <c r="G39" s="95"/>
       <c r="H39" s="55"/>
       <c r="I39" s="97"/>
       <c r="J39" s="98"/>
@@ -5646,16 +5808,16 @@
         <v>26</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>236</v>
+        <v>124</v>
       </c>
       <c r="P39" s="34"/>
       <c r="Q39" s="22">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="R39" s="21"/>
       <c r="S39" s="19">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="U39" s="35"/>
       <c r="V39" s="34"/>
@@ -5729,29 +5891,29 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G40" s="95"/>
+      <c r="G40" s="100"/>
       <c r="H40" s="55"/>
       <c r="I40" s="97"/>
       <c r="J40" s="98"/>
       <c r="K40" s="99"/>
       <c r="M40" s="17"/>
       <c r="N40" s="17" t="s">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P40" s="34"/>
       <c r="Q40" s="22">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="R40" s="21"/>
       <c r="S40" s="19">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="T40" s="11">
-        <f>SUM(S41:S42)</f>
+        <f>SUM(S42:S43)</f>
         <v>230</v>
       </c>
       <c r="U40" s="35"/>
@@ -5833,21 +5995,19 @@
       <c r="K41" s="99"/>
       <c r="M41" s="17"/>
       <c r="N41" s="17" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="P41" s="34"/>
       <c r="Q41" s="22">
-        <v>130</v>
-      </c>
-      <c r="R41" s="21">
-        <v>100</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="R41" s="21"/>
       <c r="S41" s="19">
-        <f>Q41-R41</f>
-        <v>30</v>
+        <f t="shared" si="9"/>
+        <v>80</v>
       </c>
       <c r="U41" s="35"/>
       <c r="V41" s="34"/>
@@ -5928,23 +6088,23 @@
       <c r="I42" s="97"/>
       <c r="J42" s="98"/>
       <c r="K42" s="99"/>
-      <c r="M42" s="58">
-        <v>43180</v>
-      </c>
+      <c r="M42" s="17"/>
       <c r="N42" s="17" t="s">
-        <v>253</v>
+        <v>122</v>
       </c>
       <c r="O42" s="17" t="s">
-        <v>254</v>
+        <v>123</v>
       </c>
       <c r="P42" s="34"/>
       <c r="Q42" s="22">
-        <v>200</v>
-      </c>
-      <c r="R42" s="21"/>
+        <v>130</v>
+      </c>
+      <c r="R42" s="21">
+        <v>100</v>
+      </c>
       <c r="S42" s="19">
-        <f t="shared" si="9"/>
-        <v>200</v>
+        <f>Q42-R42</f>
+        <v>30</v>
       </c>
       <c r="U42" s="35"/>
       <c r="V42" s="34"/>
@@ -6020,22 +6180,22 @@
       <c r="J43" s="98"/>
       <c r="K43" s="99"/>
       <c r="M43" s="58">
-        <v>43266</v>
+        <v>43180</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="P43" s="34"/>
       <c r="Q43" s="22">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="R43" s="21"/>
       <c r="S43" s="19">
         <f t="shared" si="9"/>
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="U43" s="35"/>
       <c r="V43" s="34"/>
@@ -6108,21 +6268,19 @@
         <v>43266</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O44" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P44" s="34"/>
       <c r="Q44" s="22">
-        <v>60</v>
-      </c>
-      <c r="R44" s="21">
-        <v>50</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="R44" s="21"/>
       <c r="S44" s="19">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="U44" s="35"/>
       <c r="V44" s="34"/>
@@ -6140,11 +6298,11 @@
       </c>
       <c r="AD44" s="40">
         <f t="shared" si="3"/>
-        <v>-106</v>
+        <v>-104</v>
       </c>
       <c r="AE44" s="49"/>
       <c r="AF44" s="136">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AG44" t="s">
         <v>274</v>
@@ -6204,15 +6362,25 @@
       <c r="I45" s="97"/>
       <c r="J45" s="98"/>
       <c r="K45" s="99"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
+      <c r="M45" s="58">
+        <v>43266</v>
+      </c>
+      <c r="N45" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="O45" s="17" t="s">
+        <v>268</v>
+      </c>
       <c r="P45" s="34"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="21"/>
+      <c r="Q45" s="22">
+        <v>60</v>
+      </c>
+      <c r="R45" s="21">
+        <v>50</v>
+      </c>
       <c r="S45" s="19">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U45" s="35"/>
       <c r="V45" s="34"/>
@@ -6287,9 +6455,9 @@
       </c>
       <c r="G46" s="95"/>
       <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
+      <c r="I46" s="97"/>
       <c r="J46" s="98"/>
-      <c r="K46" s="55"/>
+      <c r="K46" s="99"/>
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
       <c r="O46" s="17"/>
@@ -6370,7 +6538,7 @@
       <c r="H47" s="55"/>
       <c r="I47" s="55"/>
       <c r="J47" s="98"/>
-      <c r="K47" s="99"/>
+      <c r="K47" s="55"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
       <c r="O47" s="17"/>
@@ -6453,7 +6621,7 @@
       </c>
       <c r="G48" s="95"/>
       <c r="H48" s="55"/>
-      <c r="I48" s="97"/>
+      <c r="I48" s="55"/>
       <c r="J48" s="98"/>
       <c r="K48" s="99"/>
       <c r="M48" s="17"/>
@@ -6888,8 +7056,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I53" s="12"/>
-      <c r="K53" s="13"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="97"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="99"/>
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
       <c r="O53" s="17"/>
@@ -7026,10 +7197,12 @@
       <c r="AW54" s="55"/>
       <c r="AX54" s="55"/>
       <c r="AY54" s="55"/>
-      <c r="AZ54" s="55"/>
+      <c r="AZ54" s="55">
+        <v>2</v>
+      </c>
       <c r="BA54" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB54" s="55"/>
       <c r="BC54">
@@ -7065,21 +7238,34 @@
       <c r="AB55" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AC55" s="48"/>
+      <c r="AC55" s="48" t="s">
+        <v>293</v>
+      </c>
       <c r="AD55" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-193</v>
       </c>
       <c r="AE55" s="49"/>
       <c r="AF55" s="49"/>
       <c r="AH55" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ55" s="55"/>
-      <c r="AK55" s="55"/>
-      <c r="AL55" s="55"/>
-      <c r="AM55" s="55"/>
+        <v>193</v>
+      </c>
+      <c r="AI55">
+        <v>150</v>
+      </c>
+      <c r="AJ55" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK55" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL55" s="55">
+        <v>30</v>
+      </c>
+      <c r="AM55" s="55">
+        <v>13</v>
+      </c>
       <c r="AN55" s="55"/>
       <c r="AO55" s="55"/>
       <c r="AP55" s="55"/>
@@ -7095,10 +7281,12 @@
       <c r="AW55" s="55"/>
       <c r="AX55" s="55"/>
       <c r="AY55" s="55"/>
-      <c r="AZ55" s="55"/>
+      <c r="AZ55" s="55">
+        <v>3</v>
+      </c>
       <c r="BA55" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BB55" s="55"/>
       <c r="BC55">
@@ -7134,23 +7322,40 @@
       <c r="AB56" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AC56" s="48"/>
+      <c r="AC56" s="48" t="s">
+        <v>292</v>
+      </c>
       <c r="AD56" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-2135</v>
       </c>
       <c r="AE56" s="49"/>
       <c r="AF56" s="49"/>
       <c r="AH56" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ56" s="55"/>
-      <c r="AK56" s="55"/>
-      <c r="AL56" s="98"/>
-      <c r="AM56" s="55"/>
-      <c r="AN56" s="55"/>
-      <c r="AO56" s="55"/>
+        <v>2135</v>
+      </c>
+      <c r="AI56">
+        <v>60</v>
+      </c>
+      <c r="AJ56" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK56" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="AL56" s="96">
+        <v>28</v>
+      </c>
+      <c r="AM56" s="55">
+        <v>7</v>
+      </c>
+      <c r="AN56" s="55">
+        <v>20</v>
+      </c>
+      <c r="AO56" s="98">
+        <v>2000</v>
+      </c>
       <c r="AP56" s="55"/>
       <c r="AQ56" s="55"/>
       <c r="AR56" s="55"/>
@@ -7159,15 +7364,19 @@
       <c r="AU56" s="55"/>
       <c r="AV56">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AW56" s="55"/>
+        <v>20</v>
+      </c>
+      <c r="AW56" s="55">
+        <v>20</v>
+      </c>
       <c r="AX56" s="55"/>
       <c r="AY56" s="55"/>
-      <c r="AZ56" s="55"/>
+      <c r="AZ56" s="55">
+        <v>2</v>
+      </c>
       <c r="BA56" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB56" s="55"/>
       <c r="BC56">
@@ -7203,7 +7412,9 @@
       <c r="AB57" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="AC57" s="48"/>
+      <c r="AC57" s="48" t="s">
+        <v>291</v>
+      </c>
       <c r="AD57" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7273,18 +7484,25 @@
       <c r="AB58" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="AC58" s="48"/>
+      <c r="AC58" s="48" t="s">
+        <v>294</v>
+      </c>
       <c r="AD58" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AE58" s="49"/>
       <c r="AF58" s="49"/>
       <c r="AH58" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ58" s="55"/>
+        <v>100</v>
+      </c>
+      <c r="AI58">
+        <v>50</v>
+      </c>
+      <c r="AJ58" s="55" t="s">
+        <v>187</v>
+      </c>
       <c r="AK58" s="55"/>
       <c r="AL58" s="55"/>
       <c r="AM58" s="55"/>
@@ -7298,15 +7516,19 @@
       <c r="AU58" s="55"/>
       <c r="AV58">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AW58" s="55"/>
+        <v>50</v>
+      </c>
+      <c r="AW58" s="55">
+        <v>50</v>
+      </c>
       <c r="AX58" s="55"/>
       <c r="AY58" s="55"/>
-      <c r="AZ58" s="55"/>
+      <c r="AZ58" s="55">
+        <v>2</v>
+      </c>
       <c r="BA58" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB58" s="55"/>
       <c r="BC58">
@@ -7342,21 +7564,34 @@
       <c r="AB59" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AC59" s="48"/>
+      <c r="AC59" s="48" t="s">
+        <v>290</v>
+      </c>
       <c r="AD59" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-144</v>
       </c>
       <c r="AE59" s="49"/>
       <c r="AF59" s="49"/>
       <c r="AH59" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ59" s="55"/>
-      <c r="AK59" s="55"/>
-      <c r="AL59" s="55"/>
-      <c r="AM59" s="55"/>
+        <v>144</v>
+      </c>
+      <c r="AI59">
+        <v>50</v>
+      </c>
+      <c r="AJ59" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK59" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL59" s="55">
+        <v>4</v>
+      </c>
+      <c r="AM59" s="55">
+        <v>90</v>
+      </c>
       <c r="AN59" s="55"/>
       <c r="AO59" s="55"/>
       <c r="AP59" s="55"/>
@@ -7372,10 +7607,12 @@
       <c r="AW59" s="55"/>
       <c r="AX59" s="55"/>
       <c r="AY59" s="55"/>
-      <c r="AZ59" s="55"/>
+      <c r="AZ59" s="55">
+        <v>3</v>
+      </c>
       <c r="BA59" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BB59" s="55"/>
       <c r="BC59">
@@ -7411,21 +7648,34 @@
       <c r="AB60" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="AC60" s="48"/>
+      <c r="AC60" s="48" t="s">
+        <v>296</v>
+      </c>
       <c r="AD60" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-68</v>
       </c>
       <c r="AE60" s="49"/>
       <c r="AF60" s="49"/>
       <c r="AH60" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ60" s="55"/>
-      <c r="AK60" s="55"/>
-      <c r="AL60" s="55"/>
-      <c r="AM60" s="55"/>
+        <v>68</v>
+      </c>
+      <c r="AI60">
+        <v>60</v>
+      </c>
+      <c r="AJ60" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK60" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="AL60" s="55">
+        <v>2</v>
+      </c>
+      <c r="AM60" s="55">
+        <v>6</v>
+      </c>
       <c r="AN60" s="55"/>
       <c r="AO60" s="55"/>
       <c r="AP60" s="55"/>
@@ -7441,10 +7691,12 @@
       <c r="AW60" s="55"/>
       <c r="AX60" s="55"/>
       <c r="AY60" s="55"/>
-      <c r="AZ60" s="55"/>
+      <c r="AZ60" s="55">
+        <v>2</v>
+      </c>
       <c r="BA60" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB60" s="55"/>
       <c r="BC60">
@@ -7480,18 +7732,25 @@
       <c r="AB61" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AC61" s="48"/>
+      <c r="AC61" s="48" t="s">
+        <v>296</v>
+      </c>
       <c r="AD61" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="AE61" s="49"/>
       <c r="AF61" s="49"/>
       <c r="AH61" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ61" s="55"/>
+        <v>55</v>
+      </c>
+      <c r="AI61">
+        <v>55</v>
+      </c>
+      <c r="AJ61" s="55" t="s">
+        <v>187</v>
+      </c>
       <c r="AK61" s="55"/>
       <c r="AL61" s="55"/>
       <c r="AM61" s="55"/>
@@ -7510,10 +7769,12 @@
       <c r="AW61" s="55"/>
       <c r="AX61" s="55"/>
       <c r="AY61" s="55"/>
-      <c r="AZ61" s="55"/>
+      <c r="AZ61" s="55">
+        <v>2</v>
+      </c>
       <c r="BA61" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB61" s="55"/>
       <c r="BC61">
@@ -7880,7 +8141,7 @@
       <c r="Q67" s="22"/>
       <c r="R67" s="21"/>
       <c r="S67" s="19">
-        <f t="shared" ref="S67:S121" si="10">Q67-R67</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U67" s="35"/>
@@ -7902,7 +8163,7 @@
       <c r="AE67" s="49"/>
       <c r="AF67" s="49"/>
       <c r="AH67" s="50">
-        <f t="shared" ref="AH67:AH114" si="11">SUM(AI67,AL67,AM67,AN67,AO67,AP67,AQ67,AR67,AS67,AT67,AU67,AV67)</f>
+        <f t="shared" ref="AH67:AH114" si="10">SUM(AI67,AL67,AM67,AN67,AO67,AP67,AQ67,AR67,AS67,AT67,AU67,AV67)</f>
         <v>0</v>
       </c>
       <c r="AJ67" s="55"/>
@@ -7918,7 +8179,7 @@
       <c r="AT67" s="55"/>
       <c r="AU67" s="55"/>
       <c r="AV67">
-        <f t="shared" ref="AV67:AV120" si="12">SUM(AW67,BD67,BC67)</f>
+        <f t="shared" ref="AV67:AV120" si="11">SUM(AW67,BD67,BC67)</f>
         <v>0</v>
       </c>
       <c r="AW67" s="55"/>
@@ -7949,7 +8210,7 @@
       <c r="Q68" s="22"/>
       <c r="R68" s="21"/>
       <c r="S68" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="S68:S122" si="12">Q68-R68</f>
         <v>0</v>
       </c>
       <c r="U68" s="35"/>
@@ -7971,7 +8232,7 @@
       <c r="AE68" s="49"/>
       <c r="AF68" s="49"/>
       <c r="AH68" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ68" s="55"/>
@@ -7987,7 +8248,7 @@
       <c r="AT68" s="55"/>
       <c r="AU68" s="55"/>
       <c r="AV68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW68" s="55"/>
@@ -8018,7 +8279,7 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="21"/>
       <c r="S69" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U69" s="34"/>
@@ -8040,7 +8301,7 @@
       <c r="AE69" s="49"/>
       <c r="AF69" s="49"/>
       <c r="AH69" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ69" s="55"/>
@@ -8056,7 +8317,7 @@
       <c r="AT69" s="55"/>
       <c r="AU69" s="55"/>
       <c r="AV69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW69" s="55"/>
@@ -8087,7 +8348,7 @@
       <c r="Q70" s="22"/>
       <c r="R70" s="21"/>
       <c r="S70" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U70" s="34"/>
@@ -8109,7 +8370,7 @@
       <c r="AE70" s="49"/>
       <c r="AF70" s="49"/>
       <c r="AH70" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ70" s="55"/>
@@ -8125,7 +8386,7 @@
       <c r="AT70" s="55"/>
       <c r="AU70" s="55"/>
       <c r="AV70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW70" s="55"/>
@@ -8156,7 +8417,7 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="21"/>
       <c r="S71" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U71" s="34"/>
@@ -8178,7 +8439,7 @@
       <c r="AE71" s="49"/>
       <c r="AF71" s="49"/>
       <c r="AH71" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ71" s="55"/>
@@ -8194,7 +8455,7 @@
       <c r="AT71" s="55"/>
       <c r="AU71" s="55"/>
       <c r="AV71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW71" s="55"/>
@@ -8225,7 +8486,7 @@
       <c r="Q72" s="22"/>
       <c r="R72" s="21"/>
       <c r="S72" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U72" s="34"/>
@@ -8247,7 +8508,7 @@
       <c r="AE72" s="49"/>
       <c r="AF72" s="49"/>
       <c r="AH72" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ72" s="55"/>
@@ -8263,7 +8524,7 @@
       <c r="AT72" s="55"/>
       <c r="AU72" s="55"/>
       <c r="AV72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW72" s="55"/>
@@ -8294,7 +8555,7 @@
       <c r="Q73" s="22"/>
       <c r="R73" s="21"/>
       <c r="S73" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U73" s="34"/>
@@ -8316,7 +8577,7 @@
       <c r="AE73" s="49"/>
       <c r="AF73" s="49"/>
       <c r="AH73" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ73" s="55"/>
@@ -8332,7 +8593,7 @@
       <c r="AT73" s="55"/>
       <c r="AU73" s="55"/>
       <c r="AV73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW73" s="55"/>
@@ -8363,7 +8624,7 @@
       <c r="Q74" s="22"/>
       <c r="R74" s="21"/>
       <c r="S74" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U74" s="34"/>
@@ -8385,7 +8646,7 @@
       <c r="AE74" s="49"/>
       <c r="AF74" s="49"/>
       <c r="AH74" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ74" s="55"/>
@@ -8401,7 +8662,7 @@
       <c r="AT74" s="55"/>
       <c r="AU74" s="55"/>
       <c r="AV74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW74" s="55"/>
@@ -8432,7 +8693,7 @@
       <c r="Q75" s="22"/>
       <c r="R75" s="21"/>
       <c r="S75" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U75" s="34"/>
@@ -8454,7 +8715,7 @@
       <c r="AE75" s="49"/>
       <c r="AF75" s="49"/>
       <c r="AH75" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ75" s="55"/>
@@ -8470,7 +8731,7 @@
       <c r="AT75" s="55"/>
       <c r="AU75" s="55"/>
       <c r="AV75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW75" s="55"/>
@@ -8501,7 +8762,7 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="21"/>
       <c r="S76" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U76" s="34"/>
@@ -8523,7 +8784,7 @@
       <c r="AE76" s="49"/>
       <c r="AF76" s="49"/>
       <c r="AH76" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ76" s="55"/>
@@ -8539,7 +8800,7 @@
       <c r="AT76" s="55"/>
       <c r="AU76" s="55"/>
       <c r="AV76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW76" s="55"/>
@@ -8570,7 +8831,7 @@
       <c r="Q77" s="22"/>
       <c r="R77" s="21"/>
       <c r="S77" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U77" s="34"/>
@@ -8592,7 +8853,7 @@
       <c r="AE77" s="49"/>
       <c r="AF77" s="49"/>
       <c r="AH77" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ77" s="55"/>
@@ -8608,7 +8869,7 @@
       <c r="AT77" s="55"/>
       <c r="AU77" s="55"/>
       <c r="AV77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW77" s="55"/>
@@ -8639,7 +8900,7 @@
       <c r="Q78" s="22"/>
       <c r="R78" s="21"/>
       <c r="S78" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U78" s="34"/>
@@ -8661,7 +8922,7 @@
       <c r="AE78" s="49"/>
       <c r="AF78" s="49"/>
       <c r="AH78" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ78" s="55"/>
@@ -8677,7 +8938,7 @@
       <c r="AT78" s="55"/>
       <c r="AU78" s="55"/>
       <c r="AV78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW78" s="55"/>
@@ -8708,7 +8969,7 @@
       <c r="Q79" s="22"/>
       <c r="R79" s="21"/>
       <c r="S79" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U79" s="34"/>
@@ -8730,7 +8991,7 @@
       <c r="AE79" s="49"/>
       <c r="AF79" s="49"/>
       <c r="AH79" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ79" s="55"/>
@@ -8746,7 +9007,7 @@
       <c r="AT79" s="55"/>
       <c r="AU79" s="55"/>
       <c r="AV79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW79" s="55"/>
@@ -8777,7 +9038,7 @@
       <c r="Q80" s="22"/>
       <c r="R80" s="21"/>
       <c r="S80" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U80" s="34"/>
@@ -8799,7 +9060,7 @@
       <c r="AE80" s="49"/>
       <c r="AF80" s="49"/>
       <c r="AH80" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ80" s="55"/>
@@ -8815,7 +9076,7 @@
       <c r="AT80" s="55"/>
       <c r="AU80" s="55"/>
       <c r="AV80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW80" s="55"/>
@@ -8846,7 +9107,7 @@
       <c r="Q81" s="22"/>
       <c r="R81" s="21"/>
       <c r="S81" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U81" s="34"/>
@@ -8868,7 +9129,7 @@
       <c r="AE81" s="49"/>
       <c r="AF81" s="49"/>
       <c r="AH81" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ81" s="55"/>
@@ -8884,7 +9145,7 @@
       <c r="AT81" s="55"/>
       <c r="AU81" s="55"/>
       <c r="AV81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW81" s="55"/>
@@ -8915,7 +9176,7 @@
       <c r="Q82" s="22"/>
       <c r="R82" s="21"/>
       <c r="S82" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U82" s="34"/>
@@ -8937,7 +9198,7 @@
       <c r="AE82" s="49"/>
       <c r="AF82" s="49"/>
       <c r="AH82" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ82" s="55"/>
@@ -8953,7 +9214,7 @@
       <c r="AT82" s="55"/>
       <c r="AU82" s="55"/>
       <c r="AV82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW82" s="55"/>
@@ -8984,7 +9245,7 @@
       <c r="Q83" s="22"/>
       <c r="R83" s="21"/>
       <c r="S83" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U83" s="34"/>
@@ -9006,7 +9267,7 @@
       <c r="AE83" s="49"/>
       <c r="AF83" s="49"/>
       <c r="AH83" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ83" s="55"/>
@@ -9022,7 +9283,7 @@
       <c r="AT83" s="55"/>
       <c r="AU83" s="55"/>
       <c r="AV83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW83" s="55"/>
@@ -9053,7 +9314,7 @@
       <c r="Q84" s="22"/>
       <c r="R84" s="21"/>
       <c r="S84" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U84" s="34"/>
@@ -9075,7 +9336,7 @@
       <c r="AE84" s="49"/>
       <c r="AF84" s="49"/>
       <c r="AH84" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ84" s="55"/>
@@ -9091,7 +9352,7 @@
       <c r="AT84" s="55"/>
       <c r="AU84" s="55"/>
       <c r="AV84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW84" s="55"/>
@@ -9122,7 +9383,7 @@
       <c r="Q85" s="22"/>
       <c r="R85" s="21"/>
       <c r="S85" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U85" s="34"/>
@@ -9144,7 +9405,7 @@
       <c r="AE85" s="49"/>
       <c r="AF85" s="49"/>
       <c r="AH85" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ85" s="55"/>
@@ -9160,7 +9421,7 @@
       <c r="AT85" s="55"/>
       <c r="AU85" s="55"/>
       <c r="AV85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW85" s="55"/>
@@ -9191,7 +9452,7 @@
       <c r="Q86" s="22"/>
       <c r="R86" s="21"/>
       <c r="S86" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U86" s="34"/>
@@ -9213,7 +9474,7 @@
       <c r="AE86" s="49"/>
       <c r="AF86" s="49"/>
       <c r="AH86" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ86" s="55"/>
@@ -9229,7 +9490,7 @@
       <c r="AT86" s="55"/>
       <c r="AU86" s="55"/>
       <c r="AV86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW86" s="55"/>
@@ -9260,7 +9521,7 @@
       <c r="Q87" s="22"/>
       <c r="R87" s="21"/>
       <c r="S87" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U87" s="34"/>
@@ -9283,7 +9544,7 @@
       <c r="AF87" s="102"/>
       <c r="AG87" s="55"/>
       <c r="AH87" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI87" s="55"/>
@@ -9300,7 +9561,7 @@
       <c r="AT87" s="55"/>
       <c r="AU87" s="55"/>
       <c r="AV87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW87" s="55"/>
@@ -9337,7 +9598,7 @@
       <c r="Q88" s="22"/>
       <c r="R88" s="21"/>
       <c r="S88" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U88" s="34"/>
@@ -9360,7 +9621,7 @@
       <c r="AF88" s="102"/>
       <c r="AG88" s="55"/>
       <c r="AH88" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI88" s="55"/>
@@ -9377,7 +9638,7 @@
       <c r="AT88" s="55"/>
       <c r="AU88" s="55"/>
       <c r="AV88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW88" s="55"/>
@@ -9414,7 +9675,7 @@
       <c r="Q89" s="22"/>
       <c r="R89" s="21"/>
       <c r="S89" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U89" s="34"/>
@@ -9437,7 +9698,7 @@
       <c r="AF89" s="102"/>
       <c r="AG89" s="55"/>
       <c r="AH89" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI89" s="55"/>
@@ -9454,7 +9715,7 @@
       <c r="AT89" s="55"/>
       <c r="AU89" s="55"/>
       <c r="AV89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW89" s="55"/>
@@ -9491,7 +9752,7 @@
       <c r="Q90" s="22"/>
       <c r="R90" s="21"/>
       <c r="S90" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U90" s="34"/>
@@ -9514,7 +9775,7 @@
       <c r="AF90" s="102"/>
       <c r="AG90" s="55"/>
       <c r="AH90" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI90" s="55"/>
@@ -9531,7 +9792,7 @@
       <c r="AT90" s="55"/>
       <c r="AU90" s="55"/>
       <c r="AV90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW90" s="55"/>
@@ -9568,7 +9829,7 @@
       <c r="Q91" s="22"/>
       <c r="R91" s="21"/>
       <c r="S91" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U91" s="34"/>
@@ -9591,7 +9852,7 @@
       <c r="AF91" s="102"/>
       <c r="AG91" s="55"/>
       <c r="AH91" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI91" s="55"/>
@@ -9608,7 +9869,7 @@
       <c r="AT91" s="55"/>
       <c r="AU91" s="55"/>
       <c r="AV91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW91" s="55"/>
@@ -9645,7 +9906,7 @@
       <c r="Q92" s="22"/>
       <c r="R92" s="21"/>
       <c r="S92" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U92" s="34"/>
@@ -9668,7 +9929,7 @@
       <c r="AF92" s="102"/>
       <c r="AG92" s="55"/>
       <c r="AH92" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI92" s="55"/>
@@ -9685,7 +9946,7 @@
       <c r="AT92" s="55"/>
       <c r="AU92" s="55"/>
       <c r="AV92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW92" s="55"/>
@@ -9722,7 +9983,7 @@
       <c r="Q93" s="22"/>
       <c r="R93" s="21"/>
       <c r="S93" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U93" s="34"/>
@@ -9745,7 +10006,7 @@
       <c r="AF93" s="102"/>
       <c r="AG93" s="55"/>
       <c r="AH93" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI93" s="55"/>
@@ -9762,7 +10023,7 @@
       <c r="AT93" s="55"/>
       <c r="AU93" s="55"/>
       <c r="AV93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW93" s="55"/>
@@ -9799,7 +10060,7 @@
       <c r="Q94" s="22"/>
       <c r="R94" s="21"/>
       <c r="S94" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U94" s="34"/>
@@ -9822,7 +10083,7 @@
       <c r="AF94" s="102"/>
       <c r="AG94" s="55"/>
       <c r="AH94" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI94" s="55"/>
@@ -9839,7 +10100,7 @@
       <c r="AT94" s="55"/>
       <c r="AU94" s="55"/>
       <c r="AV94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW94" s="55"/>
@@ -9876,7 +10137,7 @@
       <c r="Q95" s="22"/>
       <c r="R95" s="21"/>
       <c r="S95" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U95" s="34"/>
@@ -9899,7 +10160,7 @@
       <c r="AF95" s="102"/>
       <c r="AG95" s="55"/>
       <c r="AH95" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI95" s="55"/>
@@ -9916,7 +10177,7 @@
       <c r="AT95" s="55"/>
       <c r="AU95" s="55"/>
       <c r="AV95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW95" s="55"/>
@@ -9953,7 +10214,7 @@
       <c r="Q96" s="22"/>
       <c r="R96" s="21"/>
       <c r="S96" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U96" s="34"/>
@@ -9976,7 +10237,7 @@
       <c r="AF96" s="102"/>
       <c r="AG96" s="55"/>
       <c r="AH96" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI96" s="55"/>
@@ -9993,7 +10254,7 @@
       <c r="AT96" s="55"/>
       <c r="AU96" s="55"/>
       <c r="AV96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW96" s="55"/>
@@ -10030,7 +10291,7 @@
       <c r="Q97" s="22"/>
       <c r="R97" s="21"/>
       <c r="S97" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U97" s="34"/>
@@ -10053,7 +10314,7 @@
       <c r="AF97" s="102"/>
       <c r="AG97" s="55"/>
       <c r="AH97" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI97" s="55"/>
@@ -10070,7 +10331,7 @@
       <c r="AT97" s="55"/>
       <c r="AU97" s="55"/>
       <c r="AV97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW97" s="55"/>
@@ -10107,7 +10368,7 @@
       <c r="Q98" s="22"/>
       <c r="R98" s="21"/>
       <c r="S98" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U98" s="34"/>
@@ -10130,7 +10391,7 @@
       <c r="AF98" s="102"/>
       <c r="AG98" s="55"/>
       <c r="AH98" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI98" s="55"/>
@@ -10147,7 +10408,7 @@
       <c r="AT98" s="55"/>
       <c r="AU98" s="55"/>
       <c r="AV98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW98" s="55"/>
@@ -10184,7 +10445,7 @@
       <c r="Q99" s="22"/>
       <c r="R99" s="21"/>
       <c r="S99" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U99" s="34"/>
@@ -10207,7 +10468,7 @@
       <c r="AF99" s="102"/>
       <c r="AG99" s="55"/>
       <c r="AH99" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI99" s="55"/>
@@ -10224,7 +10485,7 @@
       <c r="AT99" s="55"/>
       <c r="AU99" s="55"/>
       <c r="AV99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW99" s="55"/>
@@ -10261,7 +10522,7 @@
       <c r="Q100" s="22"/>
       <c r="R100" s="21"/>
       <c r="S100" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U100" s="34"/>
@@ -10284,7 +10545,7 @@
       <c r="AF100" s="102"/>
       <c r="AG100" s="55"/>
       <c r="AH100" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI100" s="55"/>
@@ -10301,7 +10562,7 @@
       <c r="AT100" s="55"/>
       <c r="AU100" s="55"/>
       <c r="AV100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW100" s="55"/>
@@ -10338,7 +10599,7 @@
       <c r="Q101" s="22"/>
       <c r="R101" s="21"/>
       <c r="S101" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U101" s="34"/>
@@ -10361,7 +10622,7 @@
       <c r="AF101" s="102"/>
       <c r="AG101" s="55"/>
       <c r="AH101" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI101" s="55"/>
@@ -10378,7 +10639,7 @@
       <c r="AT101" s="55"/>
       <c r="AU101" s="55"/>
       <c r="AV101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW101" s="55"/>
@@ -10415,7 +10676,7 @@
       <c r="Q102" s="22"/>
       <c r="R102" s="21"/>
       <c r="S102" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U102" s="34"/>
@@ -10438,7 +10699,7 @@
       <c r="AF102" s="102"/>
       <c r="AG102" s="55"/>
       <c r="AH102" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI102" s="55"/>
@@ -10455,7 +10716,7 @@
       <c r="AT102" s="55"/>
       <c r="AU102" s="55"/>
       <c r="AV102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW102" s="55"/>
@@ -10492,7 +10753,7 @@
       <c r="Q103" s="22"/>
       <c r="R103" s="21"/>
       <c r="S103" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U103" s="34"/>
@@ -10515,7 +10776,7 @@
       <c r="AF103" s="102"/>
       <c r="AG103" s="55"/>
       <c r="AH103" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI103" s="55"/>
@@ -10532,7 +10793,7 @@
       <c r="AT103" s="55"/>
       <c r="AU103" s="55"/>
       <c r="AV103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW103" s="55"/>
@@ -10569,7 +10830,7 @@
       <c r="Q104" s="22"/>
       <c r="R104" s="21"/>
       <c r="S104" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U104" s="34"/>
@@ -10592,7 +10853,7 @@
       <c r="AF104" s="102"/>
       <c r="AG104" s="55"/>
       <c r="AH104" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI104" s="55"/>
@@ -10609,7 +10870,7 @@
       <c r="AT104" s="55"/>
       <c r="AU104" s="55"/>
       <c r="AV104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW104" s="55"/>
@@ -10646,7 +10907,7 @@
       <c r="Q105" s="22"/>
       <c r="R105" s="21"/>
       <c r="S105" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U105" s="34"/>
@@ -10669,7 +10930,7 @@
       <c r="AF105" s="102"/>
       <c r="AG105" s="55"/>
       <c r="AH105" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI105" s="55"/>
@@ -10686,7 +10947,7 @@
       <c r="AT105" s="55"/>
       <c r="AU105" s="55"/>
       <c r="AV105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW105" s="55"/>
@@ -10723,7 +10984,7 @@
       <c r="Q106" s="22"/>
       <c r="R106" s="21"/>
       <c r="S106" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U106" s="34"/>
@@ -10746,7 +11007,7 @@
       <c r="AF106" s="102"/>
       <c r="AG106" s="55"/>
       <c r="AH106" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI106" s="55"/>
@@ -10763,7 +11024,7 @@
       <c r="AT106" s="55"/>
       <c r="AU106" s="55"/>
       <c r="AV106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW106" s="55"/>
@@ -10800,7 +11061,7 @@
       <c r="Q107" s="22"/>
       <c r="R107" s="21"/>
       <c r="S107" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U107" s="34"/>
@@ -10823,7 +11084,7 @@
       <c r="AF107" s="102"/>
       <c r="AG107" s="55"/>
       <c r="AH107" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI107" s="55"/>
@@ -10840,7 +11101,7 @@
       <c r="AT107" s="55"/>
       <c r="AU107" s="55"/>
       <c r="AV107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW107" s="55"/>
@@ -10877,7 +11138,7 @@
       <c r="Q108" s="22"/>
       <c r="R108" s="21"/>
       <c r="S108" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U108" s="34"/>
@@ -10900,7 +11161,7 @@
       <c r="AF108" s="102"/>
       <c r="AG108" s="55"/>
       <c r="AH108" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI108" s="55"/>
@@ -10917,7 +11178,7 @@
       <c r="AT108" s="55"/>
       <c r="AU108" s="55"/>
       <c r="AV108">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW108" s="55"/>
@@ -10954,7 +11215,7 @@
       <c r="Q109" s="22"/>
       <c r="R109" s="21"/>
       <c r="S109" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U109" s="34"/>
@@ -10977,7 +11238,7 @@
       <c r="AF109" s="102"/>
       <c r="AG109" s="55"/>
       <c r="AH109" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI109" s="55"/>
@@ -10994,7 +11255,7 @@
       <c r="AT109" s="55"/>
       <c r="AU109" s="55"/>
       <c r="AV109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW109" s="55"/>
@@ -11031,7 +11292,7 @@
       <c r="Q110" s="22"/>
       <c r="R110" s="21"/>
       <c r="S110" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U110" s="34"/>
@@ -11054,7 +11315,7 @@
       <c r="AF110" s="102"/>
       <c r="AG110" s="55"/>
       <c r="AH110" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI110" s="55"/>
@@ -11071,7 +11332,7 @@
       <c r="AT110" s="55"/>
       <c r="AU110" s="55"/>
       <c r="AV110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW110" s="55"/>
@@ -11108,7 +11369,7 @@
       <c r="Q111" s="22"/>
       <c r="R111" s="21"/>
       <c r="S111" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U111" s="34"/>
@@ -11131,7 +11392,7 @@
       <c r="AF111" s="102"/>
       <c r="AG111" s="55"/>
       <c r="AH111" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI111" s="55"/>
@@ -11148,7 +11409,7 @@
       <c r="AT111" s="55"/>
       <c r="AU111" s="55"/>
       <c r="AV111">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW111" s="55"/>
@@ -11185,7 +11446,7 @@
       <c r="Q112" s="22"/>
       <c r="R112" s="21"/>
       <c r="S112" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U112" s="34"/>
@@ -11208,7 +11469,7 @@
       <c r="AF112" s="102"/>
       <c r="AG112" s="55"/>
       <c r="AH112" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI112" s="55"/>
@@ -11225,7 +11486,7 @@
       <c r="AT112" s="55"/>
       <c r="AU112" s="55"/>
       <c r="AV112">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW112" s="55"/>
@@ -11262,7 +11523,7 @@
       <c r="Q113" s="22"/>
       <c r="R113" s="21"/>
       <c r="S113" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U113" s="34"/>
@@ -11285,7 +11546,7 @@
       <c r="AF113" s="102"/>
       <c r="AG113" s="55"/>
       <c r="AH113" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI113" s="55"/>
@@ -11302,7 +11563,7 @@
       <c r="AT113" s="55"/>
       <c r="AU113" s="55"/>
       <c r="AV113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW113" s="55"/>
@@ -11339,7 +11600,7 @@
       <c r="Q114" s="22"/>
       <c r="R114" s="21"/>
       <c r="S114" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U114" s="34"/>
@@ -11362,7 +11623,7 @@
       <c r="AF114" s="102"/>
       <c r="AG114" s="55"/>
       <c r="AH114" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI114" s="55"/>
@@ -11379,7 +11640,7 @@
       <c r="AT114" s="55"/>
       <c r="AU114" s="55"/>
       <c r="AV114">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW114" s="55"/>
@@ -11416,7 +11677,7 @@
       <c r="Q115" s="22"/>
       <c r="R115" s="21"/>
       <c r="S115" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U115" s="34"/>
@@ -11450,7 +11711,7 @@
       <c r="AT115" s="55"/>
       <c r="AU115" s="55"/>
       <c r="AV115">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW115" s="55"/>
@@ -11487,7 +11748,7 @@
       <c r="Q116" s="22"/>
       <c r="R116" s="21"/>
       <c r="S116" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U116" s="34"/>
@@ -11521,7 +11782,7 @@
       <c r="AT116" s="55"/>
       <c r="AU116" s="55"/>
       <c r="AV116">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW116" s="55"/>
@@ -11558,7 +11819,7 @@
       <c r="Q117" s="22"/>
       <c r="R117" s="21"/>
       <c r="S117" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U117" s="34"/>
@@ -11592,7 +11853,7 @@
       <c r="AT117" s="55"/>
       <c r="AU117" s="55"/>
       <c r="AV117">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW117" s="55"/>
@@ -11629,7 +11890,7 @@
       <c r="Q118" s="22"/>
       <c r="R118" s="21"/>
       <c r="S118" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U118" s="34"/>
@@ -11663,7 +11924,7 @@
       <c r="AT118" s="55"/>
       <c r="AU118" s="55"/>
       <c r="AV118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW118" s="55"/>
@@ -11700,7 +11961,7 @@
       <c r="Q119" s="22"/>
       <c r="R119" s="21"/>
       <c r="S119" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U119" s="34"/>
@@ -11734,7 +11995,7 @@
       <c r="AT119" s="55"/>
       <c r="AU119" s="55"/>
       <c r="AV119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW119" s="55"/>
@@ -11771,7 +12032,7 @@
       <c r="Q120" s="22"/>
       <c r="R120" s="21"/>
       <c r="S120" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U120" s="34"/>
@@ -11805,7 +12066,7 @@
       <c r="AT120" s="55"/>
       <c r="AU120" s="55"/>
       <c r="AV120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW120" s="55"/>
@@ -11842,7 +12103,7 @@
       <c r="Q121" s="22"/>
       <c r="R121" s="21"/>
       <c r="S121" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U121" s="34"/>
@@ -11904,7 +12165,7 @@
       <c r="Q122" s="22"/>
       <c r="R122" s="21"/>
       <c r="S122" s="19">
-        <f t="shared" ref="S122:S136" si="17">Q122-R122</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U122" s="34"/>
@@ -11964,7 +12225,7 @@
       <c r="Q123" s="22"/>
       <c r="R123" s="21"/>
       <c r="S123" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="S123:S137" si="17">Q123-R123</f>
         <v>0</v>
       </c>
       <c r="U123" s="34"/>
@@ -12481,13 +12742,13 @@
       </c>
       <c r="I132" s="12"/>
       <c r="K132" s="13"/>
-      <c r="M132" s="87"/>
-      <c r="N132" s="87"/>
-      <c r="O132" s="87"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
       <c r="P132" s="34"/>
-      <c r="Q132" s="88"/>
-      <c r="R132" s="86"/>
-      <c r="S132" s="89">
+      <c r="Q132" s="22"/>
+      <c r="R132" s="21"/>
+      <c r="S132" s="19">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -12771,13 +13032,16 @@
       </c>
       <c r="I137" s="12"/>
       <c r="K137" s="13"/>
-      <c r="M137" s="91"/>
-      <c r="N137" s="91"/>
-      <c r="O137" s="91"/>
-      <c r="P137" s="133"/>
-      <c r="Q137" s="91"/>
-      <c r="R137" s="91"/>
-      <c r="S137" s="91"/>
+      <c r="M137" s="87"/>
+      <c r="N137" s="87"/>
+      <c r="O137" s="87"/>
+      <c r="P137" s="34"/>
+      <c r="Q137" s="88"/>
+      <c r="R137" s="86"/>
+      <c r="S137" s="89">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="U137" s="34"/>
       <c r="V137" s="34"/>
       <c r="W137" s="34"/>
@@ -12829,7 +13093,7 @@
       <c r="M138" s="91"/>
       <c r="N138" s="91"/>
       <c r="O138" s="91"/>
-      <c r="P138" s="91"/>
+      <c r="P138" s="133"/>
       <c r="Q138" s="91"/>
       <c r="R138" s="91"/>
       <c r="S138" s="91"/>
@@ -13598,9 +13862,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="I152" s="84"/>
-      <c r="J152" s="85"/>
-      <c r="K152" s="86"/>
+      <c r="G152"/>
+      <c r="H152"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="13"/>
       <c r="M152" s="91"/>
       <c r="N152" s="91"/>
       <c r="O152" s="91"/>
@@ -13787,7 +14053,11 @@
       <c r="AH156" s="93"/>
     </row>
     <row r="157" spans="1:61" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J157" s="98"/>
+      <c r="G157" s="87"/>
+      <c r="H157" s="87"/>
+      <c r="I157" s="84"/>
+      <c r="J157" s="85"/>
+      <c r="K157" s="86"/>
       <c r="AA157" s="92"/>
       <c r="AB157" s="93"/>
       <c r="AD157" s="93"/>
@@ -15759,13 +16029,6 @@
     </row>
     <row r="376" spans="10:34" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J376" s="98"/>
-      <c r="M376"/>
-      <c r="N376"/>
-      <c r="O376"/>
-      <c r="P376"/>
-      <c r="Q376" s="23"/>
-      <c r="R376" s="13"/>
-      <c r="S376" s="20"/>
       <c r="AA376" s="93"/>
       <c r="AB376" s="93"/>
       <c r="AD376" s="93"/>
@@ -15924,7 +16187,7 @@
       <c r="O386"/>
       <c r="P386"/>
       <c r="Q386" s="23"/>
-      <c r="R386"/>
+      <c r="R386" s="13"/>
       <c r="S386" s="20"/>
       <c r="AA386" s="93"/>
       <c r="AB386" s="93"/>
@@ -16183,7 +16446,11 @@
       </c>
     </row>
     <row r="396" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="I396" s="10"/>
+      <c r="G396" s="91"/>
+      <c r="H396" s="91"/>
+      <c r="I396" s="91"/>
+      <c r="J396" s="98"/>
+      <c r="K396" s="91"/>
       <c r="Q396" s="23"/>
       <c r="S396" s="20"/>
       <c r="X396" s="33"/>
@@ -16743,6 +17010,7 @@
     <row r="405" spans="9:55" x14ac:dyDescent="0.25">
       <c r="I405" s="10"/>
       <c r="Q405" s="23"/>
+      <c r="S405" s="20"/>
       <c r="X405" s="33"/>
       <c r="Y405" s="33"/>
       <c r="AA405" s="47"/>
@@ -18084,6 +18352,7 @@
     </row>
     <row r="427" spans="9:55" x14ac:dyDescent="0.25">
       <c r="I427" s="10"/>
+      <c r="Q427" s="23"/>
       <c r="X427" s="33"/>
       <c r="Y427" s="33"/>
       <c r="AA427" s="47"/>
@@ -20217,6 +20486,7 @@
       </c>
     </row>
     <row r="463" spans="9:55" x14ac:dyDescent="0.25">
+      <c r="I463" s="10"/>
       <c r="AA463" s="47"/>
       <c r="AB463" s="47"/>
       <c r="AC463" s="48"/>
@@ -28707,4 +28977,329 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G3" t="s">
+        <v>300</v>
+      </c>
+      <c r="I3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="127"/>
+      <c r="B4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4">
+        <v>12188</v>
+      </c>
+      <c r="G4">
+        <v>10612</v>
+      </c>
+      <c r="I4">
+        <f>C4-G4</f>
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="99"/>
+      <c r="B5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5">
+        <f>C4-C23</f>
+        <v>11845.5</v>
+      </c>
+      <c r="E5">
+        <f>C4-C22</f>
+        <v>11503</v>
+      </c>
+      <c r="G5">
+        <f>G4-C23</f>
+        <v>10269.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="99"/>
+      <c r="B6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6">
+        <f>C5*0.1</f>
+        <v>1184.55</v>
+      </c>
+      <c r="E6">
+        <f>E5*0.1</f>
+        <v>1150.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="99"/>
+      <c r="B7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7">
+        <f>C5*0.01</f>
+        <v>118.455</v>
+      </c>
+      <c r="E7">
+        <f>E5*0.01</f>
+        <v>115.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="99"/>
+      <c r="B8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C6,C7)</f>
+        <v>1303.0049999999999</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E6, E7)</f>
+        <v>1265.33</v>
+      </c>
+      <c r="G8">
+        <f>C5-C8</f>
+        <v>10542.495000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="99"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="99"/>
+      <c r="G10">
+        <f>E5-E8</f>
+        <v>10237.67</v>
+      </c>
+      <c r="H10">
+        <f>G10+C23</f>
+        <v>10580.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="99"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="99"/>
+      <c r="E12">
+        <v>1100</v>
+      </c>
+      <c r="F12">
+        <f>E12*2</f>
+        <v>2200</v>
+      </c>
+      <c r="G12">
+        <f>2200*2</f>
+        <v>4400</v>
+      </c>
+      <c r="H12">
+        <f>G12*7</f>
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="127">
+        <v>10612</v>
+      </c>
+      <c r="E13">
+        <v>1150</v>
+      </c>
+      <c r="F13">
+        <f>E13*2</f>
+        <v>2300</v>
+      </c>
+      <c r="G13">
+        <f>F13*2</f>
+        <v>4600</v>
+      </c>
+      <c r="H13">
+        <f>G13*7</f>
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>2992</v>
+      </c>
+      <c r="G14">
+        <f>F14*2</f>
+        <v>5984</v>
+      </c>
+      <c r="H14">
+        <f>G14*7</f>
+        <v>41888</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>303</v>
+      </c>
+      <c r="C23">
+        <f>C22/2</f>
+        <v>342.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>12188</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>11000</v>
+      </c>
+      <c r="D29">
+        <v>1100</v>
+      </c>
+      <c r="E29">
+        <f>E28-D29</f>
+        <v>11088</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f>E29-342.5</f>
+        <v>10745.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="139"/>
+      <c r="B2" s="138" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="137" t="s">
+        <v>310</v>
+      </c>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="L2" s="111" t="s">
+        <v>311</v>
+      </c>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="138" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="4">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="138" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" s="4">
+        <f>B3/2</f>
+        <v>342.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4">
+        <v>12188</v>
+      </c>
+      <c r="H4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I4">
+        <v>10612</v>
+      </c>
+      <c r="L4" t="s">
+        <v>312</v>
+      </c>
+      <c r="M4" s="73">
+        <f>E4-I4</f>
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="140"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>29926</v>
+      </c>
+      <c r="B10">
+        <f>A10*0.1</f>
+        <v>2992.6000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>E4*2</f>
+        <v>24376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>B12-B10</f>
+        <v>21383.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>B13/2</f>
+        <v>10691.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afchavez\Desktop\Adrifelcha_Lab25\Finanzas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="320">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -971,12 +966,27 @@
   </si>
   <si>
     <t>Quincenal (?)</t>
+  </si>
+  <si>
+    <t>Fridays Jaime</t>
+  </si>
+  <si>
+    <t>Ale Banco</t>
+  </si>
+  <si>
+    <t>Efectivo Coyoacan</t>
+  </si>
+  <si>
+    <t>El merendero Coyoacan</t>
+  </si>
+  <si>
+    <t>Banco 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1685,7 +1695,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1720,7 +1730,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1897,7 +1907,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1907,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19:K28"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,7 +2001,7 @@
       <c r="E2" s="55"/>
       <c r="F2" s="109">
         <f>N3-D2</f>
-        <v>10900.32</v>
+        <v>4887.32</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>2</v>
@@ -2119,7 +2129,7 @@
       </c>
       <c r="N3" s="24">
         <f>(SUM(D2,(K11:K502)))-(SUM((J11:J502),(I11:I502)))</f>
-        <v>18663.32</v>
+        <v>12650.32</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -2207,7 +2217,7 @@
       </c>
       <c r="P4" s="78">
         <f>SUM(N3,S9,P7)</f>
-        <v>60928.32</v>
+        <v>59945.32</v>
       </c>
       <c r="Q4" s="55"/>
       <c r="AA4" s="46">
@@ -2378,7 +2388,7 @@
       </c>
       <c r="N6" s="51">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I502)))-(SUM((Y11:Y499)))</f>
-        <v>500</v>
+        <v>630</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -2462,7 +2472,7 @@
       </c>
       <c r="P7" s="77">
         <f>SUM(R7,N6)</f>
-        <v>500</v>
+        <v>630</v>
       </c>
       <c r="Q7" s="74"/>
       <c r="R7" s="73">
@@ -2624,8 +2634,8 @@
         <v>25</v>
       </c>
       <c r="S9" s="14">
-        <f>SUM(S11:S484)</f>
-        <v>41765</v>
+        <f>SUM(S11:S485)</f>
+        <v>46665</v>
       </c>
       <c r="U9" s="31" t="s">
         <v>40</v>
@@ -2867,12 +2877,12 @@
       </c>
       <c r="R11" s="21"/>
       <c r="S11" s="19">
-        <f t="shared" ref="S11:S30" si="6">Q11-R11</f>
+        <f t="shared" ref="S11:S31" si="6">Q11-R11</f>
         <v>5000</v>
       </c>
       <c r="T11" s="129">
-        <f>SUM(S11:S19)</f>
-        <v>31750</v>
+        <f>SUM(S11:S20)</f>
+        <v>36650</v>
       </c>
       <c r="U11" s="35">
         <v>43221</v>
@@ -3114,7 +3124,7 @@
       </c>
       <c r="R13" s="21"/>
       <c r="S13" s="19">
-        <f t="shared" ref="S13:S19" si="7">Q13-R13</f>
+        <f t="shared" ref="S13:S20" si="7">Q13-R13</f>
         <v>3200</v>
       </c>
       <c r="T13" s="128"/>
@@ -3878,25 +3888,23 @@
         <v>70</v>
       </c>
       <c r="K20" s="99"/>
-      <c r="M20" s="17"/>
+      <c r="M20" s="58">
+        <v>43280</v>
+      </c>
       <c r="N20" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>34</v>
+        <v>319</v>
       </c>
       <c r="P20" s="34"/>
       <c r="Q20" s="22">
-        <v>1100</v>
+        <v>4900</v>
       </c>
       <c r="R20" s="21"/>
       <c r="S20" s="19">
-        <f t="shared" si="6"/>
-        <v>1100</v>
-      </c>
-      <c r="T20" s="128">
-        <f>SUM(S20:S30)</f>
-        <v>5120</v>
+        <f t="shared" si="7"/>
+        <v>4900</v>
       </c>
       <c r="U20" s="35">
         <v>43279</v>
@@ -3994,18 +4002,21 @@
         <v>24</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="P21" s="34"/>
       <c r="Q21" s="22">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="R21" s="21"/>
       <c r="S21" s="19">
         <f t="shared" si="6"/>
-        <v>600</v>
-      </c>
-      <c r="T21" s="128"/>
+        <v>1100</v>
+      </c>
+      <c r="T21" s="128">
+        <f>SUM(S21:S31)</f>
+        <v>5120</v>
+      </c>
       <c r="U21" s="35"/>
       <c r="V21" s="34"/>
       <c r="W21" s="34"/>
@@ -4090,16 +4101,16 @@
         <v>24</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P22" s="34"/>
       <c r="Q22" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="R22" s="21"/>
       <c r="S22" s="19">
-        <f>Q22-R22</f>
-        <v>1000</v>
+        <f t="shared" si="6"/>
+        <v>600</v>
       </c>
       <c r="T22" s="128"/>
       <c r="U22" s="35"/>
@@ -4184,16 +4195,16 @@
         <v>24</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="P23" s="34"/>
       <c r="Q23" s="22">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="R23" s="21"/>
       <c r="S23" s="19">
-        <f t="shared" si="6"/>
-        <v>120</v>
+        <f>Q23-R23</f>
+        <v>1000</v>
       </c>
       <c r="T23" s="128"/>
       <c r="U23" s="35"/>
@@ -4293,16 +4304,16 @@
         <v>24</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P24" s="34"/>
       <c r="Q24" s="22">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="R24" s="21"/>
       <c r="S24" s="19">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="T24" s="128"/>
       <c r="U24" s="35"/>
@@ -4395,16 +4406,16 @@
         <v>24</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P25" s="34"/>
       <c r="Q25" s="22">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="R25" s="21"/>
       <c r="S25" s="19">
         <f t="shared" si="6"/>
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="T25" s="128"/>
       <c r="U25" s="35"/>
@@ -4493,16 +4504,16 @@
         <v>24</v>
       </c>
       <c r="O26" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P26" s="34"/>
       <c r="Q26" s="22">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="R26" s="21"/>
       <c r="S26" s="19">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="T26" s="128"/>
       <c r="U26" s="35"/>
@@ -4602,16 +4613,16 @@
         <v>24</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P27" s="34"/>
       <c r="Q27" s="22">
-        <v>850</v>
+        <v>100</v>
       </c>
       <c r="R27" s="21"/>
       <c r="S27" s="19">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>100</v>
       </c>
       <c r="T27" s="128"/>
       <c r="U27" s="35"/>
@@ -4711,16 +4722,16 @@
         <v>24</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P28" s="34"/>
       <c r="Q28" s="22">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="R28" s="21"/>
       <c r="S28" s="19">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="T28" s="128"/>
       <c r="U28" s="35"/>
@@ -4811,21 +4822,18 @@
         <v>24</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="P29" s="34"/>
       <c r="Q29" s="22">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R29" s="21"/>
       <c r="S29" s="19">
         <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="T29" s="128">
-        <f>SUM(S31:S32)</f>
-        <v>340</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="T29" s="128"/>
       <c r="U29" s="35"/>
       <c r="V29" s="34"/>
       <c r="W29" s="34"/>
@@ -4910,18 +4918,21 @@
         <v>24</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="P30" s="34"/>
       <c r="Q30" s="22">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R30" s="21"/>
       <c r="S30" s="19">
         <f t="shared" si="6"/>
-        <v>300</v>
-      </c>
-      <c r="T30" s="128"/>
+        <v>100</v>
+      </c>
+      <c r="T30" s="128">
+        <f>SUM(S32:S33)</f>
+        <v>340</v>
+      </c>
       <c r="U30" s="35"/>
       <c r="V30" s="56"/>
       <c r="W30" s="56"/>
@@ -5011,23 +5022,21 @@
         <v>102.98</v>
       </c>
       <c r="K31" s="99"/>
-      <c r="M31" s="58">
-        <v>42802</v>
-      </c>
+      <c r="M31" s="17"/>
       <c r="N31" s="17" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P31" s="34"/>
       <c r="Q31" s="22">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="R31" s="21"/>
       <c r="S31" s="19">
-        <f>Q31-R31</f>
-        <v>140</v>
+        <f t="shared" si="6"/>
+        <v>300</v>
       </c>
       <c r="T31" s="128"/>
       <c r="U31" s="35"/>
@@ -5122,16 +5131,16 @@
         <v>62</v>
       </c>
       <c r="O32" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P32" s="34"/>
       <c r="Q32" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="R32" s="21"/>
       <c r="S32" s="19">
         <f>Q32-R32</f>
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="T32" s="128"/>
       <c r="U32" s="35"/>
@@ -5213,28 +5222,25 @@
       </c>
       <c r="J33" s="98"/>
       <c r="K33" s="99"/>
-      <c r="M33" s="17"/>
+      <c r="M33" s="58">
+        <v>42802</v>
+      </c>
       <c r="N33" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P33" s="34"/>
       <c r="Q33" s="22">
-        <v>1800</v>
-      </c>
-      <c r="R33" s="21">
-        <v>1150</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="R33" s="21"/>
       <c r="S33" s="19">
         <f>Q33-R33</f>
-        <v>650</v>
-      </c>
-      <c r="T33" s="128">
-        <f>SUM(S35:S41)</f>
-        <v>3510</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="T33" s="128"/>
       <c r="U33" s="35"/>
       <c r="V33" s="34"/>
       <c r="W33" s="34"/>
@@ -5327,25 +5333,28 @@
         <v>189.2</v>
       </c>
       <c r="K34" s="99"/>
-      <c r="M34" s="58">
-        <v>43010</v>
-      </c>
+      <c r="M34" s="17"/>
       <c r="N34" s="17" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="O34" s="17" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="P34" s="34"/>
       <c r="Q34" s="22">
-        <v>100</v>
-      </c>
-      <c r="R34" s="21"/>
+        <v>1800</v>
+      </c>
+      <c r="R34" s="21">
+        <v>1150</v>
+      </c>
       <c r="S34" s="19">
-        <f t="shared" ref="S34:S67" si="9">Q34-R34</f>
-        <v>100</v>
-      </c>
-      <c r="T34" s="128"/>
+        <f>Q34-R34</f>
+        <v>650</v>
+      </c>
+      <c r="T34" s="128">
+        <f>SUM(S36:S42)</f>
+        <v>3510</v>
+      </c>
       <c r="U34" s="35"/>
       <c r="V34" s="34"/>
       <c r="W34" s="34"/>
@@ -5431,24 +5440,25 @@
       <c r="K35" s="127">
         <v>10612</v>
       </c>
-      <c r="M35" s="17" t="s">
-        <v>97</v>
+      <c r="M35" s="58">
+        <v>43010</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P35" s="34"/>
       <c r="Q35" s="22">
-        <v>1040</v>
+        <v>100</v>
       </c>
       <c r="R35" s="21"/>
       <c r="S35" s="19">
-        <f t="shared" si="9"/>
-        <v>1040</v>
-      </c>
+        <f t="shared" ref="S35:S68" si="9">Q35-R35</f>
+        <v>100</v>
+      </c>
+      <c r="T35" s="128"/>
       <c r="U35" s="35"/>
       <c r="V35" s="34"/>
       <c r="W35" s="34"/>
@@ -5519,28 +5529,34 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G36" s="95"/>
-      <c r="H36" s="55"/>
+      <c r="G36" s="95">
+        <v>43280</v>
+      </c>
+      <c r="H36" s="55" t="s">
+        <v>315</v>
+      </c>
       <c r="I36" s="97"/>
-      <c r="J36" s="98"/>
+      <c r="J36" s="98">
+        <v>413</v>
+      </c>
       <c r="K36" s="99"/>
-      <c r="M36" s="17"/>
+      <c r="M36" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="N36" s="17" t="s">
         <v>26</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P36" s="34"/>
       <c r="Q36" s="22">
-        <v>2900</v>
-      </c>
-      <c r="R36" s="21">
-        <v>1550</v>
-      </c>
+        <v>1040</v>
+      </c>
+      <c r="R36" s="21"/>
       <c r="S36" s="19">
         <f t="shared" si="9"/>
-        <v>1350</v>
+        <v>1040</v>
       </c>
       <c r="U36" s="35"/>
       <c r="V36" s="34"/>
@@ -5604,9 +5620,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G37" s="95"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="97"/>
+      <c r="G37" s="95">
+        <v>43281</v>
+      </c>
+      <c r="H37" s="55" t="s">
+        <v>316</v>
+      </c>
+      <c r="I37" s="97">
+        <v>5200</v>
+      </c>
       <c r="J37" s="98"/>
       <c r="K37" s="99"/>
       <c r="M37" s="17"/>
@@ -5614,16 +5636,18 @@
         <v>26</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P37" s="34"/>
       <c r="Q37" s="22">
-        <v>240</v>
-      </c>
-      <c r="R37" s="21"/>
+        <v>2900</v>
+      </c>
+      <c r="R37" s="21">
+        <v>1550</v>
+      </c>
       <c r="S37" s="19">
         <f t="shared" si="9"/>
-        <v>240</v>
+        <v>1350</v>
       </c>
       <c r="U37" s="35"/>
       <c r="V37" s="34"/>
@@ -5697,32 +5721,32 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G38" s="95"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="97"/>
+      <c r="G38" s="95">
+        <v>43281</v>
+      </c>
+      <c r="H38" s="55" t="s">
+        <v>317</v>
+      </c>
+      <c r="I38" s="97">
+        <v>400</v>
+      </c>
       <c r="J38" s="98"/>
       <c r="K38" s="99"/>
-      <c r="M38" s="17" t="s">
-        <v>120</v>
-      </c>
+      <c r="M38" s="17"/>
       <c r="N38" s="17" t="s">
         <v>26</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="P38" s="34" t="s">
-        <v>232</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P38" s="34"/>
       <c r="Q38" s="22">
-        <v>1500</v>
-      </c>
-      <c r="R38" s="21">
-        <v>1300</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="R38" s="21"/>
       <c r="S38" s="19">
-        <f>Q38-R38</f>
-        <v>200</v>
+        <f t="shared" si="9"/>
+        <v>240</v>
       </c>
       <c r="U38" s="35"/>
       <c r="V38" s="34"/>
@@ -5803,21 +5827,27 @@
       <c r="I39" s="97"/>
       <c r="J39" s="98"/>
       <c r="K39" s="99"/>
-      <c r="M39" s="17"/>
+      <c r="M39" s="17" t="s">
+        <v>120</v>
+      </c>
       <c r="N39" s="17" t="s">
         <v>26</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="P39" s="34"/>
+        <v>121</v>
+      </c>
+      <c r="P39" s="34" t="s">
+        <v>232</v>
+      </c>
       <c r="Q39" s="22">
-        <v>100</v>
-      </c>
-      <c r="R39" s="21"/>
+        <v>1500</v>
+      </c>
+      <c r="R39" s="21">
+        <v>1300</v>
+      </c>
       <c r="S39" s="19">
-        <f t="shared" si="9"/>
-        <v>100</v>
+        <f>Q39-R39</f>
+        <v>200</v>
       </c>
       <c r="U39" s="35"/>
       <c r="V39" s="34"/>
@@ -5901,20 +5931,16 @@
         <v>26</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>236</v>
+        <v>124</v>
       </c>
       <c r="P40" s="34"/>
       <c r="Q40" s="22">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="R40" s="21"/>
       <c r="S40" s="19">
         <f t="shared" si="9"/>
-        <v>500</v>
-      </c>
-      <c r="T40" s="11">
-        <f>SUM(S42:S43)</f>
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="U40" s="35"/>
       <c r="V40" s="34"/>
@@ -5995,19 +6021,23 @@
       <c r="K41" s="99"/>
       <c r="M41" s="17"/>
       <c r="N41" s="17" t="s">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P41" s="34"/>
       <c r="Q41" s="22">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="R41" s="21"/>
       <c r="S41" s="19">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>500</v>
+      </c>
+      <c r="T41" s="11">
+        <f>SUM(S43:S44)</f>
+        <v>230</v>
       </c>
       <c r="U41" s="35"/>
       <c r="V41" s="34"/>
@@ -6090,21 +6120,19 @@
       <c r="K42" s="99"/>
       <c r="M42" s="17"/>
       <c r="N42" s="17" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="O42" s="17" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="P42" s="34"/>
       <c r="Q42" s="22">
-        <v>130</v>
-      </c>
-      <c r="R42" s="21">
-        <v>100</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="R42" s="21"/>
       <c r="S42" s="19">
-        <f>Q42-R42</f>
-        <v>30</v>
+        <f t="shared" si="9"/>
+        <v>80</v>
       </c>
       <c r="U42" s="35"/>
       <c r="V42" s="34"/>
@@ -6179,23 +6207,23 @@
       <c r="I43" s="97"/>
       <c r="J43" s="98"/>
       <c r="K43" s="99"/>
-      <c r="M43" s="58">
-        <v>43180</v>
-      </c>
+      <c r="M43" s="17"/>
       <c r="N43" s="17" t="s">
-        <v>253</v>
+        <v>122</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>254</v>
+        <v>123</v>
       </c>
       <c r="P43" s="34"/>
       <c r="Q43" s="22">
-        <v>200</v>
-      </c>
-      <c r="R43" s="21"/>
+        <v>130</v>
+      </c>
+      <c r="R43" s="21">
+        <v>100</v>
+      </c>
       <c r="S43" s="19">
-        <f t="shared" si="9"/>
-        <v>200</v>
+        <f>Q43-R43</f>
+        <v>30</v>
       </c>
       <c r="U43" s="35"/>
       <c r="V43" s="34"/>
@@ -6265,22 +6293,22 @@
       <c r="J44" s="98"/>
       <c r="K44" s="99"/>
       <c r="M44" s="58">
-        <v>43266</v>
+        <v>43180</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="O44" s="17" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="P44" s="34"/>
       <c r="Q44" s="22">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="R44" s="21"/>
       <c r="S44" s="19">
         <f t="shared" si="9"/>
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="U44" s="35"/>
       <c r="V44" s="34"/>
@@ -6366,21 +6394,19 @@
         <v>43266</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O45" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P45" s="34"/>
       <c r="Q45" s="22">
-        <v>60</v>
-      </c>
-      <c r="R45" s="21">
-        <v>50</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="R45" s="21"/>
       <c r="S45" s="19">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="U45" s="35"/>
       <c r="V45" s="34"/>
@@ -6458,15 +6484,25 @@
       <c r="I46" s="97"/>
       <c r="J46" s="98"/>
       <c r="K46" s="99"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
+      <c r="M46" s="58">
+        <v>43266</v>
+      </c>
+      <c r="N46" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="O46" s="17" t="s">
+        <v>268</v>
+      </c>
       <c r="P46" s="34"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="21"/>
+      <c r="Q46" s="22">
+        <v>60</v>
+      </c>
+      <c r="R46" s="21">
+        <v>50</v>
+      </c>
       <c r="S46" s="19">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U46" s="35"/>
       <c r="V46" s="34"/>
@@ -6701,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E49">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6794,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E50">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6868,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E51">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6960,7 +6996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E52">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7051,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E53">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7132,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E54">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7210,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E55">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7294,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E56">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7384,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E57">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7456,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E58">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7536,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E59">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7620,7 +7656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E60">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7704,7 +7740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E61">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7782,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E62">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7813,17 +7849,21 @@
       <c r="AC62" s="48"/>
       <c r="AD62" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="AE62" s="49"/>
       <c r="AF62" s="49"/>
       <c r="AH62" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ62" s="55"/>
+        <v>15</v>
+      </c>
+      <c r="AJ62" s="55" t="s">
+        <v>164</v>
+      </c>
       <c r="AK62" s="55"/>
-      <c r="AL62" s="55"/>
+      <c r="AL62" s="55">
+        <v>15</v>
+      </c>
       <c r="AM62" s="91"/>
       <c r="AN62" s="55"/>
       <c r="AO62" s="55"/>
@@ -7840,10 +7880,12 @@
       <c r="AW62" s="55"/>
       <c r="AX62" s="55"/>
       <c r="AY62" s="55"/>
-      <c r="AZ62" s="55"/>
+      <c r="AZ62" s="55">
+        <v>3</v>
+      </c>
       <c r="BA62" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BB62" s="55"/>
       <c r="BC62">
@@ -7851,7 +7893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E63">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7882,45 +7924,75 @@
       <c r="AC63" s="48"/>
       <c r="AD63" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE63" s="49"/>
-      <c r="AF63" s="49"/>
+        <v>-5455</v>
+      </c>
+      <c r="AE63" s="49">
+        <v>200</v>
+      </c>
+      <c r="AF63" s="49">
+        <v>100</v>
+      </c>
       <c r="AH63" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ63" s="55"/>
+        <f>SUM(AI63,AL63,AM63,AN63,AO63,AP63,AQ63,AR63,AS63,AT63,AU63,AV63)</f>
+        <v>5755</v>
+      </c>
+      <c r="AI63">
+        <v>185</v>
+      </c>
+      <c r="AJ63" s="55" t="s">
+        <v>318</v>
+      </c>
       <c r="AK63" s="55"/>
-      <c r="AL63" s="55"/>
-      <c r="AM63" s="55"/>
-      <c r="AN63" s="55"/>
-      <c r="AO63" s="55"/>
-      <c r="AP63" s="55"/>
-      <c r="AQ63" s="55"/>
-      <c r="AR63" s="55"/>
+      <c r="AL63" s="98">
+        <v>4900</v>
+      </c>
+      <c r="AM63" s="55">
+        <v>220</v>
+      </c>
+      <c r="AN63" s="55">
+        <v>150</v>
+      </c>
+      <c r="AO63" s="55">
+        <v>40</v>
+      </c>
+      <c r="AP63" s="55">
+        <v>150</v>
+      </c>
+      <c r="AQ63" s="55">
+        <v>50</v>
+      </c>
+      <c r="AR63" s="55">
+        <v>30</v>
+      </c>
       <c r="AS63" s="55"/>
       <c r="AT63" s="55"/>
       <c r="AU63" s="55"/>
       <c r="AV63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AW63" s="55"/>
+        <f>SUM(AW63,BD63,BC63)</f>
+        <v>30</v>
+      </c>
+      <c r="AW63" s="55">
+        <v>20</v>
+      </c>
       <c r="AX63" s="55"/>
       <c r="AY63" s="55"/>
-      <c r="AZ63" s="55"/>
+      <c r="AZ63" s="55">
+        <v>1</v>
+      </c>
       <c r="BA63" s="55">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>(AX63*6)+(AY63*8)+(AZ63*5)</f>
+        <v>5</v>
       </c>
       <c r="BB63" s="55"/>
       <c r="BC63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="5:55" x14ac:dyDescent="0.25">
+      <c r="BD63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E64">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8210,7 +8282,7 @@
       <c r="Q68" s="22"/>
       <c r="R68" s="21"/>
       <c r="S68" s="19">
-        <f t="shared" ref="S68:S122" si="12">Q68-R68</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U68" s="35"/>
@@ -8226,7 +8298,7 @@
       </c>
       <c r="AC68" s="48"/>
       <c r="AD68" s="40">
-        <f t="shared" ref="AD68:AD114" si="13">(SUM(AE68,AF68))-AH68</f>
+        <f t="shared" ref="AD68:AD114" si="12">(SUM(AE68,AF68))-AH68</f>
         <v>0</v>
       </c>
       <c r="AE68" s="49"/>
@@ -8261,7 +8333,7 @@
       </c>
       <c r="BB68" s="55"/>
       <c r="BC68">
-        <f t="shared" ref="BC68:BC120" si="14">BB68*5</f>
+        <f t="shared" ref="BC68:BC120" si="13">BB68*5</f>
         <v>0</v>
       </c>
     </row>
@@ -8279,7 +8351,7 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="21"/>
       <c r="S69" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="S69:S123" si="14">Q69-R69</f>
         <v>0</v>
       </c>
       <c r="U69" s="34"/>
@@ -8295,7 +8367,7 @@
       </c>
       <c r="AC69" s="48"/>
       <c r="AD69" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE69" s="49"/>
@@ -8330,7 +8402,7 @@
       </c>
       <c r="BB69" s="55"/>
       <c r="BC69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -8348,7 +8420,7 @@
       <c r="Q70" s="22"/>
       <c r="R70" s="21"/>
       <c r="S70" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U70" s="34"/>
@@ -8364,7 +8436,7 @@
       </c>
       <c r="AC70" s="48"/>
       <c r="AD70" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE70" s="49"/>
@@ -8399,7 +8471,7 @@
       </c>
       <c r="BB70" s="55"/>
       <c r="BC70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -8417,7 +8489,7 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="21"/>
       <c r="S71" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U71" s="34"/>
@@ -8433,7 +8505,7 @@
       </c>
       <c r="AC71" s="48"/>
       <c r="AD71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE71" s="49"/>
@@ -8468,7 +8540,7 @@
       </c>
       <c r="BB71" s="55"/>
       <c r="BC71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -8486,7 +8558,7 @@
       <c r="Q72" s="22"/>
       <c r="R72" s="21"/>
       <c r="S72" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U72" s="34"/>
@@ -8502,7 +8574,7 @@
       </c>
       <c r="AC72" s="48"/>
       <c r="AD72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE72" s="49"/>
@@ -8537,7 +8609,7 @@
       </c>
       <c r="BB72" s="55"/>
       <c r="BC72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -8555,7 +8627,7 @@
       <c r="Q73" s="22"/>
       <c r="R73" s="21"/>
       <c r="S73" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U73" s="34"/>
@@ -8571,7 +8643,7 @@
       </c>
       <c r="AC73" s="48"/>
       <c r="AD73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE73" s="49"/>
@@ -8606,7 +8678,7 @@
       </c>
       <c r="BB73" s="55"/>
       <c r="BC73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -8624,7 +8696,7 @@
       <c r="Q74" s="22"/>
       <c r="R74" s="21"/>
       <c r="S74" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U74" s="34"/>
@@ -8640,7 +8712,7 @@
       </c>
       <c r="AC74" s="48"/>
       <c r="AD74" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE74" s="49"/>
@@ -8675,7 +8747,7 @@
       </c>
       <c r="BB74" s="55"/>
       <c r="BC74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -8693,7 +8765,7 @@
       <c r="Q75" s="22"/>
       <c r="R75" s="21"/>
       <c r="S75" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U75" s="34"/>
@@ -8709,7 +8781,7 @@
       </c>
       <c r="AC75" s="48"/>
       <c r="AD75" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE75" s="49"/>
@@ -8744,7 +8816,7 @@
       </c>
       <c r="BB75" s="55"/>
       <c r="BC75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -8762,7 +8834,7 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="21"/>
       <c r="S76" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U76" s="34"/>
@@ -8778,7 +8850,7 @@
       </c>
       <c r="AC76" s="48"/>
       <c r="AD76" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE76" s="49"/>
@@ -8813,7 +8885,7 @@
       </c>
       <c r="BB76" s="55"/>
       <c r="BC76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -8831,7 +8903,7 @@
       <c r="Q77" s="22"/>
       <c r="R77" s="21"/>
       <c r="S77" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U77" s="34"/>
@@ -8847,7 +8919,7 @@
       </c>
       <c r="AC77" s="48"/>
       <c r="AD77" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE77" s="49"/>
@@ -8882,7 +8954,7 @@
       </c>
       <c r="BB77" s="55"/>
       <c r="BC77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -8900,7 +8972,7 @@
       <c r="Q78" s="22"/>
       <c r="R78" s="21"/>
       <c r="S78" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U78" s="34"/>
@@ -8916,7 +8988,7 @@
       </c>
       <c r="AC78" s="48"/>
       <c r="AD78" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE78" s="49"/>
@@ -8951,7 +9023,7 @@
       </c>
       <c r="BB78" s="55"/>
       <c r="BC78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -8969,7 +9041,7 @@
       <c r="Q79" s="22"/>
       <c r="R79" s="21"/>
       <c r="S79" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U79" s="34"/>
@@ -8985,7 +9057,7 @@
       </c>
       <c r="AC79" s="48"/>
       <c r="AD79" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE79" s="49"/>
@@ -9020,7 +9092,7 @@
       </c>
       <c r="BB79" s="55"/>
       <c r="BC79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -9038,7 +9110,7 @@
       <c r="Q80" s="22"/>
       <c r="R80" s="21"/>
       <c r="S80" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U80" s="34"/>
@@ -9054,7 +9126,7 @@
       </c>
       <c r="AC80" s="48"/>
       <c r="AD80" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE80" s="49"/>
@@ -9089,7 +9161,7 @@
       </c>
       <c r="BB80" s="55"/>
       <c r="BC80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -9107,7 +9179,7 @@
       <c r="Q81" s="22"/>
       <c r="R81" s="21"/>
       <c r="S81" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U81" s="34"/>
@@ -9123,7 +9195,7 @@
       </c>
       <c r="AC81" s="48"/>
       <c r="AD81" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE81" s="49"/>
@@ -9158,7 +9230,7 @@
       </c>
       <c r="BB81" s="55"/>
       <c r="BC81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -9176,7 +9248,7 @@
       <c r="Q82" s="22"/>
       <c r="R82" s="21"/>
       <c r="S82" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U82" s="34"/>
@@ -9192,7 +9264,7 @@
       </c>
       <c r="AC82" s="48"/>
       <c r="AD82" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE82" s="49"/>
@@ -9227,7 +9299,7 @@
       </c>
       <c r="BB82" s="55"/>
       <c r="BC82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -9245,7 +9317,7 @@
       <c r="Q83" s="22"/>
       <c r="R83" s="21"/>
       <c r="S83" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U83" s="34"/>
@@ -9261,7 +9333,7 @@
       </c>
       <c r="AC83" s="48"/>
       <c r="AD83" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE83" s="49"/>
@@ -9296,7 +9368,7 @@
       </c>
       <c r="BB83" s="55"/>
       <c r="BC83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -9314,7 +9386,7 @@
       <c r="Q84" s="22"/>
       <c r="R84" s="21"/>
       <c r="S84" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U84" s="34"/>
@@ -9330,7 +9402,7 @@
       </c>
       <c r="AC84" s="48"/>
       <c r="AD84" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE84" s="49"/>
@@ -9365,7 +9437,7 @@
       </c>
       <c r="BB84" s="55"/>
       <c r="BC84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -9383,7 +9455,7 @@
       <c r="Q85" s="22"/>
       <c r="R85" s="21"/>
       <c r="S85" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U85" s="34"/>
@@ -9399,7 +9471,7 @@
       </c>
       <c r="AC85" s="48"/>
       <c r="AD85" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE85" s="49"/>
@@ -9434,7 +9506,7 @@
       </c>
       <c r="BB85" s="55"/>
       <c r="BC85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -9452,7 +9524,7 @@
       <c r="Q86" s="22"/>
       <c r="R86" s="21"/>
       <c r="S86" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U86" s="34"/>
@@ -9468,7 +9540,7 @@
       </c>
       <c r="AC86" s="48"/>
       <c r="AD86" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE86" s="49"/>
@@ -9503,7 +9575,7 @@
       </c>
       <c r="BB86" s="55"/>
       <c r="BC86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -9521,7 +9593,7 @@
       <c r="Q87" s="22"/>
       <c r="R87" s="21"/>
       <c r="S87" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U87" s="34"/>
@@ -9537,7 +9609,7 @@
       </c>
       <c r="AC87" s="48"/>
       <c r="AD87" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE87" s="102"/>
@@ -9574,7 +9646,7 @@
       </c>
       <c r="BB87" s="55"/>
       <c r="BC87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD87" s="55"/>
@@ -9598,7 +9670,7 @@
       <c r="Q88" s="22"/>
       <c r="R88" s="21"/>
       <c r="S88" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U88" s="34"/>
@@ -9614,7 +9686,7 @@
       </c>
       <c r="AC88" s="48"/>
       <c r="AD88" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE88" s="102"/>
@@ -9651,7 +9723,7 @@
       </c>
       <c r="BB88" s="55"/>
       <c r="BC88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD88" s="55"/>
@@ -9675,7 +9747,7 @@
       <c r="Q89" s="22"/>
       <c r="R89" s="21"/>
       <c r="S89" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U89" s="34"/>
@@ -9691,7 +9763,7 @@
       </c>
       <c r="AC89" s="48"/>
       <c r="AD89" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE89" s="102"/>
@@ -9728,7 +9800,7 @@
       </c>
       <c r="BB89" s="55"/>
       <c r="BC89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD89" s="55"/>
@@ -9752,7 +9824,7 @@
       <c r="Q90" s="22"/>
       <c r="R90" s="21"/>
       <c r="S90" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U90" s="34"/>
@@ -9768,7 +9840,7 @@
       </c>
       <c r="AC90" s="48"/>
       <c r="AD90" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE90" s="102"/>
@@ -9805,7 +9877,7 @@
       </c>
       <c r="BB90" s="55"/>
       <c r="BC90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD90" s="55"/>
@@ -9829,7 +9901,7 @@
       <c r="Q91" s="22"/>
       <c r="R91" s="21"/>
       <c r="S91" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U91" s="34"/>
@@ -9845,7 +9917,7 @@
       </c>
       <c r="AC91" s="48"/>
       <c r="AD91" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE91" s="102"/>
@@ -9882,7 +9954,7 @@
       </c>
       <c r="BB91" s="55"/>
       <c r="BC91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD91" s="55"/>
@@ -9906,7 +9978,7 @@
       <c r="Q92" s="22"/>
       <c r="R92" s="21"/>
       <c r="S92" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U92" s="34"/>
@@ -9922,7 +9994,7 @@
       </c>
       <c r="AC92" s="48"/>
       <c r="AD92" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE92" s="102"/>
@@ -9959,7 +10031,7 @@
       </c>
       <c r="BB92" s="55"/>
       <c r="BC92">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD92" s="55"/>
@@ -9983,7 +10055,7 @@
       <c r="Q93" s="22"/>
       <c r="R93" s="21"/>
       <c r="S93" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U93" s="34"/>
@@ -9999,7 +10071,7 @@
       </c>
       <c r="AC93" s="48"/>
       <c r="AD93" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE93" s="102"/>
@@ -10036,7 +10108,7 @@
       </c>
       <c r="BB93" s="55"/>
       <c r="BC93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD93" s="55"/>
@@ -10060,7 +10132,7 @@
       <c r="Q94" s="22"/>
       <c r="R94" s="21"/>
       <c r="S94" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U94" s="34"/>
@@ -10076,7 +10148,7 @@
       </c>
       <c r="AC94" s="48"/>
       <c r="AD94" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE94" s="102"/>
@@ -10113,7 +10185,7 @@
       </c>
       <c r="BB94" s="55"/>
       <c r="BC94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD94" s="55"/>
@@ -10137,7 +10209,7 @@
       <c r="Q95" s="22"/>
       <c r="R95" s="21"/>
       <c r="S95" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U95" s="34"/>
@@ -10153,7 +10225,7 @@
       </c>
       <c r="AC95" s="48"/>
       <c r="AD95" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE95" s="102"/>
@@ -10190,7 +10262,7 @@
       </c>
       <c r="BB95" s="55"/>
       <c r="BC95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD95" s="55"/>
@@ -10214,7 +10286,7 @@
       <c r="Q96" s="22"/>
       <c r="R96" s="21"/>
       <c r="S96" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U96" s="34"/>
@@ -10230,7 +10302,7 @@
       </c>
       <c r="AC96" s="48"/>
       <c r="AD96" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE96" s="102"/>
@@ -10267,7 +10339,7 @@
       </c>
       <c r="BB96" s="55"/>
       <c r="BC96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD96" s="55"/>
@@ -10291,7 +10363,7 @@
       <c r="Q97" s="22"/>
       <c r="R97" s="21"/>
       <c r="S97" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U97" s="34"/>
@@ -10307,7 +10379,7 @@
       </c>
       <c r="AC97" s="48"/>
       <c r="AD97" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE97" s="102"/>
@@ -10344,7 +10416,7 @@
       </c>
       <c r="BB97" s="55"/>
       <c r="BC97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD97" s="55"/>
@@ -10368,7 +10440,7 @@
       <c r="Q98" s="22"/>
       <c r="R98" s="21"/>
       <c r="S98" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U98" s="34"/>
@@ -10384,7 +10456,7 @@
       </c>
       <c r="AC98" s="48"/>
       <c r="AD98" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE98" s="102"/>
@@ -10421,7 +10493,7 @@
       </c>
       <c r="BB98" s="55"/>
       <c r="BC98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD98" s="55"/>
@@ -10445,7 +10517,7 @@
       <c r="Q99" s="22"/>
       <c r="R99" s="21"/>
       <c r="S99" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U99" s="34"/>
@@ -10461,7 +10533,7 @@
       </c>
       <c r="AC99" s="48"/>
       <c r="AD99" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE99" s="102"/>
@@ -10498,7 +10570,7 @@
       </c>
       <c r="BB99" s="55"/>
       <c r="BC99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD99" s="55"/>
@@ -10522,7 +10594,7 @@
       <c r="Q100" s="22"/>
       <c r="R100" s="21"/>
       <c r="S100" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U100" s="34"/>
@@ -10538,7 +10610,7 @@
       </c>
       <c r="AC100" s="48"/>
       <c r="AD100" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE100" s="102"/>
@@ -10575,7 +10647,7 @@
       </c>
       <c r="BB100" s="55"/>
       <c r="BC100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD100" s="55"/>
@@ -10599,7 +10671,7 @@
       <c r="Q101" s="22"/>
       <c r="R101" s="21"/>
       <c r="S101" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U101" s="34"/>
@@ -10615,7 +10687,7 @@
       </c>
       <c r="AC101" s="48"/>
       <c r="AD101" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE101" s="102"/>
@@ -10652,7 +10724,7 @@
       </c>
       <c r="BB101" s="55"/>
       <c r="BC101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD101" s="55"/>
@@ -10676,7 +10748,7 @@
       <c r="Q102" s="22"/>
       <c r="R102" s="21"/>
       <c r="S102" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U102" s="34"/>
@@ -10692,7 +10764,7 @@
       </c>
       <c r="AC102" s="48"/>
       <c r="AD102" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE102" s="102"/>
@@ -10729,7 +10801,7 @@
       </c>
       <c r="BB102" s="55"/>
       <c r="BC102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD102" s="55"/>
@@ -10753,7 +10825,7 @@
       <c r="Q103" s="22"/>
       <c r="R103" s="21"/>
       <c r="S103" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U103" s="34"/>
@@ -10769,7 +10841,7 @@
       </c>
       <c r="AC103" s="48"/>
       <c r="AD103" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE103" s="102"/>
@@ -10806,7 +10878,7 @@
       </c>
       <c r="BB103" s="55"/>
       <c r="BC103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD103" s="55"/>
@@ -10830,7 +10902,7 @@
       <c r="Q104" s="22"/>
       <c r="R104" s="21"/>
       <c r="S104" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U104" s="34"/>
@@ -10846,7 +10918,7 @@
       </c>
       <c r="AC104" s="48"/>
       <c r="AD104" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE104" s="102"/>
@@ -10883,7 +10955,7 @@
       </c>
       <c r="BB104" s="55"/>
       <c r="BC104">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD104" s="55"/>
@@ -10907,7 +10979,7 @@
       <c r="Q105" s="22"/>
       <c r="R105" s="21"/>
       <c r="S105" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U105" s="34"/>
@@ -10923,7 +10995,7 @@
       </c>
       <c r="AC105" s="48"/>
       <c r="AD105" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE105" s="102"/>
@@ -10960,7 +11032,7 @@
       </c>
       <c r="BB105" s="55"/>
       <c r="BC105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD105" s="55"/>
@@ -10984,7 +11056,7 @@
       <c r="Q106" s="22"/>
       <c r="R106" s="21"/>
       <c r="S106" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U106" s="34"/>
@@ -11000,7 +11072,7 @@
       </c>
       <c r="AC106" s="48"/>
       <c r="AD106" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE106" s="102"/>
@@ -11037,7 +11109,7 @@
       </c>
       <c r="BB106" s="55"/>
       <c r="BC106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD106" s="55"/>
@@ -11061,7 +11133,7 @@
       <c r="Q107" s="22"/>
       <c r="R107" s="21"/>
       <c r="S107" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U107" s="34"/>
@@ -11077,7 +11149,7 @@
       </c>
       <c r="AC107" s="48"/>
       <c r="AD107" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE107" s="102"/>
@@ -11114,7 +11186,7 @@
       </c>
       <c r="BB107" s="55"/>
       <c r="BC107">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD107" s="55"/>
@@ -11138,7 +11210,7 @@
       <c r="Q108" s="22"/>
       <c r="R108" s="21"/>
       <c r="S108" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U108" s="34"/>
@@ -11154,7 +11226,7 @@
       </c>
       <c r="AC108" s="48"/>
       <c r="AD108" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE108" s="102"/>
@@ -11191,7 +11263,7 @@
       </c>
       <c r="BB108" s="55"/>
       <c r="BC108">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD108" s="55"/>
@@ -11215,7 +11287,7 @@
       <c r="Q109" s="22"/>
       <c r="R109" s="21"/>
       <c r="S109" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U109" s="34"/>
@@ -11231,7 +11303,7 @@
       </c>
       <c r="AC109" s="48"/>
       <c r="AD109" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE109" s="102"/>
@@ -11268,7 +11340,7 @@
       </c>
       <c r="BB109" s="55"/>
       <c r="BC109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD109" s="55"/>
@@ -11292,7 +11364,7 @@
       <c r="Q110" s="22"/>
       <c r="R110" s="21"/>
       <c r="S110" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U110" s="34"/>
@@ -11308,7 +11380,7 @@
       </c>
       <c r="AC110" s="48"/>
       <c r="AD110" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE110" s="102"/>
@@ -11345,7 +11417,7 @@
       </c>
       <c r="BB110" s="55"/>
       <c r="BC110">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD110" s="55"/>
@@ -11369,7 +11441,7 @@
       <c r="Q111" s="22"/>
       <c r="R111" s="21"/>
       <c r="S111" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U111" s="34"/>
@@ -11385,7 +11457,7 @@
       </c>
       <c r="AC111" s="48"/>
       <c r="AD111" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE111" s="102"/>
@@ -11422,7 +11494,7 @@
       </c>
       <c r="BB111" s="55"/>
       <c r="BC111">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD111" s="55"/>
@@ -11446,7 +11518,7 @@
       <c r="Q112" s="22"/>
       <c r="R112" s="21"/>
       <c r="S112" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U112" s="34"/>
@@ -11462,7 +11534,7 @@
       </c>
       <c r="AC112" s="48"/>
       <c r="AD112" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE112" s="102"/>
@@ -11499,7 +11571,7 @@
       </c>
       <c r="BB112" s="55"/>
       <c r="BC112">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD112" s="55"/>
@@ -11523,7 +11595,7 @@
       <c r="Q113" s="22"/>
       <c r="R113" s="21"/>
       <c r="S113" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U113" s="34"/>
@@ -11539,7 +11611,7 @@
       </c>
       <c r="AC113" s="48"/>
       <c r="AD113" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE113" s="102"/>
@@ -11576,7 +11648,7 @@
       </c>
       <c r="BB113" s="55"/>
       <c r="BC113">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD113" s="55"/>
@@ -11600,7 +11672,7 @@
       <c r="Q114" s="22"/>
       <c r="R114" s="21"/>
       <c r="S114" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U114" s="34"/>
@@ -11616,7 +11688,7 @@
       </c>
       <c r="AC114" s="48"/>
       <c r="AD114" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE114" s="102"/>
@@ -11653,7 +11725,7 @@
       </c>
       <c r="BB114" s="55"/>
       <c r="BC114">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD114" s="55"/>
@@ -11677,7 +11749,7 @@
       <c r="Q115" s="22"/>
       <c r="R115" s="21"/>
       <c r="S115" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U115" s="34"/>
@@ -11724,7 +11796,7 @@
       </c>
       <c r="BB115" s="55"/>
       <c r="BC115">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD115" s="55"/>
@@ -11748,7 +11820,7 @@
       <c r="Q116" s="22"/>
       <c r="R116" s="21"/>
       <c r="S116" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U116" s="34"/>
@@ -11795,7 +11867,7 @@
       </c>
       <c r="BB116" s="55"/>
       <c r="BC116">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD116" s="55"/>
@@ -11819,7 +11891,7 @@
       <c r="Q117" s="22"/>
       <c r="R117" s="21"/>
       <c r="S117" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U117" s="34"/>
@@ -11866,7 +11938,7 @@
       </c>
       <c r="BB117" s="55"/>
       <c r="BC117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD117" s="55"/>
@@ -11890,7 +11962,7 @@
       <c r="Q118" s="22"/>
       <c r="R118" s="21"/>
       <c r="S118" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U118" s="34"/>
@@ -11937,7 +12009,7 @@
       </c>
       <c r="BB118" s="55"/>
       <c r="BC118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD118" s="55"/>
@@ -11961,7 +12033,7 @@
       <c r="Q119" s="22"/>
       <c r="R119" s="21"/>
       <c r="S119" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U119" s="34"/>
@@ -12008,7 +12080,7 @@
       </c>
       <c r="BB119" s="55"/>
       <c r="BC119">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD119" s="55"/>
@@ -12032,7 +12104,7 @@
       <c r="Q120" s="22"/>
       <c r="R120" s="21"/>
       <c r="S120" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U120" s="34"/>
@@ -12079,7 +12151,7 @@
       </c>
       <c r="BB120" s="55"/>
       <c r="BC120">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD120" s="55"/>
@@ -12103,7 +12175,7 @@
       <c r="Q121" s="22"/>
       <c r="R121" s="21"/>
       <c r="S121" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U121" s="34"/>
@@ -12165,7 +12237,7 @@
       <c r="Q122" s="22"/>
       <c r="R122" s="21"/>
       <c r="S122" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U122" s="34"/>
@@ -12225,7 +12297,7 @@
       <c r="Q123" s="22"/>
       <c r="R123" s="21"/>
       <c r="S123" s="19">
-        <f t="shared" ref="S123:S137" si="17">Q123-R123</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U123" s="34"/>
@@ -12285,7 +12357,7 @@
       <c r="Q124" s="22"/>
       <c r="R124" s="21"/>
       <c r="S124" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="S124:S138" si="17">Q124-R124</f>
         <v>0</v>
       </c>
       <c r="U124" s="34"/>
@@ -12800,13 +12872,13 @@
       </c>
       <c r="I133" s="12"/>
       <c r="K133" s="13"/>
-      <c r="M133" s="87"/>
-      <c r="N133" s="87"/>
-      <c r="O133" s="87"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
       <c r="P133" s="34"/>
-      <c r="Q133" s="88"/>
-      <c r="R133" s="86"/>
-      <c r="S133" s="89">
+      <c r="Q133" s="22"/>
+      <c r="R133" s="21"/>
+      <c r="S133" s="19">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -13090,13 +13162,16 @@
       </c>
       <c r="I138" s="12"/>
       <c r="K138" s="13"/>
-      <c r="M138" s="91"/>
-      <c r="N138" s="91"/>
-      <c r="O138" s="91"/>
-      <c r="P138" s="133"/>
-      <c r="Q138" s="91"/>
-      <c r="R138" s="91"/>
-      <c r="S138" s="91"/>
+      <c r="M138" s="87"/>
+      <c r="N138" s="87"/>
+      <c r="O138" s="87"/>
+      <c r="P138" s="34"/>
+      <c r="Q138" s="88"/>
+      <c r="R138" s="86"/>
+      <c r="S138" s="89">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="U138" s="34"/>
       <c r="V138" s="34"/>
       <c r="W138" s="34"/>
@@ -13148,7 +13223,7 @@
       <c r="M139" s="91"/>
       <c r="N139" s="91"/>
       <c r="O139" s="91"/>
-      <c r="P139" s="91"/>
+      <c r="P139" s="133"/>
       <c r="Q139" s="91"/>
       <c r="R139" s="91"/>
       <c r="S139" s="91"/>
@@ -13764,6 +13839,7 @@
       <c r="Q150" s="91"/>
       <c r="R150" s="91"/>
       <c r="S150" s="91"/>
+      <c r="T150"/>
       <c r="X150" s="90"/>
       <c r="Y150" s="90"/>
       <c r="AA150" s="101"/>
@@ -14032,6 +14108,7 @@
       <c r="I155" s="84"/>
       <c r="J155" s="85"/>
       <c r="K155" s="86"/>
+      <c r="T155" s="87"/>
       <c r="AA155" s="92"/>
       <c r="AB155" s="93"/>
       <c r="AD155" s="93"/>
@@ -16038,13 +16115,6 @@
     </row>
     <row r="377" spans="10:34" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J377" s="98"/>
-      <c r="M377"/>
-      <c r="N377"/>
-      <c r="O377"/>
-      <c r="P377"/>
-      <c r="Q377" s="23"/>
-      <c r="R377" s="13"/>
-      <c r="S377" s="20"/>
       <c r="AA377" s="93"/>
       <c r="AB377" s="93"/>
       <c r="AD377" s="93"/>
@@ -16203,7 +16273,7 @@
       <c r="O387"/>
       <c r="P387"/>
       <c r="Q387" s="23"/>
-      <c r="R387"/>
+      <c r="R387" s="13"/>
       <c r="S387" s="20"/>
       <c r="AA387" s="93"/>
       <c r="AB387" s="93"/>
@@ -16321,6 +16391,7 @@
       <c r="K394" s="91"/>
       <c r="Q394" s="23"/>
       <c r="S394" s="20"/>
+      <c r="T394" s="91"/>
       <c r="X394" s="33"/>
       <c r="Y394" s="33"/>
       <c r="AA394" s="47"/>
@@ -17072,6 +17143,7 @@
     <row r="406" spans="9:55" x14ac:dyDescent="0.25">
       <c r="I406" s="10"/>
       <c r="Q406" s="23"/>
+      <c r="S406" s="20"/>
       <c r="X406" s="33"/>
       <c r="Y406" s="33"/>
       <c r="AA406" s="47"/>
@@ -18413,6 +18485,7 @@
     </row>
     <row r="428" spans="9:55" x14ac:dyDescent="0.25">
       <c r="I428" s="10"/>
+      <c r="Q428" s="23"/>
       <c r="X428" s="33"/>
       <c r="Y428" s="33"/>
       <c r="AA428" s="47"/>
@@ -28983,7 +29056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afchavez\Desktop\Adrifelcha_Lab25\Finanzas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="331">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -981,12 +986,45 @@
   </si>
   <si>
     <t>Banco 1</t>
+  </si>
+  <si>
+    <t>INE</t>
+  </si>
+  <si>
+    <t>Pago Funcionaria de Casilla</t>
+  </si>
+  <si>
+    <t>Coyoacán con la enana</t>
+  </si>
+  <si>
+    <t>Jaime Fridays</t>
+  </si>
+  <si>
+    <t>Cooperacha Jaime y Enana</t>
+  </si>
+  <si>
+    <t>15, Junio</t>
+  </si>
+  <si>
+    <t>Cooperacha prestamo Javs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sushi con Jaime </t>
+  </si>
+  <si>
+    <t>Duvalin</t>
+  </si>
+  <si>
+    <t>Votaciones :C</t>
+  </si>
+  <si>
+    <t>Jaime Vacas 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1157,7 +1195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1374,6 +1412,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1387,7 +1431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1621,6 +1665,8 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1695,7 +1741,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1730,7 +1776,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1907,7 +1953,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1917,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="H43" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2217,7 +2263,7 @@
       </c>
       <c r="P4" s="78">
         <f>SUM(N3,S9,P7)</f>
-        <v>59945.32</v>
+        <v>64976.32</v>
       </c>
       <c r="Q4" s="55"/>
       <c r="AA4" s="46">
@@ -2286,7 +2332,7 @@
       </c>
       <c r="BH4" s="56">
         <f>(SUM((AW3:AW519)))-(SUM((BA3:BA519)))</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BI4" s="56"/>
     </row>
@@ -2388,7 +2434,7 @@
       </c>
       <c r="N6" s="51">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I502)))-(SUM((Y11:Y499)))</f>
-        <v>630</v>
+        <v>726</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -2472,7 +2518,7 @@
       </c>
       <c r="P7" s="77">
         <f>SUM(R7,N6)</f>
-        <v>630</v>
+        <v>726</v>
       </c>
       <c r="Q7" s="74"/>
       <c r="R7" s="73">
@@ -2482,7 +2528,7 @@
       <c r="S7" s="111"/>
       <c r="T7" s="113">
         <f>E9</f>
-        <v>9960</v>
+        <v>11960</v>
       </c>
       <c r="AA7" s="46">
         <v>43225</v>
@@ -2614,7 +2660,7 @@
       <c r="D9" s="60"/>
       <c r="E9" s="43">
         <f>SUM(E10:E499)</f>
-        <v>9960</v>
+        <v>11960</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>16</v>
@@ -2634,8 +2680,8 @@
         <v>25</v>
       </c>
       <c r="S9" s="14">
-        <f>SUM(S11:S485)</f>
-        <v>46665</v>
+        <f>SUM(S11:S486)</f>
+        <v>51600</v>
       </c>
       <c r="U9" s="31" t="s">
         <v>40</v>
@@ -3002,16 +3048,16 @@
         <v>3000</v>
       </c>
       <c r="T12" s="128"/>
-      <c r="U12" s="115">
+      <c r="U12" s="35">
         <v>43224</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V12" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="34">
         <v>4000</v>
       </c>
       <c r="Y12" s="36">
@@ -3199,19 +3245,19 @@
       </c>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="141" t="s">
         <v>129</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="142">
         <v>1300</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="142">
         <v>1300</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="142">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3248,7 +3294,7 @@
       <c r="U14" s="35">
         <v>43228</v>
       </c>
-      <c r="V14" s="56" t="s">
+      <c r="V14" s="34" t="s">
         <v>157</v>
       </c>
       <c r="W14" s="34"/>
@@ -3426,9 +3472,18 @@
       </c>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16">
+        <v>2000</v>
+      </c>
       <c r="E16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G16" s="95">
         <v>43236</v>
@@ -4017,10 +4072,18 @@
         <f>SUM(S21:S31)</f>
         <v>5120</v>
       </c>
-      <c r="U21" s="35"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="36"/>
+      <c r="U21" s="35">
+        <v>43282</v>
+      </c>
+      <c r="V21" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="W21" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="X21" s="36">
+        <v>300</v>
+      </c>
       <c r="Y21" s="36"/>
       <c r="AA21" s="46">
         <v>43239</v>
@@ -4317,7 +4380,7 @@
       </c>
       <c r="T24" s="128"/>
       <c r="U24" s="35"/>
-      <c r="V24" s="56"/>
+      <c r="V24" s="34"/>
       <c r="W24" s="34"/>
       <c r="X24" s="36"/>
       <c r="Y24" s="36"/>
@@ -4517,8 +4580,8 @@
       </c>
       <c r="T26" s="128"/>
       <c r="U26" s="35"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
       <c r="X26" s="36"/>
       <c r="Y26" s="36"/>
       <c r="AA26" s="46">
@@ -4934,8 +4997,8 @@
         <v>340</v>
       </c>
       <c r="U30" s="35"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
       <c r="X30" s="36"/>
       <c r="Y30" s="36"/>
       <c r="AA30" s="46">
@@ -5333,28 +5396,25 @@
         <v>189.2</v>
       </c>
       <c r="K34" s="99"/>
-      <c r="M34" s="17"/>
+      <c r="M34" s="58">
+        <v>43266</v>
+      </c>
       <c r="N34" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O34" s="17" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="P34" s="34"/>
       <c r="Q34" s="22">
-        <v>1800</v>
-      </c>
-      <c r="R34" s="21">
-        <v>1150</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="R34" s="21"/>
       <c r="S34" s="19">
         <f>Q34-R34</f>
-        <v>650</v>
-      </c>
-      <c r="T34" s="128">
-        <f>SUM(S36:S42)</f>
-        <v>3510</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="T34" s="128"/>
       <c r="U34" s="35"/>
       <c r="V34" s="34"/>
       <c r="W34" s="34"/>
@@ -5440,25 +5500,28 @@
       <c r="K35" s="127">
         <v>10612</v>
       </c>
-      <c r="M35" s="58">
-        <v>43010</v>
-      </c>
+      <c r="M35" s="17"/>
       <c r="N35" s="17" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="P35" s="34"/>
       <c r="Q35" s="22">
-        <v>100</v>
-      </c>
-      <c r="R35" s="21"/>
+        <v>1800</v>
+      </c>
+      <c r="R35" s="21">
+        <v>1150</v>
+      </c>
       <c r="S35" s="19">
-        <f t="shared" ref="S35:S68" si="9">Q35-R35</f>
-        <v>100</v>
-      </c>
-      <c r="T35" s="128"/>
+        <f>Q35-R35</f>
+        <v>650</v>
+      </c>
+      <c r="T35" s="128">
+        <f>SUM(S37:S43)</f>
+        <v>3510</v>
+      </c>
       <c r="U35" s="35"/>
       <c r="V35" s="34"/>
       <c r="W35" s="34"/>
@@ -5540,24 +5603,25 @@
         <v>413</v>
       </c>
       <c r="K36" s="99"/>
-      <c r="M36" s="17" t="s">
-        <v>97</v>
+      <c r="M36" s="58">
+        <v>43010</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P36" s="34"/>
       <c r="Q36" s="22">
-        <v>1040</v>
+        <v>100</v>
       </c>
       <c r="R36" s="21"/>
       <c r="S36" s="19">
-        <f t="shared" si="9"/>
-        <v>1040</v>
-      </c>
+        <f t="shared" ref="S36:S69" si="9">Q36-R36</f>
+        <v>100</v>
+      </c>
+      <c r="T36" s="128"/>
       <c r="U36" s="35"/>
       <c r="V36" s="34"/>
       <c r="W36" s="34"/>
@@ -5631,23 +5695,23 @@
       </c>
       <c r="J37" s="98"/>
       <c r="K37" s="99"/>
-      <c r="M37" s="17"/>
+      <c r="M37" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="N37" s="17" t="s">
         <v>26</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P37" s="34"/>
       <c r="Q37" s="22">
-        <v>2900</v>
-      </c>
-      <c r="R37" s="21">
-        <v>1550</v>
-      </c>
+        <v>1040</v>
+      </c>
+      <c r="R37" s="21"/>
       <c r="S37" s="19">
         <f t="shared" si="9"/>
-        <v>1350</v>
+        <v>1040</v>
       </c>
       <c r="U37" s="35"/>
       <c r="V37" s="34"/>
@@ -5737,16 +5801,18 @@
         <v>26</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P38" s="34"/>
       <c r="Q38" s="22">
-        <v>240</v>
-      </c>
-      <c r="R38" s="21"/>
+        <v>2900</v>
+      </c>
+      <c r="R38" s="21">
+        <v>1550</v>
+      </c>
       <c r="S38" s="19">
         <f t="shared" si="9"/>
-        <v>240</v>
+        <v>1350</v>
       </c>
       <c r="U38" s="35"/>
       <c r="V38" s="34"/>
@@ -5827,27 +5893,21 @@
       <c r="I39" s="97"/>
       <c r="J39" s="98"/>
       <c r="K39" s="99"/>
-      <c r="M39" s="17" t="s">
-        <v>120</v>
-      </c>
+      <c r="M39" s="17"/>
       <c r="N39" s="17" t="s">
         <v>26</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="P39" s="34" t="s">
-        <v>232</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P39" s="34"/>
       <c r="Q39" s="22">
-        <v>1500</v>
-      </c>
-      <c r="R39" s="21">
-        <v>1300</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="R39" s="21"/>
       <c r="S39" s="19">
-        <f>Q39-R39</f>
-        <v>200</v>
+        <f t="shared" si="9"/>
+        <v>240</v>
       </c>
       <c r="U39" s="35"/>
       <c r="V39" s="34"/>
@@ -5926,21 +5986,27 @@
       <c r="I40" s="97"/>
       <c r="J40" s="98"/>
       <c r="K40" s="99"/>
-      <c r="M40" s="17"/>
+      <c r="M40" s="17" t="s">
+        <v>120</v>
+      </c>
       <c r="N40" s="17" t="s">
         <v>26</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="P40" s="34"/>
+        <v>121</v>
+      </c>
+      <c r="P40" s="34" t="s">
+        <v>232</v>
+      </c>
       <c r="Q40" s="22">
-        <v>100</v>
-      </c>
-      <c r="R40" s="21"/>
+        <v>1500</v>
+      </c>
+      <c r="R40" s="21">
+        <v>1300</v>
+      </c>
       <c r="S40" s="19">
-        <f t="shared" si="9"/>
-        <v>100</v>
+        <f>Q40-R40</f>
+        <v>200</v>
       </c>
       <c r="U40" s="35"/>
       <c r="V40" s="34"/>
@@ -6024,20 +6090,16 @@
         <v>26</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>236</v>
+        <v>124</v>
       </c>
       <c r="P41" s="34"/>
       <c r="Q41" s="22">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="R41" s="21"/>
       <c r="S41" s="19">
         <f t="shared" si="9"/>
-        <v>500</v>
-      </c>
-      <c r="T41" s="11">
-        <f>SUM(S43:S44)</f>
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="U41" s="35"/>
       <c r="V41" s="34"/>
@@ -6120,19 +6182,23 @@
       <c r="K42" s="99"/>
       <c r="M42" s="17"/>
       <c r="N42" s="17" t="s">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="O42" s="17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P42" s="34"/>
       <c r="Q42" s="22">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="R42" s="21"/>
       <c r="S42" s="19">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>500</v>
+      </c>
+      <c r="T42" s="11">
+        <f>SUM(S44:S45)</f>
+        <v>230</v>
       </c>
       <c r="U42" s="35"/>
       <c r="V42" s="34"/>
@@ -6209,21 +6275,19 @@
       <c r="K43" s="99"/>
       <c r="M43" s="17"/>
       <c r="N43" s="17" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="P43" s="34"/>
       <c r="Q43" s="22">
-        <v>130</v>
-      </c>
-      <c r="R43" s="21">
-        <v>100</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="R43" s="21"/>
       <c r="S43" s="19">
-        <f>Q43-R43</f>
-        <v>30</v>
+        <f t="shared" si="9"/>
+        <v>80</v>
       </c>
       <c r="U43" s="35"/>
       <c r="V43" s="34"/>
@@ -6292,23 +6356,23 @@
       <c r="I44" s="97"/>
       <c r="J44" s="98"/>
       <c r="K44" s="99"/>
-      <c r="M44" s="58">
-        <v>43180</v>
-      </c>
+      <c r="M44" s="17"/>
       <c r="N44" s="17" t="s">
-        <v>253</v>
+        <v>122</v>
       </c>
       <c r="O44" s="17" t="s">
-        <v>254</v>
+        <v>123</v>
       </c>
       <c r="P44" s="34"/>
       <c r="Q44" s="22">
-        <v>200</v>
-      </c>
-      <c r="R44" s="21"/>
+        <v>130</v>
+      </c>
+      <c r="R44" s="21">
+        <v>100</v>
+      </c>
       <c r="S44" s="19">
-        <f t="shared" si="9"/>
-        <v>200</v>
+        <f>Q44-R44</f>
+        <v>30</v>
       </c>
       <c r="U44" s="35"/>
       <c r="V44" s="34"/>
@@ -6391,22 +6455,22 @@
       <c r="J45" s="98"/>
       <c r="K45" s="99"/>
       <c r="M45" s="58">
-        <v>43266</v>
+        <v>43180</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="O45" s="17" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="P45" s="34"/>
       <c r="Q45" s="22">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="R45" s="21"/>
       <c r="S45" s="19">
         <f t="shared" si="9"/>
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="U45" s="35"/>
       <c r="V45" s="34"/>
@@ -6488,21 +6552,21 @@
         <v>43266</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O46" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P46" s="34"/>
       <c r="Q46" s="22">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="R46" s="21">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="S46" s="19">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U46" s="35"/>
       <c r="V46" s="34"/>
@@ -6575,12 +6639,22 @@
       <c r="I47" s="55"/>
       <c r="J47" s="98"/>
       <c r="K47" s="55"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
+      <c r="M47" s="58">
+        <v>43266</v>
+      </c>
+      <c r="N47" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="O47" s="17" t="s">
+        <v>268</v>
+      </c>
       <c r="P47" s="34"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="21"/>
+      <c r="Q47" s="22">
+        <v>60</v>
+      </c>
+      <c r="R47" s="21">
+        <v>60</v>
+      </c>
       <c r="S47" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -7846,7 +7920,9 @@
       <c r="AB62" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AC62" s="48"/>
+      <c r="AC62" s="48" t="s">
+        <v>323</v>
+      </c>
       <c r="AD62" s="40">
         <f t="shared" si="3"/>
         <v>-15</v>
@@ -7856,6 +7932,9 @@
       <c r="AH62" s="50">
         <f t="shared" si="0"/>
         <v>15</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>83</v>
       </c>
       <c r="AJ62" s="55" t="s">
         <v>164</v>
@@ -7921,7 +8000,9 @@
       <c r="AB63" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AC63" s="48"/>
+      <c r="AC63" s="48" t="s">
+        <v>322</v>
+      </c>
       <c r="AD63" s="40">
         <f t="shared" si="3"/>
         <v>-5455</v>
@@ -7931,6 +8012,9 @@
       </c>
       <c r="AF63" s="49">
         <v>100</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>324</v>
       </c>
       <c r="AH63" s="50">
         <f>SUM(AI63,AL63,AM63,AN63,AO63,AP63,AQ63,AR63,AS63,AT63,AU63,AV63)</f>
@@ -8020,7 +8104,9 @@
       <c r="AB64" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="AC64" s="48"/>
+      <c r="AC64" s="48" t="s">
+        <v>329</v>
+      </c>
       <c r="AD64" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -8035,7 +8121,7 @@
       <c r="AK64" s="55"/>
       <c r="AL64" s="55"/>
       <c r="AM64" s="55"/>
-      <c r="AN64" s="56"/>
+      <c r="AN64" s="55"/>
       <c r="AO64" s="55"/>
       <c r="AP64" s="55"/>
       <c r="AQ64" s="55"/>
@@ -8089,20 +8175,31 @@
       <c r="AB65" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="AC65" s="48"/>
+      <c r="AC65" s="48" t="s">
+        <v>330</v>
+      </c>
       <c r="AD65" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-204</v>
       </c>
       <c r="AE65" s="49"/>
       <c r="AF65" s="49"/>
       <c r="AH65" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ65" s="55"/>
-      <c r="AK65" s="55"/>
-      <c r="AL65" s="55"/>
+        <v>204</v>
+      </c>
+      <c r="AI65">
+        <v>200</v>
+      </c>
+      <c r="AJ65" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="AK65" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="AL65" s="55">
+        <v>4</v>
+      </c>
       <c r="AM65" s="55"/>
       <c r="AN65" s="55"/>
       <c r="AO65" s="55"/>
@@ -8119,10 +8216,12 @@
       <c r="AW65" s="55"/>
       <c r="AX65" s="55"/>
       <c r="AY65" s="55"/>
-      <c r="AZ65" s="55"/>
+      <c r="AZ65" s="55">
+        <v>2</v>
+      </c>
       <c r="BA65" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB65" s="55"/>
       <c r="BC65">
@@ -8351,7 +8450,7 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="21"/>
       <c r="S69" s="19">
-        <f t="shared" ref="S69:S123" si="14">Q69-R69</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U69" s="34"/>
@@ -8420,7 +8519,7 @@
       <c r="Q70" s="22"/>
       <c r="R70" s="21"/>
       <c r="S70" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="S70:S124" si="14">Q70-R70</f>
         <v>0</v>
       </c>
       <c r="U70" s="34"/>
@@ -12357,7 +12456,7 @@
       <c r="Q124" s="22"/>
       <c r="R124" s="21"/>
       <c r="S124" s="19">
-        <f t="shared" ref="S124:S138" si="17">Q124-R124</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U124" s="34"/>
@@ -12415,7 +12514,7 @@
       <c r="Q125" s="22"/>
       <c r="R125" s="21"/>
       <c r="S125" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="S125:S139" si="17">Q125-R125</f>
         <v>0</v>
       </c>
       <c r="U125" s="34"/>
@@ -12930,13 +13029,13 @@
       </c>
       <c r="I134" s="12"/>
       <c r="K134" s="13"/>
-      <c r="M134" s="87"/>
-      <c r="N134" s="87"/>
-      <c r="O134" s="87"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
       <c r="P134" s="34"/>
-      <c r="Q134" s="88"/>
-      <c r="R134" s="86"/>
-      <c r="S134" s="89">
+      <c r="Q134" s="22"/>
+      <c r="R134" s="21"/>
+      <c r="S134" s="19">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -13220,13 +13319,16 @@
       </c>
       <c r="I139" s="12"/>
       <c r="K139" s="13"/>
-      <c r="M139" s="91"/>
-      <c r="N139" s="91"/>
-      <c r="O139" s="91"/>
-      <c r="P139" s="133"/>
-      <c r="Q139" s="91"/>
-      <c r="R139" s="91"/>
-      <c r="S139" s="91"/>
+      <c r="M139" s="87"/>
+      <c r="N139" s="87"/>
+      <c r="O139" s="87"/>
+      <c r="P139" s="34"/>
+      <c r="Q139" s="88"/>
+      <c r="R139" s="86"/>
+      <c r="S139" s="89">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="U139" s="34"/>
       <c r="V139" s="34"/>
       <c r="W139" s="34"/>
@@ -13278,7 +13380,7 @@
       <c r="M140" s="91"/>
       <c r="N140" s="91"/>
       <c r="O140" s="91"/>
-      <c r="P140" s="91"/>
+      <c r="P140" s="133"/>
       <c r="Q140" s="91"/>
       <c r="R140" s="91"/>
       <c r="S140" s="91"/>
@@ -13895,6 +13997,7 @@
       <c r="Q151" s="91"/>
       <c r="R151" s="91"/>
       <c r="S151" s="91"/>
+      <c r="T151"/>
       <c r="X151" s="90"/>
       <c r="Y151" s="90"/>
       <c r="AA151" s="101"/>
@@ -14122,6 +14225,7 @@
       <c r="I156" s="84"/>
       <c r="J156" s="85"/>
       <c r="K156" s="86"/>
+      <c r="T156" s="87"/>
       <c r="AA156" s="92"/>
       <c r="AB156" s="93"/>
       <c r="AD156" s="93"/>
@@ -16124,13 +16228,6 @@
     </row>
     <row r="378" spans="10:34" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J378" s="98"/>
-      <c r="M378"/>
-      <c r="N378"/>
-      <c r="O378"/>
-      <c r="P378"/>
-      <c r="Q378" s="23"/>
-      <c r="R378" s="13"/>
-      <c r="S378" s="20"/>
       <c r="AA378" s="93"/>
       <c r="AB378" s="93"/>
       <c r="AD378" s="93"/>
@@ -16289,7 +16386,7 @@
       <c r="O388"/>
       <c r="P388"/>
       <c r="Q388" s="23"/>
-      <c r="R388"/>
+      <c r="R388" s="13"/>
       <c r="S388" s="20"/>
       <c r="AA388" s="93"/>
       <c r="AB388" s="93"/>
@@ -16458,6 +16555,7 @@
       <c r="K395" s="91"/>
       <c r="Q395" s="23"/>
       <c r="S395" s="20"/>
+      <c r="T395" s="91"/>
       <c r="X395" s="33"/>
       <c r="Y395" s="33"/>
       <c r="AA395" s="47"/>
@@ -17205,6 +17303,7 @@
     <row r="407" spans="9:55" x14ac:dyDescent="0.25">
       <c r="I407" s="10"/>
       <c r="Q407" s="23"/>
+      <c r="S407" s="20"/>
       <c r="X407" s="33"/>
       <c r="Y407" s="33"/>
       <c r="AA407" s="47"/>
@@ -18546,6 +18645,7 @@
     </row>
     <row r="429" spans="9:55" x14ac:dyDescent="0.25">
       <c r="I429" s="10"/>
+      <c r="Q429" s="23"/>
       <c r="X429" s="33"/>
       <c r="Y429" s="33"/>
       <c r="AA429" s="47"/>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="335">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -1019,6 +1019,18 @@
   </si>
   <si>
     <t>Jaime Vacas 1</t>
+  </si>
+  <si>
+    <t>Pago Funcionaria de Casilla 2</t>
+  </si>
+  <si>
+    <t>Capuchino; Cena Jaime</t>
+  </si>
+  <si>
+    <t>Jaime Semitas</t>
+  </si>
+  <si>
+    <t>Jaime tío Arturo</t>
   </si>
 </sst>
 </file>
@@ -1963,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H43" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,7 +2275,7 @@
       </c>
       <c r="P4" s="78">
         <f>SUM(N3,S9,P7)</f>
-        <v>64976.32</v>
+        <v>64882.32</v>
       </c>
       <c r="Q4" s="55"/>
       <c r="AA4" s="46">
@@ -2332,7 +2344,7 @@
       </c>
       <c r="BH4" s="56">
         <f>(SUM((AW3:AW519)))-(SUM((BA3:BA519)))</f>
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="BI4" s="56"/>
     </row>
@@ -2434,7 +2446,7 @@
       </c>
       <c r="N6" s="51">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I502)))-(SUM((Y11:Y499)))</f>
-        <v>726</v>
+        <v>632</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -2518,7 +2530,7 @@
       </c>
       <c r="P7" s="77">
         <f>SUM(R7,N6)</f>
-        <v>726</v>
+        <v>632</v>
       </c>
       <c r="Q7" s="74"/>
       <c r="R7" s="73">
@@ -4176,10 +4188,18 @@
         <v>600</v>
       </c>
       <c r="T22" s="128"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="36"/>
+      <c r="U22" s="35">
+        <v>43284</v>
+      </c>
+      <c r="V22" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="W22" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="X22" s="36">
+        <v>150</v>
+      </c>
       <c r="Y22" s="36"/>
       <c r="AA22" s="46">
         <v>43240</v>
@@ -8257,20 +8277,31 @@
       <c r="AB66" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AC66" s="48"/>
+      <c r="AC66" s="48" t="s">
+        <v>333</v>
+      </c>
       <c r="AD66" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-98</v>
       </c>
       <c r="AE66" s="49"/>
       <c r="AF66" s="49"/>
       <c r="AH66" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ66" s="55"/>
-      <c r="AK66" s="55"/>
-      <c r="AL66" s="55"/>
+        <v>98</v>
+      </c>
+      <c r="AI66">
+        <v>68</v>
+      </c>
+      <c r="AJ66" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="AK66" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL66" s="55">
+        <v>30</v>
+      </c>
       <c r="AM66" s="55"/>
       <c r="AN66" s="55"/>
       <c r="AO66" s="55"/>
@@ -8287,10 +8318,12 @@
       <c r="AW66" s="55"/>
       <c r="AX66" s="55"/>
       <c r="AY66" s="55"/>
-      <c r="AZ66" s="55"/>
+      <c r="AZ66" s="55">
+        <v>2</v>
+      </c>
       <c r="BA66" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB66" s="55"/>
       <c r="BC66">
@@ -8326,21 +8359,34 @@
       <c r="AB67" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="AC67" s="48"/>
+      <c r="AC67" s="48" t="s">
+        <v>334</v>
+      </c>
       <c r="AD67" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-146</v>
       </c>
       <c r="AE67" s="49"/>
       <c r="AF67" s="49"/>
       <c r="AH67" s="50">
         <f t="shared" ref="AH67:AH114" si="10">SUM(AI67,AL67,AM67,AN67,AO67,AP67,AQ67,AR67,AS67,AT67,AU67,AV67)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ67" s="55"/>
-      <c r="AK67" s="55"/>
-      <c r="AL67" s="55"/>
-      <c r="AM67" s="55"/>
+        <v>146</v>
+      </c>
+      <c r="AI67">
+        <v>56</v>
+      </c>
+      <c r="AJ67" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK67" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="AL67" s="55">
+        <v>30</v>
+      </c>
+      <c r="AM67" s="55">
+        <v>60</v>
+      </c>
       <c r="AN67" s="55"/>
       <c r="AO67" s="55"/>
       <c r="AP67" s="55"/>
@@ -8356,10 +8402,12 @@
       <c r="AW67" s="55"/>
       <c r="AX67" s="55"/>
       <c r="AY67" s="55"/>
-      <c r="AZ67" s="55"/>
+      <c r="AZ67" s="55">
+        <v>2</v>
+      </c>
       <c r="BA67" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB67" s="55"/>
       <c r="BC67">

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="351">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -1031,13 +1031,61 @@
   </si>
   <si>
     <t>Jaime tío Arturo</t>
+  </si>
+  <si>
+    <t>Hamburguesas con Jaime</t>
+  </si>
+  <si>
+    <t>Comida con Niño - Daikoku</t>
+  </si>
+  <si>
+    <t>Cine y comida con Ale</t>
+  </si>
+  <si>
+    <t>Antman con Jaime</t>
+  </si>
+  <si>
+    <t>Tacos con compañeros de Islote</t>
+  </si>
+  <si>
+    <t>Tacos de Arrachera y Chorizo argentino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boletos; Dulcería; Taxi </t>
+  </si>
+  <si>
+    <t>Chillis</t>
+  </si>
+  <si>
+    <t>Daikoku</t>
+  </si>
+  <si>
+    <t>Hamburguesas y Cerveza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capuchino </t>
+  </si>
+  <si>
+    <t>Capuchino; Helado Coyoacán</t>
+  </si>
+  <si>
+    <t>Efectivo Ale</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>Boletos Ant Man</t>
+  </si>
+  <si>
+    <t>Enana - Boleto y Palomitas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1202,6 +1250,13 @@
       <b/>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1443,7 +1498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1679,6 +1734,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1687,10 +1743,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFFF9797"/>
       <color rgb="FFD52F8E"/>
       <color rgb="FF33CC33"/>
-      <color rgb="FFFF00FF"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFCFCFCF"/>
@@ -1975,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AI69" sqref="AI69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,7 +2115,7 @@
       <c r="E2" s="55"/>
       <c r="F2" s="109">
         <f>N3-D2</f>
-        <v>4887.32</v>
+        <v>3546.3199999999997</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>2</v>
@@ -2187,7 +2243,7 @@
       </c>
       <c r="N3" s="24">
         <f>(SUM(D2,(K11:K502)))-(SUM((J11:J502),(I11:I502)))</f>
-        <v>12650.32</v>
+        <v>11309.32</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -2275,7 +2331,7 @@
       </c>
       <c r="P4" s="78">
         <f>SUM(N3,S9,P7)</f>
-        <v>64882.32</v>
+        <v>63279.32</v>
       </c>
       <c r="Q4" s="55"/>
       <c r="AA4" s="46">
@@ -2344,7 +2400,7 @@
       </c>
       <c r="BH4" s="56">
         <f>(SUM((AW3:AW519)))-(SUM((BA3:BA519)))</f>
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="BI4" s="56"/>
     </row>
@@ -2446,7 +2502,7 @@
       </c>
       <c r="N6" s="51">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I502)))-(SUM((Y11:Y499)))</f>
-        <v>632</v>
+        <v>370</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -2530,7 +2586,7 @@
       </c>
       <c r="P7" s="77">
         <f>SUM(R7,N6)</f>
-        <v>632</v>
+        <v>370</v>
       </c>
       <c r="Q7" s="74"/>
       <c r="R7" s="73">
@@ -5908,9 +5964,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G39" s="95"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="97"/>
+      <c r="G39" s="95">
+        <v>43288</v>
+      </c>
+      <c r="H39" s="55" t="s">
+        <v>347</v>
+      </c>
+      <c r="I39" s="97">
+        <v>600</v>
+      </c>
       <c r="J39" s="98"/>
       <c r="K39" s="99"/>
       <c r="M39" s="17"/>
@@ -6001,10 +6063,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G40" s="100"/>
-      <c r="H40" s="55"/>
+      <c r="G40" s="100">
+        <v>43288</v>
+      </c>
+      <c r="H40" s="55" t="s">
+        <v>342</v>
+      </c>
       <c r="I40" s="97"/>
-      <c r="J40" s="98"/>
+      <c r="J40" s="98">
+        <v>497</v>
+      </c>
       <c r="K40" s="99"/>
       <c r="M40" s="17" t="s">
         <v>120</v>
@@ -6100,10 +6168,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G41" s="95"/>
-      <c r="H41" s="55"/>
+      <c r="G41" s="95">
+        <v>43289</v>
+      </c>
+      <c r="H41" s="55" t="s">
+        <v>349</v>
+      </c>
       <c r="I41" s="97"/>
-      <c r="J41" s="98"/>
+      <c r="J41" s="98">
+        <v>244</v>
+      </c>
       <c r="K41" s="99"/>
       <c r="M41" s="17"/>
       <c r="N41" s="17" t="s">
@@ -6410,11 +6484,11 @@
       </c>
       <c r="AD44" s="40">
         <f t="shared" si="3"/>
-        <v>-104</v>
+        <v>-32</v>
       </c>
       <c r="AE44" s="49"/>
       <c r="AF44" s="136">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="AG44" t="s">
         <v>274</v>
@@ -8443,20 +8517,31 @@
       <c r="AB68" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AC68" s="48"/>
+      <c r="AC68" s="48" t="s">
+        <v>335</v>
+      </c>
       <c r="AD68" s="40">
         <f t="shared" ref="AD68:AD114" si="12">(SUM(AE68,AF68))-AH68</f>
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="AE68" s="49"/>
       <c r="AF68" s="49"/>
       <c r="AH68" s="50">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AJ68" s="55"/>
-      <c r="AK68" s="55"/>
-      <c r="AL68" s="55"/>
+        <v>130</v>
+      </c>
+      <c r="AI68">
+        <v>100</v>
+      </c>
+      <c r="AJ68" s="55" t="s">
+        <v>344</v>
+      </c>
+      <c r="AK68" s="55" t="s">
+        <v>345</v>
+      </c>
+      <c r="AL68" s="55">
+        <v>30</v>
+      </c>
       <c r="AM68" s="55"/>
       <c r="AN68" s="55"/>
       <c r="AO68" s="55"/>
@@ -8473,10 +8558,12 @@
       <c r="AW68" s="55"/>
       <c r="AX68" s="55"/>
       <c r="AY68" s="55"/>
-      <c r="AZ68" s="55"/>
+      <c r="AZ68" s="55">
+        <v>2</v>
+      </c>
       <c r="BA68" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB68" s="55"/>
       <c r="BC68">
@@ -8512,21 +8599,34 @@
       <c r="AB69" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AC69" s="48"/>
+      <c r="AC69" s="48" t="s">
+        <v>336</v>
+      </c>
       <c r="AD69" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-450</v>
       </c>
       <c r="AE69" s="49"/>
       <c r="AF69" s="49"/>
       <c r="AH69" s="50">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AJ69" s="55"/>
-      <c r="AK69" s="55"/>
-      <c r="AL69" s="55"/>
-      <c r="AM69" s="55"/>
+        <v>450</v>
+      </c>
+      <c r="AI69">
+        <v>390</v>
+      </c>
+      <c r="AJ69" s="55" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK69" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="AL69" s="55">
+        <v>30</v>
+      </c>
+      <c r="AM69" s="55">
+        <v>30</v>
+      </c>
       <c r="AN69" s="55"/>
       <c r="AO69" s="55"/>
       <c r="AP69" s="55"/>
@@ -8542,10 +8642,12 @@
       <c r="AW69" s="55"/>
       <c r="AX69" s="55"/>
       <c r="AY69" s="55"/>
-      <c r="AZ69" s="55"/>
+      <c r="AZ69" s="55">
+        <v>1</v>
+      </c>
       <c r="BA69" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB69" s="55"/>
       <c r="BC69">
@@ -8581,22 +8683,37 @@
       <c r="AB70" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AC70" s="48"/>
+      <c r="AC70" s="48" t="s">
+        <v>337</v>
+      </c>
       <c r="AD70" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AE70" s="49"/>
       <c r="AF70" s="49"/>
       <c r="AH70" s="50">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AJ70" s="55"/>
-      <c r="AK70" s="55"/>
-      <c r="AL70" s="55"/>
-      <c r="AM70" s="55"/>
-      <c r="AN70" s="55"/>
+        <v>300</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ70" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK70" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="AL70" s="143">
+        <v>140</v>
+      </c>
+      <c r="AM70" s="143">
+        <v>140</v>
+      </c>
+      <c r="AN70" s="55">
+        <v>20</v>
+      </c>
       <c r="AO70" s="55"/>
       <c r="AP70" s="55"/>
       <c r="AQ70" s="55"/>
@@ -8611,10 +8728,12 @@
       <c r="AW70" s="55"/>
       <c r="AX70" s="55"/>
       <c r="AY70" s="55"/>
-      <c r="AZ70" s="55"/>
+      <c r="AZ70" s="55">
+        <v>2</v>
+      </c>
       <c r="BA70" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB70" s="55"/>
       <c r="BC70">
@@ -8650,20 +8769,31 @@
       <c r="AB71" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="AC71" s="48"/>
+      <c r="AC71" s="48" t="s">
+        <v>338</v>
+      </c>
       <c r="AD71" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AE71" s="49"/>
-      <c r="AF71" s="49"/>
+      <c r="AF71" s="49">
+        <v>100</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>350</v>
+      </c>
       <c r="AH71" s="50">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ71" s="55"/>
-      <c r="AK71" s="55"/>
-      <c r="AL71" s="55"/>
+      <c r="AK71" s="55" t="s">
+        <v>348</v>
+      </c>
+      <c r="AL71" s="55">
+        <v>40</v>
+      </c>
       <c r="AM71" s="55"/>
       <c r="AN71" s="55"/>
       <c r="AO71" s="55"/>
@@ -8680,10 +8810,12 @@
       <c r="AW71" s="55"/>
       <c r="AX71" s="55"/>
       <c r="AY71" s="55"/>
-      <c r="AZ71" s="55"/>
+      <c r="AZ71" s="55">
+        <v>2</v>
+      </c>
       <c r="BA71" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB71" s="55"/>
       <c r="BC71">
@@ -8719,18 +8851,25 @@
       <c r="AB72" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="AC72" s="48"/>
+      <c r="AC72" s="48" t="s">
+        <v>339</v>
+      </c>
       <c r="AD72" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-114</v>
       </c>
       <c r="AE72" s="49"/>
       <c r="AF72" s="49"/>
       <c r="AH72" s="50">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AJ72" s="55"/>
+        <v>114</v>
+      </c>
+      <c r="AI72">
+        <v>64</v>
+      </c>
+      <c r="AJ72" s="55" t="s">
+        <v>340</v>
+      </c>
       <c r="AK72" s="55"/>
       <c r="AL72" s="55"/>
       <c r="AM72" s="55"/>
@@ -8744,9 +8883,11 @@
       <c r="AU72" s="55"/>
       <c r="AV72">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AW72" s="55"/>
+        <v>50</v>
+      </c>
+      <c r="AW72" s="55">
+        <v>50</v>
+      </c>
       <c r="AX72" s="55"/>
       <c r="AY72" s="55"/>
       <c r="AZ72" s="55"/>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="351">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -2031,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AI69" sqref="AI69"/>
+    <sheetView tabSelected="1" topLeftCell="R47" workbookViewId="0">
+      <selection activeCell="AI73" sqref="AI73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P4" s="78">
         <f>SUM(N3,S9,P7)</f>
-        <v>63279.32</v>
+        <v>63249.32</v>
       </c>
       <c r="Q4" s="55"/>
       <c r="AA4" s="46">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="N6" s="51">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I502)))-(SUM((Y11:Y499)))</f>
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="P7" s="77">
         <f>SUM(R7,N6)</f>
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="Q7" s="74"/>
       <c r="R7" s="73">
@@ -8932,17 +8932,21 @@
       <c r="AC73" s="48"/>
       <c r="AD73" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AE73" s="49"/>
       <c r="AF73" s="49"/>
       <c r="AH73" s="50">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ73" s="55"/>
-      <c r="AK73" s="55"/>
-      <c r="AL73" s="55"/>
+      <c r="AK73" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL73" s="55">
+        <v>30</v>
+      </c>
       <c r="AM73" s="55"/>
       <c r="AN73" s="55"/>
       <c r="AO73" s="55"/>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="353">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -1079,6 +1079,12 @@
   </si>
   <si>
     <t>Enana - Boleto y Palomitas</t>
+  </si>
+  <si>
+    <t>El Rabanito</t>
+  </si>
+  <si>
+    <t>Diagnostico Desempeño y MIL ETAPAS MAS :C</t>
   </si>
 </sst>
 </file>
@@ -2031,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R47" workbookViewId="0">
-      <selection activeCell="AI73" sqref="AI73"/>
+    <sheetView tabSelected="1" topLeftCell="AB59" workbookViewId="0">
+      <selection activeCell="AC74" sqref="AC74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,7 +2337,7 @@
       </c>
       <c r="P4" s="78">
         <f>SUM(N3,S9,P7)</f>
-        <v>63249.32</v>
+        <v>63149.32</v>
       </c>
       <c r="Q4" s="55"/>
       <c r="AA4" s="46">
@@ -2502,7 +2508,7 @@
       </c>
       <c r="N6" s="51">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I502)))-(SUM((Y11:Y499)))</f>
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -2586,7 +2592,7 @@
       </c>
       <c r="P7" s="77">
         <f>SUM(R7,N6)</f>
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="Q7" s="74"/>
       <c r="R7" s="73">
@@ -8929,18 +8935,27 @@
       <c r="AB73" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AC73" s="48"/>
+      <c r="AC73" s="48" t="s">
+        <v>352</v>
+      </c>
       <c r="AD73" s="40">
         <f t="shared" si="12"/>
-        <v>-30</v>
-      </c>
-      <c r="AE73" s="49"/>
+        <v>-130</v>
+      </c>
+      <c r="AE73" s="49">
+        <v>100</v>
+      </c>
       <c r="AF73" s="49"/>
       <c r="AH73" s="50">
         <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="AJ73" s="55"/>
+        <v>230</v>
+      </c>
+      <c r="AI73">
+        <v>200</v>
+      </c>
+      <c r="AJ73" s="55" t="s">
+        <v>351</v>
+      </c>
       <c r="AK73" s="55" t="s">
         <v>153</v>
       </c>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="377">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -979,9 +980,6 @@
     <t>Ale Banco</t>
   </si>
   <si>
-    <t>Efectivo Coyoacan</t>
-  </si>
-  <si>
     <t>El merendero Coyoacan</t>
   </si>
   <si>
@@ -1085,6 +1083,81 @@
   </si>
   <si>
     <t>Diagnostico Desempeño y MIL ETAPAS MAS :C</t>
+  </si>
+  <si>
+    <t>10, Julio - Dayra</t>
+  </si>
+  <si>
+    <t>Efectivo Coyoacan Enana</t>
+  </si>
+  <si>
+    <t>Deposito Fantasma</t>
+  </si>
+  <si>
+    <t>Saurus Burgers - Jaime</t>
+  </si>
+  <si>
+    <t>Crazy me strikes again</t>
+  </si>
+  <si>
+    <t>12 Jul - Dafne</t>
+  </si>
+  <si>
+    <t>Olvide Cartera</t>
+  </si>
+  <si>
+    <t>439 x 3 - Retroactivo</t>
+  </si>
+  <si>
+    <t>12 Jul - Jaime</t>
+  </si>
+  <si>
+    <t>Mamma's Pizza</t>
+  </si>
+  <si>
+    <t>Efectivo</t>
+  </si>
+  <si>
+    <t>Adelanto de 500 "pa cuando te quedes sin trabajo" Viernes 13 de julio</t>
+  </si>
+  <si>
+    <t>Mamá - Pago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaime </t>
+  </si>
+  <si>
+    <t>Olvidé Cartera</t>
+  </si>
+  <si>
+    <t>Cumple Eleo</t>
+  </si>
+  <si>
+    <t>Caldito Toks</t>
+  </si>
+  <si>
+    <t>Dona; Donas + Café</t>
+  </si>
+  <si>
+    <t>Comprar Regalo Ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumple Ana </t>
+  </si>
+  <si>
+    <t>Botella Dafne; Cervezas</t>
+  </si>
+  <si>
+    <t>Cambios</t>
+  </si>
+  <si>
+    <t>Hamburguesas del arbol</t>
+  </si>
+  <si>
+    <t>Café y pastel</t>
+  </si>
+  <si>
+    <t>Pre Class</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1491,6 +1564,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1504,7 +1583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1741,6 +1820,17 @@
     <xf numFmtId="16" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1749,10 +1839,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF33CC33"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFFF9797"/>
       <color rgb="FFD52F8E"/>
-      <color rgb="FF33CC33"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFCFCFCF"/>
@@ -2037,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB59" workbookViewId="0">
-      <selection activeCell="AC74" sqref="AC74"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,7 +2211,7 @@
       <c r="E2" s="55"/>
       <c r="F2" s="109">
         <f>N3-D2</f>
-        <v>3546.3199999999997</v>
+        <v>14375.32</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>2</v>
@@ -2248,8 +2338,8 @@
         <v>7</v>
       </c>
       <c r="N3" s="24">
-        <f>(SUM(D2,(K11:K502)))-(SUM((J11:J502),(I11:I502)))</f>
-        <v>11309.32</v>
+        <f>(SUM(D2,(K11:K503)))-(SUM((J11:J503),(I11:I503)))</f>
+        <v>22138.32</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -2337,7 +2427,7 @@
       </c>
       <c r="P4" s="78">
         <f>SUM(N3,S9,P7)</f>
-        <v>63149.32</v>
+        <v>74401.320000000007</v>
       </c>
       <c r="Q4" s="55"/>
       <c r="AA4" s="46">
@@ -2406,7 +2496,7 @@
       </c>
       <c r="BH4" s="56">
         <f>(SUM((AW3:AW519)))-(SUM((BA3:BA519)))</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BI4" s="56"/>
     </row>
@@ -2507,8 +2597,8 @@
         <v>9</v>
       </c>
       <c r="N6" s="51">
-        <f>(SUM((X11:X299),(AD3:AD500),(I11:I502)))-(SUM((Y11:Y499)))</f>
-        <v>240</v>
+        <f>(SUM((X11:X299),(AD3:AD500),(I11:I503)))-(SUM((Y11:Y499)))</f>
+        <v>1163</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -2592,17 +2682,17 @@
       </c>
       <c r="P7" s="77">
         <f>SUM(R7,N6)</f>
-        <v>240</v>
+        <v>1163</v>
       </c>
       <c r="Q7" s="74"/>
       <c r="R7" s="73">
-        <f>(SUM(Y11:Y499))-(SUM(K11:K502))</f>
+        <f>(SUM(Y11:Y499))-(SUM(K11:K503))</f>
         <v>0</v>
       </c>
       <c r="S7" s="111"/>
       <c r="T7" s="113">
         <f>E9</f>
-        <v>11960</v>
+        <v>12056</v>
       </c>
       <c r="AA7" s="46">
         <v>43225</v>
@@ -2734,7 +2824,7 @@
       <c r="D9" s="60"/>
       <c r="E9" s="43">
         <f>SUM(E10:E499)</f>
-        <v>11960</v>
+        <v>12056</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>16</v>
@@ -2755,7 +2845,7 @@
       </c>
       <c r="S9" s="14">
         <f>SUM(S11:S486)</f>
-        <v>51600</v>
+        <v>51100</v>
       </c>
       <c r="U9" s="31" t="s">
         <v>40</v>
@@ -3547,10 +3637,10 @@
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>324</v>
+      </c>
+      <c r="B16" t="s">
         <v>325</v>
-      </c>
-      <c r="B16" t="s">
-        <v>326</v>
       </c>
       <c r="C16">
         <v>2000</v>
@@ -3674,6 +3764,18 @@
       </c>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>352</v>
+      </c>
+      <c r="B17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
       <c r="E17">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3780,6 +3882,18 @@
       </c>
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
       <c r="E18">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3895,9 +4009,18 @@
       </c>
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>360</v>
+      </c>
+      <c r="B19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C19">
+        <v>96</v>
+      </c>
       <c r="E19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G19" s="123">
         <v>43249</v>
@@ -4024,7 +4147,7 @@
         <v>23</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P20" s="34"/>
       <c r="Q20" s="22">
@@ -4150,10 +4273,10 @@
         <v>43282</v>
       </c>
       <c r="V21" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="W21" s="34" t="s">
         <v>320</v>
-      </c>
-      <c r="W21" s="34" t="s">
-        <v>321</v>
       </c>
       <c r="X21" s="36">
         <v>300</v>
@@ -4254,10 +4377,10 @@
         <v>43284</v>
       </c>
       <c r="V22" s="34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="W22" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="X22" s="36">
         <v>150</v>
@@ -4352,11 +4475,19 @@
         <v>1000</v>
       </c>
       <c r="T23" s="128"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="34"/>
+      <c r="U23" s="35">
+        <v>43293</v>
+      </c>
+      <c r="V23" s="34" t="s">
+        <v>205</v>
+      </c>
       <c r="W23" s="34"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
+      <c r="X23" s="36">
+        <v>11052</v>
+      </c>
+      <c r="Y23" s="36">
+        <v>11052</v>
+      </c>
       <c r="Z23" s="72"/>
       <c r="AA23" s="46">
         <v>43241</v>
@@ -4461,11 +4592,19 @@
         <v>120</v>
       </c>
       <c r="T24" s="128"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="34"/>
+      <c r="U24" s="35">
+        <v>43293</v>
+      </c>
+      <c r="V24" s="34" t="s">
+        <v>354</v>
+      </c>
       <c r="W24" s="34"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
+      <c r="X24" s="36">
+        <v>1317</v>
+      </c>
+      <c r="Y24" s="36">
+        <v>1317</v>
+      </c>
       <c r="AA24" s="46">
         <v>43242</v>
       </c>
@@ -4563,11 +4702,17 @@
         <v>500</v>
       </c>
       <c r="T25" s="128"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
+      <c r="U25" s="150">
+        <v>43295</v>
+      </c>
+      <c r="V25" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="W25" s="56"/>
+      <c r="X25" s="151">
+        <v>500</v>
+      </c>
+      <c r="Y25" s="151"/>
       <c r="AA25" s="46">
         <v>43243</v>
       </c>
@@ -5602,7 +5747,7 @@
       </c>
       <c r="T35" s="128">
         <f>SUM(S37:S43)</f>
-        <v>3510</v>
+        <v>3010</v>
       </c>
       <c r="U35" s="35"/>
       <c r="V35" s="34"/>
@@ -5786,14 +5931,18 @@
       <c r="O37" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="P37" s="34"/>
+      <c r="P37" s="34" t="s">
+        <v>363</v>
+      </c>
       <c r="Q37" s="22">
         <v>1040</v>
       </c>
-      <c r="R37" s="21"/>
+      <c r="R37" s="21">
+        <v>500</v>
+      </c>
       <c r="S37" s="19">
         <f t="shared" si="9"/>
-        <v>1040</v>
+        <v>540</v>
       </c>
       <c r="U37" s="35"/>
       <c r="V37" s="34"/>
@@ -5871,7 +6020,7 @@
         <v>43281</v>
       </c>
       <c r="H38" s="55" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="I38" s="97">
         <v>400</v>
@@ -5974,7 +6123,7 @@
         <v>43288</v>
       </c>
       <c r="H39" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I39" s="97">
         <v>600</v>
@@ -6073,7 +6222,7 @@
         <v>43288</v>
       </c>
       <c r="H40" s="55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I40" s="97"/>
       <c r="J40" s="98">
@@ -6178,7 +6327,7 @@
         <v>43289</v>
       </c>
       <c r="H41" s="55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I41" s="97"/>
       <c r="J41" s="98">
@@ -6275,10 +6424,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G42" s="95"/>
-      <c r="H42" s="55"/>
+      <c r="G42" s="95">
+        <v>43292</v>
+      </c>
+      <c r="H42" s="55" t="s">
+        <v>153</v>
+      </c>
       <c r="I42" s="97"/>
-      <c r="J42" s="98"/>
+      <c r="J42" s="98">
+        <v>30</v>
+      </c>
       <c r="K42" s="99"/>
       <c r="M42" s="17"/>
       <c r="N42" s="17" t="s">
@@ -6368,11 +6523,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G43" s="95"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="99"/>
+      <c r="G43" s="123">
+        <v>43293</v>
+      </c>
+      <c r="H43" s="124" t="s">
+        <v>205</v>
+      </c>
+      <c r="I43" s="135"/>
+      <c r="J43" s="126"/>
+      <c r="K43" s="127">
+        <v>11052</v>
+      </c>
       <c r="M43" s="17"/>
       <c r="N43" s="17" t="s">
         <v>233</v>
@@ -6451,11 +6612,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G44" s="95"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="99"/>
+      <c r="G44" s="144">
+        <v>43293</v>
+      </c>
+      <c r="H44" s="145" t="s">
+        <v>359</v>
+      </c>
+      <c r="I44" s="146"/>
+      <c r="J44" s="147"/>
+      <c r="K44" s="148">
+        <v>1317</v>
+      </c>
       <c r="M44" s="17"/>
       <c r="N44" s="17" t="s">
         <v>122</v>
@@ -6490,11 +6657,11 @@
       </c>
       <c r="AD44" s="40">
         <f t="shared" si="3"/>
-        <v>-32</v>
+        <v>133</v>
       </c>
       <c r="AE44" s="49"/>
       <c r="AF44" s="136">
-        <v>103</v>
+        <v>268</v>
       </c>
       <c r="AG44" t="s">
         <v>274</v>
@@ -6549,10 +6716,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G45" s="95"/>
-      <c r="H45" s="55"/>
+      <c r="G45" s="95">
+        <v>43294</v>
+      </c>
+      <c r="H45" s="55" t="s">
+        <v>361</v>
+      </c>
       <c r="I45" s="97"/>
-      <c r="J45" s="98"/>
+      <c r="J45" s="98">
+        <v>310</v>
+      </c>
       <c r="K45" s="99"/>
       <c r="M45" s="58">
         <v>43180</v>
@@ -6643,10 +6816,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G46" s="95"/>
-      <c r="H46" s="55"/>
+      <c r="G46" s="95">
+        <v>43295</v>
+      </c>
+      <c r="H46" s="55" t="s">
+        <v>207</v>
+      </c>
       <c r="I46" s="97"/>
-      <c r="J46" s="98"/>
+      <c r="J46" s="98">
+        <v>200</v>
+      </c>
       <c r="K46" s="99"/>
       <c r="M46" s="58">
         <v>43266</v>
@@ -6734,11 +6913,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G47" s="95"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
+      <c r="G47" s="95">
+        <v>43295</v>
+      </c>
+      <c r="H47" s="55" t="s">
+        <v>362</v>
+      </c>
+      <c r="I47" s="97">
+        <v>1000</v>
+      </c>
       <c r="J47" s="98"/>
-      <c r="K47" s="55"/>
+      <c r="K47" s="99"/>
       <c r="M47" s="58">
         <v>43266</v>
       </c>
@@ -6833,7 +7018,7 @@
       <c r="H48" s="55"/>
       <c r="I48" s="55"/>
       <c r="J48" s="98"/>
-      <c r="K48" s="99"/>
+      <c r="K48" s="55"/>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
       <c r="O48" s="17"/>
@@ -6918,7 +7103,7 @@
       </c>
       <c r="G49" s="95"/>
       <c r="H49" s="55"/>
-      <c r="I49" s="97"/>
+      <c r="I49" s="55"/>
       <c r="J49" s="98"/>
       <c r="K49" s="99"/>
       <c r="M49" s="17"/>
@@ -7347,8 +7532,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I54" s="12"/>
-      <c r="K54" s="13"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="97"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="99"/>
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
       <c r="O54" s="17"/>
@@ -8021,7 +8209,7 @@
         <v>69</v>
       </c>
       <c r="AC62" s="48" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD62" s="40">
         <f t="shared" si="3"/>
@@ -8101,7 +8289,7 @@
         <v>70</v>
       </c>
       <c r="AC63" s="48" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD63" s="40">
         <f t="shared" si="3"/>
@@ -8114,7 +8302,7 @@
         <v>100</v>
       </c>
       <c r="AG63" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH63" s="50">
         <f>SUM(AI63,AL63,AM63,AN63,AO63,AP63,AQ63,AR63,AS63,AT63,AU63,AV63)</f>
@@ -8124,7 +8312,7 @@
         <v>185</v>
       </c>
       <c r="AJ63" s="55" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AK63" s="55"/>
       <c r="AL63" s="98">
@@ -8205,7 +8393,7 @@
         <v>71</v>
       </c>
       <c r="AC64" s="48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AD64" s="40">
         <f t="shared" si="3"/>
@@ -8247,7 +8435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E65">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8276,7 +8464,7 @@
         <v>72</v>
       </c>
       <c r="AC65" s="48" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AD65" s="40">
         <f t="shared" si="3"/>
@@ -8292,10 +8480,10 @@
         <v>200</v>
       </c>
       <c r="AJ65" s="55" t="s">
+        <v>326</v>
+      </c>
+      <c r="AK65" s="55" t="s">
         <v>327</v>
-      </c>
-      <c r="AK65" s="55" t="s">
-        <v>328</v>
       </c>
       <c r="AL65" s="55">
         <v>4</v>
@@ -8329,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E66">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8358,7 +8546,7 @@
         <v>68</v>
       </c>
       <c r="AC66" s="48" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AD66" s="40">
         <f t="shared" si="3"/>
@@ -8411,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E67">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8440,17 +8628,17 @@
         <v>73</v>
       </c>
       <c r="AC67" s="48" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AD67" s="40">
         <f t="shared" si="3"/>
-        <v>-146</v>
+        <v>-196</v>
       </c>
       <c r="AE67" s="49"/>
       <c r="AF67" s="49"/>
       <c r="AH67" s="50">
         <f t="shared" ref="AH67:AH114" si="10">SUM(AI67,AL67,AM67,AN67,AO67,AP67,AQ67,AR67,AS67,AT67,AU67,AV67)</f>
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="AI67">
         <v>56</v>
@@ -8459,7 +8647,7 @@
         <v>187</v>
       </c>
       <c r="AK67" s="55" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AL67" s="55">
         <v>30</v>
@@ -8477,9 +8665,11 @@
       <c r="AU67" s="55"/>
       <c r="AV67">
         <f t="shared" ref="AV67:AV120" si="11">SUM(AW67,BD67,BC67)</f>
-        <v>0</v>
-      </c>
-      <c r="AW67" s="55"/>
+        <v>50</v>
+      </c>
+      <c r="AW67" s="152">
+        <v>50</v>
+      </c>
       <c r="AX67" s="55"/>
       <c r="AY67" s="55"/>
       <c r="AZ67" s="55">
@@ -8495,7 +8685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E68">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8524,7 +8714,7 @@
         <v>44</v>
       </c>
       <c r="AC68" s="48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AD68" s="40">
         <f t="shared" ref="AD68:AD114" si="12">(SUM(AE68,AF68))-AH68</f>
@@ -8540,10 +8730,10 @@
         <v>100</v>
       </c>
       <c r="AJ68" s="55" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK68" s="55" t="s">
         <v>344</v>
-      </c>
-      <c r="AK68" s="55" t="s">
-        <v>345</v>
       </c>
       <c r="AL68" s="55">
         <v>30</v>
@@ -8577,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E69">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8606,7 +8796,7 @@
         <v>69</v>
       </c>
       <c r="AC69" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD69" s="40">
         <f t="shared" si="12"/>
@@ -8622,10 +8812,10 @@
         <v>390</v>
       </c>
       <c r="AJ69" s="55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AK69" s="55" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AL69" s="55">
         <v>30</v>
@@ -8661,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E70">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8690,7 +8880,7 @@
         <v>70</v>
       </c>
       <c r="AC70" s="48" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AD70" s="40">
         <f t="shared" si="12"/>
@@ -8706,10 +8896,10 @@
         <v>83</v>
       </c>
       <c r="AJ70" s="55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AK70" s="55" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AL70" s="143">
         <v>140</v>
@@ -8747,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E71">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8776,7 +8966,7 @@
         <v>71</v>
       </c>
       <c r="AC71" s="48" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AD71" s="40">
         <f t="shared" si="12"/>
@@ -8787,7 +8977,7 @@
         <v>100</v>
       </c>
       <c r="AG71" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AH71" s="50">
         <f t="shared" si="10"/>
@@ -8795,7 +8985,7 @@
       </c>
       <c r="AJ71" s="55"/>
       <c r="AK71" s="55" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AL71" s="55">
         <v>40</v>
@@ -8829,7 +9019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E72">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8858,7 +9048,7 @@
         <v>72</v>
       </c>
       <c r="AC72" s="48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AD72" s="40">
         <f t="shared" si="12"/>
@@ -8874,7 +9064,7 @@
         <v>64</v>
       </c>
       <c r="AJ72" s="55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AK72" s="55"/>
       <c r="AL72" s="55"/>
@@ -8896,10 +9086,12 @@
       </c>
       <c r="AX72" s="55"/>
       <c r="AY72" s="55"/>
-      <c r="AZ72" s="55"/>
+      <c r="AZ72" s="55">
+        <v>2</v>
+      </c>
       <c r="BA72" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB72" s="55"/>
       <c r="BC72">
@@ -8907,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E73">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8936,16 +9128,19 @@
         <v>68</v>
       </c>
       <c r="AC73" s="48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AD73" s="40">
         <f t="shared" si="12"/>
         <v>-130</v>
       </c>
-      <c r="AE73" s="49">
+      <c r="AE73" s="49"/>
+      <c r="AF73" s="49">
         <v>100</v>
       </c>
-      <c r="AF73" s="49"/>
+      <c r="AG73" t="s">
+        <v>117</v>
+      </c>
       <c r="AH73" s="50">
         <f t="shared" si="10"/>
         <v>230</v>
@@ -8954,7 +9149,7 @@
         <v>200</v>
       </c>
       <c r="AJ73" s="55" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AK73" s="55" t="s">
         <v>153</v>
@@ -8978,10 +9173,12 @@
       <c r="AW73" s="55"/>
       <c r="AX73" s="55"/>
       <c r="AY73" s="55"/>
-      <c r="AZ73" s="55"/>
+      <c r="AZ73" s="55">
+        <v>2</v>
+      </c>
       <c r="BA73" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB73" s="55"/>
       <c r="BC73">
@@ -8989,7 +9186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E74">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -9017,18 +9214,25 @@
       <c r="AB74" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="AC74" s="48"/>
+      <c r="AC74" s="48" t="s">
+        <v>356</v>
+      </c>
       <c r="AD74" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-125</v>
       </c>
       <c r="AE74" s="49"/>
       <c r="AF74" s="49"/>
       <c r="AH74" s="50">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AJ74" s="55"/>
+        <v>125</v>
+      </c>
+      <c r="AI74">
+        <v>125</v>
+      </c>
+      <c r="AJ74" s="55" t="s">
+        <v>355</v>
+      </c>
       <c r="AK74" s="55"/>
       <c r="AL74" s="55"/>
       <c r="AM74" s="55"/>
@@ -9047,10 +9251,12 @@
       <c r="AW74" s="55"/>
       <c r="AX74" s="55"/>
       <c r="AY74" s="55"/>
-      <c r="AZ74" s="55"/>
+      <c r="AZ74" s="55">
+        <v>2</v>
+      </c>
       <c r="BA74" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB74" s="55"/>
       <c r="BC74">
@@ -9058,7 +9264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E75">
         <f t="shared" ref="E75:E138" si="15">C75-D75</f>
         <v>0</v>
@@ -9086,20 +9292,29 @@
       <c r="AB75" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AC75" s="48"/>
+      <c r="AC75" s="48" t="s">
+        <v>366</v>
+      </c>
       <c r="AD75" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AE75" s="49"/>
-      <c r="AF75" s="49"/>
+      <c r="AF75" s="149"/>
       <c r="AH75" s="50">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>365</v>
       </c>
       <c r="AJ75" s="55"/>
-      <c r="AK75" s="55"/>
-      <c r="AL75" s="55"/>
+      <c r="AK75" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL75" s="55">
+        <v>30</v>
+      </c>
       <c r="AM75" s="55"/>
       <c r="AN75" s="55"/>
       <c r="AO75" s="55"/>
@@ -9116,10 +9331,12 @@
       <c r="AW75" s="55"/>
       <c r="AX75" s="55"/>
       <c r="AY75" s="55"/>
-      <c r="AZ75" s="55"/>
+      <c r="AZ75" s="55">
+        <v>2</v>
+      </c>
       <c r="BA75" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB75" s="55"/>
       <c r="BC75">
@@ -9127,7 +9344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E76">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -9155,21 +9372,32 @@
       <c r="AB76" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AC76" s="48"/>
+      <c r="AC76" s="48" t="s">
+        <v>367</v>
+      </c>
       <c r="AD76" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-236</v>
       </c>
       <c r="AE76" s="49"/>
       <c r="AF76" s="49"/>
       <c r="AH76" s="50">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>236</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>83</v>
       </c>
       <c r="AJ76" s="55"/>
-      <c r="AK76" s="55"/>
-      <c r="AL76" s="55"/>
-      <c r="AM76" s="55"/>
+      <c r="AK76" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="AL76" s="55">
+        <v>150</v>
+      </c>
+      <c r="AM76" s="55">
+        <v>36</v>
+      </c>
       <c r="AN76" s="55"/>
       <c r="AO76" s="55"/>
       <c r="AP76" s="55"/>
@@ -9180,15 +9408,19 @@
       <c r="AU76" s="55"/>
       <c r="AV76">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AW76" s="55"/>
+        <v>50</v>
+      </c>
+      <c r="AW76" s="55">
+        <v>50</v>
+      </c>
       <c r="AX76" s="55"/>
       <c r="AY76" s="55"/>
-      <c r="AZ76" s="55"/>
+      <c r="AZ76" s="55">
+        <v>3</v>
+      </c>
       <c r="BA76" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BB76" s="55"/>
       <c r="BC76">
@@ -9196,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E77">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -9224,21 +9456,36 @@
       <c r="AB77" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AC77" s="48"/>
+      <c r="AC77" s="48" t="s">
+        <v>370</v>
+      </c>
       <c r="AD77" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-195</v>
       </c>
       <c r="AE77" s="49"/>
-      <c r="AF77" s="49"/>
+      <c r="AF77" s="49">
+        <v>26</v>
+      </c>
       <c r="AH77" s="50">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AJ77" s="55"/>
-      <c r="AK77" s="55"/>
-      <c r="AL77" s="55"/>
-      <c r="AM77" s="55"/>
+        <v>221</v>
+      </c>
+      <c r="AI77">
+        <v>100</v>
+      </c>
+      <c r="AJ77" s="55" t="s">
+        <v>368</v>
+      </c>
+      <c r="AK77" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="AL77" s="55">
+        <v>22</v>
+      </c>
+      <c r="AM77" s="55">
+        <v>86</v>
+      </c>
       <c r="AN77" s="55"/>
       <c r="AO77" s="55"/>
       <c r="AP77" s="55"/>
@@ -9249,23 +9496,28 @@
       <c r="AU77" s="55"/>
       <c r="AV77">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AW77" s="55"/>
       <c r="AX77" s="55"/>
       <c r="AY77" s="55"/>
-      <c r="AZ77" s="55"/>
+      <c r="AZ77" s="55">
+        <v>4</v>
+      </c>
       <c r="BA77" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BB77" s="55"/>
       <c r="BC77">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="5:55" x14ac:dyDescent="0.25">
+      <c r="BD77">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E78">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -9293,7 +9545,9 @@
       <c r="AB78" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="AC78" s="48"/>
+      <c r="AC78" s="48" t="s">
+        <v>371</v>
+      </c>
       <c r="AD78" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -9302,6 +9556,9 @@
       <c r="AF78" s="49"/>
       <c r="AH78" s="50">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI78">
         <v>0</v>
       </c>
       <c r="AJ78" s="55"/>
@@ -9323,10 +9580,12 @@
       <c r="AW78" s="55"/>
       <c r="AX78" s="55"/>
       <c r="AY78" s="55"/>
-      <c r="AZ78" s="55"/>
+      <c r="AZ78" s="55">
+        <v>1</v>
+      </c>
       <c r="BA78" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB78" s="55"/>
       <c r="BC78">
@@ -9334,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E79">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -9362,20 +9621,38 @@
       <c r="AB79" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="AC79" s="48"/>
+      <c r="AC79" s="48" t="s">
+        <v>376</v>
+      </c>
       <c r="AD79" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE79" s="49"/>
-      <c r="AF79" s="49"/>
+        <v>-106</v>
+      </c>
+      <c r="AE79" s="49">
+        <v>12</v>
+      </c>
+      <c r="AF79" s="49">
+        <v>32</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>373</v>
+      </c>
       <c r="AH79" s="50">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AJ79" s="55"/>
-      <c r="AK79" s="55"/>
-      <c r="AL79" s="55"/>
+        <v>150</v>
+      </c>
+      <c r="AI79">
+        <v>100</v>
+      </c>
+      <c r="AJ79" s="55" t="s">
+        <v>374</v>
+      </c>
+      <c r="AK79" s="55" t="s">
+        <v>375</v>
+      </c>
+      <c r="AL79" s="55">
+        <v>50</v>
+      </c>
       <c r="AM79" s="55"/>
       <c r="AN79" s="55"/>
       <c r="AO79" s="55"/>
@@ -9392,10 +9669,12 @@
       <c r="AW79" s="55"/>
       <c r="AX79" s="55"/>
       <c r="AY79" s="55"/>
-      <c r="AZ79" s="55"/>
+      <c r="AZ79" s="55">
+        <v>2</v>
+      </c>
       <c r="BA79" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB79" s="55"/>
       <c r="BC79">
@@ -9403,7 +9682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="5:55" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E80">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -14304,9 +14583,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="I153" s="84"/>
-      <c r="J153" s="85"/>
-      <c r="K153" s="86"/>
+      <c r="G153"/>
+      <c r="H153"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="13"/>
       <c r="M153" s="91"/>
       <c r="N153" s="91"/>
       <c r="O153" s="91"/>
@@ -14455,7 +14736,11 @@
       <c r="AH157" s="93"/>
     </row>
     <row r="158" spans="1:61" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J158" s="98"/>
+      <c r="G158" s="87"/>
+      <c r="H158" s="87"/>
+      <c r="I158" s="84"/>
+      <c r="J158" s="85"/>
+      <c r="K158" s="86"/>
       <c r="AA158" s="92"/>
       <c r="AB158" s="93"/>
       <c r="AD158" s="93"/>
@@ -16889,7 +17174,11 @@
       </c>
     </row>
     <row r="397" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="I397" s="10"/>
+      <c r="G397" s="91"/>
+      <c r="H397" s="91"/>
+      <c r="I397" s="91"/>
+      <c r="J397" s="98"/>
+      <c r="K397" s="91"/>
       <c r="Q397" s="23"/>
       <c r="S397" s="20"/>
       <c r="X397" s="33"/>
@@ -20925,6 +21214,7 @@
       </c>
     </row>
     <row r="464" spans="9:55" x14ac:dyDescent="0.25">
+      <c r="I464" s="10"/>
       <c r="AA464" s="47"/>
       <c r="AB464" s="47"/>
       <c r="AC464" s="48"/>
@@ -29683,4 +29973,61 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C8:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>10800</v>
+      </c>
+      <c r="D8">
+        <v>12100</v>
+      </c>
+      <c r="E8">
+        <f>D8-C8</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>10613</v>
+      </c>
+      <c r="D9">
+        <v>11052</v>
+      </c>
+      <c r="E9">
+        <f>D9-C9</f>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>22300</v>
+      </c>
+      <c r="D12" s="1">
+        <v>23600</v>
+      </c>
+      <c r="E12">
+        <f>D12-C12</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f>439*3</f>
+        <v>1317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="380">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -1158,13 +1158,22 @@
   </si>
   <si>
     <t>Pre Class</t>
+  </si>
+  <si>
+    <t>Efectivo Alejandro</t>
+  </si>
+  <si>
+    <t>Pozole</t>
+  </si>
+  <si>
+    <t>Banco 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1336,6 +1345,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF00FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF33CC33"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1583,7 +1600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1831,6 +1848,9 @@
     <xf numFmtId="16" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2127,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2211,7 +2231,7 @@
       <c r="E2" s="55"/>
       <c r="F2" s="109">
         <f>N3-D2</f>
-        <v>14375.32</v>
+        <v>11375.32</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>2</v>
@@ -2339,7 +2359,7 @@
       </c>
       <c r="N3" s="24">
         <f>(SUM(D2,(K11:K503)))-(SUM((J11:J503),(I11:I503)))</f>
-        <v>22138.32</v>
+        <v>19138.32</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -2427,7 +2447,7 @@
       </c>
       <c r="P4" s="78">
         <f>SUM(N3,S9,P7)</f>
-        <v>74401.320000000007</v>
+        <v>74196.320000000007</v>
       </c>
       <c r="Q4" s="55"/>
       <c r="AA4" s="46">
@@ -2496,7 +2516,7 @@
       </c>
       <c r="BH4" s="56">
         <f>(SUM((AW3:AW519)))-(SUM((BA3:BA519)))</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="BI4" s="56"/>
     </row>
@@ -2598,7 +2618,7 @@
       </c>
       <c r="N6" s="51">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I503)))-(SUM((Y11:Y499)))</f>
-        <v>1163</v>
+        <v>458</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -2682,7 +2702,7 @@
       </c>
       <c r="P7" s="77">
         <f>SUM(R7,N6)</f>
-        <v>1163</v>
+        <v>458</v>
       </c>
       <c r="Q7" s="74"/>
       <c r="R7" s="73">
@@ -2844,8 +2864,8 @@
         <v>25</v>
       </c>
       <c r="S9" s="14">
-        <f>SUM(S11:S486)</f>
-        <v>51100</v>
+        <f>SUM(S11:S487)</f>
+        <v>54600</v>
       </c>
       <c r="U9" s="31" t="s">
         <v>40</v>
@@ -3087,12 +3107,12 @@
       </c>
       <c r="R11" s="21"/>
       <c r="S11" s="19">
-        <f t="shared" ref="S11:S31" si="6">Q11-R11</f>
+        <f t="shared" ref="S11:S32" si="6">Q11-R11</f>
         <v>5000</v>
       </c>
       <c r="T11" s="129">
-        <f>SUM(S11:S20)</f>
-        <v>36650</v>
+        <f>SUM(S11:S21)</f>
+        <v>40150</v>
       </c>
       <c r="U11" s="35">
         <v>43221</v>
@@ -3211,7 +3231,10 @@
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="T12" s="128"/>
+      <c r="T12" s="153">
+        <f>SUM(R11:R21)</f>
+        <v>0</v>
+      </c>
       <c r="U12" s="35">
         <v>43224</v>
       </c>
@@ -3334,7 +3357,7 @@
       </c>
       <c r="R13" s="21"/>
       <c r="S13" s="19">
-        <f t="shared" ref="S13:S20" si="7">Q13-R13</f>
+        <f t="shared" ref="S13:S21" si="7">Q13-R13</f>
         <v>3200</v>
       </c>
       <c r="T13" s="128"/>
@@ -4249,25 +4272,23 @@
         <v>276</v>
       </c>
       <c r="K21" s="99"/>
-      <c r="M21" s="17"/>
+      <c r="M21" s="58">
+        <v>43299</v>
+      </c>
       <c r="N21" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>34</v>
+        <v>379</v>
       </c>
       <c r="P21" s="34"/>
       <c r="Q21" s="22">
-        <v>1100</v>
+        <v>3500</v>
       </c>
       <c r="R21" s="21"/>
       <c r="S21" s="19">
-        <f t="shared" si="6"/>
-        <v>1100</v>
-      </c>
-      <c r="T21" s="128">
-        <f>SUM(S21:S31)</f>
-        <v>5120</v>
+        <f t="shared" si="7"/>
+        <v>3500</v>
       </c>
       <c r="U21" s="35">
         <v>43282</v>
@@ -4361,18 +4382,21 @@
         <v>24</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="P22" s="34"/>
       <c r="Q22" s="22">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="R22" s="21"/>
       <c r="S22" s="19">
         <f t="shared" si="6"/>
-        <v>600</v>
-      </c>
-      <c r="T22" s="128"/>
+        <v>1100</v>
+      </c>
+      <c r="T22" s="128">
+        <f>SUM(S22:S32)</f>
+        <v>5120</v>
+      </c>
       <c r="U22" s="35">
         <v>43284</v>
       </c>
@@ -4463,16 +4487,16 @@
         <v>24</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P23" s="34"/>
       <c r="Q23" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="R23" s="21"/>
       <c r="S23" s="19">
-        <f>Q23-R23</f>
-        <v>1000</v>
+        <f t="shared" si="6"/>
+        <v>600</v>
       </c>
       <c r="T23" s="128"/>
       <c r="U23" s="35">
@@ -4580,16 +4604,16 @@
         <v>24</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="P24" s="34"/>
       <c r="Q24" s="22">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="R24" s="21"/>
       <c r="S24" s="19">
-        <f t="shared" si="6"/>
-        <v>120</v>
+        <f>Q24-R24</f>
+        <v>1000</v>
       </c>
       <c r="T24" s="128"/>
       <c r="U24" s="35">
@@ -4690,16 +4714,16 @@
         <v>24</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P25" s="34"/>
       <c r="Q25" s="22">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="R25" s="21"/>
       <c r="S25" s="19">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="T25" s="128"/>
       <c r="U25" s="150">
@@ -4794,16 +4818,16 @@
         <v>24</v>
       </c>
       <c r="O26" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P26" s="34"/>
       <c r="Q26" s="22">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="R26" s="21"/>
       <c r="S26" s="19">
         <f t="shared" si="6"/>
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="T26" s="128"/>
       <c r="U26" s="35"/>
@@ -4903,16 +4927,16 @@
         <v>24</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P27" s="34"/>
       <c r="Q27" s="22">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="R27" s="21"/>
       <c r="S27" s="19">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="T27" s="128"/>
       <c r="U27" s="35"/>
@@ -5012,16 +5036,16 @@
         <v>24</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P28" s="34"/>
       <c r="Q28" s="22">
-        <v>850</v>
+        <v>100</v>
       </c>
       <c r="R28" s="21"/>
       <c r="S28" s="19">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>100</v>
       </c>
       <c r="T28" s="128"/>
       <c r="U28" s="35"/>
@@ -5112,16 +5136,16 @@
         <v>24</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P29" s="34"/>
       <c r="Q29" s="22">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="R29" s="21"/>
       <c r="S29" s="19">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="T29" s="128"/>
       <c r="U29" s="35"/>
@@ -5208,19 +5232,19 @@
         <v>24</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="P30" s="34"/>
       <c r="Q30" s="22">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R30" s="21"/>
       <c r="S30" s="19">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T30" s="128">
-        <f>SUM(S32:S33)</f>
+        <f>SUM(S33:S34)</f>
         <v>340</v>
       </c>
       <c r="U30" s="35"/>
@@ -5317,16 +5341,16 @@
         <v>24</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="P31" s="34"/>
       <c r="Q31" s="22">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R31" s="21"/>
       <c r="S31" s="19">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T31" s="128"/>
       <c r="U31" s="35"/>
@@ -5414,23 +5438,21 @@
       </c>
       <c r="J32" s="98"/>
       <c r="K32" s="99"/>
-      <c r="M32" s="58">
-        <v>42802</v>
-      </c>
+      <c r="M32" s="17"/>
       <c r="N32" s="17" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="O32" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P32" s="34"/>
       <c r="Q32" s="22">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="R32" s="21"/>
       <c r="S32" s="19">
-        <f>Q32-R32</f>
-        <v>140</v>
+        <f t="shared" si="6"/>
+        <v>300</v>
       </c>
       <c r="T32" s="128"/>
       <c r="U32" s="35"/>
@@ -5519,16 +5541,16 @@
         <v>62</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P33" s="34"/>
       <c r="Q33" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="R33" s="21"/>
       <c r="S33" s="19">
         <f>Q33-R33</f>
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="T33" s="128"/>
       <c r="U33" s="35"/>
@@ -5624,22 +5646,22 @@
       </c>
       <c r="K34" s="99"/>
       <c r="M34" s="58">
-        <v>43266</v>
+        <v>42802</v>
       </c>
       <c r="N34" s="17" t="s">
         <v>62</v>
       </c>
       <c r="O34" s="17" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="P34" s="34"/>
       <c r="Q34" s="22">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="R34" s="21"/>
       <c r="S34" s="19">
         <f>Q34-R34</f>
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="T34" s="128"/>
       <c r="U34" s="35"/>
@@ -5727,26 +5749,26 @@
       <c r="K35" s="127">
         <v>10612</v>
       </c>
-      <c r="M35" s="17"/>
+      <c r="M35" s="58">
+        <v>43266</v>
+      </c>
       <c r="N35" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="P35" s="34"/>
       <c r="Q35" s="22">
-        <v>1800</v>
-      </c>
-      <c r="R35" s="21">
-        <v>1150</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="R35" s="21"/>
       <c r="S35" s="19">
         <f>Q35-R35</f>
-        <v>650</v>
+        <v>5000</v>
       </c>
       <c r="T35" s="128">
-        <f>SUM(S37:S43)</f>
+        <f>SUM(S38:S44)</f>
         <v>3010</v>
       </c>
       <c r="U35" s="35"/>
@@ -5830,23 +5852,23 @@
         <v>413</v>
       </c>
       <c r="K36" s="99"/>
-      <c r="M36" s="58">
-        <v>43010</v>
-      </c>
+      <c r="M36" s="17"/>
       <c r="N36" s="17" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="P36" s="34"/>
       <c r="Q36" s="22">
-        <v>100</v>
-      </c>
-      <c r="R36" s="21"/>
+        <v>1800</v>
+      </c>
+      <c r="R36" s="21">
+        <v>1150</v>
+      </c>
       <c r="S36" s="19">
-        <f t="shared" ref="S36:S69" si="9">Q36-R36</f>
-        <v>100</v>
+        <f>Q36-R36</f>
+        <v>650</v>
       </c>
       <c r="T36" s="128"/>
       <c r="U36" s="35"/>
@@ -5922,27 +5944,23 @@
       </c>
       <c r="J37" s="98"/>
       <c r="K37" s="99"/>
-      <c r="M37" s="17" t="s">
-        <v>97</v>
+      <c r="M37" s="58">
+        <v>43010</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="P37" s="34" t="s">
-        <v>363</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P37" s="34"/>
       <c r="Q37" s="22">
-        <v>1040</v>
-      </c>
-      <c r="R37" s="21">
-        <v>500</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="R37" s="21"/>
       <c r="S37" s="19">
-        <f t="shared" si="9"/>
-        <v>540</v>
+        <f t="shared" ref="S37:S70" si="9">Q37-R37</f>
+        <v>100</v>
       </c>
       <c r="U37" s="35"/>
       <c r="V37" s="34"/>
@@ -6027,23 +6045,27 @@
       </c>
       <c r="J38" s="98"/>
       <c r="K38" s="99"/>
-      <c r="M38" s="17"/>
+      <c r="M38" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="N38" s="17" t="s">
         <v>26</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="P38" s="34"/>
+        <v>96</v>
+      </c>
+      <c r="P38" s="34" t="s">
+        <v>363</v>
+      </c>
       <c r="Q38" s="22">
-        <v>2900</v>
+        <v>1040</v>
       </c>
       <c r="R38" s="21">
-        <v>1550</v>
+        <v>500</v>
       </c>
       <c r="S38" s="19">
         <f t="shared" si="9"/>
-        <v>1350</v>
+        <v>540</v>
       </c>
       <c r="U38" s="35"/>
       <c r="V38" s="34"/>
@@ -6135,16 +6157,18 @@
         <v>26</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P39" s="34"/>
       <c r="Q39" s="22">
-        <v>240</v>
-      </c>
-      <c r="R39" s="21"/>
+        <v>2900</v>
+      </c>
+      <c r="R39" s="21">
+        <v>1550</v>
+      </c>
       <c r="S39" s="19">
         <f t="shared" si="9"/>
-        <v>240</v>
+        <v>1350</v>
       </c>
       <c r="U39" s="35"/>
       <c r="V39" s="34"/>
@@ -6229,27 +6253,21 @@
         <v>497</v>
       </c>
       <c r="K40" s="99"/>
-      <c r="M40" s="17" t="s">
-        <v>120</v>
-      </c>
+      <c r="M40" s="17"/>
       <c r="N40" s="17" t="s">
         <v>26</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="P40" s="34" t="s">
-        <v>232</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P40" s="34"/>
       <c r="Q40" s="22">
-        <v>1500</v>
-      </c>
-      <c r="R40" s="21">
-        <v>1300</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="R40" s="21"/>
       <c r="S40" s="19">
-        <f>Q40-R40</f>
-        <v>200</v>
+        <f t="shared" si="9"/>
+        <v>240</v>
       </c>
       <c r="U40" s="35"/>
       <c r="V40" s="34"/>
@@ -6334,21 +6352,27 @@
         <v>244</v>
       </c>
       <c r="K41" s="99"/>
-      <c r="M41" s="17"/>
+      <c r="M41" s="17" t="s">
+        <v>120</v>
+      </c>
       <c r="N41" s="17" t="s">
         <v>26</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="P41" s="34"/>
+        <v>121</v>
+      </c>
+      <c r="P41" s="34" t="s">
+        <v>232</v>
+      </c>
       <c r="Q41" s="22">
-        <v>100</v>
-      </c>
-      <c r="R41" s="21"/>
+        <v>1500</v>
+      </c>
+      <c r="R41" s="21">
+        <v>1300</v>
+      </c>
       <c r="S41" s="19">
-        <f t="shared" si="9"/>
-        <v>100</v>
+        <f>Q41-R41</f>
+        <v>200</v>
       </c>
       <c r="U41" s="35"/>
       <c r="V41" s="34"/>
@@ -6440,19 +6464,19 @@
         <v>26</v>
       </c>
       <c r="O42" s="17" t="s">
-        <v>236</v>
+        <v>124</v>
       </c>
       <c r="P42" s="34"/>
       <c r="Q42" s="22">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="R42" s="21"/>
       <c r="S42" s="19">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="T42" s="11">
-        <f>SUM(S44:S45)</f>
+        <f>SUM(S45:S46)</f>
         <v>230</v>
       </c>
       <c r="U42" s="35"/>
@@ -6536,19 +6560,19 @@
       </c>
       <c r="M43" s="17"/>
       <c r="N43" s="17" t="s">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P43" s="34"/>
       <c r="Q43" s="22">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="R43" s="21"/>
       <c r="S43" s="19">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="U43" s="35"/>
       <c r="V43" s="34"/>
@@ -6625,21 +6649,19 @@
       </c>
       <c r="M44" s="17"/>
       <c r="N44" s="17" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="O44" s="17" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="P44" s="34"/>
       <c r="Q44" s="22">
-        <v>130</v>
-      </c>
-      <c r="R44" s="21">
-        <v>100</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="R44" s="21"/>
       <c r="S44" s="19">
-        <f>Q44-R44</f>
-        <v>30</v>
+        <f t="shared" si="9"/>
+        <v>80</v>
       </c>
       <c r="U44" s="35"/>
       <c r="V44" s="34"/>
@@ -6727,23 +6749,23 @@
         <v>310</v>
       </c>
       <c r="K45" s="99"/>
-      <c r="M45" s="58">
-        <v>43180</v>
-      </c>
+      <c r="M45" s="17"/>
       <c r="N45" s="17" t="s">
-        <v>253</v>
+        <v>122</v>
       </c>
       <c r="O45" s="17" t="s">
-        <v>254</v>
+        <v>123</v>
       </c>
       <c r="P45" s="34"/>
       <c r="Q45" s="22">
-        <v>200</v>
-      </c>
-      <c r="R45" s="21"/>
+        <v>130</v>
+      </c>
+      <c r="R45" s="21">
+        <v>100</v>
+      </c>
       <c r="S45" s="19">
-        <f t="shared" si="9"/>
-        <v>200</v>
+        <f>Q45-R45</f>
+        <v>30</v>
       </c>
       <c r="U45" s="35"/>
       <c r="V45" s="34"/>
@@ -6828,24 +6850,22 @@
       </c>
       <c r="K46" s="99"/>
       <c r="M46" s="58">
-        <v>43266</v>
+        <v>43180</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="O46" s="17" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="P46" s="34"/>
       <c r="Q46" s="22">
-        <v>55</v>
-      </c>
-      <c r="R46" s="21">
-        <v>55</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="R46" s="21"/>
       <c r="S46" s="19">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U46" s="35"/>
       <c r="V46" s="34"/>
@@ -6928,17 +6948,17 @@
         <v>43266</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O47" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P47" s="34"/>
       <c r="Q47" s="22">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="R47" s="21">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="S47" s="19">
         <f t="shared" si="9"/>
@@ -7014,17 +7034,33 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G48" s="95"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
+      <c r="G48" s="95">
+        <v>43299</v>
+      </c>
+      <c r="H48" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="I48" s="55">
+        <v>3000</v>
+      </c>
       <c r="J48" s="98"/>
       <c r="K48" s="55"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
+      <c r="M48" s="58">
+        <v>43266</v>
+      </c>
+      <c r="N48" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="O48" s="17" t="s">
+        <v>268</v>
+      </c>
       <c r="P48" s="34"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="21"/>
+      <c r="Q48" s="22">
+        <v>60</v>
+      </c>
+      <c r="R48" s="21">
+        <v>60</v>
+      </c>
       <c r="S48" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -8865,7 +8901,7 @@
       <c r="Q70" s="22"/>
       <c r="R70" s="21"/>
       <c r="S70" s="19">
-        <f t="shared" ref="S70:S124" si="14">Q70-R70</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U70" s="34"/>
@@ -8951,7 +8987,7 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="21"/>
       <c r="S71" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="S71:S125" si="14">Q71-R71</f>
         <v>0</v>
       </c>
       <c r="U71" s="34"/>
@@ -9713,15 +9749,20 @@
       <c r="AC80" s="48"/>
       <c r="AD80" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="AE80" s="49"/>
       <c r="AF80" s="49"/>
       <c r="AH80" s="50">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AJ80" s="55"/>
+        <v>55</v>
+      </c>
+      <c r="AI80">
+        <v>55</v>
+      </c>
+      <c r="AJ80" s="55" t="s">
+        <v>187</v>
+      </c>
       <c r="AK80" s="55"/>
       <c r="AL80" s="55"/>
       <c r="AM80" s="55"/>
@@ -9740,10 +9781,12 @@
       <c r="AW80" s="55"/>
       <c r="AX80" s="55"/>
       <c r="AY80" s="55"/>
-      <c r="AZ80" s="55"/>
+      <c r="AZ80" s="55">
+        <v>2</v>
+      </c>
       <c r="BA80" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB80" s="55"/>
       <c r="BC80">
@@ -9782,18 +9825,27 @@
       <c r="AC81" s="48"/>
       <c r="AD81" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-3630</v>
       </c>
       <c r="AE81" s="49"/>
       <c r="AF81" s="49"/>
       <c r="AH81" s="50">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AJ81" s="55"/>
+        <v>3630</v>
+      </c>
+      <c r="AI81">
+        <v>100</v>
+      </c>
+      <c r="AJ81" s="55" t="s">
+        <v>378</v>
+      </c>
       <c r="AK81" s="55"/>
-      <c r="AL81" s="55"/>
-      <c r="AM81" s="55"/>
+      <c r="AL81" s="55">
+        <v>30</v>
+      </c>
+      <c r="AM81" s="98">
+        <v>3500</v>
+      </c>
       <c r="AN81" s="55"/>
       <c r="AO81" s="55"/>
       <c r="AP81" s="55"/>
@@ -9809,10 +9861,12 @@
       <c r="AW81" s="55"/>
       <c r="AX81" s="55"/>
       <c r="AY81" s="55"/>
-      <c r="AZ81" s="55"/>
+      <c r="AZ81" s="55">
+        <v>2</v>
+      </c>
       <c r="BA81" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB81" s="55"/>
       <c r="BC81">
@@ -9851,13 +9905,13 @@
       <c r="AC82" s="48"/>
       <c r="AD82" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AE82" s="49"/>
       <c r="AF82" s="49"/>
       <c r="AH82" s="50">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ82" s="55"/>
       <c r="AK82" s="55"/>
@@ -9873,15 +9927,19 @@
       <c r="AU82" s="55"/>
       <c r="AV82">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AW82" s="55"/>
+        <v>20</v>
+      </c>
+      <c r="AW82" s="55">
+        <v>20</v>
+      </c>
       <c r="AX82" s="55"/>
       <c r="AY82" s="55"/>
-      <c r="AZ82" s="55"/>
+      <c r="AZ82" s="55">
+        <v>2</v>
+      </c>
       <c r="BA82" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB82" s="55"/>
       <c r="BC82">
@@ -13001,7 +13059,7 @@
       <c r="Q125" s="22"/>
       <c r="R125" s="21"/>
       <c r="S125" s="19">
-        <f t="shared" ref="S125:S139" si="17">Q125-R125</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U125" s="34"/>
@@ -13059,7 +13117,7 @@
       <c r="Q126" s="22"/>
       <c r="R126" s="21"/>
       <c r="S126" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="S126:S140" si="17">Q126-R126</f>
         <v>0</v>
       </c>
       <c r="U126" s="34"/>
@@ -13574,13 +13632,13 @@
       </c>
       <c r="I135" s="12"/>
       <c r="K135" s="13"/>
-      <c r="M135" s="87"/>
-      <c r="N135" s="87"/>
-      <c r="O135" s="87"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
       <c r="P135" s="34"/>
-      <c r="Q135" s="88"/>
-      <c r="R135" s="86"/>
-      <c r="S135" s="89">
+      <c r="Q135" s="22"/>
+      <c r="R135" s="21"/>
+      <c r="S135" s="19">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -13864,13 +13922,16 @@
       </c>
       <c r="I140" s="12"/>
       <c r="K140" s="13"/>
-      <c r="M140" s="91"/>
-      <c r="N140" s="91"/>
-      <c r="O140" s="91"/>
-      <c r="P140" s="133"/>
-      <c r="Q140" s="91"/>
-      <c r="R140" s="91"/>
-      <c r="S140" s="91"/>
+      <c r="M140" s="87"/>
+      <c r="N140" s="87"/>
+      <c r="O140" s="87"/>
+      <c r="P140" s="34"/>
+      <c r="Q140" s="88"/>
+      <c r="R140" s="86"/>
+      <c r="S140" s="89">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="U140" s="34"/>
       <c r="V140" s="34"/>
       <c r="W140" s="34"/>
@@ -13922,7 +13983,7 @@
       <c r="M141" s="91"/>
       <c r="N141" s="91"/>
       <c r="O141" s="91"/>
-      <c r="P141" s="91"/>
+      <c r="P141" s="133"/>
       <c r="Q141" s="91"/>
       <c r="R141" s="91"/>
       <c r="S141" s="91"/>
@@ -16730,13 +16791,6 @@
     </row>
     <row r="379" spans="10:34" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J379" s="98"/>
-      <c r="M379"/>
-      <c r="N379"/>
-      <c r="O379"/>
-      <c r="P379"/>
-      <c r="Q379" s="23"/>
-      <c r="R379" s="13"/>
-      <c r="S379" s="20"/>
       <c r="AA379" s="93"/>
       <c r="AB379" s="93"/>
       <c r="AD379" s="93"/>
@@ -16895,7 +16949,7 @@
       <c r="O389"/>
       <c r="P389"/>
       <c r="Q389" s="23"/>
-      <c r="R389"/>
+      <c r="R389" s="13"/>
       <c r="S389" s="20"/>
       <c r="AA389" s="93"/>
       <c r="AB389" s="93"/>
@@ -17862,6 +17916,7 @@
     <row r="408" spans="9:55" x14ac:dyDescent="0.25">
       <c r="I408" s="10"/>
       <c r="Q408" s="23"/>
+      <c r="S408" s="20"/>
       <c r="X408" s="33"/>
       <c r="Y408" s="33"/>
       <c r="AA408" s="47"/>
@@ -19203,6 +19258,7 @@
     </row>
     <row r="430" spans="9:55" x14ac:dyDescent="0.25">
       <c r="I430" s="10"/>
+      <c r="Q430" s="23"/>
       <c r="X430" s="33"/>
       <c r="Y430" s="33"/>
       <c r="AA430" s="47"/>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="386">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -1169,9 +1169,6 @@
     <t>Banco 2</t>
   </si>
   <si>
-    <t>Cheetos</t>
-  </si>
-  <si>
     <t>Final CLASS</t>
   </si>
   <si>
@@ -1179,6 +1176,15 @@
   </si>
   <si>
     <t>CLASS 2</t>
+  </si>
+  <si>
+    <t>Sandwich Estelar</t>
+  </si>
+  <si>
+    <t>Cheetos; Alitas</t>
+  </si>
+  <si>
+    <t>Viernes Muerto</t>
   </si>
 </sst>
 </file>
@@ -2152,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2453,7 +2459,7 @@
       </c>
       <c r="P4" s="77">
         <f>SUM(N3,S9,P7)</f>
-        <v>74130.320000000007</v>
+        <v>73840.320000000007</v>
       </c>
       <c r="Q4" s="54"/>
       <c r="AA4" s="45">
@@ -2624,7 +2630,7 @@
       </c>
       <c r="N6" s="50">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I503)))-(SUM((Y11:Y499)))</f>
-        <v>392</v>
+        <v>102</v>
       </c>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
@@ -2708,7 +2714,7 @@
       </c>
       <c r="P7" s="76">
         <f>SUM(R7,N6)</f>
-        <v>392</v>
+        <v>102</v>
       </c>
       <c r="Q7" s="73"/>
       <c r="R7" s="72">
@@ -9727,7 +9733,7 @@
         <v>68</v>
       </c>
       <c r="AC80" s="47" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AD80" s="39">
         <f t="shared" si="12"/>
@@ -9804,7 +9810,7 @@
         <v>73</v>
       </c>
       <c r="AC81" s="47" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AD81" s="39">
         <f t="shared" si="12"/>
@@ -9885,17 +9891,17 @@
         <v>44</v>
       </c>
       <c r="AC82" s="47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AD82" s="39">
         <f t="shared" si="12"/>
-        <v>-86</v>
+        <v>-286</v>
       </c>
       <c r="AE82" s="48"/>
       <c r="AF82" s="48"/>
       <c r="AH82" s="49">
         <f t="shared" si="10"/>
-        <v>86</v>
+        <v>286</v>
       </c>
       <c r="AI82">
         <v>56</v>
@@ -9904,12 +9910,14 @@
         <v>187</v>
       </c>
       <c r="AK82" s="54" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AL82" s="54">
         <v>10</v>
       </c>
-      <c r="AM82" s="54"/>
+      <c r="AM82" s="54">
+        <v>200</v>
+      </c>
       <c r="AN82" s="54"/>
       <c r="AO82" s="54"/>
       <c r="AP82" s="54"/>
@@ -9967,20 +9975,31 @@
       <c r="AB83" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AC83" s="47"/>
+      <c r="AC83" s="47" t="s">
+        <v>385</v>
+      </c>
       <c r="AD83" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="AE83" s="48"/>
       <c r="AF83" s="48"/>
       <c r="AH83" s="49">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AJ83" s="54"/>
-      <c r="AK83" s="54"/>
-      <c r="AL83" s="54"/>
+        <v>90</v>
+      </c>
+      <c r="AI83">
+        <v>60</v>
+      </c>
+      <c r="AJ83" s="54" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK83" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL83" s="54">
+        <v>30</v>
+      </c>
       <c r="AM83" s="54"/>
       <c r="AN83" s="54"/>
       <c r="AO83" s="54"/>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="391">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -1185,6 +1185,21 @@
   </si>
   <si>
     <t>Viernes Muerto</t>
+  </si>
+  <si>
+    <t>Capuchino; Cerveza; Capuchino</t>
+  </si>
+  <si>
+    <t>Nanette con Jaime</t>
+  </si>
+  <si>
+    <t>Nutrisa; Tarjeta Jaime</t>
+  </si>
+  <si>
+    <t>QUEHACER</t>
+  </si>
+  <si>
+    <t>Apuesta cabecera</t>
   </si>
 </sst>
 </file>
@@ -2158,8 +2173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2243,7 +2258,7 @@
       <c r="E2" s="54"/>
       <c r="F2" s="108">
         <f>N3-D2</f>
-        <v>11375.32</v>
+        <v>10787.32</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>2</v>
@@ -2371,7 +2386,7 @@
       </c>
       <c r="N3" s="23">
         <f>(SUM(D2,(K11:K503)))-(SUM((J11:J503),(I11:I503)))</f>
-        <v>19138.32</v>
+        <v>18550.32</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -2459,7 +2474,7 @@
       </c>
       <c r="P4" s="77">
         <f>SUM(N3,S9,P7)</f>
-        <v>73840.320000000007</v>
+        <v>73632.320000000007</v>
       </c>
       <c r="Q4" s="54"/>
       <c r="AA4" s="45">
@@ -2528,7 +2543,7 @@
       </c>
       <c r="BH4" s="55">
         <f>(SUM((AW3:AW519)))-(SUM((BA3:BA519)))</f>
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="BI4" s="55"/>
     </row>
@@ -2630,7 +2645,7 @@
       </c>
       <c r="N6" s="50">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I503)))-(SUM((Y11:Y499)))</f>
-        <v>102</v>
+        <v>382</v>
       </c>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
@@ -2714,7 +2729,7 @@
       </c>
       <c r="P7" s="76">
         <f>SUM(R7,N6)</f>
-        <v>102</v>
+        <v>382</v>
       </c>
       <c r="Q7" s="73"/>
       <c r="R7" s="72">
@@ -2876,8 +2891,8 @@
         <v>25</v>
       </c>
       <c r="S9" s="13">
-        <f>SUM(S11:S487)</f>
-        <v>54600</v>
+        <f>SUM(S11:S488)</f>
+        <v>54700</v>
       </c>
       <c r="U9" s="30" t="s">
         <v>40</v>
@@ -5780,8 +5795,8 @@
         <v>5000</v>
       </c>
       <c r="T35" s="127">
-        <f>SUM(S38:S44)</f>
-        <v>3010</v>
+        <f>SUM(S38:S45)</f>
+        <v>3110</v>
       </c>
       <c r="U35" s="34"/>
       <c r="V35" s="33"/>
@@ -5971,7 +5986,7 @@
       </c>
       <c r="R37" s="20"/>
       <c r="S37" s="18">
-        <f t="shared" ref="S37:S70" si="9">Q37-R37</f>
+        <f t="shared" ref="S37:S71" si="9">Q37-R37</f>
         <v>100</v>
       </c>
       <c r="U37" s="34"/>
@@ -6486,10 +6501,6 @@
       <c r="S42" s="18">
         <f t="shared" si="9"/>
         <v>100</v>
-      </c>
-      <c r="T42" s="10">
-        <f>SUM(S45:S46)</f>
-        <v>230</v>
       </c>
       <c r="U42" s="34"/>
       <c r="V42" s="33"/>
@@ -6691,11 +6702,11 @@
       </c>
       <c r="AD44" s="39">
         <f t="shared" si="3"/>
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="AE44" s="48"/>
       <c r="AF44" s="135">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="AG44" t="s">
         <v>274</v>
@@ -6763,21 +6774,19 @@
       <c r="K45" s="98"/>
       <c r="M45" s="16"/>
       <c r="N45" s="16" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>123</v>
+        <v>390</v>
       </c>
       <c r="P45" s="33"/>
       <c r="Q45" s="21">
-        <v>130</v>
-      </c>
-      <c r="R45" s="20">
         <v>100</v>
       </c>
+      <c r="R45" s="20"/>
       <c r="S45" s="18">
-        <f>Q45-R45</f>
-        <v>30</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
       <c r="U45" s="34"/>
       <c r="V45" s="33"/>
@@ -6861,23 +6870,27 @@
         <v>200</v>
       </c>
       <c r="K46" s="98"/>
-      <c r="M46" s="57">
-        <v>43180</v>
-      </c>
+      <c r="M46" s="16"/>
       <c r="N46" s="16" t="s">
-        <v>253</v>
+        <v>122</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>254</v>
+        <v>123</v>
       </c>
       <c r="P46" s="33"/>
       <c r="Q46" s="21">
-        <v>200</v>
-      </c>
-      <c r="R46" s="20"/>
+        <v>130</v>
+      </c>
+      <c r="R46" s="20">
+        <v>100</v>
+      </c>
       <c r="S46" s="18">
-        <f t="shared" si="9"/>
-        <v>200</v>
+        <f>Q46-R46</f>
+        <v>30</v>
+      </c>
+      <c r="T46" s="10">
+        <f>SUM(S46:S47)</f>
+        <v>230</v>
       </c>
       <c r="U46" s="34"/>
       <c r="V46" s="33"/>
@@ -6957,24 +6970,22 @@
       <c r="J47" s="97"/>
       <c r="K47" s="98"/>
       <c r="M47" s="57">
-        <v>43266</v>
+        <v>43180</v>
       </c>
       <c r="N47" s="16" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="P47" s="33"/>
       <c r="Q47" s="21">
-        <v>55</v>
-      </c>
-      <c r="R47" s="20">
-        <v>55</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="R47" s="20"/>
       <c r="S47" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U47" s="34"/>
       <c r="V47" s="33"/>
@@ -7061,17 +7072,17 @@
         <v>43266</v>
       </c>
       <c r="N48" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O48" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P48" s="33"/>
       <c r="Q48" s="21">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="R48" s="20">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="S48" s="18">
         <f t="shared" si="9"/>
@@ -7149,17 +7160,33 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G49" s="94"/>
-      <c r="H49" s="54"/>
+      <c r="G49" s="94">
+        <v>43302</v>
+      </c>
+      <c r="H49" s="54" t="s">
+        <v>118</v>
+      </c>
       <c r="I49" s="96"/>
-      <c r="J49" s="97"/>
+      <c r="J49" s="97">
+        <v>188</v>
+      </c>
       <c r="K49" s="98"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
+      <c r="M49" s="57">
+        <v>43266</v>
+      </c>
+      <c r="N49" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="O49" s="16" t="s">
+        <v>268</v>
+      </c>
       <c r="P49" s="33"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="20"/>
+      <c r="Q49" s="21">
+        <v>60</v>
+      </c>
+      <c r="R49" s="20">
+        <v>60</v>
+      </c>
       <c r="S49" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -7242,9 +7269,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G50" s="94"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="96"/>
+      <c r="G50" s="94">
+        <v>43302</v>
+      </c>
+      <c r="H50" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="I50" s="96">
+        <v>400</v>
+      </c>
       <c r="J50" s="97"/>
       <c r="K50" s="98"/>
       <c r="M50" s="16"/>
@@ -8982,7 +9015,7 @@
       <c r="Q71" s="21"/>
       <c r="R71" s="20"/>
       <c r="S71" s="18">
-        <f t="shared" ref="S71:S125" si="14">Q71-R71</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U71" s="33"/>
@@ -9063,7 +9096,7 @@
       <c r="Q72" s="21"/>
       <c r="R72" s="20"/>
       <c r="S72" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="S72:S126" si="14">Q72-R72</f>
         <v>0</v>
       </c>
       <c r="U72" s="33"/>
@@ -9895,13 +9928,13 @@
       </c>
       <c r="AD82" s="39">
         <f t="shared" si="12"/>
-        <v>-286</v>
+        <v>-296</v>
       </c>
       <c r="AE82" s="48"/>
       <c r="AF82" s="48"/>
       <c r="AH82" s="49">
         <f t="shared" si="10"/>
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="AI82">
         <v>56</v>
@@ -9928,19 +9961,21 @@
       <c r="AU82" s="54"/>
       <c r="AV82">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AW82" s="54">
-        <v>20</v>
-      </c>
-      <c r="AX82" s="54"/>
+        <v>30</v>
+      </c>
+      <c r="AX82" s="54">
+        <v>1</v>
+      </c>
       <c r="AY82" s="54"/>
       <c r="AZ82" s="54">
         <v>2</v>
       </c>
       <c r="BA82" s="54">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BB82" s="54"/>
       <c r="BC82">
@@ -9980,13 +10015,13 @@
       </c>
       <c r="AD83" s="39">
         <f t="shared" si="12"/>
-        <v>-90</v>
+        <v>-130</v>
       </c>
       <c r="AE83" s="48"/>
       <c r="AF83" s="48"/>
       <c r="AH83" s="49">
         <f t="shared" si="10"/>
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AI83">
         <v>60</v>
@@ -9995,13 +10030,17 @@
         <v>383</v>
       </c>
       <c r="AK83" s="54" t="s">
-        <v>153</v>
+        <v>386</v>
       </c>
       <c r="AL83" s="54">
         <v>30</v>
       </c>
-      <c r="AM83" s="54"/>
-      <c r="AN83" s="54"/>
+      <c r="AM83" s="54">
+        <v>35</v>
+      </c>
+      <c r="AN83" s="54">
+        <v>5</v>
+      </c>
       <c r="AO83" s="54"/>
       <c r="AP83" s="54"/>
       <c r="AQ83" s="54"/>
@@ -10014,12 +10053,16 @@
         <v>0</v>
       </c>
       <c r="AW83" s="54"/>
-      <c r="AX83" s="54"/>
+      <c r="AX83" s="54">
+        <v>1</v>
+      </c>
       <c r="AY83" s="54"/>
-      <c r="AZ83" s="54"/>
+      <c r="AZ83" s="54">
+        <v>2</v>
+      </c>
       <c r="BA83" s="54">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BB83" s="54"/>
       <c r="BC83">
@@ -10054,21 +10097,34 @@
       <c r="AB84" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="AC84" s="47"/>
+      <c r="AC84" s="47" t="s">
+        <v>387</v>
+      </c>
       <c r="AD84" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="AE84" s="48"/>
       <c r="AF84" s="48"/>
       <c r="AH84" s="49">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AJ84" s="54"/>
-      <c r="AK84" s="54"/>
-      <c r="AL84" s="54"/>
-      <c r="AM84" s="54"/>
+        <v>60</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ84" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK84" s="54" t="s">
+        <v>388</v>
+      </c>
+      <c r="AL84" s="54">
+        <v>30</v>
+      </c>
+      <c r="AM84" s="54">
+        <v>20</v>
+      </c>
       <c r="AN84" s="54"/>
       <c r="AO84" s="54"/>
       <c r="AP84" s="54"/>
@@ -10079,7 +10135,7 @@
       <c r="AU84" s="54"/>
       <c r="AV84">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AW84" s="54"/>
       <c r="AX84" s="54"/>
@@ -10089,10 +10145,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BB84" s="54"/>
+      <c r="BB84" s="54">
+        <v>2</v>
+      </c>
       <c r="BC84">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="5:61" x14ac:dyDescent="0.25">
@@ -10122,7 +10180,9 @@
       <c r="AB85" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AC85" s="47"/>
+      <c r="AC85" s="47" t="s">
+        <v>389</v>
+      </c>
       <c r="AD85" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -10193,13 +10253,13 @@
       <c r="AC86" s="47"/>
       <c r="AD86" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AE86" s="48"/>
       <c r="AF86" s="48"/>
       <c r="AH86" s="49">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ86" s="54"/>
       <c r="AK86" s="54"/>
@@ -10215,9 +10275,11 @@
       <c r="AU86" s="54"/>
       <c r="AV86">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AW86" s="54"/>
+        <v>50</v>
+      </c>
+      <c r="AW86" s="54">
+        <v>50</v>
+      </c>
       <c r="AX86" s="54"/>
       <c r="AY86" s="54"/>
       <c r="AZ86" s="54"/>
@@ -13085,7 +13147,7 @@
       <c r="Q126" s="21"/>
       <c r="R126" s="20"/>
       <c r="S126" s="18">
-        <f t="shared" ref="S126:S140" si="17">Q126-R126</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U126" s="33"/>
@@ -13142,7 +13204,7 @@
       <c r="Q127" s="21"/>
       <c r="R127" s="20"/>
       <c r="S127" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="S127:S141" si="17">Q127-R127</f>
         <v>0</v>
       </c>
       <c r="U127" s="33"/>
@@ -13648,13 +13710,13 @@
         <v>0</v>
       </c>
       <c r="K136" s="12"/>
-      <c r="M136" s="86"/>
-      <c r="N136" s="86"/>
-      <c r="O136" s="86"/>
+      <c r="M136" s="16"/>
+      <c r="N136" s="16"/>
+      <c r="O136" s="16"/>
       <c r="P136" s="33"/>
-      <c r="Q136" s="87"/>
-      <c r="R136" s="85"/>
-      <c r="S136" s="88">
+      <c r="Q136" s="21"/>
+      <c r="R136" s="20"/>
+      <c r="S136" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -13933,13 +13995,16 @@
         <v>0</v>
       </c>
       <c r="K141" s="12"/>
-      <c r="M141" s="90"/>
-      <c r="N141" s="90"/>
-      <c r="O141" s="90"/>
-      <c r="P141" s="132"/>
-      <c r="Q141" s="90"/>
-      <c r="R141" s="90"/>
-      <c r="S141" s="90"/>
+      <c r="M141" s="86"/>
+      <c r="N141" s="86"/>
+      <c r="O141" s="86"/>
+      <c r="P141" s="33"/>
+      <c r="Q141" s="87"/>
+      <c r="R141" s="85"/>
+      <c r="S141" s="88">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="U141" s="33"/>
       <c r="V141" s="33"/>
       <c r="W141" s="33"/>
@@ -13990,7 +14055,7 @@
       <c r="M142" s="90"/>
       <c r="N142" s="90"/>
       <c r="O142" s="90"/>
-      <c r="P142" s="90"/>
+      <c r="P142" s="132"/>
       <c r="Q142" s="90"/>
       <c r="R142" s="90"/>
       <c r="S142" s="90"/>
@@ -16967,13 +17032,6 @@
     <row r="380" spans="9:34" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I380" s="96"/>
       <c r="J380" s="97"/>
-      <c r="M380"/>
-      <c r="N380"/>
-      <c r="O380"/>
-      <c r="P380"/>
-      <c r="Q380" s="22"/>
-      <c r="R380" s="12"/>
-      <c r="S380" s="19"/>
       <c r="AA380" s="92"/>
       <c r="AB380" s="92"/>
       <c r="AD380" s="92"/>
@@ -17142,7 +17200,7 @@
       <c r="O390"/>
       <c r="P390"/>
       <c r="Q390" s="22"/>
-      <c r="R390"/>
+      <c r="R390" s="12"/>
       <c r="S390" s="19"/>
       <c r="AA390" s="92"/>
       <c r="AB390" s="92"/>
@@ -18146,6 +18204,7 @@
     </row>
     <row r="409" spans="17:55" x14ac:dyDescent="0.25">
       <c r="Q409" s="22"/>
+      <c r="S409" s="19"/>
       <c r="X409" s="32"/>
       <c r="Y409" s="32"/>
       <c r="AA409" s="46"/>
@@ -19465,6 +19524,7 @@
       </c>
     </row>
     <row r="431" spans="17:55" x14ac:dyDescent="0.25">
+      <c r="Q431" s="22"/>
       <c r="X431" s="32"/>
       <c r="Y431" s="32"/>
       <c r="AA431" s="46"/>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="393">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -1200,6 +1200,12 @@
   </si>
   <si>
     <t>Apuesta cabecera</t>
+  </si>
+  <si>
+    <t>Junta CNSPD Dra Yolanda</t>
+  </si>
+  <si>
+    <t>Llegaron Formatos Descriptores en la tarde</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1390,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1561,12 +1567,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD52F8E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1626,7 +1626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1825,19 +1825,17 @@
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1851,22 +1849,22 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2173,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="Y71" workbookViewId="0">
+      <selection activeCell="AC87" sqref="AC87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2432,11 +2430,11 @@
         <v>6</v>
       </c>
       <c r="AW3" s="54"/>
-      <c r="AX3" s="120">
+      <c r="AX3" s="118">
         <v>4</v>
       </c>
-      <c r="AY3" s="120"/>
-      <c r="AZ3" s="120">
+      <c r="AY3" s="118"/>
+      <c r="AZ3" s="118">
         <v>5</v>
       </c>
       <c r="BA3" s="54">
@@ -2474,7 +2472,7 @@
       </c>
       <c r="P4" s="77">
         <f>SUM(N3,S9,P7)</f>
-        <v>73632.320000000007</v>
+        <v>73491.320000000007</v>
       </c>
       <c r="Q4" s="54"/>
       <c r="AA4" s="45">
@@ -2645,7 +2643,7 @@
       </c>
       <c r="N6" s="50">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I503)))-(SUM((Y11:Y499)))</f>
-        <v>382</v>
+        <v>241</v>
       </c>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
@@ -2729,7 +2727,7 @@
       </c>
       <c r="P7" s="76">
         <f>SUM(R7,N6)</f>
-        <v>382</v>
+        <v>241</v>
       </c>
       <c r="Q7" s="73"/>
       <c r="R7" s="72">
@@ -2877,8 +2875,8 @@
         <v>16</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="129"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="127"/>
       <c r="K9" s="6"/>
       <c r="M9" s="13" t="s">
         <v>104</v>
@@ -3004,10 +3002,10 @@
       <c r="N10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="131" t="s">
+      <c r="O10" s="129" t="s">
         <v>230</v>
       </c>
-      <c r="P10" s="131" t="s">
+      <c r="P10" s="129" t="s">
         <v>231</v>
       </c>
       <c r="Q10" s="25" t="s">
@@ -3019,7 +3017,7 @@
       <c r="S10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="T10" s="127"/>
+      <c r="T10" s="125"/>
       <c r="U10" s="33" t="s">
         <v>11</v>
       </c>
@@ -3137,7 +3135,7 @@
         <f t="shared" ref="S11:S32" si="6">Q11-R11</f>
         <v>5000</v>
       </c>
-      <c r="T11" s="128">
+      <c r="T11" s="126">
         <f>SUM(S11:S21)</f>
         <v>40150</v>
       </c>
@@ -3258,7 +3256,7 @@
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="T12" s="152">
+      <c r="T12" s="150">
         <f>SUM(R11:R21)</f>
         <v>0</v>
       </c>
@@ -3387,7 +3385,7 @@
         <f t="shared" ref="S13:S21" si="7">Q13-R13</f>
         <v>3200</v>
       </c>
-      <c r="T13" s="127"/>
+      <c r="T13" s="125"/>
       <c r="U13" s="34">
         <v>43226</v>
       </c>
@@ -3430,7 +3428,7 @@
         <v>164</v>
       </c>
       <c r="AK13" s="54"/>
-      <c r="AL13" s="119"/>
+      <c r="AL13" s="117"/>
       <c r="AM13" s="54"/>
       <c r="AN13" s="54"/>
       <c r="AO13" s="54"/>
@@ -3459,19 +3457,19 @@
       </c>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A14" s="140" t="s">
+      <c r="A14" s="138" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="139" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="141">
+      <c r="C14" s="139">
         <v>1300</v>
       </c>
-      <c r="D14" s="141">
+      <c r="D14" s="139">
         <v>1300</v>
       </c>
-      <c r="E14" s="141">
+      <c r="E14" s="139">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3504,7 +3502,7 @@
         <f t="shared" si="7"/>
         <v>5300</v>
       </c>
-      <c r="T14" s="127"/>
+      <c r="T14" s="125"/>
       <c r="U14" s="34">
         <v>43228</v>
       </c>
@@ -3619,7 +3617,7 @@
         <f t="shared" si="7"/>
         <v>6850</v>
       </c>
-      <c r="T15" s="127"/>
+      <c r="T15" s="125"/>
       <c r="U15" s="34">
         <v>43234</v>
       </c>
@@ -3728,7 +3726,7 @@
         <f t="shared" si="7"/>
         <v>2100</v>
       </c>
-      <c r="T16" s="127"/>
+      <c r="T16" s="125"/>
       <c r="U16" s="34">
         <v>43236</v>
       </c>
@@ -3859,7 +3857,7 @@
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
-      <c r="T17" s="127"/>
+      <c r="T17" s="125"/>
       <c r="U17" s="34">
         <v>43249</v>
       </c>
@@ -3948,7 +3946,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G18" s="130" t="s">
+      <c r="G18" s="128" t="s">
         <v>210</v>
       </c>
       <c r="H18" s="54" t="s">
@@ -4072,15 +4070,15 @@
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="G19" s="122">
+      <c r="G19" s="120">
         <v>43249</v>
       </c>
-      <c r="H19" s="123" t="s">
+      <c r="H19" s="121" t="s">
         <v>205</v>
       </c>
-      <c r="I19" s="124"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="126">
+      <c r="I19" s="122"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="124">
         <v>12188</v>
       </c>
       <c r="M19" s="57">
@@ -4420,7 +4418,7 @@
         <f t="shared" si="6"/>
         <v>1100</v>
       </c>
-      <c r="T22" s="127">
+      <c r="T22" s="125">
         <f>SUM(S22:S32)</f>
         <v>5120</v>
       </c>
@@ -4525,7 +4523,7 @@
         <f t="shared" si="6"/>
         <v>600</v>
       </c>
-      <c r="T23" s="127"/>
+      <c r="T23" s="125"/>
       <c r="U23" s="34">
         <v>43293</v>
       </c>
@@ -4642,7 +4640,7 @@
         <f>Q24-R24</f>
         <v>1000</v>
       </c>
-      <c r="T24" s="127"/>
+      <c r="T24" s="125"/>
       <c r="U24" s="34">
         <v>43293</v>
       </c>
@@ -4752,18 +4750,18 @@
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="T25" s="127"/>
-      <c r="U25" s="149">
+      <c r="T25" s="125"/>
+      <c r="U25" s="147">
         <v>43295</v>
       </c>
       <c r="V25" s="55" t="s">
         <v>364</v>
       </c>
       <c r="W25" s="55"/>
-      <c r="X25" s="150">
+      <c r="X25" s="148">
         <v>500</v>
       </c>
-      <c r="Y25" s="150"/>
+      <c r="Y25" s="148"/>
       <c r="AA25" s="45">
         <v>43243</v>
       </c>
@@ -4856,7 +4854,7 @@
         <f t="shared" si="6"/>
         <v>500</v>
       </c>
-      <c r="T26" s="127"/>
+      <c r="T26" s="125"/>
       <c r="U26" s="34"/>
       <c r="V26" s="33"/>
       <c r="W26" s="33"/>
@@ -4878,7 +4876,7 @@
       <c r="AE26" s="48">
         <v>0</v>
       </c>
-      <c r="AF26" s="121"/>
+      <c r="AF26" s="119"/>
       <c r="AG26" s="10"/>
       <c r="AH26" s="49">
         <f t="shared" si="0"/>
@@ -4965,7 +4963,7 @@
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="T27" s="127"/>
+      <c r="T27" s="125"/>
       <c r="U27" s="34"/>
       <c r="V27" s="33"/>
       <c r="W27" s="33"/>
@@ -5046,18 +5044,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G28" s="122">
+      <c r="G28" s="120">
         <v>43265</v>
       </c>
-      <c r="H28" s="123" t="s">
+      <c r="H28" s="121" t="s">
         <v>205</v>
       </c>
-      <c r="I28" s="134"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="126">
+      <c r="I28" s="132"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="124">
         <v>10612</v>
       </c>
-      <c r="L28" s="133"/>
+      <c r="L28" s="131"/>
       <c r="M28" s="16"/>
       <c r="N28" s="16" t="s">
         <v>24</v>
@@ -5074,7 +5072,7 @@
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="T28" s="127"/>
+      <c r="T28" s="125"/>
       <c r="U28" s="34"/>
       <c r="V28" s="33"/>
       <c r="W28" s="33"/>
@@ -5174,7 +5172,7 @@
         <f t="shared" si="6"/>
         <v>850</v>
       </c>
-      <c r="T29" s="127"/>
+      <c r="T29" s="125"/>
       <c r="U29" s="34"/>
       <c r="V29" s="33"/>
       <c r="W29" s="33"/>
@@ -5270,7 +5268,7 @@
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="T30" s="127">
+      <c r="T30" s="125">
         <f>SUM(S33:S34)</f>
         <v>340</v>
       </c>
@@ -5379,7 +5377,7 @@
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="T31" s="127"/>
+      <c r="T31" s="125"/>
       <c r="U31" s="34"/>
       <c r="V31" s="33"/>
       <c r="W31" s="33"/>
@@ -5481,7 +5479,7 @@
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="T32" s="127"/>
+      <c r="T32" s="125"/>
       <c r="U32" s="34"/>
       <c r="V32" s="33"/>
       <c r="W32" s="33"/>
@@ -5579,7 +5577,7 @@
         <f>Q33-R33</f>
         <v>140</v>
       </c>
-      <c r="T33" s="127"/>
+      <c r="T33" s="125"/>
       <c r="U33" s="34"/>
       <c r="V33" s="33"/>
       <c r="W33" s="33"/>
@@ -5690,7 +5688,7 @@
         <f>Q34-R34</f>
         <v>200</v>
       </c>
-      <c r="T34" s="127"/>
+      <c r="T34" s="125"/>
       <c r="U34" s="34"/>
       <c r="V34" s="33"/>
       <c r="W34" s="33"/>
@@ -5765,15 +5763,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G35" s="122">
+      <c r="G35" s="120">
         <v>43279</v>
       </c>
-      <c r="H35" s="123" t="s">
+      <c r="H35" s="121" t="s">
         <v>205</v>
       </c>
-      <c r="I35" s="134"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="126">
+      <c r="I35" s="132"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="124">
         <v>10612</v>
       </c>
       <c r="M35" s="57">
@@ -5794,7 +5792,7 @@
         <f>Q35-R35</f>
         <v>5000</v>
       </c>
-      <c r="T35" s="127">
+      <c r="T35" s="125">
         <f>SUM(S38:S45)</f>
         <v>3110</v>
       </c>
@@ -5897,7 +5895,7 @@
         <f>Q36-R36</f>
         <v>650</v>
       </c>
-      <c r="T36" s="127"/>
+      <c r="T36" s="125"/>
       <c r="U36" s="34"/>
       <c r="V36" s="33"/>
       <c r="W36" s="33"/>
@@ -6570,15 +6568,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G43" s="122">
+      <c r="G43" s="120">
         <v>43293</v>
       </c>
-      <c r="H43" s="123" t="s">
+      <c r="H43" s="121" t="s">
         <v>205</v>
       </c>
-      <c r="I43" s="134"/>
-      <c r="J43" s="125"/>
-      <c r="K43" s="126">
+      <c r="I43" s="132"/>
+      <c r="J43" s="123"/>
+      <c r="K43" s="124">
         <v>11052</v>
       </c>
       <c r="M43" s="16"/>
@@ -6659,15 +6657,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G44" s="143">
+      <c r="G44" s="141">
         <v>43293</v>
       </c>
-      <c r="H44" s="144" t="s">
+      <c r="H44" s="142" t="s">
         <v>359</v>
       </c>
-      <c r="I44" s="145"/>
-      <c r="J44" s="146"/>
-      <c r="K44" s="147">
+      <c r="I44" s="143"/>
+      <c r="J44" s="144"/>
+      <c r="K44" s="145">
         <v>1317</v>
       </c>
       <c r="M44" s="16"/>
@@ -6690,7 +6688,7 @@
       <c r="V44" s="33"/>
       <c r="W44" s="33"/>
       <c r="X44" s="35"/>
-      <c r="Y44" s="118"/>
+      <c r="Y44" s="116"/>
       <c r="AA44" s="45">
         <v>43262</v>
       </c>
@@ -6705,7 +6703,7 @@
         <v>173</v>
       </c>
       <c r="AE44" s="48"/>
-      <c r="AF44" s="135">
+      <c r="AF44" s="133">
         <v>308</v>
       </c>
       <c r="AG44" t="s">
@@ -6791,7 +6789,7 @@
       <c r="U45" s="34"/>
       <c r="V45" s="33"/>
       <c r="W45" s="33"/>
-      <c r="X45" s="118"/>
+      <c r="X45" s="116"/>
       <c r="Y45" s="35"/>
       <c r="AA45" s="45">
         <v>43263</v>
@@ -8705,7 +8703,7 @@
       <c r="AE67" s="48"/>
       <c r="AF67" s="48"/>
       <c r="AH67" s="49">
-        <f t="shared" ref="AH67:AH114" si="10">SUM(AI67,AL67,AM67,AN67,AO67,AP67,AQ67,AR67,AS67,AT67,AU67,AV67)</f>
+        <f t="shared" ref="AH67:AH125" si="10">SUM(AI67,AL67,AM67,AN67,AO67,AP67,AQ67,AR67,AS67,AT67,AU67,AV67)</f>
         <v>196</v>
       </c>
       <c r="AI67">
@@ -8735,7 +8733,7 @@
         <f t="shared" ref="AV67:AV120" si="11">SUM(AW67,BD67,BC67)</f>
         <v>50</v>
       </c>
-      <c r="AW67" s="151">
+      <c r="AW67" s="149">
         <v>50</v>
       </c>
       <c r="AX67" s="54"/>
@@ -8784,7 +8782,7 @@
         <v>334</v>
       </c>
       <c r="AD68" s="39">
-        <f t="shared" ref="AD68:AD114" si="12">(SUM(AE68,AF68))-AH68</f>
+        <f t="shared" ref="AD68:AD125" si="12">(SUM(AE68,AF68))-AH68</f>
         <v>-130</v>
       </c>
       <c r="AE68" s="48"/>
@@ -8966,10 +8964,10 @@
       <c r="AK70" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="AL70" s="142">
+      <c r="AL70" s="140">
         <v>140</v>
       </c>
-      <c r="AM70" s="142">
+      <c r="AM70" s="140">
         <v>140</v>
       </c>
       <c r="AN70" s="54">
@@ -9360,7 +9358,7 @@
         <v>-30</v>
       </c>
       <c r="AE75" s="48"/>
-      <c r="AF75" s="148"/>
+      <c r="AF75" s="146"/>
       <c r="AH75" s="49">
         <f t="shared" si="10"/>
         <v>30</v>
@@ -10250,20 +10248,31 @@
       <c r="AB86" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="AC86" s="47"/>
+      <c r="AC86" s="47" t="s">
+        <v>392</v>
+      </c>
       <c r="AD86" s="39">
         <f t="shared" si="12"/>
-        <v>-50</v>
+        <v>-135</v>
       </c>
       <c r="AE86" s="48"/>
       <c r="AF86" s="48"/>
       <c r="AH86" s="49">
         <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
-      <c r="AJ86" s="54"/>
-      <c r="AK86" s="54"/>
-      <c r="AL86" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="AI86">
+        <v>55</v>
+      </c>
+      <c r="AJ86" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK86" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL86" s="54">
+        <v>30</v>
+      </c>
       <c r="AM86" s="54"/>
       <c r="AN86" s="54"/>
       <c r="AO86" s="54"/>
@@ -10320,20 +10329,26 @@
       <c r="AB87" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AC87" s="47"/>
+      <c r="AC87" s="47" t="s">
+        <v>391</v>
+      </c>
       <c r="AD87" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE87" s="101"/>
-      <c r="AF87" s="101"/>
+        <v>-56</v>
+      </c>
+      <c r="AE87" s="48"/>
+      <c r="AF87" s="48"/>
       <c r="AG87" s="54"/>
       <c r="AH87" s="49">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI87" s="54"/>
-      <c r="AJ87" s="54"/>
+        <v>56</v>
+      </c>
+      <c r="AI87" s="54">
+        <v>56</v>
+      </c>
+      <c r="AJ87" s="54" t="s">
+        <v>187</v>
+      </c>
       <c r="AK87" s="54"/>
       <c r="AL87" s="54"/>
       <c r="AM87" s="54"/>
@@ -10401,8 +10416,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE88" s="101"/>
-      <c r="AF88" s="101"/>
+      <c r="AE88" s="48"/>
+      <c r="AF88" s="48"/>
       <c r="AG88" s="54"/>
       <c r="AH88" s="49">
         <f t="shared" si="10"/>
@@ -10477,8 +10492,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE89" s="101"/>
-      <c r="AF89" s="101"/>
+      <c r="AE89" s="48"/>
+      <c r="AF89" s="48"/>
       <c r="AG89" s="54"/>
       <c r="AH89" s="49">
         <f t="shared" si="10"/>
@@ -10553,8 +10568,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE90" s="101"/>
-      <c r="AF90" s="101"/>
+      <c r="AE90" s="48"/>
+      <c r="AF90" s="48"/>
       <c r="AG90" s="54"/>
       <c r="AH90" s="49">
         <f t="shared" si="10"/>
@@ -10629,8 +10644,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE91" s="101"/>
-      <c r="AF91" s="101"/>
+      <c r="AE91" s="48"/>
+      <c r="AF91" s="48"/>
       <c r="AG91" s="54"/>
       <c r="AH91" s="49">
         <f t="shared" si="10"/>
@@ -10705,8 +10720,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE92" s="101"/>
-      <c r="AF92" s="101"/>
+      <c r="AE92" s="48"/>
+      <c r="AF92" s="48"/>
       <c r="AG92" s="54"/>
       <c r="AH92" s="49">
         <f t="shared" si="10"/>
@@ -10781,8 +10796,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE93" s="101"/>
-      <c r="AF93" s="101"/>
+      <c r="AE93" s="48"/>
+      <c r="AF93" s="48"/>
       <c r="AG93" s="54"/>
       <c r="AH93" s="49">
         <f t="shared" si="10"/>
@@ -10857,8 +10872,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE94" s="101"/>
-      <c r="AF94" s="101"/>
+      <c r="AE94" s="48"/>
+      <c r="AF94" s="48"/>
       <c r="AG94" s="54"/>
       <c r="AH94" s="49">
         <f t="shared" si="10"/>
@@ -10866,8 +10881,8 @@
       </c>
       <c r="AI94" s="54"/>
       <c r="AJ94" s="54"/>
-      <c r="AK94" s="116"/>
-      <c r="AL94" s="116"/>
+      <c r="AK94" s="54"/>
+      <c r="AL94" s="54"/>
       <c r="AM94" s="54"/>
       <c r="AN94" s="54"/>
       <c r="AO94" s="54"/>
@@ -10933,8 +10948,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE95" s="101"/>
-      <c r="AF95" s="101"/>
+      <c r="AE95" s="48"/>
+      <c r="AF95" s="48"/>
       <c r="AG95" s="54"/>
       <c r="AH95" s="49">
         <f t="shared" si="10"/>
@@ -11009,8 +11024,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE96" s="101"/>
-      <c r="AF96" s="101"/>
+      <c r="AE96" s="48"/>
+      <c r="AF96" s="48"/>
       <c r="AG96" s="54"/>
       <c r="AH96" s="49">
         <f t="shared" si="10"/>
@@ -11085,8 +11100,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE97" s="101"/>
-      <c r="AF97" s="101"/>
+      <c r="AE97" s="48"/>
+      <c r="AF97" s="48"/>
       <c r="AG97" s="54"/>
       <c r="AH97" s="49">
         <f t="shared" si="10"/>
@@ -11095,7 +11110,7 @@
       <c r="AI97" s="54"/>
       <c r="AJ97" s="54"/>
       <c r="AK97" s="54"/>
-      <c r="AL97" s="117"/>
+      <c r="AL97" s="54"/>
       <c r="AM97" s="54"/>
       <c r="AN97" s="54"/>
       <c r="AO97" s="54"/>
@@ -11161,8 +11176,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE98" s="101"/>
-      <c r="AF98" s="101"/>
+      <c r="AE98" s="48"/>
+      <c r="AF98" s="48"/>
       <c r="AG98" s="54"/>
       <c r="AH98" s="49">
         <f t="shared" si="10"/>
@@ -11237,8 +11252,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE99" s="101"/>
-      <c r="AF99" s="101"/>
+      <c r="AE99" s="48"/>
+      <c r="AF99" s="48"/>
       <c r="AG99" s="54"/>
       <c r="AH99" s="49">
         <f t="shared" si="10"/>
@@ -11313,8 +11328,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE100" s="101"/>
-      <c r="AF100" s="101"/>
+      <c r="AE100" s="48"/>
+      <c r="AF100" s="48"/>
       <c r="AG100" s="54"/>
       <c r="AH100" s="49">
         <f t="shared" si="10"/>
@@ -11389,8 +11404,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE101" s="101"/>
-      <c r="AF101" s="101"/>
+      <c r="AE101" s="48"/>
+      <c r="AF101" s="48"/>
       <c r="AG101" s="54"/>
       <c r="AH101" s="49">
         <f t="shared" si="10"/>
@@ -11465,8 +11480,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE102" s="101"/>
-      <c r="AF102" s="101"/>
+      <c r="AE102" s="48"/>
+      <c r="AF102" s="48"/>
       <c r="AG102" s="54"/>
       <c r="AH102" s="49">
         <f t="shared" si="10"/>
@@ -11541,8 +11556,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE103" s="101"/>
-      <c r="AF103" s="101"/>
+      <c r="AE103" s="48"/>
+      <c r="AF103" s="48"/>
       <c r="AG103" s="54"/>
       <c r="AH103" s="49">
         <f t="shared" si="10"/>
@@ -11617,8 +11632,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE104" s="101"/>
-      <c r="AF104" s="101"/>
+      <c r="AE104" s="48"/>
+      <c r="AF104" s="48"/>
       <c r="AG104" s="54"/>
       <c r="AH104" s="49">
         <f t="shared" si="10"/>
@@ -11693,8 +11708,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE105" s="101"/>
-      <c r="AF105" s="101"/>
+      <c r="AE105" s="48"/>
+      <c r="AF105" s="48"/>
       <c r="AG105" s="54"/>
       <c r="AH105" s="49">
         <f t="shared" si="10"/>
@@ -11769,8 +11784,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE106" s="101"/>
-      <c r="AF106" s="101"/>
+      <c r="AE106" s="48"/>
+      <c r="AF106" s="48"/>
       <c r="AG106" s="54"/>
       <c r="AH106" s="49">
         <f t="shared" si="10"/>
@@ -11845,8 +11860,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE107" s="101"/>
-      <c r="AF107" s="101"/>
+      <c r="AE107" s="48"/>
+      <c r="AF107" s="48"/>
       <c r="AG107" s="54"/>
       <c r="AH107" s="49">
         <f t="shared" si="10"/>
@@ -11921,8 +11936,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE108" s="101"/>
-      <c r="AF108" s="101"/>
+      <c r="AE108" s="48"/>
+      <c r="AF108" s="48"/>
       <c r="AG108" s="54"/>
       <c r="AH108" s="49">
         <f t="shared" si="10"/>
@@ -11997,8 +12012,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE109" s="101"/>
-      <c r="AF109" s="101"/>
+      <c r="AE109" s="48"/>
+      <c r="AF109" s="48"/>
       <c r="AG109" s="54"/>
       <c r="AH109" s="49">
         <f t="shared" si="10"/>
@@ -12073,8 +12088,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE110" s="101"/>
-      <c r="AF110" s="101"/>
+      <c r="AE110" s="48"/>
+      <c r="AF110" s="48"/>
       <c r="AG110" s="54"/>
       <c r="AH110" s="49">
         <f t="shared" si="10"/>
@@ -12149,8 +12164,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE111" s="101"/>
-      <c r="AF111" s="101"/>
+      <c r="AE111" s="48"/>
+      <c r="AF111" s="48"/>
       <c r="AG111" s="54"/>
       <c r="AH111" s="49">
         <f t="shared" si="10"/>
@@ -12225,8 +12240,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE112" s="101"/>
-      <c r="AF112" s="101"/>
+      <c r="AE112" s="48"/>
+      <c r="AF112" s="48"/>
       <c r="AG112" s="54"/>
       <c r="AH112" s="49">
         <f t="shared" si="10"/>
@@ -12301,8 +12316,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE113" s="101"/>
-      <c r="AF113" s="101"/>
+      <c r="AE113" s="48"/>
+      <c r="AF113" s="48"/>
       <c r="AG113" s="54"/>
       <c r="AH113" s="49">
         <f t="shared" si="10"/>
@@ -12377,8 +12392,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE114" s="101"/>
-      <c r="AF114" s="101"/>
+      <c r="AE114" s="48"/>
+      <c r="AF114" s="48"/>
       <c r="AG114" s="54"/>
       <c r="AH114" s="49">
         <f t="shared" si="10"/>
@@ -12449,11 +12464,17 @@
         <v>133</v>
       </c>
       <c r="AC115" s="47"/>
-      <c r="AD115" s="102"/>
-      <c r="AE115" s="101"/>
-      <c r="AF115" s="101"/>
+      <c r="AD115" s="39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE115" s="48"/>
+      <c r="AF115" s="48"/>
       <c r="AG115" s="54"/>
-      <c r="AH115" s="101"/>
+      <c r="AH115" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AI115" s="54"/>
       <c r="AJ115" s="54"/>
       <c r="AK115" s="54"/>
@@ -12519,11 +12540,17 @@
         <v>134</v>
       </c>
       <c r="AC116" s="47"/>
-      <c r="AD116" s="102"/>
-      <c r="AE116" s="101"/>
-      <c r="AF116" s="101"/>
+      <c r="AD116" s="39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE116" s="48"/>
+      <c r="AF116" s="48"/>
       <c r="AG116" s="54"/>
-      <c r="AH116" s="101"/>
+      <c r="AH116" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AI116" s="54"/>
       <c r="AJ116" s="54"/>
       <c r="AK116" s="54"/>
@@ -12589,11 +12616,17 @@
         <v>135</v>
       </c>
       <c r="AC117" s="47"/>
-      <c r="AD117" s="102"/>
-      <c r="AE117" s="101"/>
-      <c r="AF117" s="101"/>
+      <c r="AD117" s="39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE117" s="48"/>
+      <c r="AF117" s="48"/>
       <c r="AG117" s="54"/>
-      <c r="AH117" s="101"/>
+      <c r="AH117" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AI117" s="54"/>
       <c r="AJ117" s="54"/>
       <c r="AK117" s="54"/>
@@ -12659,11 +12692,17 @@
         <v>136</v>
       </c>
       <c r="AC118" s="47"/>
-      <c r="AD118" s="102"/>
-      <c r="AE118" s="101"/>
-      <c r="AF118" s="101"/>
+      <c r="AD118" s="39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE118" s="48"/>
+      <c r="AF118" s="48"/>
       <c r="AG118" s="54"/>
-      <c r="AH118" s="101"/>
+      <c r="AH118" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AI118" s="54"/>
       <c r="AJ118" s="54"/>
       <c r="AK118" s="54"/>
@@ -12729,11 +12768,17 @@
         <v>137</v>
       </c>
       <c r="AC119" s="47"/>
-      <c r="AD119" s="102"/>
-      <c r="AE119" s="101"/>
-      <c r="AF119" s="101"/>
+      <c r="AD119" s="39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE119" s="48"/>
+      <c r="AF119" s="48"/>
       <c r="AG119" s="54"/>
-      <c r="AH119" s="101"/>
+      <c r="AH119" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AI119" s="54"/>
       <c r="AJ119" s="54"/>
       <c r="AK119" s="54"/>
@@ -12799,11 +12844,17 @@
         <v>131</v>
       </c>
       <c r="AC120" s="47"/>
-      <c r="AD120" s="102"/>
-      <c r="AE120" s="101"/>
-      <c r="AF120" s="101"/>
+      <c r="AD120" s="39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE120" s="48"/>
+      <c r="AF120" s="48"/>
       <c r="AG120" s="54"/>
-      <c r="AH120" s="101"/>
+      <c r="AH120" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AI120" s="54"/>
       <c r="AJ120" s="54"/>
       <c r="AK120" s="54"/>
@@ -12869,11 +12920,17 @@
         <v>132</v>
       </c>
       <c r="AC121" s="47"/>
-      <c r="AD121" s="102"/>
-      <c r="AE121" s="101"/>
-      <c r="AF121" s="101"/>
+      <c r="AD121" s="39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE121" s="48"/>
+      <c r="AF121" s="48"/>
       <c r="AG121" s="54"/>
-      <c r="AH121" s="101"/>
+      <c r="AH121" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AI121" s="54"/>
       <c r="AJ121" s="54"/>
       <c r="AK121" s="54"/>
@@ -12926,13 +12983,21 @@
       <c r="AA122" s="45">
         <v>43340</v>
       </c>
-      <c r="AB122" s="101"/>
+      <c r="AB122" s="46" t="s">
+        <v>133</v>
+      </c>
       <c r="AC122" s="47"/>
-      <c r="AD122" s="102"/>
-      <c r="AE122" s="101"/>
-      <c r="AF122" s="101"/>
+      <c r="AD122" s="39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE122" s="48"/>
+      <c r="AF122" s="48"/>
       <c r="AG122" s="54"/>
-      <c r="AH122" s="101"/>
+      <c r="AH122" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AI122" s="54"/>
       <c r="AJ122" s="54"/>
       <c r="AK122" s="54"/>
@@ -12985,13 +13050,21 @@
       <c r="AA123" s="45">
         <v>43341</v>
       </c>
-      <c r="AB123" s="101"/>
+      <c r="AB123" s="46" t="s">
+        <v>134</v>
+      </c>
       <c r="AC123" s="47"/>
-      <c r="AD123" s="102"/>
-      <c r="AE123" s="101"/>
-      <c r="AF123" s="101"/>
+      <c r="AD123" s="39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE123" s="48"/>
+      <c r="AF123" s="48"/>
       <c r="AG123" s="54"/>
-      <c r="AH123" s="101"/>
+      <c r="AH123" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AI123" s="54"/>
       <c r="AJ123" s="54"/>
       <c r="AK123" s="54"/>
@@ -13041,14 +13114,24 @@
       <c r="W124" s="33"/>
       <c r="X124" s="35"/>
       <c r="Y124" s="35"/>
-      <c r="AA124" s="100"/>
-      <c r="AB124" s="101"/>
+      <c r="AA124" s="45">
+        <v>43342</v>
+      </c>
+      <c r="AB124" s="46" t="s">
+        <v>135</v>
+      </c>
       <c r="AC124" s="47"/>
-      <c r="AD124" s="102"/>
-      <c r="AE124" s="101"/>
-      <c r="AF124" s="101"/>
+      <c r="AD124" s="39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE124" s="48"/>
+      <c r="AF124" s="48"/>
       <c r="AG124" s="54"/>
-      <c r="AH124" s="101"/>
+      <c r="AH124" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AI124" s="54"/>
       <c r="AJ124" s="54"/>
       <c r="AK124" s="54"/>
@@ -13098,14 +13181,24 @@
       <c r="W125" s="33"/>
       <c r="X125" s="35"/>
       <c r="Y125" s="35"/>
-      <c r="AA125" s="100"/>
-      <c r="AB125" s="101"/>
-      <c r="AC125" s="54"/>
-      <c r="AD125" s="102"/>
-      <c r="AE125" s="101"/>
-      <c r="AF125" s="101"/>
+      <c r="AA125" s="45">
+        <v>43343</v>
+      </c>
+      <c r="AB125" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC125" s="47"/>
+      <c r="AD125" s="39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE125" s="48"/>
+      <c r="AF125" s="48"/>
       <c r="AG125" s="54"/>
-      <c r="AH125" s="101"/>
+      <c r="AH125" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AI125" s="54"/>
       <c r="AJ125" s="54"/>
       <c r="AK125" s="54"/>
@@ -14055,7 +14148,7 @@
       <c r="M142" s="90"/>
       <c r="N142" s="90"/>
       <c r="O142" s="90"/>
-      <c r="P142" s="132"/>
+      <c r="P142" s="130"/>
       <c r="Q142" s="90"/>
       <c r="R142" s="90"/>
       <c r="S142" s="90"/>
@@ -29905,7 +29998,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="126"/>
+      <c r="A4" s="124"/>
       <c r="B4" t="s">
         <v>304</v>
       </c>
@@ -30020,7 +30113,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="126">
+      <c r="A13" s="124">
         <v>10612</v>
       </c>
       <c r="E13">
@@ -30111,8 +30204,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="138"/>
-      <c r="B2" s="137" t="s">
+      <c r="A2" s="136"/>
+      <c r="B2" s="135" t="s">
         <v>302</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -30120,11 +30213,11 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="134" t="s">
         <v>310</v>
       </c>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
       <c r="L2" s="110" t="s">
         <v>311</v>
       </c>
@@ -30133,7 +30226,7 @@
       <c r="O2" s="110"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="135" t="s">
         <v>313</v>
       </c>
       <c r="B3" s="4">
@@ -30141,7 +30234,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="135" t="s">
         <v>314</v>
       </c>
       <c r="B4" s="4">
@@ -30169,7 +30262,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="139"/>
+      <c r="A9" s="137"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -2171,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y71" workbookViewId="0">
-      <selection activeCell="AC87" sqref="AC87"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="436">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -1280,9 +1280,6 @@
     <t>Rúbricas Etapa 2</t>
   </si>
   <si>
-    <t>Capuchino; Taxi</t>
-  </si>
-  <si>
     <t>Tacondesa</t>
   </si>
   <si>
@@ -1293,6 +1290,51 @@
   </si>
   <si>
     <t>Uber a casa</t>
+  </si>
+  <si>
+    <t>Café con Ale</t>
+  </si>
+  <si>
+    <t>El Costeñito</t>
+  </si>
+  <si>
+    <t>Refrescos, Taxi</t>
+  </si>
+  <si>
+    <t>Jaime cooperó para el Taxi</t>
+  </si>
+  <si>
+    <t>Trabajo, LLUVIA en Ecatepec (Get Out y Uber de regreso)</t>
+  </si>
+  <si>
+    <t>Texcoco Albañil Luis</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Tostadas Doña Anita</t>
+  </si>
+  <si>
+    <t>Capuchino; Taxi Ale</t>
+  </si>
+  <si>
+    <t>Aplicación JPA</t>
+  </si>
+  <si>
+    <t>Super Junta Sandy - Revisión Evidencias</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>El costeñito</t>
+  </si>
+  <si>
+    <t>Torta de Cochinita</t>
+  </si>
+  <si>
+    <t>Jugo de Zanahoria y Naranja</t>
   </si>
 </sst>
 </file>
@@ -2255,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,7 +2382,7 @@
       <c r="E2" s="54"/>
       <c r="F2" s="107">
         <f>N3-D2</f>
-        <v>9950.32</v>
+        <v>9593.9000000000015</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>2</v>
@@ -2468,7 +2510,7 @@
       </c>
       <c r="N3" s="23">
         <f>(SUM(D2,(K11:K503)))-(SUM((J11:J503),(I11:I503)))</f>
-        <v>17713.32</v>
+        <v>17356.900000000001</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -2556,7 +2598,7 @@
       </c>
       <c r="P4" s="76">
         <f>SUM(N3,S9,P7)</f>
-        <v>79584.320000000007</v>
+        <v>79276.899999999994</v>
       </c>
       <c r="Q4" s="54"/>
       <c r="AA4" s="45">
@@ -2625,7 +2667,7 @@
       </c>
       <c r="BH4" s="55">
         <f>(SUM((AW3:AW519)))-(SUM((BA3:BA519)))</f>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="BI4" s="55"/>
     </row>
@@ -2727,7 +2769,7 @@
       </c>
       <c r="N6" s="50">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I503)))-(SUM((Y11:Y499)))</f>
-        <v>820</v>
+        <v>899</v>
       </c>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
@@ -2811,7 +2853,7 @@
       </c>
       <c r="P7" s="75">
         <f>SUM(R7,N6)</f>
-        <v>821</v>
+        <v>900</v>
       </c>
       <c r="Q7" s="72"/>
       <c r="R7" s="71">
@@ -2974,7 +3016,7 @@
       </c>
       <c r="S9" s="13">
         <f>SUM(S11:S491)</f>
-        <v>61050</v>
+        <v>61020</v>
       </c>
       <c r="U9" s="30" t="s">
         <v>40</v>
@@ -5058,10 +5100,18 @@
         <v>120</v>
       </c>
       <c r="T27" s="124"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="35"/>
+      <c r="U27" s="34">
+        <v>43315</v>
+      </c>
+      <c r="V27" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="W27" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="X27" s="35">
+        <v>360</v>
+      </c>
       <c r="Y27" s="35"/>
       <c r="AA27" s="45">
         <v>43245</v>
@@ -5167,10 +5217,18 @@
         <v>500</v>
       </c>
       <c r="T28" s="124"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="35"/>
+      <c r="U28" s="34">
+        <v>43317</v>
+      </c>
+      <c r="V28" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="W28" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="X28" s="35">
+        <v>360</v>
+      </c>
       <c r="Y28" s="35"/>
       <c r="AA28" s="45">
         <v>43246</v>
@@ -5362,10 +5420,6 @@
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="T30" s="124">
-        <f>SUM(S36:S37)</f>
-        <v>340</v>
-      </c>
       <c r="U30" s="34"/>
       <c r="V30" s="33"/>
       <c r="W30" s="33"/>
@@ -5880,10 +5934,6 @@
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="T35" s="124">
-        <f>SUM(S41:S48)</f>
-        <v>3110</v>
-      </c>
       <c r="U35" s="34"/>
       <c r="V35" s="33"/>
       <c r="W35" s="33"/>
@@ -5983,7 +6033,10 @@
         <f>Q36-R36</f>
         <v>140</v>
       </c>
-      <c r="T36" s="124"/>
+      <c r="T36" s="124">
+        <f>SUM(S36:S37)</f>
+        <v>340</v>
+      </c>
       <c r="U36" s="34"/>
       <c r="V36" s="33"/>
       <c r="W36" s="33"/>
@@ -6485,6 +6538,10 @@
         <f t="shared" si="9"/>
         <v>540</v>
       </c>
+      <c r="T41" s="124">
+        <f>SUM(S41:S48)</f>
+        <v>3110</v>
+      </c>
       <c r="U41" s="34"/>
       <c r="V41" s="33"/>
       <c r="W41" s="33"/>
@@ -6978,10 +7035,6 @@
         <f t="shared" si="9"/>
         <v>500</v>
       </c>
-      <c r="T46" s="10">
-        <f>SUM(S49:S50)</f>
-        <v>230</v>
-      </c>
       <c r="U46" s="34"/>
       <c r="V46" s="33"/>
       <c r="W46" s="33"/>
@@ -7267,11 +7320,15 @@
         <v>130</v>
       </c>
       <c r="R49" s="20">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="S49" s="18">
         <f>Q49-R49</f>
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="T49" s="10">
+        <f>SUM(S49:S50)</f>
+        <v>200</v>
       </c>
       <c r="U49" s="34"/>
       <c r="V49" s="33"/>
@@ -8103,7 +8160,7 @@
         <v>43314</v>
       </c>
       <c r="H58" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J58" s="10">
         <v>112</v>
@@ -8187,6 +8244,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="G59" s="113">
+        <v>43315</v>
+      </c>
+      <c r="H59" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="J59" s="10">
+        <v>338.25</v>
+      </c>
       <c r="K59" s="12"/>
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
@@ -8269,6 +8335,15 @@
       <c r="E60">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="G60" s="113">
+        <v>43318</v>
+      </c>
+      <c r="H60" t="s">
+        <v>432</v>
+      </c>
+      <c r="J60" s="10">
+        <v>18.170000000000002</v>
       </c>
       <c r="K60" s="12"/>
       <c r="M60" s="16"/>
@@ -11137,7 +11212,7 @@
         <v>414</v>
       </c>
       <c r="AK94" s="54" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="AL94" s="54">
         <v>30</v>
@@ -11209,7 +11284,7 @@
         <v>73</v>
       </c>
       <c r="AC95" s="47" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AD95" s="39">
         <f t="shared" si="12"/>
@@ -11220,7 +11295,7 @@
         <v>50</v>
       </c>
       <c r="AG95" s="54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AH95" s="49">
         <f t="shared" si="18"/>
@@ -11233,7 +11308,7 @@
         <v>411</v>
       </c>
       <c r="AK95" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL95" s="54">
         <v>150</v>
@@ -11300,22 +11375,32 @@
       <c r="AB96" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AC96" s="47"/>
+      <c r="AC96" s="47" t="s">
+        <v>431</v>
+      </c>
       <c r="AD96" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-351</v>
       </c>
       <c r="AE96" s="48"/>
       <c r="AF96" s="48"/>
       <c r="AG96" s="54"/>
       <c r="AH96" s="49">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AI96" s="54"/>
-      <c r="AJ96" s="54"/>
-      <c r="AK96" s="54"/>
-      <c r="AL96" s="54"/>
+        <v>351</v>
+      </c>
+      <c r="AI96" s="54">
+        <v>76</v>
+      </c>
+      <c r="AJ96" s="54" t="s">
+        <v>428</v>
+      </c>
+      <c r="AK96" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="AL96" s="54">
+        <v>275</v>
+      </c>
       <c r="AM96" s="54"/>
       <c r="AN96" s="54"/>
       <c r="AO96" s="54"/>
@@ -11376,22 +11461,32 @@
       <c r="AB97" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AC97" s="47"/>
+      <c r="AC97" s="47" t="s">
+        <v>430</v>
+      </c>
       <c r="AD97" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AE97" s="48"/>
       <c r="AF97" s="48"/>
       <c r="AG97" s="54"/>
       <c r="AH97" s="49">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AI97" s="54"/>
-      <c r="AJ97" s="54"/>
-      <c r="AK97" s="54"/>
-      <c r="AL97" s="54"/>
+        <v>30</v>
+      </c>
+      <c r="AI97" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ97" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK97" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL97" s="54">
+        <v>30</v>
+      </c>
       <c r="AM97" s="54"/>
       <c r="AN97" s="54"/>
       <c r="AO97" s="54"/>
@@ -11452,23 +11547,39 @@
       <c r="AB98" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="AC98" s="47"/>
+      <c r="AC98" s="47" t="s">
+        <v>425</v>
+      </c>
       <c r="AD98" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-166</v>
       </c>
       <c r="AE98" s="48"/>
-      <c r="AF98" s="48"/>
-      <c r="AG98" s="54"/>
+      <c r="AF98" s="48">
+        <v>10</v>
+      </c>
+      <c r="AG98" s="54" t="s">
+        <v>424</v>
+      </c>
       <c r="AH98" s="49">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AI98" s="54"/>
-      <c r="AJ98" s="54"/>
-      <c r="AK98" s="54"/>
-      <c r="AL98" s="54"/>
-      <c r="AM98" s="54"/>
+        <v>176</v>
+      </c>
+      <c r="AI98" s="54">
+        <v>100</v>
+      </c>
+      <c r="AJ98" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK98" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="AL98" s="54">
+        <v>20</v>
+      </c>
+      <c r="AM98" s="54">
+        <v>56</v>
+      </c>
       <c r="AN98" s="54"/>
       <c r="AO98" s="54"/>
       <c r="AP98" s="54"/>
@@ -11484,10 +11595,12 @@
       <c r="AW98" s="54"/>
       <c r="AX98" s="54"/>
       <c r="AY98" s="54"/>
-      <c r="AZ98" s="54"/>
+      <c r="AZ98" s="54">
+        <v>4</v>
+      </c>
       <c r="BA98" s="54">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BB98" s="54"/>
       <c r="BC98">
@@ -11528,7 +11641,9 @@
       <c r="AB99" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AC99" s="47"/>
+      <c r="AC99" s="47" t="s">
+        <v>426</v>
+      </c>
       <c r="AD99" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11540,7 +11655,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AI99" s="54"/>
+      <c r="AI99" s="54">
+        <v>0</v>
+      </c>
       <c r="AJ99" s="54"/>
       <c r="AK99" s="54"/>
       <c r="AL99" s="54"/>
@@ -11607,19 +11724,27 @@
       <c r="AC100" s="47"/>
       <c r="AD100" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="AE100" s="48"/>
       <c r="AF100" s="48"/>
       <c r="AG100" s="54"/>
       <c r="AH100" s="49">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AI100" s="54"/>
-      <c r="AJ100" s="54"/>
-      <c r="AK100" s="54"/>
-      <c r="AL100" s="54"/>
+        <v>94</v>
+      </c>
+      <c r="AI100" s="54">
+        <v>26</v>
+      </c>
+      <c r="AJ100" s="54" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK100" s="54" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL100" s="54">
+        <v>18</v>
+      </c>
       <c r="AM100" s="54"/>
       <c r="AN100" s="54"/>
       <c r="AO100" s="54"/>
@@ -11631,9 +11756,11 @@
       <c r="AU100" s="54"/>
       <c r="AV100">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AW100" s="54"/>
+        <v>50</v>
+      </c>
+      <c r="AW100" s="54">
+        <v>50</v>
+      </c>
       <c r="AX100" s="54"/>
       <c r="AY100" s="54"/>
       <c r="AZ100" s="54"/>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -9,13 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja2 (2)" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="435">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -926,54 +924,6 @@
     <t>Duvalin; Sabritas</t>
   </si>
   <si>
-    <t>Neto</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dif </t>
-  </si>
-  <si>
-    <t>Despensa</t>
-  </si>
-  <si>
-    <t>Quincenal</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Sin desp</t>
-  </si>
-  <si>
-    <t>Ahorro</t>
-  </si>
-  <si>
-    <t>Afore</t>
-  </si>
-  <si>
-    <t>Primer Sueldo (SIN Descuentos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deposito </t>
-  </si>
-  <si>
-    <t>Suedo actual (Con AFORE + Seguro)</t>
-  </si>
-  <si>
-    <t>Diferencias en el Sueldo</t>
-  </si>
-  <si>
-    <t>Depositos</t>
-  </si>
-  <si>
-    <t>Mensual</t>
-  </si>
-  <si>
-    <t>Quincenal (?)</t>
-  </si>
-  <si>
     <t>Fridays Jaime</t>
   </si>
   <si>
@@ -1289,9 +1239,6 @@
     <t>Jaime Uber</t>
   </si>
   <si>
-    <t>Uber a casa</t>
-  </si>
-  <si>
     <t>Café con Ale</t>
   </si>
   <si>
@@ -1334,7 +1281,55 @@
     <t>Torta de Cochinita</t>
   </si>
   <si>
-    <t>Jugo de Zanahoria y Naranja</t>
+    <t>Uber a casa Tacondesa</t>
+  </si>
+  <si>
+    <t>Uber a casa desde Sol</t>
+  </si>
+  <si>
+    <t>Jugo de Zanahoria y Naranja, Café con sol</t>
+  </si>
+  <si>
+    <t>Comida Corrida Oscar</t>
+  </si>
+  <si>
+    <t>Ordenando escritorio</t>
+  </si>
+  <si>
+    <t>Dafne Resumenes Evidencias</t>
+  </si>
+  <si>
+    <t>07/08/2018 - Ana</t>
+  </si>
+  <si>
+    <t>Dulces (Pelon + Duvalin)</t>
+  </si>
+  <si>
+    <t>Chiles en Nogada</t>
+  </si>
+  <si>
+    <t>Udon y agua</t>
+  </si>
+  <si>
+    <t>Muerte estomacal</t>
+  </si>
+  <si>
+    <t>Preludio - Muerte estomacal</t>
+  </si>
+  <si>
+    <t>Dulces Ana, Jaime Spotify</t>
+  </si>
+  <si>
+    <t>Cena con Jaime (Tacondesa)</t>
+  </si>
+  <si>
+    <t>Prestamos Ale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL </t>
+  </si>
+  <si>
+    <t>Faltan</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1514,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1714,24 +1709,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1755,7 +1732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1979,18 +1956,14 @@
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2001,6 +1974,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2297,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,7 +2356,7 @@
       <c r="E2" s="54"/>
       <c r="F2" s="107">
         <f>N3-D2</f>
-        <v>9593.9000000000015</v>
+        <v>9122.7900000000009</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>2</v>
@@ -2510,7 +2484,7 @@
       </c>
       <c r="N3" s="23">
         <f>(SUM(D2,(K11:K503)))-(SUM((J11:J503),(I11:I503)))</f>
-        <v>17356.900000000001</v>
+        <v>16885.79</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -2598,7 +2572,7 @@
       </c>
       <c r="P4" s="76">
         <f>SUM(N3,S9,P7)</f>
-        <v>79276.899999999994</v>
+        <v>77777.790000000008</v>
       </c>
       <c r="Q4" s="54"/>
       <c r="AA4" s="45">
@@ -2769,7 +2743,7 @@
       </c>
       <c r="N6" s="50">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I503)))-(SUM((Y11:Y499)))</f>
-        <v>899</v>
+        <v>-129</v>
       </c>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
@@ -2853,7 +2827,7 @@
       </c>
       <c r="P7" s="75">
         <f>SUM(R7,N6)</f>
-        <v>900</v>
+        <v>-128</v>
       </c>
       <c r="Q7" s="72"/>
       <c r="R7" s="71">
@@ -2863,7 +2837,7 @@
       <c r="S7" s="109"/>
       <c r="T7" s="111">
         <f>E9</f>
-        <v>12056</v>
+        <v>12065</v>
       </c>
       <c r="AA7" s="45">
         <v>43225</v>
@@ -2995,13 +2969,13 @@
       <c r="D9" s="59"/>
       <c r="E9" s="42">
         <f>SUM(E10:E499)</f>
-        <v>12056</v>
+        <v>12065</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="150"/>
+      <c r="I9" s="146"/>
       <c r="J9" s="126"/>
       <c r="K9" s="6"/>
       <c r="M9" s="13" t="s">
@@ -3382,7 +3356,7 @@
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="T12" s="149">
+      <c r="T12" s="145">
         <f>SUM(R11:R21)</f>
         <v>0</v>
       </c>
@@ -3583,19 +3557,19 @@
       </c>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="138">
+      <c r="C14" s="134">
         <v>1300</v>
       </c>
-      <c r="D14" s="138">
+      <c r="D14" s="134">
         <v>1300</v>
       </c>
-      <c r="E14" s="138">
+      <c r="E14" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3811,10 +3785,10 @@
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B16" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C16">
         <v>2000</v>
@@ -3939,7 +3913,7 @@
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B17" t="s">
         <v>153</v>
@@ -4057,10 +4031,10 @@
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="B18" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C18">
         <v>50</v>
@@ -4184,10 +4158,10 @@
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B19" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C19">
         <v>96</v>
@@ -4298,10 +4272,18 @@
       <c r="BI19" s="36"/>
     </row>
     <row r="20" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
+      <c r="A20" s="147" t="s">
+        <v>424</v>
+      </c>
+      <c r="B20" t="s">
+        <v>425</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
       <c r="E20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G20" s="93">
         <v>43251</v>
@@ -4321,7 +4303,7 @@
         <v>23</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="P20" s="33"/>
       <c r="Q20" s="21">
@@ -4430,7 +4412,7 @@
         <v>23</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="P21" s="33"/>
       <c r="Q21" s="21">
@@ -4445,10 +4427,10 @@
         <v>43282</v>
       </c>
       <c r="V21" s="33" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="W21" s="33" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="X21" s="35">
         <v>300</v>
@@ -4535,7 +4517,7 @@
         <v>23</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="P22" s="33"/>
       <c r="Q22" s="21">
@@ -4550,10 +4532,10 @@
         <v>43284</v>
       </c>
       <c r="V22" s="33" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="W22" s="33" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="X22" s="35">
         <v>150</v>
@@ -4638,7 +4620,7 @@
         <v>23</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="P23" s="33"/>
       <c r="Q23" s="21">
@@ -4773,7 +4755,7 @@
         <v>43293</v>
       </c>
       <c r="V24" s="33" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="W24" s="33"/>
       <c r="X24" s="35">
@@ -4879,17 +4861,17 @@
         <v>600</v>
       </c>
       <c r="T25" s="124"/>
-      <c r="U25" s="146">
+      <c r="U25" s="142">
         <v>43295</v>
       </c>
       <c r="V25" s="55" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="W25" s="55"/>
-      <c r="X25" s="147">
+      <c r="X25" s="143">
         <v>500</v>
       </c>
-      <c r="Y25" s="147"/>
+      <c r="Y25" s="143"/>
       <c r="AA25" s="45">
         <v>43243</v>
       </c>
@@ -5104,7 +5086,7 @@
         <v>43315</v>
       </c>
       <c r="V27" s="33" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="W27" s="33" t="s">
         <v>65</v>
@@ -5923,7 +5905,7 @@
         <v>24</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="P35" s="33"/>
       <c r="Q35" s="21">
@@ -6008,7 +5990,7 @@
         <v>43280</v>
       </c>
       <c r="H36" s="54" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="I36" s="95"/>
       <c r="J36" s="96">
@@ -6103,7 +6085,7 @@
         <v>43281</v>
       </c>
       <c r="H37" s="54" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="I37" s="95">
         <v>5200</v>
@@ -6204,7 +6186,7 @@
         <v>43281</v>
       </c>
       <c r="H38" s="54" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="I38" s="95">
         <v>400</v>
@@ -6307,7 +6289,7 @@
         <v>43288</v>
       </c>
       <c r="H39" s="54" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="I39" s="95">
         <v>600</v>
@@ -6408,7 +6390,7 @@
         <v>43288</v>
       </c>
       <c r="H40" s="54" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="I40" s="95"/>
       <c r="J40" s="96">
@@ -6509,7 +6491,7 @@
         <v>43289</v>
       </c>
       <c r="H41" s="54" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="I41" s="95"/>
       <c r="J41" s="96">
@@ -6526,7 +6508,7 @@
         <v>96</v>
       </c>
       <c r="P41" s="33" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="Q41" s="21">
         <v>1040</v>
@@ -6802,15 +6784,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G44" s="140">
+      <c r="G44" s="136">
         <v>43293</v>
       </c>
-      <c r="H44" s="141" t="s">
-        <v>359</v>
-      </c>
-      <c r="I44" s="142"/>
-      <c r="J44" s="143"/>
-      <c r="K44" s="144">
+      <c r="H44" s="137" t="s">
+        <v>343</v>
+      </c>
+      <c r="I44" s="138"/>
+      <c r="J44" s="139"/>
+      <c r="K44" s="140">
         <v>1317</v>
       </c>
       <c r="M44" s="16" t="s">
@@ -6914,7 +6896,7 @@
         <v>43294</v>
       </c>
       <c r="H45" s="54" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="I45" s="95"/>
       <c r="J45" s="96">
@@ -7105,7 +7087,7 @@
         <v>43295</v>
       </c>
       <c r="H47" s="54" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="I47" s="95">
         <v>1000</v>
@@ -7202,7 +7184,7 @@
         <v>43299</v>
       </c>
       <c r="H48" s="54" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="I48" s="95">
         <v>3000</v>
@@ -7214,7 +7196,7 @@
         <v>26</v>
       </c>
       <c r="O48" s="16" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="P48" s="33"/>
       <c r="Q48" s="21">
@@ -7412,7 +7394,7 @@
         <v>43302</v>
       </c>
       <c r="H50" s="54" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="I50" s="95">
         <v>400</v>
@@ -7500,7 +7482,7 @@
         <v>43306</v>
       </c>
       <c r="H51" s="54" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="I51" s="95"/>
       <c r="J51" s="96">
@@ -7608,7 +7590,7 @@
         <v>43306</v>
       </c>
       <c r="H52" s="54" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="I52" s="95">
         <v>1700</v>
@@ -7802,7 +7784,7 @@
         <v>43307</v>
       </c>
       <c r="H54" s="54" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="I54" s="95"/>
       <c r="J54" s="96">
@@ -7982,7 +7964,7 @@
         <v>43308</v>
       </c>
       <c r="H56" s="54" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="I56" s="11">
         <v>4000</v>
@@ -8080,7 +8062,7 @@
         <v>43312</v>
       </c>
       <c r="H57" s="54" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="I57" s="11">
         <v>5500</v>
@@ -8160,7 +8142,7 @@
         <v>43314</v>
       </c>
       <c r="H58" s="54" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J58" s="10">
         <v>112</v>
@@ -8248,7 +8230,7 @@
         <v>43315</v>
       </c>
       <c r="H59" s="54" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="J59" s="10">
         <v>338.25</v>
@@ -8340,10 +8322,10 @@
         <v>43318</v>
       </c>
       <c r="H60" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="J60" s="10">
-        <v>18.170000000000002</v>
+        <v>18.28</v>
       </c>
       <c r="K60" s="12"/>
       <c r="M60" s="16"/>
@@ -8427,6 +8409,15 @@
       <c r="E61">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="G61" s="113">
+        <v>43318</v>
+      </c>
+      <c r="H61" t="s">
+        <v>419</v>
+      </c>
+      <c r="J61" s="10">
+        <v>188</v>
       </c>
       <c r="K61" s="12"/>
       <c r="M61" s="16"/>
@@ -8505,6 +8496,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="G62" s="113">
+        <v>43319</v>
+      </c>
+      <c r="H62" t="s">
+        <v>431</v>
+      </c>
+      <c r="J62" s="10">
+        <v>283</v>
+      </c>
       <c r="K62" s="12"/>
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
@@ -8528,7 +8528,7 @@
         <v>69</v>
       </c>
       <c r="AC62" s="47" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="AD62" s="39">
         <f t="shared" si="3"/>
@@ -8607,7 +8607,7 @@
         <v>70</v>
       </c>
       <c r="AC63" s="47" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="AD63" s="39">
         <f t="shared" si="3"/>
@@ -8620,7 +8620,7 @@
         <v>100</v>
       </c>
       <c r="AG63" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="AH63" s="49">
         <f t="shared" si="0"/>
@@ -8630,7 +8630,7 @@
         <v>185</v>
       </c>
       <c r="AJ63" s="54" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="AK63" s="54"/>
       <c r="AL63" s="96">
@@ -8710,7 +8710,7 @@
         <v>71</v>
       </c>
       <c r="AC64" s="47" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="AD64" s="39">
         <f t="shared" si="3"/>
@@ -8780,7 +8780,7 @@
         <v>72</v>
       </c>
       <c r="AC65" s="47" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="AD65" s="39">
         <f t="shared" si="3"/>
@@ -8796,10 +8796,10 @@
         <v>200</v>
       </c>
       <c r="AJ65" s="54" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="AK65" s="54" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="AL65" s="54">
         <v>4</v>
@@ -8861,7 +8861,7 @@
         <v>68</v>
       </c>
       <c r="AC66" s="47" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="AD66" s="39">
         <f t="shared" si="3"/>
@@ -8942,7 +8942,7 @@
         <v>73</v>
       </c>
       <c r="AC67" s="47" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="AD67" s="39">
         <f t="shared" si="3"/>
@@ -8961,7 +8961,7 @@
         <v>187</v>
       </c>
       <c r="AK67" s="54" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="AL67" s="54">
         <v>30</v>
@@ -8981,7 +8981,7 @@
         <f t="shared" ref="AV67:AV120" si="11">SUM(AW67,BD67,BC67)</f>
         <v>50</v>
       </c>
-      <c r="AW67" s="148">
+      <c r="AW67" s="144">
         <v>50</v>
       </c>
       <c r="AX67" s="54"/>
@@ -9027,7 +9027,7 @@
         <v>44</v>
       </c>
       <c r="AC68" s="47" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="AD68" s="39">
         <f t="shared" ref="AD68:AD125" si="12">(SUM(AE68,AF68))-AH68</f>
@@ -9043,10 +9043,10 @@
         <v>100</v>
       </c>
       <c r="AJ68" s="54" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="AK68" s="54" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="AL68" s="54">
         <v>30</v>
@@ -9108,7 +9108,7 @@
         <v>69</v>
       </c>
       <c r="AC69" s="47" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="AD69" s="39">
         <f t="shared" si="12"/>
@@ -9124,10 +9124,10 @@
         <v>390</v>
       </c>
       <c r="AJ69" s="54" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="AK69" s="54" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="AL69" s="54">
         <v>30</v>
@@ -9191,7 +9191,7 @@
         <v>70</v>
       </c>
       <c r="AC70" s="47" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="AD70" s="39">
         <f t="shared" si="12"/>
@@ -9207,15 +9207,15 @@
         <v>83</v>
       </c>
       <c r="AJ70" s="54" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="AK70" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="AL70" s="139">
+        <v>324</v>
+      </c>
+      <c r="AL70" s="135">
         <v>140</v>
       </c>
-      <c r="AM70" s="139">
+      <c r="AM70" s="135">
         <v>140</v>
       </c>
       <c r="AN70" s="54">
@@ -9276,7 +9276,7 @@
         <v>71</v>
       </c>
       <c r="AC71" s="47" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="AD71" s="39">
         <f t="shared" si="12"/>
@@ -9287,7 +9287,7 @@
         <v>100</v>
       </c>
       <c r="AG71" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="AH71" s="49">
         <f t="shared" si="10"/>
@@ -9295,7 +9295,7 @@
       </c>
       <c r="AJ71" s="54"/>
       <c r="AK71" s="54" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="AL71" s="54">
         <v>40</v>
@@ -9357,7 +9357,7 @@
         <v>72</v>
       </c>
       <c r="AC72" s="47" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="AD72" s="39">
         <f t="shared" si="12"/>
@@ -9373,7 +9373,7 @@
         <v>64</v>
       </c>
       <c r="AJ72" s="54" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="AK72" s="54"/>
       <c r="AL72" s="54"/>
@@ -9436,7 +9436,7 @@
         <v>68</v>
       </c>
       <c r="AC73" s="47" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="AD73" s="39">
         <f t="shared" si="12"/>
@@ -9457,7 +9457,7 @@
         <v>200</v>
       </c>
       <c r="AJ73" s="54" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="AK73" s="54" t="s">
         <v>153</v>
@@ -9522,7 +9522,7 @@
         <v>73</v>
       </c>
       <c r="AC74" s="47" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="AD74" s="39">
         <f t="shared" si="12"/>
@@ -9538,7 +9538,7 @@
         <v>125</v>
       </c>
       <c r="AJ74" s="54" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AK74" s="54"/>
       <c r="AL74" s="54"/>
@@ -9599,20 +9599,20 @@
         <v>44</v>
       </c>
       <c r="AC75" s="47" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="AD75" s="39">
         <f t="shared" si="12"/>
         <v>-30</v>
       </c>
       <c r="AE75" s="48"/>
-      <c r="AF75" s="145"/>
+      <c r="AF75" s="141"/>
       <c r="AH75" s="49">
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="AI75" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="AJ75" s="54"/>
       <c r="AK75" s="54" t="s">
@@ -9678,7 +9678,7 @@
         <v>69</v>
       </c>
       <c r="AC76" s="47" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="AD76" s="39">
         <f t="shared" si="12"/>
@@ -9695,7 +9695,7 @@
       </c>
       <c r="AJ76" s="54"/>
       <c r="AK76" s="54" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="AL76" s="54">
         <v>150</v>
@@ -9761,7 +9761,7 @@
         <v>70</v>
       </c>
       <c r="AC77" s="47" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="AD77" s="39">
         <f t="shared" si="12"/>
@@ -9779,10 +9779,10 @@
         <v>100</v>
       </c>
       <c r="AJ77" s="54" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="AK77" s="54" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="AL77" s="54">
         <v>22</v>
@@ -9849,7 +9849,7 @@
         <v>71</v>
       </c>
       <c r="AC78" s="47" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="AD78" s="39">
         <f t="shared" si="12"/>
@@ -9924,7 +9924,7 @@
         <v>72</v>
       </c>
       <c r="AC79" s="47" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="AD79" s="39">
         <f t="shared" si="12"/>
@@ -9937,7 +9937,7 @@
         <v>32</v>
       </c>
       <c r="AG79" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="AH79" s="49">
         <f t="shared" si="10"/>
@@ -9947,10 +9947,10 @@
         <v>100</v>
       </c>
       <c r="AJ79" s="54" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="AK79" s="54" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="AL79" s="54">
         <v>50</v>
@@ -10012,7 +10012,7 @@
         <v>68</v>
       </c>
       <c r="AC80" s="47" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="AD80" s="39">
         <f t="shared" si="12"/>
@@ -10089,7 +10089,7 @@
         <v>73</v>
       </c>
       <c r="AC81" s="47" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="AD81" s="39">
         <f t="shared" si="12"/>
@@ -10105,7 +10105,7 @@
         <v>100</v>
       </c>
       <c r="AJ81" s="54" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="AK81" s="54"/>
       <c r="AL81" s="54">
@@ -10170,7 +10170,7 @@
         <v>44</v>
       </c>
       <c r="AC82" s="47" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="AD82" s="39">
         <f t="shared" si="12"/>
@@ -10189,7 +10189,7 @@
         <v>187</v>
       </c>
       <c r="AK82" s="54" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="AL82" s="54">
         <v>10</v>
@@ -10257,7 +10257,7 @@
         <v>69</v>
       </c>
       <c r="AC83" s="47" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="AD83" s="39">
         <f t="shared" si="12"/>
@@ -10273,10 +10273,10 @@
         <v>60</v>
       </c>
       <c r="AJ83" s="54" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="AK83" s="54" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="AL83" s="54">
         <v>30</v>
@@ -10344,7 +10344,7 @@
         <v>70</v>
       </c>
       <c r="AC84" s="47" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="AD84" s="39">
         <f t="shared" si="12"/>
@@ -10363,7 +10363,7 @@
         <v>118</v>
       </c>
       <c r="AK84" s="54" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="AL84" s="54">
         <v>30</v>
@@ -10427,7 +10427,7 @@
         <v>71</v>
       </c>
       <c r="AC85" s="47" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="AD85" s="39">
         <f t="shared" si="12"/>
@@ -10497,7 +10497,7 @@
         <v>72</v>
       </c>
       <c r="AC86" s="47" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="AD86" s="39">
         <f t="shared" si="12"/>
@@ -10580,7 +10580,7 @@
         <v>68</v>
       </c>
       <c r="AC87" s="47" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="AD87" s="39">
         <f t="shared" si="12"/>
@@ -10664,7 +10664,7 @@
         <v>73</v>
       </c>
       <c r="AC88" s="47" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="AD88" s="39">
         <f t="shared" si="12"/>
@@ -10681,10 +10681,10 @@
         <v>65</v>
       </c>
       <c r="AJ88" s="54" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="AK88" s="54" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="AL88" s="96">
         <v>1700</v>
@@ -10752,7 +10752,7 @@
         <v>44</v>
       </c>
       <c r="AC89" s="47" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="AD89" s="39">
         <f t="shared" si="12"/>
@@ -10769,7 +10769,7 @@
         <v>83</v>
       </c>
       <c r="AJ89" s="54" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="AK89" s="54"/>
       <c r="AL89" s="54"/>
@@ -10836,7 +10836,7 @@
         <v>69</v>
       </c>
       <c r="AC90" s="47" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="AD90" s="39">
         <f t="shared" si="12"/>
@@ -10853,10 +10853,10 @@
         <v>150</v>
       </c>
       <c r="AJ90" s="54" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="AK90" s="54" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="AL90" s="54">
         <v>60</v>
@@ -10928,7 +10928,7 @@
         <v>70</v>
       </c>
       <c r="AC91" s="47" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="AD91" s="39">
         <f t="shared" si="12"/>
@@ -10948,7 +10948,7 @@
         <v>283</v>
       </c>
       <c r="AK91" s="54" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="AL91" s="54">
         <v>26</v>
@@ -11018,7 +11018,7 @@
         <v>71</v>
       </c>
       <c r="AC92" s="47" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="AD92" s="39">
         <f t="shared" si="12"/>
@@ -11035,10 +11035,10 @@
         <v>0</v>
       </c>
       <c r="AJ92" s="54" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="AK92" s="54" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="AL92" s="54">
         <v>100</v>
@@ -11108,7 +11108,7 @@
         <v>72</v>
       </c>
       <c r="AC93" s="47" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="AD93" s="39">
         <f t="shared" si="12"/>
@@ -11125,7 +11125,7 @@
         <v>67</v>
       </c>
       <c r="AJ93" s="54" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="AK93" s="54"/>
       <c r="AL93" s="89"/>
@@ -11192,7 +11192,7 @@
         <v>68</v>
       </c>
       <c r="AC94" s="47" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="AD94" s="39">
         <f t="shared" si="12"/>
@@ -11209,10 +11209,10 @@
         <v>26</v>
       </c>
       <c r="AJ94" s="54" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="AK94" s="54" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="AL94" s="54">
         <v>30</v>
@@ -11284,7 +11284,7 @@
         <v>73</v>
       </c>
       <c r="AC95" s="47" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="AD95" s="39">
         <f t="shared" si="12"/>
@@ -11295,7 +11295,7 @@
         <v>50</v>
       </c>
       <c r="AG95" s="54" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="AH95" s="49">
         <f t="shared" si="18"/>
@@ -11305,10 +11305,10 @@
         <v>67</v>
       </c>
       <c r="AJ95" s="54" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="AK95" s="54" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="AL95" s="54">
         <v>150</v>
@@ -11376,7 +11376,7 @@
         <v>44</v>
       </c>
       <c r="AC96" s="47" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="AD96" s="39">
         <f t="shared" si="12"/>
@@ -11393,10 +11393,10 @@
         <v>76</v>
       </c>
       <c r="AJ96" s="54" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="AK96" s="54" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="AL96" s="54">
         <v>275</v>
@@ -11462,7 +11462,7 @@
         <v>69</v>
       </c>
       <c r="AC97" s="47" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="AD97" s="39">
         <f t="shared" si="12"/>
@@ -11479,7 +11479,7 @@
         <v>83</v>
       </c>
       <c r="AJ97" s="54" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="AK97" s="54" t="s">
         <v>153</v>
@@ -11548,7 +11548,7 @@
         <v>70</v>
       </c>
       <c r="AC98" s="47" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="AD98" s="39">
         <f t="shared" si="12"/>
@@ -11559,7 +11559,7 @@
         <v>10</v>
       </c>
       <c r="AG98" s="54" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="AH98" s="49">
         <f t="shared" si="18"/>
@@ -11572,7 +11572,7 @@
         <v>118</v>
       </c>
       <c r="AK98" s="54" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="AL98" s="54">
         <v>20</v>
@@ -11642,7 +11642,7 @@
         <v>71</v>
       </c>
       <c r="AC99" s="47" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="AD99" s="39">
         <f t="shared" si="12"/>
@@ -11721,31 +11721,35 @@
       <c r="AB100" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="AC100" s="47"/>
+      <c r="AC100" s="47" t="s">
+        <v>423</v>
+      </c>
       <c r="AD100" s="39">
         <f t="shared" si="12"/>
-        <v>-94</v>
+        <v>-158</v>
       </c>
       <c r="AE100" s="48"/>
       <c r="AF100" s="48"/>
       <c r="AG100" s="54"/>
       <c r="AH100" s="49">
         <f t="shared" si="18"/>
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="AI100" s="54">
         <v>26</v>
       </c>
       <c r="AJ100" s="54" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AK100" s="54" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="AL100" s="54">
         <v>18</v>
       </c>
-      <c r="AM100" s="54"/>
+      <c r="AM100" s="54">
+        <v>64</v>
+      </c>
       <c r="AN100" s="54"/>
       <c r="AO100" s="54"/>
       <c r="AP100" s="54"/>
@@ -11807,23 +11811,35 @@
       <c r="AB101" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AC101" s="47"/>
+      <c r="AC101" s="47" t="s">
+        <v>422</v>
+      </c>
       <c r="AD101" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-729</v>
       </c>
       <c r="AE101" s="48"/>
       <c r="AF101" s="48"/>
       <c r="AG101" s="54"/>
       <c r="AH101" s="49">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AI101" s="54"/>
-      <c r="AJ101" s="54"/>
-      <c r="AK101" s="54"/>
-      <c r="AL101" s="54"/>
-      <c r="AM101" s="54"/>
+        <v>729</v>
+      </c>
+      <c r="AI101" s="54">
+        <v>70</v>
+      </c>
+      <c r="AJ101" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="AK101" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="AL101" s="96">
+        <v>9</v>
+      </c>
+      <c r="AM101" s="54">
+        <v>650</v>
+      </c>
       <c r="AN101" s="54"/>
       <c r="AO101" s="54"/>
       <c r="AP101" s="54"/>
@@ -11883,20 +11899,26 @@
       <c r="AB102" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="AC102" s="47"/>
+      <c r="AC102" s="47" t="s">
+        <v>429</v>
+      </c>
       <c r="AD102" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-115</v>
       </c>
       <c r="AE102" s="48"/>
       <c r="AF102" s="48"/>
       <c r="AG102" s="54"/>
       <c r="AH102" s="49">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AI102" s="54"/>
-      <c r="AJ102" s="54"/>
+        <v>115</v>
+      </c>
+      <c r="AI102" s="54">
+        <v>115</v>
+      </c>
+      <c r="AJ102" s="54" t="s">
+        <v>426</v>
+      </c>
       <c r="AK102" s="54"/>
       <c r="AL102" s="54"/>
       <c r="AM102" s="54"/>
@@ -11959,20 +11981,26 @@
       <c r="AB103" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AC103" s="47"/>
+      <c r="AC103" s="47" t="s">
+        <v>428</v>
+      </c>
       <c r="AD103" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="AE103" s="48"/>
       <c r="AF103" s="48"/>
       <c r="AG103" s="54"/>
       <c r="AH103" s="49">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AI103" s="54"/>
-      <c r="AJ103" s="54"/>
+        <v>120</v>
+      </c>
+      <c r="AI103" s="54">
+        <v>120</v>
+      </c>
+      <c r="AJ103" s="54" t="s">
+        <v>427</v>
+      </c>
       <c r="AK103" s="54"/>
       <c r="AL103" s="54"/>
       <c r="AM103" s="54"/>
@@ -30376,368 +30404,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I30"/>
+  <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>299</v>
-      </c>
-      <c r="G3" t="s">
-        <v>300</v>
-      </c>
-      <c r="I3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="123"/>
-      <c r="B4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C4">
-        <v>12188</v>
-      </c>
-      <c r="G4">
-        <v>10612</v>
-      </c>
-      <c r="I4">
-        <f>C4-G4</f>
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
-      <c r="B5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C5">
-        <f>C4-C23</f>
-        <v>11845.5</v>
-      </c>
-      <c r="E5">
-        <f>C4-C22</f>
-        <v>11503</v>
-      </c>
-      <c r="G5">
-        <f>G4-C23</f>
-        <v>10269.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="97"/>
-      <c r="B6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C6">
-        <f>C5*0.1</f>
-        <v>1184.55</v>
-      </c>
-      <c r="E6">
-        <f>E5*0.1</f>
-        <v>1150.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="97"/>
-      <c r="B7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C7">
-        <f>C5*0.01</f>
-        <v>118.455</v>
-      </c>
-      <c r="E7">
-        <f>E5*0.01</f>
-        <v>115.03</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="97"/>
-      <c r="B8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C8">
-        <f>SUM(C6,C7)</f>
-        <v>1303.0049999999999</v>
-      </c>
-      <c r="E8">
-        <f>SUM(E6, E7)</f>
-        <v>1265.33</v>
-      </c>
-      <c r="G8">
-        <f>C5-C8</f>
-        <v>10542.495000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
-      <c r="G10">
-        <f>E5-E8</f>
-        <v>10237.67</v>
-      </c>
-      <c r="H10">
-        <f>G10+C23</f>
-        <v>10580.17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="97"/>
-      <c r="E12">
-        <v>1100</v>
-      </c>
-      <c r="F12">
-        <f>E12*2</f>
-        <v>2200</v>
-      </c>
-      <c r="G12">
-        <f>2200*2</f>
-        <v>4400</v>
-      </c>
-      <c r="H12">
-        <f>G12*7</f>
-        <v>30800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="123">
-        <v>10612</v>
-      </c>
-      <c r="E13">
-        <v>1150</v>
-      </c>
-      <c r="F13">
-        <f>E13*2</f>
-        <v>2300</v>
-      </c>
-      <c r="G13">
-        <f>F13*2</f>
-        <v>4600</v>
-      </c>
-      <c r="H13">
-        <f>G13*7</f>
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F14">
-        <v>2992</v>
-      </c>
-      <c r="G14">
-        <f>F14*2</f>
-        <v>5984</v>
-      </c>
-      <c r="H14">
-        <f>G14*7</f>
-        <v>41888</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>302</v>
-      </c>
-      <c r="C22">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>303</v>
-      </c>
-      <c r="C23">
-        <f>C22/2</f>
-        <v>342.5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E28">
-        <v>12188</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>11000</v>
-      </c>
-      <c r="D29">
-        <v>1100</v>
-      </c>
-      <c r="E29">
-        <f>E28-D29</f>
-        <v>11088</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E30">
-        <f>E29-342.5</f>
-        <v>10745.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="135"/>
-      <c r="B2" s="134" t="s">
-        <v>302</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="H2" s="133" t="s">
-        <v>310</v>
-      </c>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="L2" s="109" t="s">
-        <v>311</v>
-      </c>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="134" t="s">
-        <v>313</v>
-      </c>
-      <c r="B3" s="4">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="134" t="s">
-        <v>314</v>
-      </c>
-      <c r="B4" s="4">
-        <f>B3/2</f>
-        <v>342.5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>309</v>
-      </c>
-      <c r="E4">
-        <v>12188</v>
-      </c>
-      <c r="H4" t="s">
-        <v>309</v>
-      </c>
-      <c r="I4">
-        <v>10612</v>
-      </c>
-      <c r="L4" t="s">
-        <v>312</v>
-      </c>
-      <c r="M4" s="71">
-        <f>E4-I4</f>
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="136"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>29926</v>
-      </c>
-      <c r="B10">
-        <f>A10*0.1</f>
-        <v>2992.6000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <f>E4*2</f>
-        <v>24376</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <f>B12-B10</f>
-        <v>21383.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f>B13/2</f>
-        <v>10691.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E8:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F8">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D1" s="81" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1" s="81"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="81" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2">
+        <f>SUM(C3:C1000)</f>
+        <v>54500</v>
+      </c>
+      <c r="D2">
+        <f>C2-16900</f>
+        <v>37600</v>
+      </c>
+      <c r="E2">
+        <v>5000</v>
+      </c>
+      <c r="F2">
+        <f>D2-5000</f>
+        <v>32600</v>
+      </c>
+      <c r="G2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>12500</v>
+      </c>
+      <c r="E3">
+        <v>20900</v>
+      </c>
+      <c r="F3">
+        <f>F2-20900</f>
+        <v>11700</v>
+      </c>
+      <c r="G3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>10000</v>
+      </c>
+      <c r="E4">
         <v>3500</v>
       </c>
-      <c r="G8">
-        <v>3500</v>
-      </c>
-      <c r="H8">
-        <v>3500</v>
-      </c>
-      <c r="I8">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9">
-        <v>13800</v>
-      </c>
-      <c r="F9">
-        <f>E9-F8</f>
-        <v>10300</v>
-      </c>
-      <c r="G9">
-        <f>F9-G8</f>
-        <v>6800</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ref="H9" si="0">G9-H8</f>
-        <v>3300</v>
+      <c r="F4">
+        <f>F3-3500</f>
+        <v>8200</v>
+      </c>
+      <c r="G4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>11000</v>
       </c>
     </row>
   </sheetData>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="458">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -1330,6 +1330,75 @@
   </si>
   <si>
     <t>Faltan</t>
+  </si>
+  <si>
+    <t>Pizzas Rústicas</t>
+  </si>
+  <si>
+    <t>Papá cooperó</t>
+  </si>
+  <si>
+    <t>Comida Corrida CENEVAL</t>
+  </si>
+  <si>
+    <t>Gastos Quincena</t>
+  </si>
+  <si>
+    <t>CENEVAL 1</t>
+  </si>
+  <si>
+    <t>No llego Etapa 1</t>
+  </si>
+  <si>
+    <t>Pedro en Casa!</t>
+  </si>
+  <si>
+    <t>Jaime Afro Samurai</t>
+  </si>
+  <si>
+    <t>Pizza Rústica</t>
+  </si>
+  <si>
+    <t>Turnitin + Diada Uli-Pao</t>
+  </si>
+  <si>
+    <t>Obra Juancho</t>
+  </si>
+  <si>
+    <t>Torta + Refresco + Golosinas</t>
+  </si>
+  <si>
+    <t>Comida Corrida CENEVAL + Capuchino</t>
+  </si>
+  <si>
+    <t>Ale Primer día | Ceneval Pao y Daf</t>
+  </si>
+  <si>
+    <t>Alitas con Jaime</t>
+  </si>
+  <si>
+    <t>Uber a casa</t>
+  </si>
+  <si>
+    <t>Comida Corrida Esquina + Cheetos + Duvalin</t>
+  </si>
+  <si>
+    <t>Toks Nadia</t>
+  </si>
+  <si>
+    <t>Gasto 2 semanas</t>
+  </si>
+  <si>
+    <t>Propina Oscar + Patrick</t>
+  </si>
+  <si>
+    <t>Capuchino + Torta Jaime</t>
+  </si>
+  <si>
+    <t>Pizzas con Ale</t>
+  </si>
+  <si>
+    <t>Uber Pizzas con Ale</t>
   </si>
 </sst>
 </file>
@@ -2271,8 +2340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI963"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2356,7 +2425,7 @@
       <c r="E2" s="54"/>
       <c r="F2" s="107">
         <f>N3-D2</f>
-        <v>9122.7900000000009</v>
+        <v>13701.79</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>2</v>
@@ -2484,7 +2553,7 @@
       </c>
       <c r="N3" s="23">
         <f>(SUM(D2,(K11:K503)))-(SUM((J11:J503),(I11:I503)))</f>
-        <v>16885.79</v>
+        <v>21464.79</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -2572,7 +2641,7 @@
       </c>
       <c r="P4" s="76">
         <f>SUM(N3,S9,P7)</f>
-        <v>77777.790000000008</v>
+        <v>86688.290000000008</v>
       </c>
       <c r="Q4" s="54"/>
       <c r="AA4" s="45">
@@ -2641,7 +2710,7 @@
       </c>
       <c r="BH4" s="55">
         <f>(SUM((AW3:AW519)))-(SUM((BA3:BA519)))</f>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="BI4" s="55"/>
     </row>
@@ -2743,7 +2812,7 @@
       </c>
       <c r="N6" s="50">
         <f>(SUM((X11:X299),(AD3:AD500),(I11:I503)))-(SUM((Y11:Y499)))</f>
-        <v>-129</v>
+        <v>303.5</v>
       </c>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
@@ -2827,12 +2896,12 @@
       </c>
       <c r="P7" s="75">
         <f>SUM(R7,N6)</f>
-        <v>-128</v>
+        <v>303.5</v>
       </c>
       <c r="Q7" s="72"/>
       <c r="R7" s="71">
         <f>(SUM(Y11:Y499))-(SUM(K11:K503))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="109"/>
       <c r="T7" s="111">
@@ -2989,8 +3058,8 @@
         <v>25</v>
       </c>
       <c r="S9" s="13">
-        <f>SUM(S11:S491)</f>
-        <v>61020</v>
+        <f>SUM(S11:S492)</f>
+        <v>64920</v>
       </c>
       <c r="U9" s="30" t="s">
         <v>40</v>
@@ -3232,12 +3301,12 @@
       </c>
       <c r="R11" s="20"/>
       <c r="S11" s="18">
-        <f t="shared" ref="S11:S35" si="6">Q11-R11</f>
+        <f t="shared" ref="S11:S36" si="6">Q11-R11</f>
         <v>5000</v>
       </c>
       <c r="T11" s="125">
-        <f>SUM(S11:S23)</f>
-        <v>46350</v>
+        <f>SUM(S11:S24)</f>
+        <v>50250</v>
       </c>
       <c r="U11" s="34">
         <v>43221</v>
@@ -3482,7 +3551,7 @@
       </c>
       <c r="R13" s="20"/>
       <c r="S13" s="18">
-        <f t="shared" ref="S13:S23" si="7">Q13-R13</f>
+        <f t="shared" ref="S13:S24" si="7">Q13-R13</f>
         <v>3200</v>
       </c>
       <c r="T13" s="124"/>
@@ -4731,25 +4800,23 @@
       </c>
       <c r="J24" s="96"/>
       <c r="K24" s="97"/>
-      <c r="M24" s="16"/>
+      <c r="M24" s="57">
+        <v>43331</v>
+      </c>
       <c r="N24" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>34</v>
+        <v>453</v>
       </c>
       <c r="P24" s="33"/>
       <c r="Q24" s="21">
-        <v>1100</v>
+        <v>3900</v>
       </c>
       <c r="R24" s="20"/>
       <c r="S24" s="18">
-        <f t="shared" si="6"/>
-        <v>1100</v>
-      </c>
-      <c r="T24" s="124">
-        <f>SUM(S24:S35)</f>
-        <v>5270</v>
+        <f t="shared" si="7"/>
+        <v>3900</v>
       </c>
       <c r="U24" s="34">
         <v>43293</v>
@@ -4849,18 +4916,21 @@
         <v>24</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="P25" s="33"/>
       <c r="Q25" s="21">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="R25" s="20"/>
       <c r="S25" s="18">
         <f t="shared" si="6"/>
-        <v>600</v>
-      </c>
-      <c r="T25" s="124"/>
+        <v>1100</v>
+      </c>
+      <c r="T25" s="124">
+        <f>SUM(S25:S36)</f>
+        <v>5270</v>
+      </c>
       <c r="U25" s="142">
         <v>43295</v>
       </c>
@@ -4953,16 +5023,16 @@
         <v>24</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P26" s="33"/>
       <c r="Q26" s="21">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="R26" s="20"/>
       <c r="S26" s="18">
-        <f>Q26-R26</f>
-        <v>1000</v>
+        <f t="shared" si="6"/>
+        <v>600</v>
       </c>
       <c r="T26" s="124"/>
       <c r="U26" s="34">
@@ -4973,10 +5043,10 @@
       </c>
       <c r="W26" s="33"/>
       <c r="X26" s="35">
-        <v>11052</v>
+        <v>11051</v>
       </c>
       <c r="Y26" s="35">
-        <v>11052</v>
+        <v>11051</v>
       </c>
       <c r="AA26" s="45">
         <v>43244</v>
@@ -5070,16 +5140,16 @@
         <v>24</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="P27" s="33"/>
       <c r="Q27" s="21">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="R27" s="20"/>
       <c r="S27" s="18">
-        <f t="shared" si="6"/>
-        <v>120</v>
+        <f>Q27-R27</f>
+        <v>1000</v>
       </c>
       <c r="T27" s="124"/>
       <c r="U27" s="34">
@@ -5187,16 +5257,16 @@
         <v>24</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P28" s="33"/>
       <c r="Q28" s="21">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="R28" s="20"/>
       <c r="S28" s="18">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="T28" s="124"/>
       <c r="U28" s="34">
@@ -5295,23 +5365,31 @@
         <v>24</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P29" s="33"/>
       <c r="Q29" s="21">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="R29" s="20"/>
       <c r="S29" s="18">
         <f t="shared" si="6"/>
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="T29" s="124"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="33"/>
+      <c r="U29" s="34">
+        <v>43326</v>
+      </c>
+      <c r="V29" s="33" t="s">
+        <v>205</v>
+      </c>
       <c r="W29" s="33"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
+      <c r="X29" s="35">
+        <v>11052</v>
+      </c>
+      <c r="Y29" s="35">
+        <v>11052</v>
+      </c>
       <c r="AA29" s="45">
         <v>43247</v>
       </c>
@@ -5391,17 +5469,18 @@
         <v>24</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P30" s="33"/>
       <c r="Q30" s="21">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="R30" s="20"/>
       <c r="S30" s="18">
         <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="T30" s="124"/>
       <c r="U30" s="34"/>
       <c r="V30" s="33"/>
       <c r="W30" s="33"/>
@@ -5496,18 +5575,17 @@
         <v>24</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P31" s="33"/>
       <c r="Q31" s="21">
-        <v>850</v>
+        <v>100</v>
       </c>
       <c r="R31" s="20"/>
       <c r="S31" s="18">
         <f t="shared" si="6"/>
-        <v>850</v>
-      </c>
-      <c r="T31" s="124"/>
+        <v>100</v>
+      </c>
       <c r="U31" s="34"/>
       <c r="V31" s="33"/>
       <c r="W31" s="33"/>
@@ -5598,16 +5676,16 @@
         <v>24</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P32" s="33"/>
       <c r="Q32" s="21">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="R32" s="20"/>
       <c r="S32" s="18">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="T32" s="124"/>
       <c r="U32" s="34"/>
@@ -5694,16 +5772,16 @@
         <v>24</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="P33" s="33"/>
       <c r="Q33" s="21">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R33" s="20"/>
       <c r="S33" s="18">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T33" s="124"/>
       <c r="U33" s="34"/>
@@ -5803,16 +5881,16 @@
         <v>24</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="P34" s="33"/>
       <c r="Q34" s="21">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R34" s="20"/>
       <c r="S34" s="18">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T34" s="124"/>
       <c r="U34" s="34"/>
@@ -5905,17 +5983,18 @@
         <v>24</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>383</v>
+        <v>65</v>
       </c>
       <c r="P35" s="33"/>
       <c r="Q35" s="21">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="R35" s="20"/>
       <c r="S35" s="18">
         <f t="shared" si="6"/>
-        <v>150</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="T35" s="124"/>
       <c r="U35" s="34"/>
       <c r="V35" s="33"/>
       <c r="W35" s="33"/>
@@ -5997,27 +6076,21 @@
         <v>413</v>
       </c>
       <c r="K36" s="97"/>
-      <c r="M36" s="57">
-        <v>42802</v>
-      </c>
+      <c r="M36" s="16"/>
       <c r="N36" s="16" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>63</v>
+        <v>383</v>
       </c>
       <c r="P36" s="33"/>
       <c r="Q36" s="21">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="R36" s="20"/>
       <c r="S36" s="18">
-        <f>Q36-R36</f>
-        <v>140</v>
-      </c>
-      <c r="T36" s="124">
-        <f>SUM(S36:S37)</f>
-        <v>340</v>
+        <f t="shared" si="6"/>
+        <v>150</v>
       </c>
       <c r="U36" s="34"/>
       <c r="V36" s="33"/>
@@ -6099,16 +6172,20 @@
         <v>62</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P37" s="33"/>
       <c r="Q37" s="21">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="R37" s="20"/>
       <c r="S37" s="18">
         <f>Q37-R37</f>
-        <v>200</v>
+        <v>140</v>
+      </c>
+      <c r="T37" s="124">
+        <f>SUM(S37:S38)</f>
+        <v>340</v>
       </c>
       <c r="U37" s="34"/>
       <c r="V37" s="33"/>
@@ -6194,22 +6271,22 @@
       <c r="J38" s="96"/>
       <c r="K38" s="97"/>
       <c r="M38" s="57">
-        <v>43266</v>
+        <v>42802</v>
       </c>
       <c r="N38" s="16" t="s">
         <v>62</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="P38" s="33"/>
       <c r="Q38" s="21">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="R38" s="20"/>
       <c r="S38" s="18">
         <f>Q38-R38</f>
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="U38" s="34"/>
       <c r="V38" s="33"/>
@@ -6296,23 +6373,23 @@
       </c>
       <c r="J39" s="96"/>
       <c r="K39" s="97"/>
-      <c r="M39" s="16"/>
+      <c r="M39" s="57">
+        <v>43266</v>
+      </c>
       <c r="N39" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="P39" s="33"/>
       <c r="Q39" s="21">
-        <v>1800</v>
-      </c>
-      <c r="R39" s="20">
-        <v>1150</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="R39" s="20"/>
       <c r="S39" s="18">
         <f>Q39-R39</f>
-        <v>650</v>
+        <v>5000</v>
       </c>
       <c r="U39" s="34"/>
       <c r="V39" s="33"/>
@@ -6397,23 +6474,23 @@
         <v>497</v>
       </c>
       <c r="K40" s="97"/>
-      <c r="M40" s="57">
-        <v>43010</v>
-      </c>
+      <c r="M40" s="16"/>
       <c r="N40" s="16" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="P40" s="33"/>
       <c r="Q40" s="21">
-        <v>100</v>
-      </c>
-      <c r="R40" s="20"/>
+        <v>1800</v>
+      </c>
+      <c r="R40" s="20">
+        <v>1150</v>
+      </c>
       <c r="S40" s="18">
-        <f t="shared" ref="S40:S74" si="9">Q40-R40</f>
-        <v>100</v>
+        <f>Q40-R40</f>
+        <v>650</v>
       </c>
       <c r="U40" s="34"/>
       <c r="V40" s="33"/>
@@ -6498,31 +6575,23 @@
         <v>244</v>
       </c>
       <c r="K41" s="97"/>
-      <c r="M41" s="16" t="s">
-        <v>97</v>
+      <c r="M41" s="57">
+        <v>43010</v>
       </c>
       <c r="N41" s="16" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="P41" s="33" t="s">
-        <v>347</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P41" s="33"/>
       <c r="Q41" s="21">
-        <v>1040</v>
-      </c>
-      <c r="R41" s="20">
-        <v>500</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="R41" s="20"/>
       <c r="S41" s="18">
-        <f t="shared" si="9"/>
-        <v>540</v>
-      </c>
-      <c r="T41" s="124">
-        <f>SUM(S41:S48)</f>
-        <v>3110</v>
+        <f t="shared" ref="S41:S75" si="9">Q41-R41</f>
+        <v>100</v>
       </c>
       <c r="U41" s="34"/>
       <c r="V41" s="33"/>
@@ -6609,23 +6678,31 @@
         <v>30</v>
       </c>
       <c r="K42" s="97"/>
-      <c r="M42" s="16"/>
+      <c r="M42" s="16" t="s">
+        <v>97</v>
+      </c>
       <c r="N42" s="16" t="s">
         <v>26</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="P42" s="33"/>
+        <v>96</v>
+      </c>
+      <c r="P42" s="33" t="s">
+        <v>347</v>
+      </c>
       <c r="Q42" s="21">
-        <v>2900</v>
+        <v>1040</v>
       </c>
       <c r="R42" s="20">
-        <v>1550</v>
+        <v>500</v>
       </c>
       <c r="S42" s="18">
         <f t="shared" si="9"/>
-        <v>1350</v>
+        <v>540</v>
+      </c>
+      <c r="T42" s="124">
+        <f>SUM(S42:S49)</f>
+        <v>3110</v>
       </c>
       <c r="U42" s="34"/>
       <c r="V42" s="33"/>
@@ -6711,16 +6788,18 @@
         <v>26</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P43" s="33"/>
       <c r="Q43" s="21">
-        <v>240</v>
-      </c>
-      <c r="R43" s="20"/>
+        <v>2900</v>
+      </c>
+      <c r="R43" s="20">
+        <v>1550</v>
+      </c>
       <c r="S43" s="18">
         <f t="shared" si="9"/>
-        <v>240</v>
+        <v>1350</v>
       </c>
       <c r="U43" s="34"/>
       <c r="V43" s="33"/>
@@ -6795,27 +6874,21 @@
       <c r="K44" s="140">
         <v>1317</v>
       </c>
-      <c r="M44" s="16" t="s">
-        <v>120</v>
-      </c>
+      <c r="M44" s="16"/>
       <c r="N44" s="16" t="s">
         <v>26</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="P44" s="33" t="s">
-        <v>232</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P44" s="33"/>
       <c r="Q44" s="21">
-        <v>1500</v>
-      </c>
-      <c r="R44" s="20">
-        <v>1300</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="R44" s="20"/>
       <c r="S44" s="18">
-        <f>Q44-R44</f>
-        <v>200</v>
+        <f t="shared" si="9"/>
+        <v>240</v>
       </c>
       <c r="U44" s="34"/>
       <c r="V44" s="33"/>
@@ -6833,11 +6906,11 @@
       </c>
       <c r="AD44" s="39">
         <f t="shared" si="3"/>
-        <v>173</v>
+        <v>297</v>
       </c>
       <c r="AE44" s="48"/>
       <c r="AF44" s="132">
-        <v>308</v>
+        <v>432</v>
       </c>
       <c r="AG44" t="s">
         <v>274</v>
@@ -6903,21 +6976,27 @@
         <v>310</v>
       </c>
       <c r="K45" s="97"/>
-      <c r="M45" s="16"/>
+      <c r="M45" s="16" t="s">
+        <v>120</v>
+      </c>
       <c r="N45" s="16" t="s">
         <v>26</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="P45" s="33"/>
+        <v>121</v>
+      </c>
+      <c r="P45" s="33" t="s">
+        <v>232</v>
+      </c>
       <c r="Q45" s="21">
-        <v>100</v>
-      </c>
-      <c r="R45" s="20"/>
+        <v>1500</v>
+      </c>
+      <c r="R45" s="20">
+        <v>1300</v>
+      </c>
       <c r="S45" s="18">
-        <f t="shared" si="9"/>
-        <v>100</v>
+        <f>Q45-R45</f>
+        <v>200</v>
       </c>
       <c r="U45" s="34"/>
       <c r="V45" s="33"/>
@@ -7006,16 +7085,16 @@
         <v>26</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>236</v>
+        <v>124</v>
       </c>
       <c r="P46" s="33"/>
       <c r="Q46" s="21">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="R46" s="20"/>
       <c r="S46" s="18">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="U46" s="34"/>
       <c r="V46" s="33"/>
@@ -7096,19 +7175,19 @@
       <c r="K47" s="97"/>
       <c r="M47" s="16"/>
       <c r="N47" s="16" t="s">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P47" s="33"/>
       <c r="Q47" s="21">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="R47" s="20"/>
       <c r="S47" s="18">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="U47" s="34"/>
       <c r="V47" s="33"/>
@@ -7193,19 +7272,19 @@
       <c r="K48" s="54"/>
       <c r="M48" s="16"/>
       <c r="N48" s="16" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="O48" s="16" t="s">
-        <v>374</v>
+        <v>234</v>
       </c>
       <c r="P48" s="33"/>
       <c r="Q48" s="21">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="R48" s="20"/>
       <c r="S48" s="18">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="U48" s="34"/>
       <c r="V48" s="33"/>
@@ -7292,25 +7371,19 @@
       <c r="K49" s="97"/>
       <c r="M49" s="16"/>
       <c r="N49" s="16" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="O49" s="16" t="s">
-        <v>123</v>
+        <v>374</v>
       </c>
       <c r="P49" s="33"/>
       <c r="Q49" s="21">
-        <v>130</v>
-      </c>
-      <c r="R49" s="20">
-        <v>130</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="R49" s="20"/>
       <c r="S49" s="18">
-        <f>Q49-R49</f>
-        <v>0</v>
-      </c>
-      <c r="T49" s="10">
-        <f>SUM(S49:S50)</f>
-        <v>200</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
       <c r="U49" s="34"/>
       <c r="V49" s="33"/>
@@ -7401,22 +7474,26 @@
       </c>
       <c r="J50" s="96"/>
       <c r="K50" s="97"/>
-      <c r="M50" s="57">
-        <v>43180</v>
-      </c>
+      <c r="M50" s="16"/>
       <c r="N50" s="16" t="s">
-        <v>253</v>
+        <v>122</v>
       </c>
       <c r="O50" s="16" t="s">
-        <v>254</v>
+        <v>123</v>
       </c>
       <c r="P50" s="33"/>
       <c r="Q50" s="21">
-        <v>200</v>
-      </c>
-      <c r="R50" s="20"/>
+        <v>130</v>
+      </c>
+      <c r="R50" s="20">
+        <v>130</v>
+      </c>
       <c r="S50" s="18">
-        <f t="shared" si="9"/>
+        <f>Q50-R50</f>
+        <v>0</v>
+      </c>
+      <c r="T50" s="10">
+        <f>SUM(S50:S51)</f>
         <v>200</v>
       </c>
       <c r="U50" s="34"/>
@@ -7490,24 +7567,22 @@
       </c>
       <c r="K51" s="97"/>
       <c r="M51" s="57">
-        <v>43266</v>
+        <v>43180</v>
       </c>
       <c r="N51" s="16" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="O51" s="16" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="P51" s="33"/>
       <c r="Q51" s="21">
-        <v>55</v>
-      </c>
-      <c r="R51" s="20">
-        <v>55</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="R51" s="20"/>
       <c r="S51" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U51" s="34"/>
       <c r="V51" s="33"/>
@@ -7601,17 +7676,17 @@
         <v>43266</v>
       </c>
       <c r="N52" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P52" s="33"/>
       <c r="Q52" s="21">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="R52" s="20">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="S52" s="18">
         <f t="shared" si="9"/>
@@ -7704,12 +7779,22 @@
         <v>30</v>
       </c>
       <c r="K53" s="97"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
+      <c r="M53" s="57">
+        <v>43266</v>
+      </c>
+      <c r="N53" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="O53" s="16" t="s">
+        <v>268</v>
+      </c>
       <c r="P53" s="33"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="20"/>
+      <c r="Q53" s="21">
+        <v>60</v>
+      </c>
+      <c r="R53" s="20">
+        <v>60</v>
+      </c>
       <c r="S53" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -8584,6 +8669,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="G63" s="113">
+        <v>43322</v>
+      </c>
+      <c r="H63" t="s">
+        <v>435</v>
+      </c>
+      <c r="J63" s="10">
+        <v>231</v>
+      </c>
       <c r="K63" s="12"/>
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
@@ -8611,13 +8705,13 @@
       </c>
       <c r="AD63" s="39">
         <f t="shared" si="3"/>
-        <v>-5455</v>
+        <v>-5355</v>
       </c>
       <c r="AE63" s="48">
         <v>200</v>
       </c>
       <c r="AF63" s="48">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AG63" t="s">
         <v>307</v>
@@ -8687,7 +8781,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K64" s="12"/>
+      <c r="G64" s="119">
+        <v>43326</v>
+      </c>
+      <c r="H64" s="120" t="s">
+        <v>205</v>
+      </c>
+      <c r="I64" s="131"/>
+      <c r="J64" s="122"/>
+      <c r="K64" s="123">
+        <v>11052</v>
+      </c>
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
       <c r="O64" s="16"/>
@@ -8757,6 +8861,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="G65" s="113">
+        <v>43326</v>
+      </c>
+      <c r="H65" t="s">
+        <v>207</v>
+      </c>
+      <c r="J65" s="10">
+        <v>202</v>
+      </c>
       <c r="K65" s="12"/>
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
@@ -8838,6 +8951,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="G66" s="113">
+        <v>43326</v>
+      </c>
+      <c r="H66" t="s">
+        <v>438</v>
+      </c>
+      <c r="I66" s="11">
+        <v>600</v>
+      </c>
       <c r="K66" s="12"/>
       <c r="M66" s="16"/>
       <c r="N66" s="16"/>
@@ -8919,6 +9041,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="G67" s="113">
+        <v>43326</v>
+      </c>
+      <c r="H67" t="s">
+        <v>445</v>
+      </c>
+      <c r="J67" s="10">
+        <v>80</v>
+      </c>
       <c r="K67" s="12"/>
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
@@ -9004,6 +9135,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="G68" s="113">
+        <v>43328</v>
+      </c>
+      <c r="H68" t="s">
+        <v>449</v>
+      </c>
+      <c r="J68" s="10">
+        <v>176</v>
+      </c>
       <c r="K68" s="12"/>
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
@@ -9085,6 +9225,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="G69" s="113">
+        <v>43328</v>
+      </c>
+      <c r="H69" t="s">
+        <v>450</v>
+      </c>
+      <c r="J69" s="10">
+        <v>204</v>
+      </c>
       <c r="K69" s="12"/>
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
@@ -9168,6 +9317,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="G70" s="113">
+        <v>43331</v>
+      </c>
+      <c r="H70" t="s">
+        <v>220</v>
+      </c>
+      <c r="I70" s="11">
+        <v>4000</v>
+      </c>
       <c r="K70" s="12"/>
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
@@ -9252,6 +9410,15 @@
       <c r="E71">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="G71" s="113">
+        <v>43331</v>
+      </c>
+      <c r="H71" t="s">
+        <v>452</v>
+      </c>
+      <c r="J71" s="10">
+        <v>349</v>
       </c>
       <c r="K71" s="12"/>
       <c r="M71" s="16"/>
@@ -9333,6 +9500,15 @@
       <c r="E72">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="G72" s="113">
+        <v>43333</v>
+      </c>
+      <c r="H72" t="s">
+        <v>456</v>
+      </c>
+      <c r="J72" s="10">
+        <v>440</v>
       </c>
       <c r="K72" s="12"/>
       <c r="M72" s="16"/>
@@ -9413,6 +9589,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="G73" s="113">
+        <v>43333</v>
+      </c>
+      <c r="H73" t="s">
+        <v>457</v>
+      </c>
+      <c r="J73" s="10">
+        <v>191</v>
+      </c>
       <c r="K73" s="12"/>
       <c r="M73" s="16"/>
       <c r="N73" s="16"/>
@@ -9584,7 +9769,7 @@
       <c r="Q75" s="21"/>
       <c r="R75" s="20"/>
       <c r="S75" s="18">
-        <f t="shared" ref="S75:S129" si="15">Q75-R75</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U75" s="33"/>
@@ -9663,7 +9848,7 @@
       <c r="Q76" s="21"/>
       <c r="R76" s="20"/>
       <c r="S76" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="S76:S130" si="15">Q76-R76</f>
         <v>0</v>
       </c>
       <c r="U76" s="33"/>
@@ -11767,10 +11952,12 @@
       </c>
       <c r="AX100" s="54"/>
       <c r="AY100" s="54"/>
-      <c r="AZ100" s="54"/>
+      <c r="AZ100" s="54">
+        <v>2</v>
+      </c>
       <c r="BA100" s="54">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB100" s="54"/>
       <c r="BC100">
@@ -11855,10 +12042,12 @@
       <c r="AW101" s="54"/>
       <c r="AX101" s="54"/>
       <c r="AY101" s="54"/>
-      <c r="AZ101" s="54"/>
+      <c r="AZ101" s="54">
+        <v>2</v>
+      </c>
       <c r="BA101" s="54">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB101" s="54"/>
       <c r="BC101">
@@ -11937,10 +12126,12 @@
       <c r="AW102" s="54"/>
       <c r="AX102" s="54"/>
       <c r="AY102" s="54"/>
-      <c r="AZ102" s="54"/>
+      <c r="AZ102" s="54">
+        <v>2</v>
+      </c>
       <c r="BA102" s="54">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB102" s="54"/>
       <c r="BC102">
@@ -12019,10 +12210,12 @@
       <c r="AW103" s="54"/>
       <c r="AX103" s="54"/>
       <c r="AY103" s="54"/>
-      <c r="AZ103" s="54"/>
+      <c r="AZ103" s="54">
+        <v>2</v>
+      </c>
       <c r="BA103" s="54">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB103" s="54"/>
       <c r="BC103">
@@ -12063,7 +12256,9 @@
       <c r="AB104" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AC104" s="47"/>
+      <c r="AC104" s="47" t="s">
+        <v>443</v>
+      </c>
       <c r="AD104" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -12075,7 +12270,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AI104" s="54"/>
+      <c r="AI104" s="54" t="s">
+        <v>83</v>
+      </c>
       <c r="AJ104" s="54"/>
       <c r="AK104" s="54"/>
       <c r="AL104" s="54"/>
@@ -12095,10 +12292,12 @@
       <c r="AW104" s="54"/>
       <c r="AX104" s="54"/>
       <c r="AY104" s="54"/>
-      <c r="AZ104" s="54"/>
+      <c r="AZ104" s="54">
+        <v>2</v>
+      </c>
       <c r="BA104" s="54">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB104" s="54"/>
       <c r="BC104">
@@ -12139,7 +12338,9 @@
       <c r="AB105" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="AC105" s="47"/>
+      <c r="AC105" s="47" t="s">
+        <v>442</v>
+      </c>
       <c r="AD105" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -12151,7 +12352,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AI105" s="54"/>
+      <c r="AI105" s="54" t="s">
+        <v>349</v>
+      </c>
       <c r="AJ105" s="54"/>
       <c r="AK105" s="54"/>
       <c r="AL105" s="54"/>
@@ -12215,7 +12418,9 @@
       <c r="AB106" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AC106" s="47"/>
+      <c r="AC106" s="47" t="s">
+        <v>441</v>
+      </c>
       <c r="AD106" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -12291,20 +12496,30 @@
       <c r="AB107" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="AC107" s="47"/>
+      <c r="AC107" s="47" t="s">
+        <v>439</v>
+      </c>
       <c r="AD107" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE107" s="48"/>
-      <c r="AF107" s="48"/>
-      <c r="AG107" s="54"/>
+      <c r="AF107" s="48">
+        <v>120</v>
+      </c>
+      <c r="AG107" s="54" t="s">
+        <v>436</v>
+      </c>
       <c r="AH107" s="49">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AI107" s="54"/>
-      <c r="AJ107" s="54"/>
+        <v>95</v>
+      </c>
+      <c r="AI107" s="54">
+        <v>45</v>
+      </c>
+      <c r="AJ107" s="54" t="s">
+        <v>437</v>
+      </c>
       <c r="AK107" s="54"/>
       <c r="AL107" s="54"/>
       <c r="AM107" s="54"/>
@@ -12318,15 +12533,21 @@
       <c r="AU107" s="54"/>
       <c r="AV107">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AW107" s="54"/>
-      <c r="AX107" s="54"/>
+        <v>50</v>
+      </c>
+      <c r="AW107" s="54">
+        <v>50</v>
+      </c>
+      <c r="AX107" s="54">
+        <v>1</v>
+      </c>
       <c r="AY107" s="54"/>
-      <c r="AZ107" s="54"/>
+      <c r="AZ107" s="54">
+        <v>2</v>
+      </c>
       <c r="BA107" s="54">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BB107" s="54"/>
       <c r="BC107">
@@ -12367,22 +12588,30 @@
       <c r="AB108" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AC108" s="47"/>
+      <c r="AC108" s="47" t="s">
+        <v>440</v>
+      </c>
       <c r="AD108" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="AE108" s="48"/>
       <c r="AF108" s="48"/>
       <c r="AG108" s="54"/>
       <c r="AH108" s="49">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AI108" s="54"/>
-      <c r="AJ108" s="54"/>
+        <v>74</v>
+      </c>
+      <c r="AI108" s="54">
+        <v>63</v>
+      </c>
+      <c r="AJ108" s="54" t="s">
+        <v>446</v>
+      </c>
       <c r="AK108" s="54"/>
-      <c r="AL108" s="54"/>
+      <c r="AL108" s="54">
+        <v>11</v>
+      </c>
       <c r="AM108" s="54"/>
       <c r="AN108" s="54"/>
       <c r="AO108" s="54"/>
@@ -12397,12 +12626,16 @@
         <v>0</v>
       </c>
       <c r="AW108" s="54"/>
-      <c r="AX108" s="54"/>
+      <c r="AX108" s="54">
+        <v>1</v>
+      </c>
       <c r="AY108" s="54"/>
-      <c r="AZ108" s="54"/>
+      <c r="AZ108" s="54">
+        <v>1</v>
+      </c>
       <c r="BA108" s="54">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BB108" s="54"/>
       <c r="BC108">
@@ -12443,22 +12676,30 @@
       <c r="AB109" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="AC109" s="47"/>
+      <c r="AC109" s="47" t="s">
+        <v>444</v>
+      </c>
       <c r="AD109" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-82.5</v>
       </c>
       <c r="AE109" s="48"/>
       <c r="AF109" s="48"/>
       <c r="AG109" s="54"/>
       <c r="AH109" s="49">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AI109" s="54"/>
-      <c r="AJ109" s="54"/>
+        <v>82.5</v>
+      </c>
+      <c r="AI109" s="54">
+        <v>45</v>
+      </c>
+      <c r="AJ109" s="54" t="s">
+        <v>447</v>
+      </c>
       <c r="AK109" s="54"/>
-      <c r="AL109" s="54"/>
+      <c r="AL109" s="54">
+        <v>30</v>
+      </c>
       <c r="AM109" s="54"/>
       <c r="AN109" s="54"/>
       <c r="AO109" s="54"/>
@@ -12470,22 +12711,28 @@
       <c r="AU109" s="54"/>
       <c r="AV109">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AW109" s="54"/>
-      <c r="AX109" s="54"/>
+      <c r="AX109" s="54">
+        <v>1</v>
+      </c>
       <c r="AY109" s="54"/>
-      <c r="AZ109" s="54"/>
+      <c r="AZ109" s="54">
+        <v>2</v>
+      </c>
       <c r="BA109" s="54">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BB109" s="54"/>
       <c r="BC109">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BD109" s="54"/>
+      <c r="BD109" s="54">
+        <v>7.5</v>
+      </c>
       <c r="BE109" s="54"/>
       <c r="BF109" s="54"/>
       <c r="BG109" s="54"/>
@@ -12519,22 +12766,30 @@
       <c r="AB110" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AC110" s="47"/>
+      <c r="AC110" s="47" t="s">
+        <v>448</v>
+      </c>
       <c r="AD110" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-113</v>
       </c>
       <c r="AE110" s="48"/>
       <c r="AF110" s="48"/>
       <c r="AG110" s="54"/>
       <c r="AH110" s="49">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AI110" s="54"/>
-      <c r="AJ110" s="54"/>
+        <v>113</v>
+      </c>
+      <c r="AI110" s="54">
+        <v>69</v>
+      </c>
+      <c r="AJ110" s="54" t="s">
+        <v>451</v>
+      </c>
       <c r="AK110" s="54"/>
-      <c r="AL110" s="54"/>
+      <c r="AL110" s="54">
+        <v>12</v>
+      </c>
       <c r="AM110" s="54"/>
       <c r="AN110" s="54"/>
       <c r="AO110" s="54"/>
@@ -12546,22 +12801,30 @@
       <c r="AU110" s="54"/>
       <c r="AV110">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AW110" s="54"/>
-      <c r="AX110" s="54"/>
+        <v>32</v>
+      </c>
+      <c r="AW110" s="54">
+        <v>20</v>
+      </c>
+      <c r="AX110" s="54">
+        <v>2</v>
+      </c>
       <c r="AY110" s="54"/>
-      <c r="AZ110" s="54"/>
+      <c r="AZ110" s="54">
+        <v>1</v>
+      </c>
       <c r="BA110" s="54">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BB110" s="54"/>
       <c r="BC110">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BD110" s="54"/>
+      <c r="BD110" s="54">
+        <v>12</v>
+      </c>
       <c r="BE110" s="54"/>
       <c r="BF110" s="54"/>
       <c r="BG110" s="54"/>
@@ -12598,20 +12861,26 @@
       <c r="AC111" s="47"/>
       <c r="AD111" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="AE111" s="48"/>
       <c r="AF111" s="48"/>
       <c r="AG111" s="54"/>
       <c r="AH111" s="49">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AI111" s="54"/>
       <c r="AJ111" s="54"/>
-      <c r="AK111" s="54"/>
-      <c r="AL111" s="54"/>
-      <c r="AM111" s="54"/>
+      <c r="AK111" s="54" t="s">
+        <v>454</v>
+      </c>
+      <c r="AL111" s="54">
+        <v>50</v>
+      </c>
+      <c r="AM111" s="54">
+        <v>20</v>
+      </c>
       <c r="AN111" s="54"/>
       <c r="AO111" s="54"/>
       <c r="AP111" s="54"/>
@@ -12627,10 +12896,12 @@
       <c r="AW111" s="54"/>
       <c r="AX111" s="54"/>
       <c r="AY111" s="54"/>
-      <c r="AZ111" s="54"/>
+      <c r="AZ111" s="54">
+        <v>1</v>
+      </c>
       <c r="BA111" s="54">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB111" s="54"/>
       <c r="BC111">
@@ -12750,19 +13021,27 @@
       <c r="AC113" s="47"/>
       <c r="AD113" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-3900</v>
       </c>
       <c r="AE113" s="48"/>
       <c r="AF113" s="48"/>
       <c r="AG113" s="54"/>
       <c r="AH113" s="49">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AI113" s="54"/>
-      <c r="AJ113" s="54"/>
-      <c r="AK113" s="54"/>
-      <c r="AL113" s="54"/>
+        <v>3900</v>
+      </c>
+      <c r="AI113" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ113" s="54" t="s">
+        <v>452</v>
+      </c>
+      <c r="AK113" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL113" s="96">
+        <v>3900</v>
+      </c>
       <c r="AM113" s="54"/>
       <c r="AN113" s="54"/>
       <c r="AO113" s="54"/>
@@ -12826,20 +13105,30 @@
       <c r="AC114" s="47"/>
       <c r="AD114" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-127</v>
       </c>
       <c r="AE114" s="48"/>
       <c r="AF114" s="48"/>
       <c r="AG114" s="54"/>
       <c r="AH114" s="49">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AI114" s="54"/>
-      <c r="AJ114" s="54"/>
-      <c r="AK114" s="54"/>
-      <c r="AL114" s="54"/>
-      <c r="AM114" s="54"/>
+        <v>127</v>
+      </c>
+      <c r="AI114" s="54">
+        <v>67</v>
+      </c>
+      <c r="AJ114" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="AK114" s="54" t="s">
+        <v>455</v>
+      </c>
+      <c r="AL114" s="54">
+        <v>30</v>
+      </c>
+      <c r="AM114" s="54">
+        <v>30</v>
+      </c>
       <c r="AN114" s="54"/>
       <c r="AO114" s="54"/>
       <c r="AP114" s="54"/>
@@ -12853,12 +13142,16 @@
         <v>0</v>
       </c>
       <c r="AW114" s="54"/>
-      <c r="AX114" s="54"/>
+      <c r="AX114" s="54">
+        <v>1</v>
+      </c>
       <c r="AY114" s="54"/>
-      <c r="AZ114" s="54"/>
+      <c r="AZ114" s="54">
+        <v>1</v>
+      </c>
       <c r="BA114" s="54">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BB114" s="54"/>
       <c r="BC114">
@@ -12902,14 +13195,14 @@
       <c r="AC115" s="47"/>
       <c r="AD115" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AE115" s="48"/>
       <c r="AF115" s="48"/>
       <c r="AG115" s="54"/>
       <c r="AH115" s="49">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AI115" s="54"/>
       <c r="AJ115" s="54"/>
@@ -12926,15 +13219,19 @@
       <c r="AU115" s="54"/>
       <c r="AV115">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AW115" s="54"/>
+        <v>50</v>
+      </c>
+      <c r="AW115" s="54">
+        <v>50</v>
+      </c>
       <c r="AX115" s="54"/>
       <c r="AY115" s="54"/>
-      <c r="AZ115" s="54"/>
+      <c r="AZ115" s="54">
+        <v>1</v>
+      </c>
       <c r="BA115" s="54">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB115" s="54"/>
       <c r="BC115">
@@ -13904,7 +14201,7 @@
       <c r="Q130" s="21"/>
       <c r="R130" s="20"/>
       <c r="S130" s="18">
-        <f t="shared" ref="S130:S144" si="19">Q130-R130</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U130" s="33"/>
@@ -13961,7 +14258,7 @@
       <c r="Q131" s="21"/>
       <c r="R131" s="20"/>
       <c r="S131" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="S131:S145" si="19">Q131-R131</f>
         <v>0</v>
       </c>
       <c r="U131" s="33"/>
@@ -14467,13 +14764,13 @@
         <v>0</v>
       </c>
       <c r="K140" s="12"/>
-      <c r="M140" s="85"/>
-      <c r="N140" s="85"/>
-      <c r="O140" s="85"/>
+      <c r="M140" s="16"/>
+      <c r="N140" s="16"/>
+      <c r="O140" s="16"/>
       <c r="P140" s="33"/>
-      <c r="Q140" s="86"/>
-      <c r="R140" s="84"/>
-      <c r="S140" s="87">
+      <c r="Q140" s="21"/>
+      <c r="R140" s="20"/>
+      <c r="S140" s="18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -14752,13 +15049,16 @@
         <v>0</v>
       </c>
       <c r="K145" s="12"/>
-      <c r="M145" s="89"/>
-      <c r="N145" s="89"/>
-      <c r="O145" s="89"/>
-      <c r="P145" s="129"/>
-      <c r="Q145" s="89"/>
-      <c r="R145" s="89"/>
-      <c r="S145" s="89"/>
+      <c r="M145" s="85"/>
+      <c r="N145" s="85"/>
+      <c r="O145" s="85"/>
+      <c r="P145" s="33"/>
+      <c r="Q145" s="86"/>
+      <c r="R145" s="84"/>
+      <c r="S145" s="87">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="U145" s="33"/>
       <c r="V145" s="33"/>
       <c r="W145" s="33"/>
@@ -14809,7 +15109,7 @@
       <c r="M146" s="89"/>
       <c r="N146" s="89"/>
       <c r="O146" s="89"/>
-      <c r="P146" s="89"/>
+      <c r="P146" s="129"/>
       <c r="Q146" s="89"/>
       <c r="R146" s="89"/>
       <c r="S146" s="89"/>
@@ -15149,6 +15449,7 @@
       <c r="Q152" s="89"/>
       <c r="R152" s="89"/>
       <c r="S152" s="89"/>
+      <c r="T152"/>
       <c r="X152" s="88"/>
       <c r="Y152" s="88"/>
       <c r="AA152" s="99"/>
@@ -15337,6 +15638,7 @@
       <c r="I157" s="82"/>
       <c r="J157" s="83"/>
       <c r="K157" s="84"/>
+      <c r="T157" s="85"/>
       <c r="AA157" s="90"/>
       <c r="AB157" s="91"/>
       <c r="AD157" s="91"/>
@@ -17610,13 +17912,6 @@
     <row r="384" spans="9:34" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I384" s="95"/>
       <c r="J384" s="96"/>
-      <c r="M384"/>
-      <c r="N384"/>
-      <c r="O384"/>
-      <c r="P384"/>
-      <c r="Q384" s="22"/>
-      <c r="R384" s="12"/>
-      <c r="S384" s="19"/>
       <c r="AA384" s="91"/>
       <c r="AB384" s="91"/>
       <c r="AD384" s="91"/>
@@ -17789,6 +18084,7 @@
       <c r="J394" s="96"/>
       <c r="K394" s="89"/>
       <c r="Q394" s="22"/>
+      <c r="R394" s="12"/>
       <c r="S394" s="19"/>
       <c r="T394" s="89"/>
       <c r="X394" s="32"/>
@@ -17924,6 +18220,7 @@
       <c r="K396" s="89"/>
       <c r="Q396" s="22"/>
       <c r="S396" s="19"/>
+      <c r="T396" s="89"/>
       <c r="X396" s="32"/>
       <c r="Y396" s="32"/>
       <c r="AA396" s="46"/>
@@ -18965,6 +19262,7 @@
     </row>
     <row r="413" spans="17:55" x14ac:dyDescent="0.25">
       <c r="Q413" s="22"/>
+      <c r="S413" s="19"/>
       <c r="X413" s="32"/>
       <c r="Y413" s="32"/>
       <c r="AA413" s="46"/>
@@ -20284,6 +20582,7 @@
       </c>
     </row>
     <row r="435" spans="17:55" x14ac:dyDescent="0.25">
+      <c r="Q435" s="22"/>
       <c r="X435" s="32"/>
       <c r="Y435" s="32"/>
       <c r="AA435" s="46"/>
@@ -30406,8 +30705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Finanzas/2_Mayo-Ago_2018.xlsx
+++ b/Finanzas/2_Mayo-Ago_2018.xlsx
@@ -2619,7 +2619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="448">
+  <cellXfs count="452">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3902,6 +3902,18 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4198,8 +4210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4436,7 +4448,7 @@
         <v>2</v>
       </c>
       <c r="N3" s="11">
-        <f>(SUM(C3,(K11:K507)))-(SUM((J11:J507),(I11:I507)))</f>
+        <f>(SUM(C3,(K12:K508)))-(SUM((J12:J508),(I12:I508)))</f>
         <v>24143.229999999996</v>
       </c>
       <c r="O3" s="36"/>
@@ -4719,7 +4731,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="17">
-        <f>(SUM((AA11:AA299),(AG3:AG500),(I11:I507)))-(SUM((AB11:AB499)))</f>
+        <f>(SUM((AA11:AA299),(AG3:AG500),(I12:I508)))-(SUM((AB11:AB499)))</f>
         <v>660.5</v>
       </c>
       <c r="O6" s="38"/>
@@ -4818,7 +4830,7 @@
       </c>
       <c r="T7" s="175"/>
       <c r="U7" s="176">
-        <f>(SUM(AB11:AB499))-(SUM(K11:K507))</f>
+        <f>(SUM(AB11:AB499))-(SUM(K12:K508))</f>
         <v>0</v>
       </c>
       <c r="V7" s="177"/>
@@ -5212,17 +5224,20 @@
         <f t="shared" ref="E11:E20" si="5">C11-D11</f>
         <v>500</v>
       </c>
-      <c r="G11" s="81">
-        <v>43223</v>
-      </c>
-      <c r="H11" s="127" t="s">
-        <v>127</v>
-      </c>
-      <c r="I11" s="82"/>
-      <c r="J11" s="83">
-        <v>160</v>
-      </c>
-      <c r="K11" s="84"/>
+      <c r="G11" s="448"/>
+      <c r="H11" s="449"/>
+      <c r="I11" s="450">
+        <f>SUM(I12:I19)</f>
+        <v>2100</v>
+      </c>
+      <c r="J11" s="450">
+        <f>SUM(J12:J19)</f>
+        <v>9475</v>
+      </c>
+      <c r="K11" s="451">
+        <f>SUM(K12:K19)</f>
+        <v>4000</v>
+      </c>
       <c r="M11" s="165" t="s">
         <v>15</v>
       </c>
@@ -5344,17 +5359,17 @@
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="G12" s="85">
-        <v>43230</v>
-      </c>
-      <c r="H12" s="128" t="s">
-        <v>195</v>
-      </c>
-      <c r="I12" s="86"/>
-      <c r="J12" s="87">
-        <v>65</v>
-      </c>
-      <c r="K12" s="88"/>
+      <c r="G12" s="81">
+        <v>43223</v>
+      </c>
+      <c r="H12" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="82"/>
+      <c r="J12" s="83">
+        <v>160</v>
+      </c>
+      <c r="K12" s="84"/>
       <c r="M12" s="154" t="s">
         <v>20</v>
       </c>
@@ -5475,17 +5490,17 @@
         <f t="shared" si="5"/>
         <v>8000</v>
       </c>
-      <c r="G13" s="89">
-        <v>43224</v>
+      <c r="G13" s="85">
+        <v>43230</v>
       </c>
       <c r="H13" s="128" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="I13" s="86"/>
       <c r="J13" s="87">
-        <v>6900</v>
-      </c>
-      <c r="K13" s="90"/>
+        <v>65</v>
+      </c>
+      <c r="K13" s="88"/>
       <c r="M13" s="156">
         <v>43005</v>
       </c>
@@ -5601,13 +5616,13 @@
         <v>43224</v>
       </c>
       <c r="H14" s="128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="91">
-        <v>4000</v>
-      </c>
+      <c r="J14" s="87">
+        <v>6900</v>
+      </c>
+      <c r="K14" s="90"/>
       <c r="M14" s="156">
         <v>43417</v>
       </c>
@@ -5722,13 +5737,13 @@
         <v>43224</v>
       </c>
       <c r="H15" s="128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I15" s="86"/>
-      <c r="J15" s="87">
-        <v>2000</v>
-      </c>
-      <c r="K15" s="91"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="91">
+        <v>4000</v>
+      </c>
       <c r="M15" s="156">
         <v>43117</v>
       </c>
@@ -5834,16 +5849,16 @@
         <v>2000</v>
       </c>
       <c r="G16" s="89">
-        <v>43236</v>
+        <v>43224</v>
       </c>
       <c r="H16" s="128" t="s">
-        <v>167</v>
-      </c>
-      <c r="I16" s="86">
-        <v>2100</v>
-      </c>
-      <c r="J16" s="87"/>
-      <c r="K16" s="90"/>
+        <v>130</v>
+      </c>
+      <c r="I16" s="86"/>
+      <c r="J16" s="87">
+        <v>2000</v>
+      </c>
+      <c r="K16" s="91"/>
       <c r="M16" s="156">
         <v>43236</v>
       </c>
@@ -5969,16 +5984,20 @@
         <v>0</v>
       </c>
       <c r="G17" s="89">
-        <v>43237</v>
+        <v>43236</v>
       </c>
       <c r="H17" s="128" t="s">
-        <v>168</v>
-      </c>
-      <c r="I17" s="86"/>
-      <c r="J17" s="87">
-        <v>150</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="I17" s="86">
+        <v>2100</v>
+      </c>
+      <c r="J17" s="87"/>
       <c r="K17" s="90"/>
+      <c r="L17" s="290">
+        <f>(C3-J11)</f>
+        <v>-1712</v>
+      </c>
       <c r="M17" s="156">
         <v>43253</v>
       </c>
@@ -6091,17 +6110,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G18" s="92" t="s">
-        <v>199</v>
-      </c>
-      <c r="H18" s="129" t="s">
-        <v>196</v>
-      </c>
-      <c r="I18" s="93"/>
-      <c r="J18" s="94">
-        <v>200</v>
-      </c>
-      <c r="K18" s="95"/>
+      <c r="G18" s="89">
+        <v>43237</v>
+      </c>
+      <c r="H18" s="128" t="s">
+        <v>168</v>
+      </c>
+      <c r="I18" s="86"/>
+      <c r="J18" s="87">
+        <v>150</v>
+      </c>
+      <c r="K18" s="90"/>
       <c r="M18" s="156">
         <v>43269</v>
       </c>
@@ -6223,17 +6242,17 @@
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="G19" s="96">
-        <v>43249</v>
-      </c>
-      <c r="H19" s="130" t="s">
-        <v>194</v>
-      </c>
-      <c r="I19" s="97"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="99">
-        <v>12188</v>
-      </c>
+      <c r="G19" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="H19" s="129" t="s">
+        <v>196</v>
+      </c>
+      <c r="I19" s="93"/>
+      <c r="J19" s="94">
+        <v>200</v>
+      </c>
+      <c r="K19" s="95"/>
       <c r="M19" s="156">
         <v>43274</v>
       </c>
@@ -6346,17 +6365,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G20" s="100">
-        <v>43251</v>
-      </c>
-      <c r="H20" s="127" t="s">
-        <v>206</v>
-      </c>
-      <c r="I20" s="82"/>
-      <c r="J20" s="83">
-        <v>70</v>
-      </c>
-      <c r="K20" s="101"/>
+      <c r="G20" s="96">
+        <v>43249</v>
+      </c>
+      <c r="H20" s="130" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" s="97"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="99">
+        <v>12188</v>
+      </c>
       <c r="M20" s="161">
         <v>43280</v>
       </c>
@@ -6473,17 +6492,17 @@
         <f t="shared" ref="E21" si="8">C21-D21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="89">
+      <c r="G21" s="100">
         <v>43251</v>
       </c>
-      <c r="H21" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="I21" s="86"/>
-      <c r="J21" s="87">
-        <v>276</v>
-      </c>
-      <c r="K21" s="91"/>
+      <c r="H21" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" s="82"/>
+      <c r="J21" s="83">
+        <v>70</v>
+      </c>
+      <c r="K21" s="101"/>
       <c r="M21" s="156">
         <v>43299</v>
       </c>
@@ -6584,14 +6603,14 @@
       <c r="D22" s="72"/>
       <c r="E22" s="72"/>
       <c r="G22" s="89">
-        <v>43252</v>
+        <v>43251</v>
       </c>
       <c r="H22" s="128" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I22" s="86"/>
       <c r="J22" s="87">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="K22" s="91"/>
       <c r="M22" s="156">
@@ -6692,15 +6711,15 @@
       <c r="D23" s="72"/>
       <c r="E23" s="72"/>
       <c r="G23" s="89">
-        <v>43253</v>
+        <v>43252</v>
       </c>
       <c r="H23" s="128" t="s">
-        <v>212</v>
-      </c>
-      <c r="I23" s="86">
-        <v>2000</v>
-      </c>
-      <c r="J23" s="87"/>
+        <v>211</v>
+      </c>
+      <c r="I23" s="86"/>
+      <c r="J23" s="87">
+        <v>261</v>
+      </c>
       <c r="K23" s="91"/>
       <c r="M23" s="156">
         <v>43312</v>
@@ -6818,10 +6837,10 @@
         <v>43253</v>
       </c>
       <c r="H24" s="128" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I24" s="86">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J24" s="87"/>
       <c r="K24" s="91"/>
@@ -6931,15 +6950,15 @@
       <c r="D25" s="72"/>
       <c r="E25" s="72"/>
       <c r="G25" s="89">
-        <v>43255</v>
+        <v>43253</v>
       </c>
       <c r="H25" s="128" t="s">
-        <v>196</v>
-      </c>
-      <c r="I25" s="86"/>
-      <c r="J25" s="87">
-        <v>200</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="I25" s="86">
+        <v>1000</v>
+      </c>
+      <c r="J25" s="87"/>
       <c r="K25" s="91"/>
       <c r="M25" s="139">
         <v>43335</v>
@@ -7041,14 +7060,14 @@
       <c r="D26" s="72"/>
       <c r="E26" s="72"/>
       <c r="G26" s="89">
-        <v>43259</v>
+        <v>43255</v>
       </c>
       <c r="H26" s="128" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="I26" s="86"/>
       <c r="J26" s="87">
-        <v>1056</v>
+        <v>200</v>
       </c>
       <c r="K26" s="91"/>
       <c r="M26" s="206"/>
@@ -7165,21 +7184,21 @@
       </c>
       <c r="BG26" s="381"/>
     </row>
-    <row r="27" spans="1:64" s="248" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="248" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="72"/>
       <c r="D27" s="72"/>
       <c r="E27" s="72"/>
-      <c r="G27" s="92">
-        <v>43263</v>
-      </c>
-      <c r="H27" s="129" t="s">
-        <v>238</v>
-      </c>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94">
-        <v>420</v>
-      </c>
-      <c r="K27" s="102"/>
+      <c r="G27" s="89">
+        <v>43259</v>
+      </c>
+      <c r="H27" s="128" t="s">
+        <v>228</v>
+      </c>
+      <c r="I27" s="86"/>
+      <c r="J27" s="87">
+        <v>1056</v>
+      </c>
+      <c r="K27" s="91"/>
       <c r="M27" s="154"/>
       <c r="N27" s="155" t="s">
         <v>17</v>
@@ -7289,17 +7308,17 @@
       <c r="C28" s="72"/>
       <c r="D28" s="72"/>
       <c r="E28" s="72"/>
-      <c r="G28" s="96">
-        <v>43265</v>
-      </c>
-      <c r="H28" s="130" t="s">
-        <v>194</v>
-      </c>
-      <c r="I28" s="103"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="99">
-        <v>10612</v>
-      </c>
+      <c r="G28" s="92">
+        <v>43263</v>
+      </c>
+      <c r="H28" s="129" t="s">
+        <v>238</v>
+      </c>
+      <c r="I28" s="93"/>
+      <c r="J28" s="94">
+        <v>420</v>
+      </c>
+      <c r="K28" s="102"/>
       <c r="L28" s="290"/>
       <c r="M28" s="223"/>
       <c r="N28" s="157" t="s">
@@ -7398,21 +7417,21 @@
       </c>
       <c r="BG28" s="381"/>
     </row>
-    <row r="29" spans="1:64" s="248" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" s="248" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="72"/>
       <c r="D29" s="72"/>
       <c r="E29" s="72"/>
-      <c r="G29" s="100">
-        <v>43267</v>
-      </c>
-      <c r="H29" s="127" t="s">
-        <v>246</v>
-      </c>
-      <c r="I29" s="82">
-        <v>5500</v>
-      </c>
-      <c r="J29" s="83"/>
-      <c r="K29" s="101"/>
+      <c r="G29" s="96">
+        <v>43265</v>
+      </c>
+      <c r="H29" s="130" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" s="103"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="99">
+        <v>10612</v>
+      </c>
       <c r="M29" s="223"/>
       <c r="N29" s="157" t="s">
         <v>17</v>
@@ -7510,17 +7529,17 @@
       <c r="C30" s="72"/>
       <c r="D30" s="72"/>
       <c r="E30" s="72"/>
-      <c r="G30" s="89">
-        <v>43268</v>
-      </c>
-      <c r="H30" s="128" t="s">
-        <v>255</v>
-      </c>
-      <c r="I30" s="86"/>
-      <c r="J30" s="87">
-        <v>61.5</v>
-      </c>
-      <c r="K30" s="91"/>
+      <c r="G30" s="100">
+        <v>43267</v>
+      </c>
+      <c r="H30" s="127" t="s">
+        <v>246</v>
+      </c>
+      <c r="I30" s="82">
+        <v>5500</v>
+      </c>
+      <c r="J30" s="83"/>
+      <c r="K30" s="101"/>
       <c r="M30" s="223"/>
       <c r="N30" s="157" t="s">
         <v>17</v>
@@ -7632,11 +7651,11 @@
         <v>43268</v>
       </c>
       <c r="H31" s="128" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I31" s="86"/>
       <c r="J31" s="87">
-        <v>102.98</v>
+        <v>61.5</v>
       </c>
       <c r="K31" s="91"/>
       <c r="M31" s="154"/>
@@ -7735,15 +7754,15 @@
       <c r="D32" s="72"/>
       <c r="E32" s="72"/>
       <c r="G32" s="89">
-        <v>43269</v>
+        <v>43268</v>
       </c>
       <c r="H32" s="128" t="s">
-        <v>209</v>
-      </c>
-      <c r="I32" s="86">
-        <v>1300</v>
-      </c>
-      <c r="J32" s="87"/>
+        <v>256</v>
+      </c>
+      <c r="I32" s="86"/>
+      <c r="J32" s="87">
+        <v>102.98</v>
+      </c>
       <c r="K32" s="91"/>
       <c r="M32" s="223"/>
       <c r="N32" s="157" t="s">
@@ -7835,13 +7854,13 @@
       <c r="D33" s="72"/>
       <c r="E33" s="72"/>
       <c r="G33" s="89">
-        <v>43274</v>
+        <v>43269</v>
       </c>
       <c r="H33" s="128" t="s">
-        <v>272</v>
+        <v>209</v>
       </c>
       <c r="I33" s="86">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="J33" s="87"/>
       <c r="K33" s="91"/>
@@ -7942,21 +7961,21 @@
       </c>
       <c r="BG33" s="381"/>
     </row>
-    <row r="34" spans="3:60" s="248" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:60" s="248" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="72"/>
       <c r="D34" s="72"/>
       <c r="E34" s="72"/>
-      <c r="G34" s="92">
-        <v>43275</v>
-      </c>
-      <c r="H34" s="129" t="s">
-        <v>271</v>
-      </c>
-      <c r="I34" s="93"/>
-      <c r="J34" s="94">
-        <v>189.2</v>
-      </c>
-      <c r="K34" s="102"/>
+      <c r="G34" s="89">
+        <v>43274</v>
+      </c>
+      <c r="H34" s="128" t="s">
+        <v>272</v>
+      </c>
+      <c r="I34" s="86">
+        <v>2500</v>
+      </c>
+      <c r="J34" s="87"/>
+      <c r="K34" s="91"/>
       <c r="M34" s="223"/>
       <c r="N34" s="157" t="s">
         <v>17</v>
@@ -8052,17 +8071,17 @@
       <c r="C35" s="72"/>
       <c r="D35" s="72"/>
       <c r="E35" s="72"/>
-      <c r="G35" s="96">
-        <v>43279</v>
-      </c>
-      <c r="H35" s="130" t="s">
-        <v>194</v>
-      </c>
-      <c r="I35" s="103"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="99">
-        <v>10612</v>
-      </c>
+      <c r="G35" s="92">
+        <v>43275</v>
+      </c>
+      <c r="H35" s="129" t="s">
+        <v>271</v>
+      </c>
+      <c r="I35" s="93"/>
+      <c r="J35" s="94">
+        <v>189.2</v>
+      </c>
+      <c r="K35" s="102"/>
       <c r="M35" s="223"/>
       <c r="N35" s="157" t="s">
         <v>17</v>
@@ -8150,21 +8169,21 @@
       </c>
       <c r="BG35" s="381"/>
     </row>
-    <row r="36" spans="3:60" s="248" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:60" s="248" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="72"/>
       <c r="D36" s="72"/>
       <c r="E36" s="72"/>
-      <c r="G36" s="100">
-        <v>43280</v>
-      </c>
-      <c r="H36" s="127" t="s">
-        <v>284</v>
-      </c>
-      <c r="I36" s="82"/>
-      <c r="J36" s="83">
-        <v>413</v>
-      </c>
-      <c r="K36" s="101"/>
+      <c r="G36" s="96">
+        <v>43279</v>
+      </c>
+      <c r="H36" s="130" t="s">
+        <v>194</v>
+      </c>
+      <c r="I36" s="103"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="99">
+        <v>10612</v>
+      </c>
       <c r="M36" s="223"/>
       <c r="N36" s="157" t="s">
         <v>17</v>
@@ -8248,17 +8267,17 @@
       <c r="C37" s="72"/>
       <c r="D37" s="72"/>
       <c r="E37" s="72"/>
-      <c r="G37" s="89">
-        <v>43281</v>
-      </c>
-      <c r="H37" s="128" t="s">
-        <v>285</v>
-      </c>
-      <c r="I37" s="86">
-        <v>5200</v>
-      </c>
-      <c r="J37" s="87"/>
-      <c r="K37" s="91"/>
+      <c r="G37" s="100">
+        <v>43280</v>
+      </c>
+      <c r="H37" s="127" t="s">
+        <v>284</v>
+      </c>
+      <c r="I37" s="82"/>
+      <c r="J37" s="83">
+        <v>413</v>
+      </c>
+      <c r="K37" s="101"/>
       <c r="M37" s="136"/>
       <c r="N37" s="137" t="s">
         <v>17</v>
@@ -8356,10 +8375,10 @@
         <v>43281</v>
       </c>
       <c r="H38" s="128" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="I38" s="86">
-        <v>400</v>
+        <v>5200</v>
       </c>
       <c r="J38" s="87"/>
       <c r="K38" s="91"/>
@@ -8470,13 +8489,13 @@
       <c r="D39" s="72"/>
       <c r="E39" s="72"/>
       <c r="G39" s="89">
-        <v>43288</v>
+        <v>43281</v>
       </c>
       <c r="H39" s="128" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="I39" s="86">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J39" s="87"/>
       <c r="K39" s="91"/>
@@ -8575,16 +8594,16 @@
       <c r="C40" s="72"/>
       <c r="D40" s="72"/>
       <c r="E40" s="72"/>
-      <c r="G40" s="104">
+      <c r="G40" s="89">
         <v>43288</v>
       </c>
       <c r="H40" s="128" t="s">
-        <v>310</v>
-      </c>
-      <c r="I40" s="86"/>
-      <c r="J40" s="87">
-        <v>497</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="I40" s="86">
+        <v>600</v>
+      </c>
+      <c r="J40" s="87"/>
       <c r="K40" s="91"/>
       <c r="M40" s="138">
         <v>43266</v>
@@ -8681,15 +8700,15 @@
       <c r="C41" s="72"/>
       <c r="D41" s="72"/>
       <c r="E41" s="72"/>
-      <c r="G41" s="89">
-        <v>43289</v>
+      <c r="G41" s="104">
+        <v>43288</v>
       </c>
       <c r="H41" s="128" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="I41" s="86"/>
       <c r="J41" s="87">
-        <v>244</v>
+        <v>497</v>
       </c>
       <c r="K41" s="91"/>
       <c r="M41" s="141"/>
@@ -8789,17 +8808,17 @@
       <c r="C42" s="72"/>
       <c r="D42" s="72"/>
       <c r="E42" s="72"/>
-      <c r="G42" s="92">
-        <v>43292</v>
-      </c>
-      <c r="H42" s="129" t="s">
-        <v>142</v>
-      </c>
-      <c r="I42" s="93"/>
-      <c r="J42" s="94">
-        <v>30</v>
-      </c>
-      <c r="K42" s="102"/>
+      <c r="G42" s="89">
+        <v>43289</v>
+      </c>
+      <c r="H42" s="128" t="s">
+        <v>317</v>
+      </c>
+      <c r="I42" s="86"/>
+      <c r="J42" s="87">
+        <v>244</v>
+      </c>
+      <c r="K42" s="91"/>
       <c r="M42" s="235">
         <v>43375</v>
       </c>
@@ -8891,17 +8910,17 @@
       <c r="C43" s="72"/>
       <c r="D43" s="72"/>
       <c r="E43" s="72"/>
-      <c r="G43" s="105">
-        <v>43293</v>
-      </c>
-      <c r="H43" s="131" t="s">
-        <v>194</v>
-      </c>
-      <c r="I43" s="106"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="108">
-        <v>11052</v>
-      </c>
+      <c r="G43" s="92">
+        <v>43292</v>
+      </c>
+      <c r="H43" s="129" t="s">
+        <v>142</v>
+      </c>
+      <c r="I43" s="93"/>
+      <c r="J43" s="94">
+        <v>30</v>
+      </c>
+      <c r="K43" s="102"/>
       <c r="M43" s="234" t="s">
         <v>87</v>
       </c>
@@ -8996,20 +9015,20 @@
       </c>
       <c r="BG43" s="381"/>
     </row>
-    <row r="44" spans="3:60" s="248" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:60" s="248" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="72"/>
       <c r="D44" s="72"/>
       <c r="E44" s="72"/>
-      <c r="G44" s="109">
+      <c r="G44" s="105">
         <v>43293</v>
       </c>
-      <c r="H44" s="132" t="s">
-        <v>328</v>
-      </c>
-      <c r="I44" s="110"/>
-      <c r="J44" s="111"/>
-      <c r="K44" s="112">
-        <v>1317</v>
+      <c r="H44" s="131" t="s">
+        <v>194</v>
+      </c>
+      <c r="I44" s="106"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="108">
+        <v>11052</v>
       </c>
       <c r="M44" s="154"/>
       <c r="N44" s="155" t="s">
@@ -9104,21 +9123,21 @@
       </c>
       <c r="BG44" s="381"/>
     </row>
-    <row r="45" spans="3:60" s="248" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:60" s="248" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="72"/>
       <c r="D45" s="72"/>
       <c r="E45" s="72"/>
-      <c r="G45" s="100">
-        <v>43294</v>
-      </c>
-      <c r="H45" s="127" t="s">
-        <v>330</v>
-      </c>
-      <c r="I45" s="82"/>
-      <c r="J45" s="83">
-        <v>310</v>
-      </c>
-      <c r="K45" s="101"/>
+      <c r="G45" s="109">
+        <v>43293</v>
+      </c>
+      <c r="H45" s="132" t="s">
+        <v>328</v>
+      </c>
+      <c r="I45" s="110"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="112">
+        <v>1317</v>
+      </c>
       <c r="M45" s="223"/>
       <c r="N45" s="157" t="s">
         <v>19</v>
@@ -9211,17 +9230,17 @@
       <c r="C46" s="72"/>
       <c r="D46" s="72"/>
       <c r="E46" s="72"/>
-      <c r="G46" s="89">
-        <v>43295</v>
-      </c>
-      <c r="H46" s="128" t="s">
-        <v>196</v>
-      </c>
-      <c r="I46" s="86"/>
-      <c r="J46" s="87">
-        <v>200</v>
-      </c>
-      <c r="K46" s="91"/>
+      <c r="G46" s="100">
+        <v>43294</v>
+      </c>
+      <c r="H46" s="127" t="s">
+        <v>330</v>
+      </c>
+      <c r="I46" s="82"/>
+      <c r="J46" s="83">
+        <v>310</v>
+      </c>
+      <c r="K46" s="101"/>
       <c r="M46" s="223" t="s">
         <v>109</v>
       </c>
@@ -9319,12 +9338,12 @@
         <v>43295</v>
       </c>
       <c r="H47" s="128" t="s">
-        <v>331</v>
-      </c>
-      <c r="I47" s="86">
-        <v>1000</v>
-      </c>
-      <c r="J47" s="87"/>
+        <v>196</v>
+      </c>
+      <c r="I47" s="86"/>
+      <c r="J47" s="87">
+        <v>200</v>
+      </c>
       <c r="K47" s="91"/>
       <c r="M47" s="223"/>
       <c r="N47" s="157" t="s">
@@ -9418,16 +9437,16 @@
       <c r="D48" s="72"/>
       <c r="E48" s="72"/>
       <c r="G48" s="89">
-        <v>43299</v>
+        <v>43295</v>
       </c>
       <c r="H48" s="128" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="I48" s="86">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="J48" s="87"/>
-      <c r="K48" s="90"/>
+      <c r="K48" s="91"/>
       <c r="M48" s="223"/>
       <c r="N48" s="157" t="s">
         <v>19</v>
@@ -9522,16 +9541,16 @@
       <c r="D49" s="72"/>
       <c r="E49" s="72"/>
       <c r="G49" s="89">
-        <v>43302</v>
+        <v>43299</v>
       </c>
       <c r="H49" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="I49" s="86"/>
-      <c r="J49" s="87">
-        <v>188</v>
-      </c>
-      <c r="K49" s="91"/>
+        <v>346</v>
+      </c>
+      <c r="I49" s="86">
+        <v>3000</v>
+      </c>
+      <c r="J49" s="87"/>
+      <c r="K49" s="90"/>
       <c r="M49" s="223"/>
       <c r="N49" s="157" t="s">
         <v>220</v>
@@ -9635,12 +9654,12 @@
         <v>43302</v>
       </c>
       <c r="H50" s="128" t="s">
-        <v>331</v>
-      </c>
-      <c r="I50" s="86">
-        <v>400</v>
-      </c>
-      <c r="J50" s="87"/>
+        <v>107</v>
+      </c>
+      <c r="I50" s="86"/>
+      <c r="J50" s="87">
+        <v>188</v>
+      </c>
       <c r="K50" s="91"/>
       <c r="M50" s="223"/>
       <c r="N50" s="157" t="s">
@@ -9724,15 +9743,15 @@
       <c r="D51" s="72"/>
       <c r="E51" s="72"/>
       <c r="G51" s="89">
-        <v>43306</v>
+        <v>43302</v>
       </c>
       <c r="H51" s="128" t="s">
-        <v>362</v>
-      </c>
-      <c r="I51" s="86"/>
-      <c r="J51" s="87">
-        <v>271</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="I51" s="86">
+        <v>400</v>
+      </c>
+      <c r="J51" s="87"/>
       <c r="K51" s="91"/>
       <c r="M51" s="156">
         <v>43334</v>
@@ -9837,12 +9856,12 @@
         <v>43306</v>
       </c>
       <c r="H52" s="128" t="s">
-        <v>315</v>
-      </c>
-      <c r="I52" s="86">
-        <v>1700</v>
-      </c>
-      <c r="J52" s="87"/>
+        <v>362</v>
+      </c>
+      <c r="I52" s="86"/>
+      <c r="J52" s="87">
+        <v>271</v>
+      </c>
       <c r="K52" s="91"/>
       <c r="M52" s="138">
         <v>43180</v>
@@ -9944,15 +9963,15 @@
       <c r="D53" s="72"/>
       <c r="E53" s="72"/>
       <c r="G53" s="89">
-        <v>43307</v>
+        <v>43306</v>
       </c>
       <c r="H53" s="128" t="s">
-        <v>142</v>
-      </c>
-      <c r="I53" s="86"/>
-      <c r="J53" s="87">
-        <v>30</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="I53" s="86">
+        <v>1700</v>
+      </c>
+      <c r="J53" s="87"/>
       <c r="K53" s="91"/>
       <c r="M53" s="167"/>
       <c r="N53" s="168" t="s">
@@ -10043,17 +10062,17 @@
       <c r="C54" s="72"/>
       <c r="D54" s="72"/>
       <c r="E54" s="72"/>
-      <c r="G54" s="92">
+      <c r="G54" s="89">
         <v>43307</v>
       </c>
-      <c r="H54" s="129" t="s">
-        <v>364</v>
-      </c>
-      <c r="I54" s="93"/>
-      <c r="J54" s="94">
-        <v>275</v>
-      </c>
-      <c r="K54" s="102"/>
+      <c r="H54" s="128" t="s">
+        <v>142</v>
+      </c>
+      <c r="I54" s="86"/>
+      <c r="J54" s="87">
+        <v>30</v>
+      </c>
+      <c r="K54" s="91"/>
       <c r="M54" s="167"/>
       <c r="N54" s="168" t="s">
         <v>250</v>
@@ -10143,17 +10162,17 @@
       <c r="C55" s="72"/>
       <c r="D55" s="72"/>
       <c r="E55" s="72"/>
-      <c r="G55" s="96">
-        <v>43308</v>
-      </c>
-      <c r="H55" s="130" t="s">
-        <v>194</v>
-      </c>
-      <c r="I55" s="103"/>
-      <c r="J55" s="98"/>
-      <c r="K55" s="99">
-        <v>11051</v>
-      </c>
+      <c r="G55" s="92">
+        <v>43307</v>
+      </c>
+      <c r="H55" s="129" t="s">
+        <v>364</v>
+      </c>
+      <c r="I55" s="93"/>
+      <c r="J55" s="94">
+        <v>275</v>
+      </c>
+      <c r="K55" s="102"/>
       <c r="M55" s="167"/>
       <c r="N55" s="168" t="s">
         <v>252</v>
@@ -10245,21 +10264,21 @@
       </c>
       <c r="BG55" s="381"/>
     </row>
-    <row r="56" spans="3:59" s="248" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:59" s="248" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="72"/>
       <c r="D56" s="72"/>
       <c r="E56" s="72"/>
-      <c r="G56" s="81">
+      <c r="G56" s="96">
         <v>43308</v>
       </c>
-      <c r="H56" s="127" t="s">
-        <v>370</v>
-      </c>
-      <c r="I56" s="113">
-        <v>4000</v>
-      </c>
-      <c r="J56" s="114"/>
-      <c r="K56" s="115"/>
+      <c r="H56" s="130" t="s">
+        <v>194</v>
+      </c>
+      <c r="I56" s="103"/>
+      <c r="J56" s="98"/>
+      <c r="K56" s="99">
+        <v>11051</v>
+      </c>
       <c r="M56" s="287"/>
       <c r="N56" s="287"/>
       <c r="O56" s="122"/>
@@ -10350,17 +10369,17 @@
       <c r="C57" s="72"/>
       <c r="D57" s="72"/>
       <c r="E57" s="72"/>
-      <c r="G57" s="85">
-        <v>43312</v>
-      </c>
-      <c r="H57" s="128" t="s">
-        <v>381</v>
-      </c>
-      <c r="I57" s="116">
-        <v>5500</v>
-      </c>
-      <c r="J57" s="117"/>
-      <c r="K57" s="118"/>
+      <c r="G57" s="81">
+        <v>43308</v>
+      </c>
+      <c r="H57" s="127" t="s">
+        <v>370</v>
+      </c>
+      <c r="I57" s="113">
+        <v>4000</v>
+      </c>
+      <c r="J57" s="114"/>
+      <c r="K57" s="115"/>
       <c r="M57" s="287"/>
       <c r="N57" s="287"/>
       <c r="O57" s="122"/>
@@ -10434,15 +10453,15 @@
       <c r="D58" s="72"/>
       <c r="E58" s="72"/>
       <c r="G58" s="85">
-        <v>43314</v>
+        <v>43312</v>
       </c>
       <c r="H58" s="128" t="s">
-        <v>403</v>
-      </c>
-      <c r="I58" s="116"/>
-      <c r="J58" s="117">
-        <v>112</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="I58" s="116">
+        <v>5500</v>
+      </c>
+      <c r="J58" s="117"/>
       <c r="K58" s="118"/>
       <c r="M58" s="287"/>
       <c r="N58" s="287"/>
@@ -10525,14 +10544,14 @@
       <c r="D59" s="72"/>
       <c r="E59" s="72"/>
       <c r="G59" s="85">
-        <v>43315</v>
+        <v>43314</v>
       </c>
       <c r="H59" s="128" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I59" s="116"/>
       <c r="J59" s="117">
-        <v>338.25</v>
+        <v>112</v>
       </c>
       <c r="K59" s="118"/>
       <c r="M59" s="287"/>
@@ -10620,14 +10639,14 @@
       <c r="D60" s="72"/>
       <c r="E60" s="72"/>
       <c r="G60" s="85">
-        <v>43318</v>
-      </c>
-      <c r="H60" s="133" t="s">
-        <v>400</v>
+        <v>43315</v>
+      </c>
+      <c r="H60" s="128" t="s">
+        <v>401</v>
       </c>
       <c r="I60" s="116"/>
       <c r="J60" s="117">
-        <v>18.28</v>
+        <v>338.25</v>
       </c>
       <c r="K60" s="118"/>
       <c r="M60" s="287"/>
@@ -10718,11 +10737,11 @@
         <v>43318</v>
       </c>
       <c r="H61" s="133" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I61" s="116"/>
       <c r="J61" s="117">
-        <v>188</v>
+        <v>18.28</v>
       </c>
       <c r="K61" s="118"/>
       <c r="M61" s="287"/>
@@ -10804,14 +10823,14 @@
       <c r="D62" s="72"/>
       <c r="E62" s="72"/>
       <c r="G62" s="85">
-        <v>43319</v>
+        <v>43318</v>
       </c>
       <c r="H62" s="133" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="I62" s="116"/>
       <c r="J62" s="117">
-        <v>283</v>
+        <v>188</v>
       </c>
       <c r="K62" s="118"/>
       <c r="M62" s="287"/>
@@ -10890,21 +10909,21 @@
       </c>
       <c r="BG62" s="381"/>
     </row>
-    <row r="63" spans="3:59" s="248" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:59" s="248" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="72"/>
       <c r="D63" s="72"/>
       <c r="E63" s="72"/>
-      <c r="G63" s="119">
-        <v>43322</v>
-      </c>
-      <c r="H63" s="134" t="s">
-        <v>420</v>
-      </c>
-      <c r="I63" s="79"/>
-      <c r="J63" s="120">
-        <v>231</v>
-      </c>
-      <c r="K63" s="80"/>
+      <c r="G63" s="85">
+        <v>43319</v>
+      </c>
+      <c r="H63" s="133" t="s">
+        <v>416</v>
+      </c>
+      <c r="I63" s="116"/>
+      <c r="J63" s="117">
+        <v>283</v>
+      </c>
+      <c r="K63" s="118"/>
       <c r="M63" s="287"/>
       <c r="N63" s="287"/>
       <c r="O63" s="122"/>
@@ -11007,17 +11026,17 @@
       <c r="C64" s="72"/>
       <c r="D64" s="72"/>
       <c r="E64" s="72"/>
-      <c r="G64" s="96">
-        <v>43326</v>
-      </c>
-      <c r="H64" s="130" t="s">
-        <v>194</v>
-      </c>
-      <c r="I64" s="103"/>
-      <c r="J64" s="98"/>
-      <c r="K64" s="99">
-        <v>11052</v>
-      </c>
+      <c r="G64" s="119">
+        <v>43322</v>
+      </c>
+      <c r="H64" s="134" t="s">
+        <v>420</v>
+      </c>
+      <c r="I64" s="79"/>
+      <c r="J64" s="120">
+        <v>231</v>
+      </c>
+      <c r="K64" s="80"/>
       <c r="M64" s="287"/>
       <c r="N64" s="287"/>
       <c r="O64" s="122"/>
@@ -11086,21 +11105,21 @@
       </c>
       <c r="BG64" s="381"/>
     </row>
-    <row r="65" spans="3:59" s="248" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:59" s="248" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C65" s="72"/>
       <c r="D65" s="72"/>
       <c r="E65" s="72"/>
-      <c r="G65" s="81">
+      <c r="G65" s="96">
         <v>43326</v>
       </c>
-      <c r="H65" s="135" t="s">
-        <v>196</v>
-      </c>
-      <c r="I65" s="113"/>
-      <c r="J65" s="114">
-        <v>202</v>
-      </c>
-      <c r="K65" s="115"/>
+      <c r="H65" s="130" t="s">
+        <v>194</v>
+      </c>
+      <c r="I65" s="103"/>
+      <c r="J65" s="98"/>
+      <c r="K65" s="99">
+        <v>11052</v>
+      </c>
       <c r="M65" s="287"/>
       <c r="N65" s="287"/>
       <c r="O65" s="122"/>
@@ -11183,17 +11202,17 @@
       <c r="C66" s="72"/>
       <c r="D66" s="72"/>
       <c r="E66" s="72"/>
-      <c r="G66" s="85">
+      <c r="G66" s="81">
         <v>43326</v>
       </c>
-      <c r="H66" s="133" t="s">
-        <v>423</v>
-      </c>
-      <c r="I66" s="116">
-        <v>600</v>
-      </c>
-      <c r="J66" s="117"/>
-      <c r="K66" s="118"/>
+      <c r="H66" s="135" t="s">
+        <v>196</v>
+      </c>
+      <c r="I66" s="113"/>
+      <c r="J66" s="114">
+        <v>202</v>
+      </c>
+      <c r="K66" s="115"/>
       <c r="M66" s="287"/>
       <c r="N66" s="287"/>
       <c r="O66" s="122"/>
@@ -11280,12 +11299,12 @@
         <v>43326</v>
       </c>
       <c r="H67" s="133" t="s">
-        <v>430</v>
-      </c>
-      <c r="I67" s="116"/>
-      <c r="J67" s="117">
-        <v>80</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="I67" s="116">
+        <v>600</v>
+      </c>
+      <c r="J67" s="117"/>
       <c r="K67" s="118"/>
       <c r="M67" s="287"/>
       <c r="N67" s="287"/>
@@ -11374,14 +11393,14 @@
       <c r="D68" s="72"/>
       <c r="E68" s="72"/>
       <c r="G68" s="85">
-        <v>43328</v>
+        <v>43326</v>
       </c>
       <c r="H68" s="133" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I68" s="116"/>
       <c r="J68" s="117">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="K68" s="118"/>
       <c r="M68" s="287"/>
@@ -11470,11 +11489,11 @@
         <v>43328</v>
       </c>
       <c r="H69" s="133" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I69" s="116"/>
       <c r="J69" s="117">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="K69" s="118"/>
       <c r="M69" s="287"/>
@@ -11562,15 +11581,15 @@
       <c r="D70" s="72"/>
       <c r="E70" s="72"/>
       <c r="G70" s="85">
-        <v>43331</v>
+        <v>43328</v>
       </c>
       <c r="H70" s="133" t="s">
-        <v>209</v>
-      </c>
-      <c r="I70" s="116">
-        <v>4000</v>
-      </c>
-      <c r="J70" s="117"/>
+        <v>434</v>
+      </c>
+      <c r="I70" s="116"/>
+      <c r="J70" s="117">
+        <v>204</v>
+      </c>
       <c r="K70" s="118"/>
       <c r="M70" s="287"/>
       <c r="N70" s="287"/>
@@ -11662,12 +11681,12 @@
         <v>43331</v>
       </c>
       <c r="H71" s="133" t="s">
-        <v>436</v>
-      </c>
-      <c r="I71" s="116"/>
-      <c r="J71" s="117">
-        <v>349</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="I71" s="116">
+        <v>4000</v>
+      </c>
+      <c r="J71" s="117"/>
       <c r="K71" s="118"/>
       <c r="M71" s="287"/>
       <c r="N71" s="287"/>
@@ -11752,14 +11771,14 @@
       <c r="D72" s="72"/>
       <c r="E72" s="72"/>
       <c r="G72" s="85">
-        <v>43333</v>
+        <v>43331</v>
       </c>
       <c r="H72" s="133" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="I72" s="116"/>
       <c r="J72" s="117">
-        <v>440</v>
+        <v>349</v>
       </c>
       <c r="K72" s="118"/>
       <c r="M72" s="287"/>
@@ -11846,11 +11865,11 @@
         <v>43333</v>
       </c>
       <c r="H73" s="133" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I73" s="116"/>
       <c r="J73" s="117">
-        <v>191</v>
+        <v>440</v>
       </c>
       <c r="K73" s="118"/>
       <c r="M73" s="287"/>
@@ -11940,15 +11959,15 @@
       <c r="D74" s="72"/>
       <c r="E74" s="72"/>
       <c r="G74" s="85">
-        <v>43334</v>
+        <v>43333</v>
       </c>
       <c r="H74" s="133" t="s">
-        <v>209</v>
-      </c>
-      <c r="I74" s="116">
-        <v>1500</v>
-      </c>
-      <c r="J74" s="117"/>
+        <v>441</v>
+      </c>
+      <c r="I74" s="116"/>
+      <c r="J74" s="117">
+        <v>191</v>
+      </c>
       <c r="K74" s="118"/>
       <c r="M74" s="287"/>
       <c r="N74" s="287"/>
@@ -12032,12 +12051,12 @@
         <v>43334</v>
       </c>
       <c r="H75" s="133" t="s">
-        <v>452</v>
-      </c>
-      <c r="I75" s="116"/>
-      <c r="J75" s="117">
-        <v>136</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="I75" s="116">
+        <v>1500</v>
+      </c>
+      <c r="J75" s="117"/>
       <c r="K75" s="118"/>
       <c r="M75" s="287"/>
       <c r="N75" s="287"/>
@@ -12120,14 +12139,14 @@
       <c r="D76" s="72"/>
       <c r="E76" s="72"/>
       <c r="G76" s="85">
-        <v>43336</v>
+        <v>43334</v>
       </c>
       <c r="H76" s="133" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="I76" s="116"/>
       <c r="J76" s="117">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="K76" s="118"/>
       <c r="M76" s="287"/>
@@ -12215,14 +12234,14 @@
       <c r="D77" s="72"/>
       <c r="E77" s="72"/>
       <c r="G77" s="85">
-        <v>43337</v>
+        <v>43336</v>
       </c>
       <c r="H77" s="133" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I77" s="116"/>
       <c r="J77" s="117">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="K77" s="118"/>
       <c r="M77" s="287"/>
@@ -12317,11 +12336,11 @@
         <v>43337</v>
       </c>
       <c r="H78" s="133" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I78" s="116"/>
       <c r="J78" s="117">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="K78" s="118"/>
       <c r="M78" s="287"/>
@@ -12401,14 +12420,14 @@
       <c r="D79" s="72"/>
       <c r="E79" s="72"/>
       <c r="G79" s="85">
-        <v>43340</v>
+        <v>43337</v>
       </c>
       <c r="H79" s="133" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I79" s="116"/>
       <c r="J79" s="117">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="K79" s="118"/>
       <c r="M79" s="287"/>
@@ -12495,21 +12514,21 @@
       </c>
       <c r="BG79" s="381"/>
     </row>
-    <row r="80" spans="3:59" s="248" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:59" s="248" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="72"/>
       <c r="D80" s="72"/>
       <c r="E80" s="72"/>
-      <c r="G80" s="119">
+      <c r="G80" s="85">
         <v>43340</v>
       </c>
-      <c r="H80" s="134" t="s">
-        <v>470</v>
-      </c>
-      <c r="I80" s="79"/>
-      <c r="J80" s="120">
-        <v>213</v>
-      </c>
-      <c r="K80" s="80"/>
+      <c r="H80" s="133" t="s">
+        <v>471</v>
+      </c>
+      <c r="I80" s="116"/>
+      <c r="J80" s="117">
+        <v>150</v>
+      </c>
+      <c r="K80" s="118"/>
       <c r="M80" s="287"/>
       <c r="N80" s="287"/>
       <c r="O80" s="122"/>
@@ -12588,17 +12607,17 @@
       <c r="C81" s="72"/>
       <c r="D81" s="72"/>
       <c r="E81" s="72"/>
-      <c r="G81" s="96">
-        <v>43341</v>
-      </c>
-      <c r="H81" s="130" t="s">
-        <v>194</v>
-      </c>
-      <c r="I81" s="103"/>
-      <c r="J81" s="98"/>
-      <c r="K81" s="99">
-        <v>11052</v>
-      </c>
+      <c r="G81" s="119">
+        <v>43340</v>
+      </c>
+      <c r="H81" s="134" t="s">
+        <v>470</v>
+      </c>
+      <c r="I81" s="79"/>
+      <c r="J81" s="120">
+        <v>213</v>
+      </c>
+      <c r="K81" s="80"/>
       <c r="M81" s="287"/>
       <c r="N81" s="287"/>
       <c r="O81" s="122"/>
@@ -12677,21 +12696,21 @@
       </c>
       <c r="BG81" s="381"/>
     </row>
-    <row r="82" spans="3:64" s="248" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:64" s="248" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C82" s="72"/>
       <c r="D82" s="72"/>
       <c r="E82" s="72"/>
-      <c r="G82" s="81">
+      <c r="G82" s="96">
         <v>43341</v>
       </c>
-      <c r="H82" s="407" t="s">
-        <v>486</v>
-      </c>
-      <c r="I82" s="409">
-        <v>6000</v>
-      </c>
-      <c r="J82" s="114"/>
-      <c r="K82" s="115"/>
+      <c r="H82" s="130" t="s">
+        <v>194</v>
+      </c>
+      <c r="I82" s="103"/>
+      <c r="J82" s="98"/>
+      <c r="K82" s="99">
+        <v>11052</v>
+      </c>
       <c r="M82" s="287"/>
       <c r="N82" s="287"/>
       <c r="O82" s="122"/>
@@ -12780,17 +12799,17 @@
       <c r="C83" s="72"/>
       <c r="D83" s="72"/>
       <c r="E83" s="72"/>
-      <c r="G83" s="85">
+      <c r="G83" s="81">
         <v>43341</v>
       </c>
-      <c r="H83" s="44" t="s">
-        <v>488</v>
-      </c>
-      <c r="I83" s="410"/>
-      <c r="J83" s="117">
-        <v>111.56</v>
-      </c>
-      <c r="K83" s="118"/>
+      <c r="H83" s="407" t="s">
+        <v>486</v>
+      </c>
+      <c r="I83" s="409">
+        <v>6000</v>
+      </c>
+      <c r="J83" s="114"/>
+      <c r="K83" s="115"/>
       <c r="M83" s="287"/>
       <c r="N83" s="287"/>
       <c r="O83" s="122"/>
@@ -12875,21 +12894,21 @@
       </c>
       <c r="BG83" s="381"/>
     </row>
-    <row r="84" spans="3:64" s="248" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:64" s="248" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="72"/>
       <c r="D84" s="72"/>
       <c r="E84" s="72"/>
-      <c r="G84" s="119">
+      <c r="G84" s="85">
         <v>43341</v>
       </c>
-      <c r="H84" s="408" t="s">
-        <v>487</v>
-      </c>
-      <c r="I84" s="411"/>
-      <c r="J84" s="120">
-        <v>10</v>
-      </c>
-      <c r="K84" s="80"/>
+      <c r="H84" s="44" t="s">
+        <v>488</v>
+      </c>
+      <c r="I84" s="410"/>
+      <c r="J84" s="117">
+        <v>111.56</v>
+      </c>
+      <c r="K84" s="118"/>
       <c r="M84" s="287"/>
       <c r="N84" s="287"/>
       <c r="O84" s="122"/>
@@ -12970,15 +12989,21 @@
       </c>
       <c r="BG84" s="381"/>
     </row>
-    <row r="85" spans="3:64" s="248" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:64" s="248" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C85" s="72"/>
       <c r="D85" s="72"/>
       <c r="E85" s="72"/>
-      <c r="G85" s="72"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="70"/>
-      <c r="J85" s="71"/>
-      <c r="K85" s="121"/>
+      <c r="G85" s="119">
+        <v>43341</v>
+      </c>
+      <c r="H85" s="408" t="s">
+        <v>487</v>
+      </c>
+      <c r="I85" s="411"/>
+      <c r="J85" s="120">
+        <v>10</v>
+      </c>
+      <c r="K85" s="80"/>
       <c r="M85" s="287"/>
       <c r="N85" s="287"/>
       <c r="O85" s="122"/>
@@ -18359,11 +18384,11 @@
       <c r="D153" s="122"/>
       <c r="E153" s="122"/>
       <c r="F153" s="287"/>
-      <c r="G153" s="122"/>
-      <c r="H153" s="67"/>
-      <c r="I153" s="123"/>
-      <c r="J153" s="124"/>
-      <c r="K153" s="125"/>
+      <c r="G153" s="72"/>
+      <c r="H153" s="66"/>
+      <c r="I153" s="70"/>
+      <c r="J153" s="71"/>
+      <c r="K153" s="121"/>
       <c r="L153" s="287"/>
       <c r="M153" s="251"/>
       <c r="N153" s="251"/>
@@ -18811,11 +18836,11 @@
       <c r="C163" s="126"/>
       <c r="D163" s="126"/>
       <c r="E163" s="126"/>
-      <c r="G163" s="126"/>
-      <c r="H163" s="68"/>
+      <c r="G163" s="122"/>
+      <c r="H163" s="67"/>
       <c r="I163" s="123"/>
       <c r="J163" s="124"/>
-      <c r="K163" s="126"/>
+      <c r="K163" s="125"/>
       <c r="O163" s="126"/>
       <c r="P163" s="126"/>
       <c r="Q163" s="126"/>
@@ -28721,11 +28746,11 @@
       <c r="C402" s="72"/>
       <c r="D402" s="72"/>
       <c r="E402" s="72"/>
-      <c r="G402" s="72"/>
-      <c r="H402" s="66"/>
-      <c r="I402" s="70"/>
-      <c r="J402" s="71"/>
-      <c r="K402" s="72"/>
+      <c r="G402" s="126"/>
+      <c r="H402" s="68"/>
+      <c r="I402" s="123"/>
+      <c r="J402" s="124"/>
+      <c r="K402" s="126"/>
       <c r="O402" s="72"/>
       <c r="P402" s="72"/>
       <c r="Q402" s="72"/>
